--- a/news_data/2015_06.xlsx
+++ b/news_data/2015_06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="201">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,31 +22,298 @@
     <t>naver_news_articles</t>
   </si>
   <si>
-    <t xml:space="preserve"> 제주도 메르스 여파 6월 관광객↓… 관광객 6백만 명 돌파했지만 '걱정' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 수요미식회 제주도, 관광 명소가 돼버린 3대 맛집은 어디? 현지인들에게 더 유명한 곳도 있어?! </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관광객 증가로 제주도 숙박시설 8월까지 풀예약, 수익형 풀빌라 ‘라메종’ 화제 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 10명 메르스 모니터링…관광객 2명 계속 격리 중 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 수요미식회 제주도, ‘관광객NO 현지인 추천’맛집 보니.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도, 러시아 관광객 유치 여름 특화상품 개발 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 메르스 종식 시점 "6월 내로는 어렵다"...제주도 관광객 "다 퍼뜨리겠다"..관광객 20% 수준으로 급감 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 관광산업도 메르스 '직격탄'…관광객 예약 취소 잇따라 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 메르스 관광객 검사중 난동 “다 퍼뜨리겠다” 막무가내 귀가 </t>
+    <t>제주도서 아열대성 맹독문어에 물린 관광객 손가락 마비증세</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, '필리핀 TME 박람회'서 청정제주 홍보</t>
+  </si>
+  <si>
+    <t>맹독문어, 제주도 관광객 손가락 마비 '극심한 고통까지...'</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '메르스 대응 원스톱 상담창구' 운영</t>
+  </si>
+  <si>
+    <t>이효리 제주도 집 매물로…“관광 스트레스”</t>
+  </si>
+  <si>
+    <t>朴대통령 “제주도, 세계 최고 스마트 관광섬 만들자”</t>
+  </si>
+  <si>
+    <t>[까칠한 여행 TALK] 지금 예약하면 제주도 대표 관광지가 공짜</t>
+  </si>
+  <si>
+    <t>제주도 지속적인 관광객, 브랜드호텔 최초 파격적인 조건! ‘골든튤립 제주노...</t>
+  </si>
+  <si>
+    <t>다음카카오, 제주도 문화·관광·예술의 스마트 허브로 육성</t>
+  </si>
+  <si>
+    <t>제주도 우수관광사업체 41곳 지정</t>
+  </si>
+  <si>
+    <t>지금 여행 예약하면 제주도 대표 관광지가 '무료'</t>
+  </si>
+  <si>
+    <t>경주 유적지, 변산 국립공원, 제주도 해안등 관광명소에 위치한, 대명리조트 ...</t>
+  </si>
+  <si>
+    <t>제주도 관광기념품 공모전 작품 8월7일까지 접수</t>
+  </si>
+  <si>
+    <t>지금 예약하면 제주도 대표 관광지 무료로 즐긴다</t>
+  </si>
+  <si>
+    <t>제주도관광협회장배 친선골프대회 개최</t>
+  </si>
+  <si>
+    <t>메르스 확진자, 3일동안 제주도에 관광차 머물러…당국 비상</t>
+  </si>
+  <si>
+    <t>제주도 관광객 메르스 확진, 방문한 호텔·식당 공개</t>
+  </si>
+  <si>
+    <t>제주 관광객 메르스 확진…이젠 제주도 까지 확산되나</t>
+  </si>
+  <si>
+    <t>제주도 관광객 메르스 확진, 대한항공 승무원+직원 격리</t>
+  </si>
+  <si>
+    <t>참좋은여행, 제주도 관광지 입장권 무료 증정</t>
+  </si>
+  <si>
+    <t>제주 관광객 메르스 확진, 이제는 제주도까지…‘충격’</t>
+  </si>
+  <si>
+    <t>제주도, 메르스 확진자 3박 4일간 관광 ‘85명 자가격리’</t>
+  </si>
+  <si>
+    <t>제주도 관광객, 메르스 확진..141번 환자 신라호텔등 이용</t>
+  </si>
+  <si>
+    <t>제주도 메르스 발열 증상 호소한 관광객-도민 등 5명 ‘음성 판정’</t>
+  </si>
+  <si>
+    <t>&lt; SNS여론&gt; '청정' 제주도 비상 걸게한 '메르스 관광객' 논란</t>
+  </si>
+  <si>
+    <t>제주도가 추천하는 관광사업체 41곳은?</t>
+  </si>
+  <si>
+    <t>제주도 메르스 관광객, 검사때 ‘내가 메르스면 다 퍼뜨릴것’…소란</t>
+  </si>
+  <si>
+    <t>제주도 메르스 확진 관광객, “여행당시 감염원 역할 가능성 적다”...왜?</t>
+  </si>
+  <si>
+    <t>신라호텔, 제주도 관광 메르스 환자 발생에 방역소독 실시</t>
+  </si>
+  <si>
+    <t>이효리, 제주도 관광객들에게 자제 요청 "관광 코스 아니다"</t>
+  </si>
+  <si>
+    <t>제주 관광객 메르스 확진, 여행 후 발열…제주도 메르스 영향은?</t>
+  </si>
+  <si>
+    <t>제주도 학생 270명과 교사 14명 자가격리 중, 메르스 환자 관광여파</t>
+  </si>
+  <si>
+    <t>제주도 메르스, 서귀포시 일대에서 관광..."제주신라호텔 영업 중단"</t>
+  </si>
+  <si>
+    <t>40대 제주도 관광객 메르스 확진…신라호텔 영업 잠정 중단, 비행기 승객 명단...</t>
+  </si>
+  <si>
+    <t>제주도 이효리 집, 얼마나 많은 관광객이 찾아가기에…</t>
+  </si>
+  <si>
+    <t>제주도 메르스로 관광객 1/5 감소..도지사 “청정지역으로 지킬 것”</t>
+  </si>
+  <si>
+    <t>제주도 메르스 관광객, 뒤늦게 기침 사실 알려 '논란'</t>
+  </si>
+  <si>
+    <t>제주도, 일본군 전쟁유적 정비… 교육·관광 등에 적극 활용한다</t>
+  </si>
+  <si>
+    <t>제주도 관광객 메르스 확진, 대구에선 무슨 일이? 이렇게까지…</t>
+  </si>
+  <si>
+    <t>‘발열 증상’ 제주도 관광객 등 5명 메르스 검사 ‘음성’</t>
+  </si>
+  <si>
+    <t>제주도 메르스 환자 발생, 원희룡 “외국인 관광객 1/5로 급감”</t>
+  </si>
+  <si>
+    <t>특급 호텔·관광지 ‘발칵’…제주도 곳곳 ‘비상’</t>
+  </si>
+  <si>
+    <t>제주도 호텔·관광지 '발칵'…메르스 전파 가능성은?</t>
+  </si>
+  <si>
+    <t>메르스 확진 제주도 관광객 묵은 '제주 신라호텔' 영업 잠정중단</t>
+  </si>
+  <si>
+    <t>‘메르스 확진 前 제주도 여행’ 관광객, 나흘 간 동선 자세히 살펴 보니?</t>
+  </si>
+  <si>
+    <t>제주도, 메르스 환자 체류 파장…관광시장 '급랭'</t>
+  </si>
+  <si>
+    <t>제주도 관광객 메르스 확진...'불안감'↑, 상담전화 폭주</t>
+  </si>
+  <si>
+    <t>제주도 관광객, 메르스 확진…‘제주도 다녀온 뒤 확진 판정’</t>
+  </si>
+  <si>
+    <t>제주도 메르스, 40대 관광객 서울에서 확진 판정 ‘ 3박 4일 여행 일정은?’</t>
+  </si>
+  <si>
+    <t>제주도 다녀간 40대 관광객 메르스 확진…현장조사</t>
+  </si>
+  <si>
+    <t>제주도 메르스 환자 이동경로, '신라호텔'에서 머무르며 관광</t>
+  </si>
+  <si>
+    <t>제주도, 제2회 추경안 확정…관광·경제분야 초점</t>
+  </si>
+  <si>
+    <t>메르스 제주, 감염 확진자 제주도 관광 동선 공개 '엄청난 이동 경로'</t>
+  </si>
+  <si>
+    <t>42세男 확진前 3박4일 제주도 관광…여행 동선 역학조사</t>
+  </si>
+  <si>
+    <t>제주 관광객 메르스 확진, 청정구역 제주도 마저 '긴장'</t>
+  </si>
+  <si>
+    <t>[메르스] 40대 남성, 감염 후 제주도 관광</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 메르스 진정대비 영남권 유치간담회 개최</t>
+  </si>
+  <si>
+    <t>제주관광공사, '제주도 방문관광객 실태조사' 결과 발간</t>
+  </si>
+  <si>
+    <t>'수요미식회' 제주도 1탄…관광객 사로잡은 맛집 5곳은?</t>
+  </si>
+  <si>
+    <t>‘메르스 확진’40대 男, 3박 4일 제주도 관광</t>
+  </si>
+  <si>
+    <t>제주도 관광객 메르스 확진환자 판정 여행기간 5~8일 숙박 제주신라호텔</t>
+  </si>
+  <si>
+    <t>제주도, 메르스에 관광산업 비상..."외국인 관광객 절반수준"</t>
+  </si>
+  <si>
+    <t>제주도 메르스 관광객, 확진 판정…'정확한 동선 파악 어려워'</t>
+  </si>
+  <si>
+    <t>제주도, 관광업계와 메르스 대응 간담회 개최</t>
+  </si>
+  <si>
+    <t>메르스 발생, 제주도 확진 관광객 일행은 모두 음성..'파장 없나'</t>
+  </si>
+  <si>
+    <t>신라호텔, 메르스 제주도 관광객 방문에 '비상' … '긴급 방역 실시'</t>
+  </si>
+  <si>
+    <t>제주 관광객 메르스 확진, 의심 상태로 3박4일 관광…'청정지역' 제주도 비상</t>
+  </si>
+  <si>
+    <t>관광객에 ‘청정’ 제주도 뚫리나</t>
+  </si>
+  <si>
+    <t>제주도 관광사업 환경영향평가대상 규모확대</t>
+  </si>
+  <si>
+    <t>제주도 메르스 관광객 발생…“환자가 다녔던 동선과 밀접접촉자들을 파악하는...</t>
+  </si>
+  <si>
+    <t>제주도 관광객 서울서 메르스 확진…의료진 “위급상황엔 방호복도 못 입어”...</t>
+  </si>
+  <si>
+    <t>제주도 관광 141번 환자, 검사 도중 난동 "내가 메르스면 다 퍼트리고 다니겠...</t>
+  </si>
+  <si>
+    <t>제주도 문화관광해설사 신규양성 50명 모집</t>
+  </si>
+  <si>
+    <t>제주도 관광객 42세男 서울서 메르스 확진…관광객-면세점 직원 등 5명 메르스...</t>
+  </si>
+  <si>
+    <t>5~8일까지 제주 관광한 42세男 메르스 확진… 18일 제주도 역학조사</t>
+  </si>
+  <si>
+    <t>제주 메르스 관광객, 감염 후 제주도行…'격리 대상서 제외된 이유보니?'</t>
+  </si>
+  <si>
+    <t>제주도, 제30회 한국국제관광전 '최우수 마케팅상' 수상</t>
+  </si>
+  <si>
+    <t>수요미식회 제주도, 3大 맛집 공개…관광객보다 현지인이 많이 찾는다</t>
+  </si>
+  <si>
+    <t>관광객 몸살·이주민 갈등…제주도 ‘아, 옛날이여’ EBS ‘하나뿐인 지구’</t>
+  </si>
+  <si>
+    <t>메르스 양성자 접촉의심 관광객 2명 제주도서 병원격리</t>
+  </si>
+  <si>
+    <t>메르스 부부사망-제주 메르스 관광객 확진, “다 퍼뜨리겠다” 작정하고 제주...</t>
+  </si>
+  <si>
+    <t>제주도 관광객 서울서 메르스 확진…완치자 “이제 내가 죽는구나 싶었다” 인...</t>
+  </si>
+  <si>
+    <t>[채널] 이주 러시와 관광 개발로 몸살 앓는 제주도</t>
+  </si>
+  <si>
+    <t>‘수요미식회’ 제주도 특집, 관광객 사로잡은 다양한 먹거리 소개</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 메르스 사태 따른 관광객 감소 현장 조사</t>
+  </si>
+  <si>
+    <t>제주도 메르스 관광객 숙박 신라호텔 비상…안 간데가 어디야?</t>
+  </si>
+  <si>
+    <t>[메르스 사태] 제주도 “감염자 없다” 결론…관광업계 ‘안도’</t>
+  </si>
+  <si>
+    <t>제주도 메르스 여파 6월 관광객↓… 관광객 6백만 명 돌파했지만 '걱정'</t>
+  </si>
+  <si>
+    <t>제주도도 뚫리나? 메르스 141번째 환자, 확진 전 제주 관광</t>
+  </si>
+  <si>
+    <t>수요미식회 제주도, 관광 명소가 돼버린 3대 맛집은 어디? 현지인들에게 더 유...</t>
+  </si>
+  <si>
+    <t>관광객 증가로 제주도 숙박시설 8월까지 풀예약, 수익형 풀빌라 ‘라메종’ 화...</t>
+  </si>
+  <si>
+    <t>제주도 10명 메르스 모니터링…관광객 2명 계속 격리 중</t>
+  </si>
+  <si>
+    <t>수요미식회 제주도, ‘관광객NO 현지인 추천’맛집 보니..</t>
+  </si>
+  <si>
+    <t>제주도, 러시아 관광객 유치 여름 특화상품 개발</t>
+  </si>
+  <si>
+    <t>메르스 종식 시점 "6월 내로는 어렵다"...제주도 관광객 "다 퍼뜨리겠다"..관...</t>
+  </si>
+  <si>
+    <t>제주도 관광산업도 메르스 '직격탄'…관광객 예약 취소 잇따라</t>
+  </si>
+  <si>
+    <t>제주도 메르스 관광객 검사중 난동 “다 퍼뜨리겠다” 막무가내 귀가</t>
+  </si>
+  <si>
+    <t>제주도 관광업계 ‘메르스 불똥’</t>
   </si>
   <si>
     <t xml:space="preserve"> 제주도 관광업계 ‘메르스 불똥’ </t>
@@ -64,46 +331,292 @@
     <t xml:space="preserve"> 제주도관광협회, 태국여행업협회와 우호교류 협약 체결 </t>
   </si>
   <si>
-    <t>제주도 메르스 여파 6월 관광객↓… 관광객 6백만 명 돌파했지만 '걱정' 본문 바로가기 이전 페이지 서울경제 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 서울경제 주요뉴스를 볼 수 있습니다. 보러가기 서울경제 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 제주도 메르스 여파 6월 관광객↓… 관광객 6백만 명 돌파했지만 '걱정' 입력2015.06.18. 오후 4:41 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주도 메르스 . 사진=자료사진 제주도 메르스 여파 6월 관광객↓… 관광객 6백만 명 돌파했지만 '걱정'중동호흡기증후군(MERSㆍ메르스)여파에도 불구하고 제주도 입도 관광객이 600만명을 돌파했다.17일 제주특별자치도관광협회(회장 김영진)에 따르면 올들어 제주 입도객수는 17일까지 잠정 600만9630명으로 집계돼 지난해보다 23일 앞서 600만명을 돌파했다.최근 3년간 600만명 돌파일은 지난 2013년 7월29일, 2014년 7월10일, 올해 6월17일로 점점 앞당겨 달성하고 있다.반면 지난 1일부터 현재까지 외국인 관광객은 12만3천441명으로 지난해 같은 기간(16만3천39명)과 비교해 24.3％ 줄었다.도관광협회 관계자에 따르면 국내 항공 좌석 증가로 개별 관광객 및 수학여행단이 호조를 보이며 600만명을 조기 달성했지만, 6월들어 메르스 영향으로 외국인 관광객이 감소되고 있다고 밝혔다.한편, 메르스 확진 판정을 받은 40대 남성이 제주도를 여행한 것으로 알려져 적잖은 충격을 주고 있다. 18일 제주도 메르스 관리대책본부는 "141번 환자가 지난 5일 오후 부인과 아들, 다른 가족 등 8명과 함께 항공편으로 제주공항에 도착했다"고 밝혔다.중앙대책본부에 따르면 141번 환자는 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 14번 환자와 접촉한 것으로 추정했다. 141번 환자는 제주도 광광 당시에는 별다른 증상이 없다가 서울로 돌아간 뒤 발열 등 증상을 나타냈다. 제주도 메르스 대책본부는 중앙대책본부로부터 이같은 사실을 통보받고 141번 환자가 머물렀던 제주여행 주요동선의 역학조사를 벌이고 있다고 밝혔다. 이날 질병관리대책본부도 제주도를 방문해 역학조사에 참여 중이다. 한국아이닷컴 이슈팀 reporter@hankooki.com[ⓒ 한국미디어네트워크, 무단 전재 및 재배포 금지] 한국아이닷컴 이슈팀 Copyright ⓒ 서울경제. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 토마토 몸에 좋은건 알았지만… 이럴수가! 엄청난 파장 몰고 올 새로운 은행 나온다 이건희 덕분에 1조9000억 '초대박' 국회의원에 이런 욕설 내뱉으면… 아뿔싸 삼성 얼마나 충격 받았길래 이런 일까지… 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 서울경제 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 서울경제 헤드라인 [속보]이재명 "尹정부, 독재정권처럼 공포정치…정치탄압 노골화" 이재명 더불어민주당 대표가 4일 문재인 전 대통령을 향한 감사원의 조사와 관련해 “국민을 지키라는 총칼로 경쟁자를 짓밟았던 독재정권처럼 정의를 지키라는 사정권력으로 공포정치에 나선 것”이라고 비판했다. 이 대표는 4 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" '서해 공무원 피격 사건' 관련, 감사원의 서면 조사 요구에 대해 문재인 전 대통령이 "대단히 무례한 짓"이라고 불쾌감을 드러낸 것을 두고 권성동 국민의힘 의원이 "목함지뢰로 다리가 잘린 군인에게 '짜장면 먹고 싶냐 벤츠·페라리 타며 국민임대 거주…1년간 임대료도 안냈다 서민의 주거복지 일환으로 마련된 공공임대주택에 고가의 외제차 등 입주 기준가액을 넘는 고가 차량을 보유한 사례가 상당수 발견됐다. 4일 장철민 더불어민주당 의원이 한국토지주택공사(LH)와 주택관리공단에게 제출받은 ‘ "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림을 전시했다. 3일 한국만화영상진흥원에 따르면 이날 폐막한 제23회 부천국제만화축제 전시장에 '윤 허리케인 생방중 사라진 카메라맨…그가 달려간 곳은 초강력 허리케인 '이안'이 미국을 강타하면서 플로리다에서만 100여명에 가까운 사망자가 발생하는 등 막대한 피해가 발생한 가운데 생방송으로 허리케인 상황을 전하던 방송사 카메라맨이 카메라를 내려놓고 이재민을 돕는 모 이전 뉴스들 보기 3 다음 뉴스들 보기 서울경제가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 서울경제 헤드라인 더보기 [속보]이재명 "尹정부, 독재정권처럼 공포정치…정치탄압 노골화" 11분전 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" 59분전 벤츠·페라리 타며 국민임대 거주…1년간 임대료도 안냈다 47분전 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 21시간전 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 4시간전 허리케인 생방중 사라진 카메라맨…그가 달려간 곳은 39분전 서울경제 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 4시간전 2 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 21시간전 3 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 12시간전 4 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" 59분전 5 [속보] 尹 “北, 4000km 중장거리 미사일 발사…무모한 핵도발” 1시간전 1 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 4시간전 2 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 21시간전 3 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" 59분전 4 DJ 고향에 '윤석열 대교' 생기나…총 2800억·예타면제 추진 3시간전 5 [속보] 尹 “北, 4000km 중장거리 미사일 발사…무모한 핵도발” 1시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 조종석엔 김건희·칼 든 검사…만화축제 금상 ‘윤석열차’ 논란 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 전시됐다. 4일 한국만화영상진흥원에 따르면 전날 폐막한 제23회 부천국제만화축제 전시장에 ‘윤 BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 킴 카다시안, ‘SNS 1건’ 때문에…벌금만 18억원 냈다 ‘이더리움맥스’ 홍보 대가 미고지 美SEC 합의금 18억원 미국의 모델 겸 패션사업가인 킴 카다시안이 자신의 소셜네트워크서비스(SNS)에서 특정 가상화폐를 불법 광고했다. 이에 카다시안은 126만 달러(약 18억19 JP모간 "증시 바닥 근접...지금 사야할 2개 종목" JP모간의 최고 분석가이자 대표적인 황소론자로 통하는 마르코 콜라노비치는 주식시장이 바닥에 근접했다면서 반등을 전망했다. 콜라노비치는 2일(현지시간) 투자노트를 내고 “미국 연방준비제도(Fed·연준)의 매파적 입장이 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 한동안 대여 공세 발언을 자제하던 이재명 더불어민주당 대표가 최근 윤석열 대통령을 향해 거친 언사를 쏟아내고 있다. 이 대표는 감사원이 ‘서해 공무원 피살 사건’과 관련해 문재인 전 대통령을 조사하자 윤석열 정부에 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 휴대전화를 충전하던 중 보조 배터리가 갑자기 폭발해 소비자가 심한 화상을 입었지만, 배터리 제조업체의 사후 대처에 논란이 일고 있다. 연합뉴스 보도에 따르면 최근 경기도 이천시에 거주 중인 30대 A씨와 아내는 최근 이언주, 삭발사진 올리며 쓴소리 “‘공정과 상식’ 외치며 文정권 비판해 왔지만…” 이언주 전 의원, 현재 정부여당의 논란 및 갈등 상황 나열하며 비판 수위 끌어올려 “수사 등 사법적 정의를 실현하는 과정이나 잣대가 권력 유무에 따라 달라져” “주권자인 국민, 선거만 끝나면 수임자에게 주권 빼앗기고 재생하기 재생시간01:46 [단독] "상품권 싸게 팔아요"…인터넷서 20억대 신종 사기 요즘 인터넷 개인 판매업자에게 할인된 상품권 구매하시는 분들 계실텐데, 주의하셔야겠습니다. 상품권 가액보다 더 많은 현금으로 돌려준다고 하면서 20억 원 대의 돈을 가로챈 신종 사기범이 붙잡혔습니다. 윤정주 기자가 퇴임 뒤에도 '내로남불'?…박근혜 털었던 문재인, 자신 향한 서면조사엔 "무례한 짓" 감사원이 '서해 공무원 피살 사건'과 관련해 문재인 전 대통령을 서면조사하려 한 것으로 알려졌다. 문 전 대통령은 질의서 수령을 거부함과 동시에 불쾌감을 피력했으며, 더불어민주당도 "정치보복"이라며 일제히 반발하고 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 인플레법 우려 현실됐다…현대차그룹 美 전기차 판매 크게 감소(종합) 9월 전기차 판매대수 전월대비 현대차 14%, 기아 22% 각각 줄어 9월 전체 車판매는 전년 동월 대비 현대차 11%, 기아 6%씩 증가 김태종 특파원 = 한국산 전기차에 대한 보조금 지급 차별 논란으로 우려를 낳 전주환의 '두 얼굴'…신상공개 21명 중 18명이 신분증 사진 기사내용 요약 피의자 '머그샷' 거부하면 신분증 증명사진 공개 2019년부터 신상공개 21명…18명이 신분증 사진 공개된 신분증 사진, 언제 찍었는지 알지도 못해 피의자 신분증 사진과 현재 모습 너무 달라 논란 이성 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 홍준표, 4년 전 이준석 "'나는 왜 정치하나' 아침마다 5번 복창" 발언 두고 "조롱" 홍준표 대구시장이 최근 페이스북 글에서 타깃으로 정해 연일 비판을 가하고 있는 '개혁보수'에 대한 지적을 3일 저녁에도 이어나갔다. 전날인 2일 페이스북을 통해 "박근혜 전 대통령을 민주당과 합작해 끌어내린" "내부 재생하기 재생시간01:37 중부 이어 남부 전선 돌파..."러시아 방어 능력 곧 상실" 우크라이나군이 중부에 이어 남부 지역의 요충지 여러 곳을 탈환했습니다. 러시아는 점령지 강제 병합에 성공했지만, 우크라이나군의 전방위 압박에 마주치게 됐습니다. 류재복 기자의 보도입니다. [기자] 우크라이나 국기를 “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 하늘로 떠난 비운의 여성 빨치산 비전향 장기수 박정덕 선생이 2일 오후 세상을 떠났다. 향년 92세. 선생은 경기도 파주의 한 요양원에서 지내고 있었다. 선생의 고향은 전남 곡성군 죽곡면 당동리다. 1남 3녀 중 막내로 태어났다. 집안 살림은 넉넉 '월급 600만원' 싱글 직장인, 알고보니 '돈' 이렇게 벌었다 대기업에서 소프트웨어 개발 업무를 하는 35세 김모씨는 서울 사당동 85㎡ 아파트에서 혼자 살고 있다. 월급이 600만원을 웃돌지만 절반에 가까운 300만원은 적금과 펀드 등에 넣는다. 주말엔 자전거로 배달라이더 일 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 윤 대통령 “北 무모한 도발…결연한 대응에 직면하게 될 것” 윤석열 대통령이 북한의 중거리 탄도 미사일 발사에 “이런 무모한 핵 도발은 우리 군을 비롯한 동맹국과 국제사회의 결연한 대응에 직면할 것”이라고 경고했습니다. 윤 대통령은 오늘(4일) 용산 대통령실 출근길 문답에서 재생하기 재생시간01:14 김건희와 칼 든 검사 싣고…학생 공모전 금상 '윤석열차' 최근 한 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 화제가 되고 있다는 기사도 많이 봤습니다. 한국만화영상진흥원에 따르면 어제(3일) 폐막한 제23회 부천국제만화축제 전시장에 '윤석열차'라는 제목의 만화가 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 안심전환대출, 4억이하 1주택자로 확대… 버팀목대출, 신혼부부는 최대 3억까지 6일부터 변동금리 주택담보대출(주담대)을 최저 연 3.7%의 장기·고정금리 상품으로 바꿔주는 ‘우대형 안심전환대출’ 신청 대상이 주택 가격 4억 원 이하까지로 확대된다. 또 21일부터는 서민에게 낮은 금리로 주택 구 부기 빼려 ‘이것’하단… 콩팥 망가진다 수시로 몸이 붓는 사람들이 있다. 부었다가 가라앉으면 괜찮은데, 부종이 심해지며 통증이 생길 때도 있다. 겉보기에 살찐 것 같아 거슬리기도 한다. 체액이 쌓여 몸이 부었으니, 소변을 자주 보면 부기가 빠질 거로 생각 “담배 연기 가볍게 봤다가, 암보다 더 최악” ‘이것’ 먹으면 피해 막는다? “호흡기 손상으로 전세계 10초에 한명씩 사망, 예방책 있나?” 장(腸) 건강에 도움을 주는 것으로만 알려져있던 프로바이틱스 유산균이 담배 연기로 인해 유발되는 심각한 호흡기 손상(만성폐쇄성질환)을 예방할 수 있다는 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 건설 단계 민자도로, 국토부 출신 대표를 선호하는 이유 딜북뉴스 유료 [인사이트] 테라-루나 조사, 韓 ICT 기업 전방위로 확대 유목민의 시그널리포트 지옥 같은 시장에서 살아남은 통신업 📱 너겟 유료 &lt;9.28.수&gt; 오늘의 주요 증시 일정 리치언니 투자노트 미국 버추얼트립 - 앨라배마 민플릭스 유료 러 핵전쟁 우려💣 미국인 대피 금지령 떨어졌다🙀 주식사주는누나 유료 인버스 투기 수익 확정. 기록 남김. 버핏2배랩 '어제보다 나은 오늘' 만들기 프로젝트 습관부자의 부자 되는 습관 '피'와 땀으로 너희를 키웠다. 단호박 소설 유료 사흘만에 또 2발... 북한의 속셈은? 업클 유료 86번가 데일리 (2022년 10월 3일) - 영국의 부자 감세 철회 + ISM 제조업 PMI 부진 =&gt; 금리 하락, 주식 상승 86번가 유료 (서울 모아타운 가능성 분석) 서울 강남구 일원동 662-1 일대 젤리 부동산 연구소 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 서울경제 예 아니오</t>
+    <t xml:space="preserve"> [뉴스파일] 제주도, 오라관광지 개발 승인 취소 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 국제관광지 제주도, 메르스로부터 안전한가 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 몰리는 1,000만 관광객, 용인 숙박객실 수 제주도의 4.7% 수준, 월 77만원 확정 지급, 코업 오피스텔 726실 6월 전격 분양돌입 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 메르스 환자, 의심증상 상태서 테마파크 관광 ‘발칵’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 메르스 환자 때문에 관광 불안 ‘증폭’…166명 자가격리 중 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 메르스, 관광 발목 잡나?...'눈길' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이효리, 제주도서 스트레스 호소 “저희 집은 관광 코스가 아닙니다” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 메르스, 확진환자 지난 5일부터 8일까지 관광 "서귀포 중문, 남원읍 등 돌아다녀" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [포토] 제주도 관광에도 '마스크는 필수' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [메르스] 제주도 관광 산업 강타… 관광 포기 급증 </t>
+  </si>
+  <si>
+    <t>제주도서 아열대성 맹독문어에 물린 관광객 손가락 마비증세 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도서 아열대성 맹독문어에 물린 관광객 손가락 마비증세 입력 : 2015-06-29 13:54:28 수정 : 2015-06-29 13:54:28 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 지난 10일 제주 연안에서 맹독성 문어에게 물린 김씨의 왼손 중지가 퉁퉁 부어 있다. 국립수산과학원 제공 국내에서 처음으로 아열대성 맹독문어인 ‘파란고리문어류’에 피해를 당한 사례가 발생했다. 국립수산과학원 아열대수산연구센터는 지난 10일 제주 북서부의 협재해수욕장 인근 갯바위에서 고둥, 게류 등을 채집하던 관광객이 맹독문어에 물려 신고한 사례가 있다고 29일 밝혔다. 제주관광을 나선 김모씨(38·경기도 평택시)는 가족과 함께 갯바위 체험행사에서 5cm 정도 크기의 작은 문어를 왼손바닥에 올려 아이들과 함께 구경하던 중 가운데 손가락을 물렸다. 김씨에 따르면 문어에 물린 후 피가 조금 났고 벌에 쏘인 듯 욱신거리고 손가락 마비 증상을 느껴 즉시 119에 신고해 응급처치를 받았지만 계속해서 손뼈가 시릴 정도의 극심한 고통과 어지러움 증상이 동반됐다. 김씨는 사고 이후 열흘째인 19일에도 통증이 계속돼 아열대수산연구센터의 고준철 박사에게 문의한 결과, 맹독문어에 의한 물림사고임을 확인한 뒤 독성전문의에게 치료를 받고 많이 호전됐다. 파란고리문어류는 10cm 내외의 작은 크기지만 복어류에 있는 ‘테트로도톡신’ 이라는 강력한 독을 지닌 맹독문어이다. 이 문어의 맹독 1mg은 사람을 치사시킬 수 있는 양이며, 적은 양의 독에 노출되더라도 신체마비·구토·호흡곤란 등을 유발시킬 수 있다. 특히 몸 표면의 점액과 먹물에도 독성물질을 함유하고 있어 이 문어 발견 즉시 주의해야 한다. 고준철 박사는 “제주바다 여행 시 화려한 형태나 색상을 지닌 문어류, 물고기류 등은 절대 맨손으로 만지면 안 된다”고 말했다. 부산=전상후 기자 sanghu60@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20150629002660 0101081000000 0 2015-06-29 13:54:28 2015-06-29 13:54:28 0 제주도서 아열대성 맹독문어에 물린 관광객 손가락 마비증세 세계일보 전상후 0028f8cc-c883-4815-9315-2c6633fff652 sanghu60@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>맹독문어, 제주도 관광객 손가락 마비 '극심한 고통까지...' - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 연예 포토 공연전시 생활문화 날씨 맹독문어, 제주도 관광객 손가락 마비 '극심한 고통까지...' 발행일 : 2015-06-30 13:58 &lt;맹독문어 사진=국립수산과학원 제공&gt; 맹독문어 제주도 맹독 `파란고리문어`에 물린 피해자가 처음 발생했다. 지난 10일 제주를 찾은 30대 관광객이 협재해수욕장 근처 갯바위에서 작은 파란고리문어를 만지다 결국 물리는 사고가 발생했다. 관련 기사지창욱, 사람이야 조각이야 비현실적인 근황 셀카 공개 "나 살아있어"자동차세, 기한 내 납부 못하면 '세금 폭탄' 납부 마감일은?10원짜리 임금 식당, 임금체불 진정에 화난 주인 '월급 10원짜리 1만개로 지급'지나, 래쉬가드 입고 '완벽 몸매' 과시..'환상적'주진우, 유병언 영상 공개 후 의미심장.. "과잉 충성스런 보필 방식일 거야" 주진우, 유병언은 죽지 않았다? '유병언 CCTV 단독 공개' 이 관광객은 가운데 손가락이 심하게 부었고, 손가락이 마비되고 손뼈가 시리는 극심한 고통을 겪은 것으로 전해졌다. 파란고리문어는 복어보다 1000배나 강한 독을 가진 아열대성 맹독 문어이며, 절대 맨손으로 만져서는 안 되는 것으로 알려졌다. 한편 맹독문어 제주도 관광객 소식에 누리꾼들은 "맹독문어, 진짜 아프겠다" "맹독문어, 왜 만졌지..." "맹독문어, 아..안타깝다" "맹독문어, 완치 하시길!" 등 반응을 보였다. 김현이 기자 life@etnews.com 핫뉴스 in LIFE 1 송가인, 전국투어 콘서트 매진 행렬... "웃돈 줘도 살 수 없다" 2 단풍놀이는 언제가 절정?…‘2022 단풍 예측 지도’! 3 송가인과 김호중이 뭉쳤다! 新 예능 ‘복덩이들고(GO)’ 기대감 폭발 4 송가인 X 금잔디, 털털함으로 뭉친 트롯 여신들 5 “한복 입은 가인이어라♥”…송가인, ‘치명적 단아美’ [화보] AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>제주도관광협회, ‘메르스 대응 원스톱 상담창구’ 운영 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, ‘메르스 대응 원스톱 상담창구’ 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, ‘메르스 대응 원스톱 상담창구’ 운영 기자명 김영하 기자 입력 2015.06.29 14:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보=김영하 기자] 제주도관광협회가 지난 26일부터 메르스(MERS·중동호흡기증후군) 여파로 어려움을 겪고 있는 도내 관광사업자들의 경영난 완화를 위한 ‘메르스 대응 원스톱 상담창구’를 운영하고 있다.도관광협회 사무본부 회원지원실에 개설, 운영하고 있는 ‘메르스 대응 원스톱 상담창구’는 관광사업자들의 애로사항 청취 및 해결방안 안내 등 컨설팅 지원을 위해 마련한 것이다.운영시간은 주중 오전 8시부터 오후 8시까지, 주말은 오전 9시부터 오후 6시까지다.상담창구에서는 지난 26일부터 제주도가 실시하고 있는 ‘2015 하반기 제주관광진흥기금융자지원’ 접수와 병행해 운영자금에 대한 상담과 접수도 진행하고 있다.특히‘메르스 피해 중소기업 긴급경영안정자금 융자’, ‘소상공인 메르스 특별자금 융자’, ‘메르스 피해 중소기업 특별경영안정지원자금 융자’ 등 중소기업청 및 제주도에서 실시하고 있는 각종 정책자금 융자, 특례보증지원(제주신용보증재단), 고용유지지원금(제주고용센터) 지원 등 다양한 정보들을 안내하고 있다.관광협회는 상담창구 운영으로 어려움에 처한 업계의 자금 지원관련 궁금증 해소는 물론 창구 운영기간 청취된 다양한 의견들을 토대로 향후 관광사업체 경영 활성화를 위한 시책을 발굴, 지원해 나갈 계획이다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>이효리 제주도 집 매물로…“관광 스트레스” - 스타투데이 매경미디어그룹 바로가기 뉴스 증권 부동산 프리미엄 교육 신문PDF 구독신청 더보기 뉴스 인기뉴스오피니언기획·연재스페셜에디션스타투데이스포츠게임진영문뉴스MK ChinaMK JapanMK빌리어드뉴스미라클어헤드MK ESG 프리미엄 매경e신문매경프리미엄레이더M레이더P오늘의 매경뉴스레터들려주는 뉴스 재테크 증권부동산경제용어신설법인 라이프 골프Book여행날씨우버人사이트MK생애설계센터LUXURY MM플레이Car 비즈니스 The Biz Times닛케이텔레콤집꾸미기 큐레이션 건빵한국데이터거래소MK몰 서비스 전체보기 본문 바로가기 스타투데이 &gt; 이효리 제주도 집 매물로…“관광 스트레스” 기사입력 2015.06.26 09:41:26 | 최종수정 2015.06.26 09:59:57 [매일경제 스타투데이 조우영 기자] 가수 이효리(36)가 제주도 애월읍에 있는 집을 매물로 내놓은 것으로 알려졌다. 월간지 '여성중앙' 7월호는 이효리가 그토록 추구하던 여유로운 삶을 누릴 수 없어 집을 내놓기로 결정했다고 보도했다. 다만 그가 제주도를 떠나는 것은 아니다. 해당 보도에 따르면 이효리는 제주도 조천읍 모처에 새 집 장만을 준비 중이다.이효리는 2013년 9월 이상순과 결혼식을 올렸다. 이후 제주도에 신혼집을 짓고 일상을 공개하기도 했으나 일부 관광객과 취재진의 무단 방문에 고충을 호소하기도 했다. 그는 최근 SNS에 "친애하는 제주도 관광객 여러분. 죄송하지만 우리집은 관광 코스가 아니다. 아침부터 밤까지 하루에도 수십 차례 울리는 초인종과 경보음으로 저희 모두 심한 스트레스를 받고 있다. 궁금한 점 많으시더라도 양해 부탁드린다"는 글을 게재한 바 있다. fact@mk.co.kr 신혜성 측 "만취해 본인 차 아닌 줄 몰라"선우은숙, 유영재 아나와 재혼…혼인신고 마쳤다김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”노홍철, 빵집→이탈리아 가정식집 오픈 "조만간 예약 받음"'♥이필모' 서수연 육아 근황…"머리 묶을 틈도 없어"꼴찌 한화 12명 정리..9위 두산도 칼바람 예고[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 인기뉴스 "하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 .. "과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메.. "밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 .. [단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계.. [단독] 文정부 탈원전 후폭풍…핵폐기물 비용 동결에 .. "GTX 개통되면 코레일 연간 1천억원 손실…재무건전성.. 경기침체를 알리는 지표가 시장의 호재가 되는 역설 [.. "은행 예금이 이자 더 주네"…고금리 매력 사라지는 .. "엉덩이 깨물어 멍들게 했다"…동거녀 10대 딸 학대한.. "한번 타보면 또다시 사는 수입차"…계약 즉시 출고, .. 선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[.. 치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [.. 공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] ‘인형 아니야?’...홍진영, 젖은 머리로 뽐낸 섹시美 김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님.. 신혜성 측 “만취해 본인 차 아닌 줄 몰라, 변명 여지.. 김한나 치어리더, 뒤태 美쳤다…콜라병 몸매 자랑 [똑.. ‘28살 맞아?’...수지, 점점 어려지는 동안 미녀 에이핑크 출신 손나은, 매끈한 몸매라인 [똑똑SNS] 꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예.. 치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 .. 유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 ‘5억원 미납’ 신뢰 잃은 캐롯, 지옥의 미디어데이 .. "어떤 방법이라도 찾아준다고…나를 믿어준 kt에 고마.. 고우석, 이종범 감독 사위 된다…이정후 여동생과 내.. 中 “임효준 베이징올림픽 SNS 논란, 한국 오해” 전국당구대회 첫 우승 ‘무명’ 허진우…그는 지독한 .. 스타인터뷰 정일우 “‘굿잡’서 또 만난 권유리, 다음엔 SF 찍자고…” 인기포토 이효리 제주도 집 매물로…“관광 스트레스” 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 서울특별시 중구 퇴계로 190 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved.RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY Luxmen 시티라이프 M-Print</t>
+  </si>
+  <si>
+    <t>朴대통령 “제주도, 세계 최고 스마트 관광섬 만들자”-국민일보 시사 시사 &gt; 전체기사 朴대통령 “제주도, 세계 최고 스마트 관광섬 만들자” 입력 : 2015-06-26 12:24 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 박근혜 대통령은 26일 "제주에 정보통신기술(ICT)를 문화와 관광에 접목하고 전기차와 스마트 그리드를 사업화해서 세계 최고의 '스마트 관광섬'이자 '에너지 자립섬'을 만들고자 제주 창조경제혁신센터가 출범한다"고 말했다. 박 대통령은 이날 제주시 제주 벤처마루에서 열린 제주 창조경제혁신센터 출범식에 참석해 축사를 통해 "제주는 문화와 소프트웨어, 에너지 신산업에서도 엄청난 잠재력을 보유하고 있다"면서 이같이 말했다. 창조경제혁신센터는 창의적 지역 인재, 창업·벤처기업, 대학·연구기관, 지자체 등 지역의 창조경제 역량을 연계해 지역 내 창조경제 생태계를 만들어가는 공간으로 모두 17개가 만들어질 예정이다.박 대통령이 창조경제혁신센터 출범식에 참석한 것은 이번이 13번째다. 박 대통령은 지난해 9월부터 이번 제주 센터까지 빠짐없이 지역 센터 출범식에 참석해왔다. 다음카카오가 지원하는 제주 센터는 ▲ 휴양과 창업이 공존하는 한국의 실리콘 비치 지향 ▲ 스마트 관광 등을 통한 고품질·고부가가치 관광 사업화 지원 ▲ '탄소없는 섬 제주(Carbon Free Island Jeju by 2030)' 구축 지원 등을 주요기능으로 출범했다.박 대통령은 "문화·소프트웨어 분야 문화·소프트웨어 분야 창업가들은 제주와 같이 삶의 질이 높은 거주지를 선호하며 그래서 최근에는 '실리콘 밸리'뿐 아니라 산타모니카와 발리 같은 '실리콘 비치'가 혁신적인 창업지역으로 급부상하고 있다"면서 "제주 창조경제혁신센터는 우수한 거주환경을 기반으로 제주도와 전국, 나아가 동아시아 정보기술(IT)기업 등 문화·소프트웨어 분야 혁신 주체간 연결과 융합을 추진할 것"이라고 말했다.이어 "이를 위해, 문화·소프트웨어 분야 창작, 창업가들에게 체류지원과 네트워킹, 멘토링을 패키지로 지원할 예정"이라면서 "제주창조경제페스티벌도 매년 개최, IT콘퍼런스, 문화공연, 기업설명회가 복합된 축제로 발전시켜 나갈 것"이라고 밝혔다.박 대통령은 또 고품질·고부가가치 관광 사업화 지원과 관련, "제주 혁신센터에서는 관광의 질적 내실화를 위해 스마트 관광기반을 구축하고, 중국 관광객들에게 실시간 관광콘텐츠와 빅데이터 분석을 통한 맞춤형 서비스를 지원할 것"이라고 밝혔다.이어 "녹차, 비자나무를 이용해 사업화에 성공한 아모레퍼시픽도 서귀포에 제2센터를 설치하여 K-뷰티 화장품 개발과 체험형 관광상품 개발을 지원할 예정"이라면서 "국립생태원, 제주관광공사 등과 협업, 관광 창업사관학교를 개설해 관광콘텐츠 개발과 사업화도 지원할 것"이라고 말했다.이밖에 박 대통령은 "제주혁신센터는 제주도를 전기차·신재생에너지의 중심지로 만들 것"이라면서 "제주 센터는 관련 벤처기업의 창업지원, 개발기술 테스트와 검증 등 창업프로세스 전 과정을 도울 것"이라고 강조했다.박 대통령은 출범식 후 원희룡 제주지사, 김범수 다음카카오 의장, 서경배 아모레퍼시픽 회장 등의 안내를 받으며 혁신센터의 주요 시설을 시찰하고 기능을 점검했다.김영석 기자 yskim@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 국민연금 올해 상반기 적자 규모 76조…수익률 ‘-8%’ [단독] ‘마스크 민원’ 뛰었는데… 업체는 “이정근 모른다” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 황당 ‘과태료’ 추적해보니… ‘번호판’ 같은 차가 또? ‘밧줄이 툭’…30층 아파트 외벽청소 노동자, 또 추락사 ‘尹퇴진’ 집회 간 野김용민… “5년 못 채우게 해야” ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] 생방송 중 러 미사일 ‘슉’… BBC기자, 급히 대피 [영상] [단독] 文정부 때 靑파견 감사원 직원, 박근혜정부의 1.5배 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다” 국제유가, 주유소 기름값 영향 시점은…제주도, 시차 조사 착수 경기도, 중소기업·도민 대상 지식재산 역량 강화 지원 외국인 노동자 상대 마약 유통, 태국인 무더기 검거 美 명문 스탠퍼드대, 캠퍼스 내 대낮 성폭행 잇따라</t>
+  </si>
+  <si>
+    <t>[까칠한 여행 TALK] 지금 예약하면 제주도 대표 관광지가 공짜 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 [까칠한 여행 TALK] 지금 예약하면 제주도 대표 관광지가 공짜 신익수 기자 입력 : 2015.06.29 04:01:09 어디로 갈지 머리 아픈 휴가철. 게다가 '메르스' 걱정까지 겹쳤다. 딱 알뜰 가격으로 다녀올 수 있는 청정 여행지는 없을까? 있다. 참좋은여행이 선보이는 제주 '에어카텔'이다. 뜯어보면 정말이지, 참 좋은 여행이다. 우선 눈이 번쩍 뜨이는 예약기간. 휴가철 성수기 7월과 8월이다. 여기에 청정 여행지 제주다. 더 마음에 드는 건 에어카텔. 에어텔은 항공과 호텔을 합친 용어인데, 여기에 카(Car)가 추가돼 있다. 가뜩이나 렌터카 확보가 힘든 시기가 휴가철인데 이것까지 묶었으니 일석삼조. 참좋은여행의 에어카텔 패키지 이용 기간은 7월 초부터 8월 말까지. 기간은 2박3일이다. 아, 보너스는 또 있다. 제주 에어카텔 출발 고객 대상 제주도 관광지 10종 쿠폰을 무료로 증정한다. 물론 선착순이다. 딱 500명까지 쿠폰 증정이다. 놀라지 마시라. 이 공짜 쿠폰 금액 합치면 12만2500원. 제주에서 인기가 많은 대표 관광지 10종을 선정해 꾸렸으니 후회도 없다. 추가 관광 없이 쿠폰만 사용하는 일정으로 꾸려도 충분할 정도. 잠깐 언급은 해야 할 것 같다. '1. 제주 제트보트 이용권(2만5000원) 2. 산방산 유람선 입장권(1만7500원) 3. 점보 빌리지 공연 입장권(1만5000원) 4. 송당 승마장 승마 이용권(4000원) 5. 다빈치 뮤지엄(9000원) 6. 카멜리아힐 입장권(7000원) 7. 한울랜드 입장권(1만1000원) 8. 다희연 입장권(5000원) 9. 제주 유리의 성 입장권(1만1000원) 10. 제주 워터 서커스(1만8000원)' 쿠폰은 모바일 형태로 지급되니 더 편하다. 매표소에서 문자로 받은 쿠폰을 제시하면 무료로 입장할 수 있다(환불 및 양도 불가). 김영훈 참좋은여행 제주팀 팀장은 "7~8월에는 여행객이 급증하며 제주 여행 경비가 비수기 대비 2배 이상 치솟는다. 호텔 이용료와 항공권 가격이 올라 절대적인 상품 가격을 낮추는 데에는 한계가 있기 때문에, 고객들 비용 부담을 덜기 위한 추가 혜택을 마련했다"고 설명했다. ▷ 제주 에어카텔 즐기는 Tip = 모두 아시아나 항공 왕복, 렌터카 54시간, 호텔 2박 구성. 항공과 렌터카는 동일하고 호텔이 각각 다르다. 이 호텔에 따라 상품가가 달라진다. 7월 4인 1실 기준 최저가 18만1000원(1인·오션스위츠호텔)부터 최고가 110만6000원(1인·롯데호텔)까지. www.verygoodtour.com, (02)2188-4080 [신익수 여행·레저 전문기자][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 오늘의 핫뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나"   1시간 6분"과천 송파를 2년전 분양가로"…'줍줍의날' 미리 메모   18시간 33분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   2시간 3분감사원 국감두고 여야 기싸움…10분만에 '정회'   56분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나" "나도 내 집 없는데"…외국인 국내 아파트 3만.. "과천 송파를 2년전 분양가로"…'줍줍의날' 미.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 감사원 국감두고 여야 기싸움…10분만에 '정회.. 인기뉴스 종합 연예 스포츠 1"하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 美.. 2"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 3"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 음.. 4[단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계약.. 5[단독] 文정부 탈원전 후폭풍…핵폐기물 비용 동결에 1... 1선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 2치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 3김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5‘인형 아니야?’...홍진영, 젖은 머리로 뽐낸 섹시美 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 3조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 4유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 5박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 [까칠한 여행 TALK] 지금 예약하면 제주도 대표 관광지가 공짜 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>제주도 지속적인 관광객, 브랜드호텔 최초 파격적인 조건! ‘골든튤립 제주노형호텔’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 부동산 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 부동산 &gt; 제주도 지속적인 관광객, 브랜드호텔 최초 파격적인 조건! ‘골든튤립 제주노형호텔’ 파이낸셜뉴스입력 2015.06.26 09:00수정 2015.06.26 09:00 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 원본이미지 보기 제주의 강남 노형동 각종 생활인프라 뛰어나 수요자 많아 제주도 관광객이 최근 5월 27일 기준으로 작년보다 17% 증가한 525만명으로 집계됐다. 작년 연간 관광객은 1,200만명을 넘어섰고 지속적인 증가추세로 분양형호텔이 투자자들의 관심을 받고 있다. ‘골든튤립 제주노형호텔이 연면적 17,053.40㎡, 전용면적 23~28㎡, 총 352실 규모로 제주 노형동 917-2번지 일대에 들어선다. 이곳은 제주 공항과 주요 크루즈항인 제주항에서 차로 8분 거리로 ‘제주의 강남’으로 불린다. 신라면세점이 도보 1분 거리에 위치하며, 롯데면세점(6월 예정), 외국인 전용 카지노, 바오젠거리 등 외국인 선호도가 높은 쇼핑과 여가 시설도 걸어서 5분 거리에 밀집해 있다. 롯데마트, 롯데시네마, 이마트, 제주도청 등 생활편의시설과 관공서 역시 반경 1km 내에 들어서있다. 높은 편의성과 접근성에 프랑스 호텔 체인 ‘루브르호텔그룹’의 프리미엄이 더해졌다. 루브르 호텔그룹은 전 세계 50여개 나라에 1,200개 호텔, 95,000객실을 보유하고 있는 유럽최고의 호텔그룹이다. 그 중에서 골든튤립은 루브르호텔그룹의 상위 클래스 브랜드로 50년이 넘는 역사와 함께 프랑스, 이탈리아 등 유럽은 물론 중국, 중동지역 등 세계 40여개 나라에 걸쳐 140여개의 호텔을 보유하고 있다. 현대적인 시설에 세계 최고 수준의 편안함과 퍼스널 서비스, 고급 레스토랑 등을 갖춘 풀서비스를 통해 최상의 여가와 휴식을 제공하는 것으로 명성이 높다. 이러한 골든튤립호텔의 명성을 이어갈 골든튤립 제주노형호텔은 객실에서 한라산과 바다를 한 눈에 내려다볼 수 있는 객실과 수영장, 세미나실, 루프탑바 등의 최고급 시설을 갖춘 최상위 호텔로 조성될 예정이다. (주)생보부동산신탁사가 자금관리만 하는 것이 아니라 매출과 지급관리를 해준다. 또한 대출이자 50%(연4%)도 10년간 지원해주며 5년 후 부터는 환매를 보장해준다. 대부분의 분양형호텔이 운영비를 먼저 사용하고, 남는 수익금을 지급하는 방식이다 보니 운영경비의 투명성 부분이 많은 고객들에게 의문점으로 남아 있던 것이 사실이다. 이러한 투자자들의 우려를 말끔히 씻어 낼 수 있는 시스템을 도입하여, 더욱더 확실하게 투자자의 수익금을 보호할 수 있도록 했다. 계약자에게는 호텔 준공 후 연간 10일 무료숙박혜택과 함께 준공 전에는 제주 왕복항공권 2매, 특급 호텔 숙박권(1박-제주도 타 호텔), 골프 라운딩권(1팀)의 혜택도 제공된다. 책임준공을 맡은 경림종합건설은 제주도 내 최상위 건설업체로 서귀포 비스타케이 1·2차를 시공한바 있다. 완공은 2017년 2월 예정이다. 02)760-1857 원본이미지 보기 ▲자료제공:골든튤립제주노형호텔 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>다음카카오, 제주도 문화·관광·예술의 스마트 허브로 육성 : 100세시대의 동반자 브릿지경제 로그인 회원가입 검색창 닫기 전체 메뉴 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 l 비바100 피플 문화·연예 전체기사 Health(건강) Encore Career(일) Money(돈) Leisure(여가) Life(라이프) Education(교육) Welfare(복지서비스) 사설 칼럼 외부기고 비주얼 포토 카드뉴스 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 동영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 검색버튼 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 비바100 피플 문화·연예 검색창 닫기 전체기사ㅣ기업경영 · 재계 ㅣ 자동차 · 부품 · 타이어 ㅣ 전기 · 전자 · 반도체 ㅣ 항공 · 해운 · 물류 · 무역 ㅣ 조선 · 철강 · 기계금속 · 방산 ㅣ 석유화학 · 정유 · 가스 · 전력 ㅣ 섬유 · 제지 · 광고 · 건자재 ㅣ IT·모바일·방송통신·인터넷 ㅣ 게임·SW·포털·제약·바이오·과학 ㅣ 중견 · 중소 · 벤처 현재위치 : 홈 &gt; 뉴스 &gt; 산업·IT·과학 &gt; IT·과학 다음카카오, 제주도 문화·관광·예술의 스마트 허브로 육성 입력 2015-06-26 14:19 연관검색어 다음 제주창조경제혁신센터 스마트허브 O2O 브릿지경제 민경인 기자 = 다음카카오가 26일 문을 제주창조경제혁신센터(센터)에 O2O(온라인 투 오프라인) 기술과 스타트업 육성 노하우를 전수한다. 다음카카오는 제주에 본사를 둔 모바일 플랫폼 기업으로서의 문화, 관광 등 제주도가 지닌 강점에 정보통신(IT)적 요소를 더해 ‘스마트 허브’로 만들어내겠다는 구상이다.먼저 다음카카오는 센터를 도와 제주도에 점차 늘고 있는 ‘문화이주민’을 바탕으로 새로운 문화를 창출하고 스타트업을 키우는 데 주력할 방침이다.문화이주민이란 문화예술인 가운데 도심에서 제주도로 터전을 옮긴 이들을 일컫는 말이다. 이들은 높은 창의력을 토대로 뛰어난 상품과 서비스를 만들지만 인적 자원의 한계, 외부와의 고립 등으로 판매나 유통까지 홀로 도맡기는 어려운 실정이다.이에 따라 다음카카오는 IT 기술과 네트워크를 활용, 이들의 문화예술 작품을 O2O로 연결해 판매와 유통까지 원활하게 이뤄지도록 도울 계획이다.여기에는 콘텐츠 기획부터 제작까지 기부로 이뤄지는 크라우드 펀딩 서비스 플랫폼인 뉴스펀딩도 활용된다.다음카카오 관계자는 “IT와 엔터테인먼트 산업을 융합해 새로운 문화를 창출하고 스타트업이 성공할 수 있는 기반을 만들어 제주도를 한국판 ‘실리콘 비치’로 조성하는 것이 목표”라고 말했다.실리콘 비치는 미국 로스앤젤레스(LA) 인근 산타모니카 비치와 베니스 비치를 중심으로 조성된 IT 단지를 말한다. 날씨 여건이나 접근성이 좋고 임대료가 낮아 스타트업들이 모여들고 있으며 인근에 할리우드가 있어 문화산업과의 협업이 용이해 급부상하고 있다.이밖에 다음카카오는 또 O2O의 기반이 되는 비콘(Beacon)을 활용해 제주도의 관광산업을 스마트화하는 데 주도적인 역할을 할 예정이다. 비콘은 근거리 위치 인식 기술을 적용한 무선센서로, 스마트폰이 접근하면 비콘과 스마트폰이 상호 인식해 각종 정보를 교환한다. 한번 설치해놓으면 실시간 마케팅 활동과 연계할 수 있기 때문에 O2O의 핵심 기술로 이용된다.다음카카오는 센터와 함께 제주도 전역에 비콘을 깔아 오픈 플랫폼으로서 누구나 사용할 수 있게 한다는 목표다.현지 정보가 부족한 외국인 관광객에게 비콘을 활용해 끊임없이 적절한 정보를 제공함으로써 소비를 활성화할 수 있다는 점도 기대되는 효과 중 하나다.회사 관계자는 “상당 부분 오프라인 기반인 제주도의 관광산업을 온라인 쪽으로 어떻게 변화시킬 수 있나 고민했다”며 “문화·관광 자원의 스마트화로 고품격 관광산업으로 도약할 기반이 마련될 것”이라고 말했다.민경인 기자 mkibrdg@viva100.com 기자의 다른기사보기 &gt; 관련기사 제주 창조경제혁신센터 출범…'한국의 실리콘비치' 되나 이 기사에 댓글달기 댓글 접기 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 온라인 핫클릭 ·누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?"·8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다"·‘그랜드 엑스페디션’ 정인석 프로듀서 “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요!”·"자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과"·은퇴 초반 철칙… 노후자금 수익률 높이고 인출은 줄여라·직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 스포츠 월드 ·KLPGA 투어 1인자 박민지, 여자 골프 세계 랭킹 16위·김주형, PGA 투어 슈라이너스 칠드런스 오픈 ‘노보기’ 우승…두 달 만에 통산 2승·김세영, LPGA 투어 메디힐 챔피언십 7위·‘1인자’ 박민지, KLPGA 투어 하이트진로 챔피언십서 연장전 끝에 우승·김영수, 코리안 투어 제네시스 챔피언십서 역전 우승…107번째 출전 만에 첫 승·김세영·강혜지, LPGA 메디힐 챔피언십 3라운드 공동 13위…‘톱 10’에 한국 선수 들지 못해 김규리, 완벽 옆태 아이즈원 출신 이채연, ‘허쉬 러쉬’ 첫 콘셉트 포토 공개…12일 솔로 데뷔 체리블렛 채린, ‘슈룹’ 출연 확정…김혜수 과거 시절 연기 정시아, ‘이츠 마이 라이프’ MC 발탁…“일상 속 정보 전달” YG엔터, 제니 사진 유출 관련 ‘법적 대응’…“경찰에 수사 의뢰” 기획시리즈 ESG 경영이 미래다 “순환경제가 탄소중립 현실적 해결 방안…신기술로 새시장 개척해야” KT&amp;G, 지구온도 낮추는 녹색경영… 지속가능한 생태계 키운다 이희연 KT&amp;G ESG기획팀장 "객관적 성과 측정… 이해관계자 소통 강화할 것" 人더컬처 8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다" 장동윤이 영화 '늑대사냥'에 미친 이유! 염정아에게 춤과 노래란? 맘 with 베이비 "자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과" 광명시의회 안성환 의장 “경력단절 없도록… 육아휴직 대체인력 지원 늘려야” "밤 오줌 못 가리는 아이, 실수해도 야단치지 마세요" 직장인 2막 직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 실패땐 복직 보장… 창업, 걱정 말고 도전하세요 농작물 재해 손해평가… 2차 합격률 20%대 '좁은문' 스타트업 "더 빠르고 정확하게"… 심정지 환자 소생률 높인다 컴투스 창업자의 새로운 도전… "해긴은 모두가 행복한 게임회사를 꿈꿉니다" "인테리어는 곧 공간에 대한 이해… 건축주 니즈 최선" 열정으로 사는 사람들 윈골드 류홍열·김탁종 대표 “金거래시장 틈새 발견… 변호사 둘이 일냈죠” "건설일용직도 모바일 매칭… 새벽 줄서기 없앴죠" 창업 생존율 확대…실습·실무 '창업교육' 나선 넥스트랩 김진태 대표 테크리포트 현존 최고 자물쇠 채워라!… 국내 이통사 '양자암호통신' 개발 경쟁 10분 이상 버텨라! 불에 강한 단열재 생산 불붙었다 K수소 무한 확장… 블루수소 만들고 UAM 띄운다 안종배 회장의 인공지능과 메타버스 미래세상 "세계가 주목하는 메타버스 리더, 누구나 될 수 있죠" 우리는 메타버스 시대에 살고 있다 메타버스, 미래 핵심기술 선도한다 스마트 라이프 ‘뉴 스페이스’ 시대 성큼… 제약·바이오도 우주 시장 ‘눈독’ "학습자 누구나 시험 합격때 수강료 100% 환급해드려요" "수하물 탑재 완료됐어요"…AI 챗봇이 다 알려드려요 많이본뉴스 최신뉴스 이시각 주요뉴스 코로나19 신규 확진자 1만5476명…사망자 91일만에 최소 코스피, 장 초반 2%대 하락…2200선 붕괴 [대통령의 한마디] "담대한 구상, 비핵화 이끌어 내기에 유효 할 것" 글로벌 경제위기에 국민연금 올해 상반기 적자 77조원… “투자다변화 전략 필요” 한경연 “법인세율 3.3%p 인하하면 GDP 10년간 연평균 1.4%↑” 3분기 단기사채 자금조달 250.9조…전년比 22.2%↓ 창립 70주년 맞은 한화…김승연 회장 "지속적 혁신" 주문 올해 아울렛서 화재 세 차례…노동부, 대규모 유통업체 불시점검 [오늘의 1면] 아파트 매매가·전세가 급락세··· 부동산 지표 '사상 최악' 러시아 미사일공습에 삼성 입주건물 피해…삼성 “직접 피격 아냐” TODAY TOPIC 1 2 공효진·케빈오, 12일 미국 뉴욕서 비공개 결혼식 “변명의 여지 없어” 신혜성, 음주운전 사과…차량 절도는 아냐 반환점 돈 영화제, 폐막까지 D-3… 올해 부국제는 어땠나? 선우은숙, 4세 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” '죽음 권하는 사회', 영화 '플랜75'가 주는 리얼함 8년만에 BIFF 찾은 진가신 "영화감독이 아닌 삶은 상상할 수 없다" “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요” 누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?" 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 영상 영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT·산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 회사소개 | 조직도 | 찾아오시는길 | 회원약관 | 개인정보취급방침 | 이메일무단수집거부 | 신문구독신청 | 저작권 규약 | 청소년보호정책 | 원격지원 | 고충처리인 | 윤리강령 및 기자준칙 서울특별시 종로구 새문안로5길 13, 9층(당주동, 변호사회관) / 인터넷신문등록번호 : 서울,아03028 / 등록일자 : 2014년 3월 3일 / 제호 : 브릿지경제신문 / 발행인·편집인 : 김현수 / 청소년보호책임자 : 조진래 / TEL : 02-2070-0200 l FAX : 0303)0952-0200 / 한국신문협회, 한국온라인신문협회 회원사 / 매체사 자체 윤리 강령, 규제 제도에 의해 윤리강령을 준수합니다. / 인터넷신문위원회 자율심의 준수서약사 Copyright by Bridgenews Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>지금 여행 예약하면 제주도 대표 관광지가 '무료' - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 지금 여행 예약하면 제주도 대표 관광지가 '무료' 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 문화 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 문화 여행/레저 지금 여행 예약하면 제주도 대표 관광지가 '무료' CBS노컷뉴스 트래블팀 최선미 기자 메일보내기 2015-06-24 14:08 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 참좋은여행, 12만원 상당 입장권 10종 선착순 500명 증정 (사진=참좋은여행사 제공) 직판여행사 참좋은여행이 7~8월 제주 에어카텔 출발고객을 대상으로 '제주도 관광지 10종 쿠폰'을 무료 증정한다. 오는 7월 1일에서 8월 31일까지 '제주 에어카텔 2박3일' 5개 상품의 이용 여행객 중 선착순 500명 한정이다. 제주에서 인기 많은 대표 관광지 10종을 선정해 꾸려 추가 관광 없이 쿠폰만 사용해 일정을 세워도 충분하다.쿠폰의 정상 금액은 ▲ 제주 제트보트 이용권(25,000원) ▲ 산방산 유람선 입장권(17,500원) ▲ 점보 빌리지 공연 입장권(15,000원) ▲ 송당 승마장 승마 이용권(4,000원) ▲ 다빈치 뮤지엄(9,000원) ▲ 카멜리아힐 입장권(7,000원) ▲ 한울랜드 입장권(11,000원) ▲ 다희연 입장권(5,000원) 제주 유리의 성 입장권(11,000원) ▲ 제주 워터 서커스(18,000원) 등 총 12만2,500원 상당.쿠폰은 모바일 형태로 지급된다. 매표소에서 문자로 받은 쿠폰을 제시하면 무료로 입장할 수 있다. 입장권은 여행기간 내에 사용해야 하므로 환불 또는 양도는 불가하다.참좋은여행 제주팀의 김영훈 팀장은 "7~8월에는 여행객이 급증하며 제주여행 경비가 비수기 대비 2배 이상 치솟는다"며 "호텔 이용료와 항공권의 값이 올라 절대적인 상품 가격을 낮추는 데에는 한계가 있기 때문에, 고객들의 비용 부담을 덜기 위한 추가 혜택을 마련했다"고 이번 이벤트의 취지를 밝혔다. (사진=참좋은여행사 제공) 이벤트가 적용되는 참좋은여행 제주 대표 상품은 모두 아시아나 항공 왕복, 렌터카54시간, 호텔2박이 기본 구성이다. 항공과 렌터카는 동일하며 호텔은 각각 다르다. 7월 상품가는 4인1실 기준 1인 최저가 18만1,000원(오션스위츠 호텔)부터 1인 최고가 110만6,000원 (롯데호텔)까지.보다 자세한 사항은 참좋은여행 홈페이지(www.verygoodtour.com)에서 확인할 수 있다.문의=참좋은여행(02-2188-4080) CBS노컷뉴스 트래블팀 최선미 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>경주 유적지, 변산 국립공원, 제주도 해안등 관광명소에 위치한, 대명리조트 only members 제도를 통한 회원 이용 극대화 한국일보 경주 유적지, 변산 국립공원, 제주도 해안등 관광명소에 위치한, 대명리조트 only members 제도를 통한 회원 이용 극대화 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 경주 유적지, 변산 국립공원, 제주도 해안등 관광명소에 위치한, 대명리조트 only members 제도를 통한 회원 이용 극대화 입력 2015.06.29 20:00 좋아요 0 0 0 댓글달기 0 전국 최다 리조트 객실 7,747실의 숙박시설을 보유한 대명리조트에서 여름 성수기 시즌을 맞이해 입회금 100% 전액 반환되는 콘도회원권 상품을 출시했다. 현재 높은 호응을 얻으며 인기리에 분양 중이다.대명리조트는 설악산 델피노, 단양 팔경, 경주 유적지, 변산반도 국립공원, 제주도 함덕 해안을 비롯해 12곳의 국내 대표 관광명소에 위치해 있다. 남해, 진도, 서해안 원산도 등 현재 공사 진행 중인 동해안 쏠비치 삼척까지, 지속적인 개발을 진행하고 있다. ‘only members’ 제도를 통해 여름, 겨울, 성수기의 사전 접수를 통한 전산 추첨 제도를 공정하게 시행하여 회원 이용 기회를 극대화하고 있다.대명리조트 레저컨설턴트 김주홍 부장은 “특히 전담직원제를 두고 1:1 전문적인 관리 서비스를 통해 이용 편의를 제공하고 불편사항을 해소해주고 있다. 현재 여름 성수기를 맞이 신규 분양 중인 대명리조트는 패밀리형(66㎡) 2,590만원, 스위트형(99㎡) 3,690만원에 가입할 수가 있다. 일시불 시 약 8% 특별 할인하여 패밀리형 2,380만원, 스위트형 3,400만원에 한정 분양 중이다. 특히 이번 신규 가입 회원에게는 객실 및 부대시설 이용 시에도 2~4년간 무료 또는 50%할인 등 특별혜택을 제공한다”고 말했다.자세한 내용은 전화 문의 및 상담, 직원 방문요청, 팜플렛 무료 배송 등으로 안내받을 수 있다. 상담문의02-558-5587 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 경주 유적지, 변산 국립공원, 제주도 해안등 관광명소에 위치한, 대명리조트 only members 제도를 통한 회원 이용 극대화 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>지금 예약하면 제주도 대표 관광지 무료로 즐긴다 지금 예약하면 제주도 대표 관광지 무료로 즐긴다 - 스포츠 월드- 세계일보 세계비즈 스포츠월드를 시작페이지로 지면보기 구독신청 RSS 스포츠월드 Naver Kakao 스포츠 전체메뉴 검색 스포츠 야구 프로야구 해외야구 야구일반 축구 프로축구 해외축구 축구일반 골프 국내골프 해외골프 골프일반 농구/배구 프로농구 NBA 농구일반 프로배구 배구일반 e스포츠 스포츠종합 격투기 해외스포츠 스포츠일반 연예 방송/TV 가요/음악 영화 공연/문화 해외연예 연예일반 문화일반 레저&amp;조이 경륜-경마-경정 토토 레저-조이일반 라이프 여행/레저 건강 포토 핫포토 스포츠 연예 이슈 사회 칼럼 피플 온라인이슈 지금 예약하면 제주도 대표 관광지 무료로 즐긴다 입력 : 2015-06-23 22:17:21 수정 : 2015-06-23 22:17:21 인쇄 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 참좋은여행, 12만원 상당 제주 관광지 입장권 10종 무료 증정 [스포츠월드=강민영 선임기자] 국내대표 직판여행사 참좋은여행이 7~8월 제주 에어카텔 출발고객 대상 제주도 관광지 10종 쿠폰을 무료 증정한다. 7월 1일부터 8월 31일까지 제주 에어카텔 2박3일 상품 5개 이용고객에게 증정하며,선착순 500명에 한한다. 쿠폰의 정상 금액은 모두 12만2500원. 제주에서 인기 많은 대표 관광지 10종을 선정해 꾸렸으므로, 추가 관광 없이 쿠폰만 사용해 일정을 세워도 충분하다. 참좋은여행 제주팀 김영훈 팀장은 “7~8월에는 여행객이 급증하며 제주여행 경비가 비수기 대비 2배 이상 치솟는다”며 “호텔 이용료와 항공권의 값이 올라 절대적인 상품 가격을 낮추는 데에는 한계가 있기 때문에 고객들의 비용 부담을 덜기 위한 추가 혜택을 마련했다”고 말했다. 쿠폰은 모바일 형태로 지급된다.매표소에서 문자로 받은 쿠폰을 제시하면 무료로 입장할 수 있다.입장권은 여행기간 내에 사용해야 하므로 환불 및 양도 불가. ◆증정 쿠폰(정상가) : ▲제주제트보트 이용권(25,000원) ▲산방산유람선입장권(17,500원) ▲점보빌리지공연입장권(15,000원) ▲송당 승마장 승마이용권(4,000원) ▲다빈치뮤지엄(9,000원) ▲카멜리아힐 입장권(7,000원) ▲한울랜드 입장권(11,000원) ▲다희연 입장권(5,000원) ▲제주 유리의성 입장권(11,000원) ▲제주 워터 서커스(18,000원) 이벤트에 적용되는 제주 대표 상품은 모두 아시아나 항공 왕복, 렌터카 54시간, 호텔 2박 구성이며, 항공과 렌터카는 동일하고 호텔이 각각 다르다. 상품가는 7월 4인1실 기준 최저가 18만1000원/1인(오션스위츠호텔)부터 최고가 110만6000원/1인(롯데호텔)까지. 자세한 사항은 참좋은여행 홈페이지(www.verygoodtour.com)에서 확인할 수 있다. 문의 및 예약 (02)2188-4080 mykang@sportsworldi.com 제주도 &lt;스포츠월드&gt;스포츠월드&gt; 20150623005790 1145050000000 0 2015-06-23 22:17:21 2015-06-23 22:17:21 0 지금 예약하면 제주도 대표 관광지 무료로 즐긴다 스포츠월드 강민영 0028f8cc-c883-4815-9315-2c6633fff652 많이 본 뉴스 연예 스포츠 라이프 포토 연예 스포츠 라이프 포토 HOT레드 별, 막내딸 희귀병 투병 고백 "폭풍 같은 한 달" '임창정♥' 서하얀, 이러니 살찔 틈이 없지 톱모델 한혜진, 20년간 유지한 모닝 루틴 돈 스파이크, 필로폰 1천 회분 압수 '충격' 조예영♥한정민, 공항서 애틋한 이별 제시, 싸이 품 떠나더니…안타까운 링거 투혼 곽도원, 제주서 음주운전…차기작 불똥 육준서, 공적 활동 중단 선언…왜? '고딩엄빠2' 출연자, 조작 방송 폭로…"작가가 시켜" 포토 회사소개 지면광고 온라인광고 구독신청 연락처 독자인권위원회 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 스포츠월드 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아52423 등록일(발행일) : 2019년 6월 23일 발행인·편집인 : 정희택 전화번호 : 02-2000-1800 청소년보호 책임자 : 류근원 Copyright ⓒ 스포츠월드 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회장배 친선골프대회 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회장배 친선골프대회 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회장배 친선골프대회 개최 기자명 고병수 기자 입력 2015.06.25 21:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 메르스로 인해 여행자제 속 도내외 500여명 성황 ▲ 제주도관광협회장배 곺프대회 시타 모습. (제주=국제뉴스) 고병수기자 = 제주도관광협회(회장 김영진)는 24일 엘리시안 제주 CC, 타미우스 골프앤빌리지 및 에버리스 골프앤리조트 등 3개 골프장에서 도내외 아마추어 골퍼 500여명이 참가한 가운데 2015 제주도관광협회장배 친선골프대회를 개최했다고 25일 밝혔다.이번 대회는 고부가가치 골프관광 상품 개발 및 모객 확대로 도내 골프장 경영난 극복 및 제주지역경제 활성화 도모를 위해 2011년 이후 매년 상・하반기 2회 개최되고 있다.최근 메르스로 인해 여행을 자제하고 있는 상황에서도 500여명의 도외 참가자들을 유치했다. 한편 대회는 1박2일 골프 관광상품으로 구성( 판매 되었는데 출시 하루 만에 매진사례를 기록한바 있다.관광협회 관계자는 “앞으로도 골프대회 개최를 통해 고부가가치 골프관광 상품 개발 및 모객 확대로 제주지역경제 활성화 도모를 지속해 나갈 계획”이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>메르스 확진자, 3일동안 제주도에 관광차 머물러…당국 비상 - 열린세상 열린방송 MBN 홈 &gt; 전체기사 &gt; 기사 |  글자크기 메르스 확진자, 3일동안 제주도에 관광차 머물러…당국 비상 기사입력 2015.06.18 11:00:14 | 최종수정 2015.06.18 14:41:18 기사 나도 한마디 Tweet 0 0 구글 메르스 확진자, 3일동안 제주도에 관광차 머물러…당국 비상 제주 메르스 제주 메르스 제주 메르스 제주 메르스 확진자 메르스 확진자, 3일동안 제주도에 관광차 머물러…당국 비상 메르스 확진자가 제주도로 여행을 떠나 논란이 되고 있다. 제주도 메르스 관리대책본부는 지난 5일 오전 항공편으로 제주에 도착해 8일 오후 항공편으로 서울로 이동한 42세 남성 관광객(141번 환자)이 중동호흡기증후군(메르스) 확진 판정을 받았다고 18일 밝혔다. 제주도 메르스 관리대책본부는 전일 중앙대책본부로부터 이 남성이 제주에 여행 왔었다는 사실을 통보받자마자 보건위생과장 등 7명을 141번 환자가 머물렀던 숙소에 보내 현장 조사를 벌였다. 제주 메르스 확진자 발생 / 사진=MBN 제주도 메르스 관리대책본부는 “중앙대책본부로부터 ‘141번 메르스 확진환자의 행적에 대한 조사 결과 6월5일부터 8일까지 관광차 제주에 머물렀다’는 사실을 통보받음에 따라 제주여행 주요 동선에 대한 역학조사에 들어갔다”고 밝혔다. 141번 환자는 지난 5일 오후 4시 아내, 아들 그리고 친구 부부 등 모두9명과 함께 제주국제공항에 도착한 뒤 렌터카를 이용, 중문 신라호텔에 도착한 것으로 확인됐다. 이어 3박4일동안 신라호텔에 머물면서 횟집 등에서 식사를 하고, 승마장 등 관광지를 이용했다. 또 9일 직장에서 퇴근후 오후 4시쯤 발열과 기침 증세를 보인 이후 11일까지 출근하지 않고 집에서 휴식을 취했고, 12일에 강남구보건소에 연락해 1차 검사 결과 양성판정을 받았다. 13일에 국립보건연구원에서 2차 검사결과 최종 확진판정을 받았다. 제주도 메르스 관리대책본부는 17일 밤 11시 30분쯤 중앙대책본부로부터 141번 확진자의 제주여행을 통보받는 즉시 숙소였던 서귀포시 제주신라호텔로 보건위생과장 등 7명을 보내 현장조사를 벌였다. 또 141번 확진자가 비록 메르스 증상이 나타나기 전에 제주에 여행왔지만 만일의 사태에 대비, 역학조사와 밀접접촉자 격리 조치 등에 만전을 기하고 있다. 관리대책본부는 신라호텔 측에 영업 중지를 요청했다. 신라호텔측은 이 같은 사실을 투숙객에게 알린 것으로 전해졌다. 관리대책본부는 141번 환자가 공항에 머물던 시간대의 CCTV를 비롯 호텔외 식당, 승마장 등 관광지의 정확한 상호와 동선, CCTV 등을 파악하고 있다. 또 중앙역학조사반과 함께 제주 여행 동선에 대한 전반적인 역학조사를 실시, 결과가 나오는 대로 동선을 공개할 예정이다. 이와 함께 확진자 동선에 포함되는 식당과 관광지 등을 공개하고, 이곳을 이용한 도민들에 대해서는 보건소에 신고해달라고 요청할 계획이다. 141번 확진자는 제주공항과 신라호텔 발열 검사에서 특이 사항이 나타나지 않았다고 제주도 메르스 관리대책본부는 밝혔다. /온라인 이슈팀 @mkculture.com &lt; Copyright ⓒMBN(www.mbn.co.kr)무단전재 및 재배포 금지 &gt; 관련기사 신혜성, 도난차량서 음주측정 거부하다 체포 크러쉬, 인종차별 논란 해명 "제스처 오해" 이세영, 밥 먹는 모습 마저도 섹시 그 자체 나연, 무대 뒤에서도 숨길 수 없는 예쁨 서현, 우아+섹시미 가득한 드레스 MBN STAR 최신포토 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. ‘음주운전 자숙’ 리지, 새 증명사진 공개...미소 다시.. 마마무, 빈티지한 무드 가득한 ‘MIC ON’ 하이라이트 .. 이찬혁, 첫 솔로 앨범 타이틀곡 제목 ‘파노라마’...의.. ‘안나’ 수지 “‘국민 첫사랑’ 너무 좋은데요.. 수지 박해수 신시아 송강호 박해진 박해진 지창욱 송가인 주상욱 주상욱 드라마 우아한 가레벨업최고의 치킨설렘주의보마성의 기쁨마녀의 사랑리치맨고품격 짝사랑시추에이션 연남동 539엄마니까 괜찮아수상한 가족천국의 눈물 예능 트로트 퀸지구방위대친한 예능자연스럽게모던 패밀리엄지의 제왕속풀이쇼 동치미알토란스포츠 야예능 특집 프로그램 교양 나는 자연인이다여행생활자 집시맨기막힌 이야기 실제상황생생 정보마당판도라천기누설소나무휴먼다큐 사노라면현장르포 특종세상MBN 토요포커스열린TV 열린세상성공다큐 최고다 보도 MBN 종합뉴스이 한 장의 사진픽 뉴스굿모닝 MBN아침 &amp; 매일경제뉴스 &amp; 이슈뉴스파이터MBN 프레스룸MBN 뉴스와이드전국네트워크뉴스MBN 뉴스와이드 주말스포츠뉴스굿모닝 월드실리콘밸리 라이브MBN 뉴스특보시사스페셜데이터로 본 세상 뉴스 전체 정치 경제 사회 국제 문화 연예 스타 스포츠 생활ㆍ건강 지역 인기척 현장에서 뉴스제보 서비스 헬스 날씨 뉴스레터 이벤트 SNS 유튜브 Entertainment 유튜브 News 카카오스토리 페이스북 인스타그램 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 RSS 사이트맵 SNS MBN Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 류호길 |서울시 중구 퇴계로 190 (주)매일방송 |오시는길|대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 |인터넷신문등록번호 서울 아01043 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved. (본 사이트는 IE8.0 에 최적화 되어 있습니다.) 시작페이지 설정 즐겨찾기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 메르스 확진, 방문한 호텔·식당 공개 - 스타투데이 매경미디어그룹 바로가기 뉴스 증권 부동산 프리미엄 교육 신문PDF 구독신청 더보기 뉴스 인기뉴스오피니언기획·연재스페셜에디션스타투데이스포츠게임진영문뉴스MK ChinaMK JapanMK빌리어드뉴스미라클어헤드MK ESG 프리미엄 매경e신문매경프리미엄레이더M레이더P오늘의 매경뉴스레터들려주는 뉴스 재테크 증권부동산경제용어신설법인 라이프 골프Book여행날씨우버人사이트MK생애설계센터LUXURY MM플레이Car 비즈니스 The Biz Times닛케이텔레콤집꾸미기 큐레이션 건빵한국데이터거래소MK몰 서비스 전체보기 본문 바로가기 스타투데이 &gt; 제주도 관광객 메르스 확진, 방문한 호텔·식당 공개 기사입력 2015.06.19 10:09:51 [매일경제 스타투데이] ‘메르스 청정지역’ 제주도에 메르스 의심 환자가 다녀갔다. 제주도 메르스 관리대책본부는 지난 5일 오전 항공편으로 제주에 도착해 8일 오후 항공편으로 서울로 이동한 42세 남성 관광객(141번 환자)이 중동호흡기증후군(메르스) 확진 판정을 받았다고 18일 밝혔다. 제주도 메르스 관리대책본부는 전일 중앙대책본부로부터 이 남성이 제주에 여행 왔었다는 사실을 통보받자마자 보건위생과장 등 7명을 141번 환자가 머물렀던 숙소에 보내 현장 조사를 벌였다. 제주도 메르스 관리대책본부는 “중앙대책본부로부터 ‘141번 메르스 확진환자의 행적에 대한 조사 결과 6월5일부터 8일까지 관광차 제주에 머물렀다’는 사실을 통보받음에 따라 제주여행 주요 동선에 대한 역학조사에 들어갔다”고 밝혔다.141번 환자는 지난 5일 오후 4시 아내, 아들 그리고 친구 부부 등 모두9명과 함께 제주국제공항에 도착한 뒤 렌터카를 이용, 중문 신라호텔에 도착한 것으로 확인됐다. 이어 3박4일동안 신라호텔에 머물면서 횟집 등에서 식사를 하고, 승마장 등 관광지를 이용했다. 또 9일 직장에서 퇴근후 오후 4시쯤 발열과 기침 증세를 보인 이후 11일까지 출근하지 않고 집에서 휴식을 취했고, 12일에 강남구보건소에 연락해 1차 검사 결과 양성판정을 받았다. 13일에 국립보건연구원에서 2차 검사결과 최종 확진판정을 받았다. 제주도 메르스 관리대책본부는 17일 밤 11시 30분쯤 중앙대책본부로부터 141번 확진자의 제주여행을 통보받는 즉시 숙소였던 서귀포시 제주신라호텔로 보건위생과장 등 7명을 보내 현장조사를 벌였다. 또 141번 확진자가 비록 메르스 증상이 나타나기 전에 제주에 여행왔지만 만일의 사태에 대비, 역학조사와 밀접접촉자 격리 조치 등에 만전을 기하고 있다. 관리대책본부는 신라호텔 측에 영업 중지를 요청했다. 신라호텔측은 이 같은 사실을 투숙객에게 알린 것으로 전해졌다. 관리대책본부는 141번 환자가 공항에 머물던 시간대의 CCTV를 비롯 호텔외 식당, 승마장 등 관광지의 정확한 상호와 동선, CCTV 등을 파악하고 있다. 또 중앙역학조사반과 함께 제주 여행 동선에 대한 전반적인 역학조사를 실시, 결과가 나오는 대로 동선을 공개할 예정이다. 이와 함께 확진자 동선에 포함되는 식당과 관광지 등을 공개하고, 이곳을 이용한 도민들에 대해서는 보건소에 신고해달라고 요청할 계획이다. 141번 확진자는 제주공항과 신라호텔 발열 검사에서 특이 사항이 나타나지 않았다고 제주도 메르스 관리대책본부는 밝혔다. 신혜성 측 "만취해 본인 차 아닌 줄 몰라"선우은숙, 유영재 아나와 재혼…혼인신고 마쳤다김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”노홍철, 빵집→이탈리아 가정식집 오픈 "조만간 예약 받음"'♥이필모' 서수연 육아 근황…"머리 묶을 틈도 없어"꼴찌 한화 12명 정리..9위 두산도 칼바람 예고[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 인기뉴스 "하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 .. "과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메.. "밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 .. [단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계.. [단독] 文정부 탈원전 후폭풍…핵폐기물 비용 동결에 .. "GTX 개통되면 코레일 연간 1천억원 손실…재무건전성.. 경기침체를 알리는 지표가 시장의 호재가 되는 역설 [.. "은행 예금이 이자 더 주네"…고금리 매력 사라지는 .. "엉덩이 깨물어 멍들게 했다"…동거녀 10대 딸 학대한.. "한번 타보면 또다시 사는 수입차"…계약 즉시 출고, .. 선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[.. 치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [.. 공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] ‘인형 아니야?’...홍진영, 젖은 머리로 뽐낸 섹시美 김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님.. 신혜성 측 “만취해 본인 차 아닌 줄 몰라, 변명 여지.. 김한나 치어리더, 뒤태 美쳤다…콜라병 몸매 자랑 [똑.. ‘28살 맞아?’...수지, 점점 어려지는 동안 미녀 에이핑크 출신 손나은, 매끈한 몸매라인 [똑똑SNS] 꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예.. 치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 .. 유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 ‘5억원 미납’ 신뢰 잃은 캐롯, 지옥의 미디어데이 .. "어떤 방법이라도 찾아준다고…나를 믿어준 kt에 고마.. 고우석, 이종범 감독 사위 된다…이정후 여동생과 내.. 中 “임효준 베이징올림픽 SNS 논란, 한국 오해” 전국당구대회 첫 우승 ‘무명’ 허진우…그는 지독한 .. 스타인터뷰 정일우 “‘굿잡’서 또 만난 권유리, 다음엔 SF 찍자고…” 인기포토 제주도 관광객 메르스 확진, 방문한 호텔·식당 공개 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 서울특별시 중구 퇴계로 190 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved.RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY Luxmen 시티라이프 M-Print</t>
+  </si>
+  <si>
+    <t>제주 관광객 메르스 확진…이젠 제주도 까지 확산되나 - 스타투데이 매경미디어그룹 바로가기 뉴스 증권 부동산 프리미엄 교육 신문PDF 구독신청 더보기 뉴스 인기뉴스오피니언기획·연재스페셜에디션스타투데이스포츠게임진영문뉴스MK ChinaMK JapanMK빌리어드뉴스미라클어헤드MK ESG 프리미엄 매경e신문매경프리미엄레이더M레이더P오늘의 매경뉴스레터들려주는 뉴스 재테크 증권부동산경제용어신설법인 라이프 골프Book여행날씨우버人사이트MK생애설계센터LUXURY MM플레이Car 비즈니스 The Biz Times닛케이텔레콤집꾸미기 큐레이션 건빵한국데이터거래소MK몰 서비스 전체보기 본문 바로가기 스타투데이 &gt; 제주 관광객 메르스 확진…이젠 제주도 까지 확산되나 기사입력 2015.06.18 15:55:23 [매일경제 스타투데이 권인경 인턴기자] 지난 13일 메르스 확진 판정을 받은 40대 남성이 제주도를 여행한 것으로 알려져 적잖은 충격을 주고 있다. 지난 13일 중동호흡기증후군(메르스) 확진 판정을 받은 141번(42) 환자가 확진 며칠 전 가족과 제주에서 3박 4일간 여행하며 공항과 관광지 등을 방문한 것으로 확인돼 ‘메르스 청정지역’으로 남은 제주도 보건당국에 비상이 걸렸다. 18일 제주도 메르스 관리대책본부에 따르면 141번 환자는 지난 5일 오후 부인과 아들, 다른 가족 등 8명과 함께 항공편으로 제주공항에 도착했다. 141번 환자 가족들은 신라호텔렌터카를 타고 오후 5시께 서귀포시 중문관광단지 신라호텔에 도착해 오후 6시쯤 신라호텔 앞 고깃집에서 식사한 뒤 신라호텔로 돌아왔다.여행 둘째 날인 6일에는 아침에 호텔 뷔페에서, 점심에 호텔 수영장의 식당에서, 저녁에 제주시 해안도로의 횟집에서 각각 식사했다고 알려졌다. 셋째 날인 7일에는 오전 11시께 호텔 뷔페에서 아침식사를 한 뒤 서귀포시 남원읍의 코코몽에코파크를 방문했으며, 오후 3시께 제주시 조천읍의 승마장에 갔다.141번 환자의 일행은 오후 5시쯤 호텔에 돌아와서 고깃집에서 저녁식사를 했으나 141번 환자는 이 자리에 불참했다고 전해진다. 이 환자 일행은 8일 오전 호텔 뷔페에서 아침식사를 한 뒤 제주공항에서 항공편으로 귀경했다. 이 환자는 신라호텔에서는 뷔페와 수영장, 식당 외에 다른 시설은 이용하지 않았다고 밝혔다. 더 불어 141번 환자는 여행 중에 몸이 좋지 않아 혼자서 차에 머무르는 시간이 많았다고 밝혀 제주도 여행에서부터 메르스 증상이 나타난 것이 아닌지 의심된다. 메르스 관리대책본부는 신라호텔의 폐쇄회로(CC)TV와 직원의 진술 등을 통해 현재까지 34명의 밀접접촉자를 파악하고 이 가운데 신원이 확인된 호텔 직원 31명에 대해 자가격리하도록 통보했다. 이어 호텔에는 영업을 자제해달라고 통보했다. 공항과 이 환자가 방문한 관광지, 렌터카 회사 등의 폐쇄회로(CC)TV 영상을 확보해 이 환자의 정확한 여행 경로를 파악하고 중앙대책본부 중앙역학조사반과 전반적인 역학조사를 시행한다. 한편 지난달 27일 141번 환자의 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 메르스에 감염됐을 것으로 추정된다. 이 환자는 제주 여행을 마친 다음 날인 9일 직장에서 퇴근한 뒤 발열과 기침 등의 메르스 증세를 보였으며, 13일 최종 확진 판정을 받았다. 이 환자의 부인과 아들 등 밀접접촉자에게서는 현재까지 발열, 기침 등의 증상은 나타나지 않은 것으로 전해진다. 141번 환자는 강남세브란스병원에서 메르스 검사를 받던 중 “내가 메르스에 걸렸다면 다 퍼뜨리고 다니겠다”며 소란을 부렸으며, 검사 결과도 기다리지 않고 걸쇠를 부수고 진료소를 벗어나 택시를 타고 집에 돌아가기도 했다. 소식을 접한 누리꾼들은 “제주 메르스, 이젠 청정지역 아니네”, “제주 메르스, 하 이제 제주도도 못가나”, “제주 메르스, 제주도 너 마저” 등의 반응을 보였다. 신혜성 측 "만취해 본인 차 아닌 줄 몰라"선우은숙, 유영재 아나와 재혼…혼인신고 마쳤다김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”노홍철, 빵집→이탈리아 가정식집 오픈 "조만간 예약 받음"'♥이필모' 서수연 육아 근황…"머리 묶을 틈도 없어"꼴찌 한화 12명 정리..9위 두산도 칼바람 예고[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 인기뉴스 "하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 .. "과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메.. "밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 .. [단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계.. [단독] 文정부 탈원전 후폭풍…핵폐기물 비용 동결에 .. "GTX 개통되면 코레일 연간 1천억원 손실…재무건전성.. 경기침체를 알리는 지표가 시장의 호재가 되는 역설 [.. "은행 예금이 이자 더 주네"…고금리 매력 사라지는 .. "엉덩이 깨물어 멍들게 했다"…동거녀 10대 딸 학대한.. "한번 타보면 또다시 사는 수입차"…계약 즉시 출고, .. 선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[.. 치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [.. 공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] ‘인형 아니야?’...홍진영, 젖은 머리로 뽐낸 섹시美 김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님.. 신혜성 측 “만취해 본인 차 아닌 줄 몰라, 변명 여지.. 김한나 치어리더, 뒤태 美쳤다…콜라병 몸매 자랑 [똑.. ‘28살 맞아?’...수지, 점점 어려지는 동안 미녀 에이핑크 출신 손나은, 매끈한 몸매라인 [똑똑SNS] 꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예.. 치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 .. 유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 ‘5억원 미납’ 신뢰 잃은 캐롯, 지옥의 미디어데이 .. "어떤 방법이라도 찾아준다고…나를 믿어준 kt에 고마.. 고우석, 이종범 감독 사위 된다…이정후 여동생과 내.. 中 “임효준 베이징올림픽 SNS 논란, 한국 오해” 전국당구대회 첫 우승 ‘무명’ 허진우…그는 지독한 .. 스타인터뷰 정일우 “‘굿잡’서 또 만난 권유리, 다음엔 SF 찍자고…” 인기포토 제주 관광객 메르스 확진…이젠 제주도 까지 확산되나 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 서울특별시 중구 퇴계로 190 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved.RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY Luxmen 시티라이프 M-Print</t>
+  </si>
+  <si>
+    <t>참좋은여행, 제주도 관광지 입장권 무료 증정 - 뉴스웨이 기업·경영 금융·증권 정치·경제 부동산 오피니언 ESG경영 기획·이슈 리포트 스토리 검색어 X 검색 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 bar_progress 참좋은여행, 제주도 관광지 입장권 무료 증정 검색 닫기 X 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 참좋은여행, 제주도 관광지 입장권 무료 증정 황재용 기자 등록 2015.06.25 08:26 사진=참좋은여행 제공 참좋은여행(대표 이상호)이 7~8월 제주 에어카텔 출발 고객을 대상으로 제주도 관광지 10종 쿠폰을 무료로 증정한다. 다음 달 1일부터 8월 31일까지 제주 에어카텔 2박 3일 상품 5개 이용 고객이 대상이며 쿠폰은 선착순 500명에게 주어진다. 쿠폰은 제주제트보트 이용권, 송당 승마장 승마이용권 등이며 모바일 형태로 지급될 예정이다. 에어카텔 상품의 보다 자세한 사항은 참좋은여행 홈페이지에서 확인 가능하다. 황재용 기자 hsoul38@ 관련기사 참좋은여행, 나오시마-다카마쓰 상품 30만원 할인 2015.06.18 &lt;저작권자 © 온라인 경제미디어 뉴스웨이 · 무단 전재 및 재배포 금지&gt; 주요뉴스 흥국생명의 '도 넘은 갑질'···설계사에게 나눠준 볼펜 값까지 급여에 반영 1호 빅테크 보험사 '카카오페이손보' 첫 상품···온라인 사기 보장 '금융안심보험' 창립 70주년 맞은 한화그룹···김승연 회장 "어제를 경계하고 늘 새로워져야" 증시서 사라지는 '코로나 이슈'···가스·배터리株만 웃었다 美경제학자 버냉키·다이아몬드·딥버그, 노벨경제학상 수상 영예 지배구조 더보기 동원산업·동원엔터프라이즈, 오늘 주총서 합병안 가결 ESG경영 더보기 추락하는 허연수號···GS리테일, '동반성장 최우수' 타이틀도 잃었다 실종아동찾기 뉴스웨이가 함께합니다. 이경미(여, 당시 만4세) 실종일자 : 1977/04/01 실종지역 : 부산광역시 연제구 카드뉴스+ 더보기 '과다 흡연, 연골 파괴, 여장까지···' 군대 안 가려고 이런 짓을? 뉴스웨이TV 더보기 'BBC 尹 풍자 영상' 튼 김경협 "한국 칭찬으로 보이나?" 박진 "영국 공식 입장은 달라" 회사소개 개인정보처리방침 이메일무단수집거부 청소년보호정책 윤리강령 고충처리 인재채용 전체 서비스보기 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 (주)뉴스웨이 서울특별시 용산구 한강대로 308, 7층 (갈월동, 한국정보통신공사협회) 등록번호 : 서울, 아00528 등록일자 : 2008.03.10 발행일자 : 2008.03.10 제호 : 뉴스웨이 회장 : 김종현 발행인 · 편집인 : 강 혁 편집국장 : 황의신 청소년보호책임자 : 안 민 Tel : 02. 799. 9700 Fax : 02. 799. 9724 mail to webmaster@newsway.co.kr 뉴스웨이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다.Copyright © Newsway. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주 관광객 메르스 확진, 이제는 제주도까지…‘충격’ - 스타투데이 매경미디어그룹 바로가기 뉴스 증권 부동산 프리미엄 교육 신문PDF 구독신청 더보기 뉴스 인기뉴스오피니언기획·연재스페셜에디션스타투데이스포츠게임진영문뉴스MK ChinaMK JapanMK빌리어드뉴스미라클어헤드MK ESG 프리미엄 매경e신문매경프리미엄레이더M레이더P오늘의 매경뉴스레터들려주는 뉴스 재테크 증권부동산경제용어신설법인 라이프 골프Book여행날씨우버人사이트MK생애설계센터LUXURY MM플레이Car 비즈니스 The Biz Times닛케이텔레콤집꾸미기 큐레이션 건빵한국데이터거래소MK몰 서비스 전체보기 본문 바로가기 스타투데이 &gt; 제주 관광객 메르스 확진, 이제는 제주도까지…‘충격’ 기사입력 2015.06.18 14:49:58 [매일경제 스타투데이] 13일 중동호흡기증후군(MERS·메르스) 확진 판정을 받은 141번 환자가 확진 며칠 전 가족과 제주에서 3박 4일간 여행한 것으로 확인돼 충격을 주고 있다. 141번 환자는 제주도 공항과 관광지 등을 방문한 것을 나타났다.. 18일 제주도 메르스 관리대책본부에 따르면 141번 환자는 지난 5일 오후 부인과 아들, 다른 가족 등 8명과 함께 항공편으로 제주공항에 도착했다. 5일 오후 5시께 제주도 서귀포시 중문관광단지 신라호텔에 도착한 환자 일행은 오후 6시께 신라호텔 앞 고깃집에서 식사한 뒤 숙소로 돌아왔다.6일에는 신라호텔 뷔페에서, 점심에 호텔 수영장의 식당에서, 저녁에 제주시 해안도로의 횟집에서 각각 식사했다. 7일의 경우 오전 11시께 호텔 뷔페에서 아침식사를 한 뒤 서귀포시 남원읍의 코코몽에코파크를 방문했다. 오후 3시께에는 제주시 조천읍의 승마장에 갔다. 오후 5시께 호텔에 돌아온 141번 환자의 일행은 고깃집에서 저녁식사를 했다. 다만 141번 환자는 이 자리에 불참했다. 이 환자 일행은 8일 오전 호텔 뷔페에서 아침식사를 한 뒤 제주공항에서 항공편으로 귀경했다. 이 환자는 신라호텔에서는 뷔페와 수영장, 식당 외에 다른 시설은 이용하지 않았다고 밝힌 것으로 알려졌다. 또한 여행 중 몸이 좋지 않아 혼자서 차에 머무르는 시간이 많았다고 해 메르스 증상이 이 시기부터 나타난 것이 아닌지 의심된다. 141번 환자는 제주 여행을 마친 다음 날인 9일 오후 직장에서 퇴근한 뒤 발열과 기침 등의 증세를 보였으며, 지난 13일 최종 확진 판정을 받았다. 이 환자의 부인과 아들 등 밀접접촉자에게서는 현재까지 발열 등 특이증상은 나타나지 않은 것으로 알려졌다. 기사를 접한 네티즌은 “제주 관광객 메르스 확진, 이제는 제주도까지”, “제주 관광객 메르스 확진, 충격이다” 등의 반응을 보였다. 신혜성 측 "만취해 본인 차 아닌 줄 몰라"선우은숙, 유영재 아나와 재혼…혼인신고 마쳤다김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”노홍철, 빵집→이탈리아 가정식집 오픈 "조만간 예약 받음"'♥이필모' 서수연 육아 근황…"머리 묶을 틈도 없어"꼴찌 한화 12명 정리..9위 두산도 칼바람 예고[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 인기뉴스 "하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 .. "과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메.. "밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 .. [단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계.. [단독] 文정부 탈원전 후폭풍…핵폐기물 비용 동결에 .. "GTX 개통되면 코레일 연간 1천억원 손실…재무건전성.. 경기침체를 알리는 지표가 시장의 호재가 되는 역설 [.. "은행 예금이 이자 더 주네"…고금리 매력 사라지는 .. "엉덩이 깨물어 멍들게 했다"…동거녀 10대 딸 학대한.. "한번 타보면 또다시 사는 수입차"…계약 즉시 출고, .. 선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[.. 치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [.. 공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] ‘인형 아니야?’...홍진영, 젖은 머리로 뽐낸 섹시美 김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님.. 신혜성 측 “만취해 본인 차 아닌 줄 몰라, 변명 여지.. 김한나 치어리더, 뒤태 美쳤다…콜라병 몸매 자랑 [똑.. ‘28살 맞아?’...수지, 점점 어려지는 동안 미녀 에이핑크 출신 손나은, 매끈한 몸매라인 [똑똑SNS] 꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예.. 치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 .. 유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 ‘5억원 미납’ 신뢰 잃은 캐롯, 지옥의 미디어데이 .. "어떤 방법이라도 찾아준다고…나를 믿어준 kt에 고마.. 고우석, 이종범 감독 사위 된다…이정후 여동생과 내.. 中 “임효준 베이징올림픽 SNS 논란, 한국 오해” 전국당구대회 첫 우승 ‘무명’ 허진우…그는 지독한 .. 스타인터뷰 정일우 “‘굿잡’서 또 만난 권유리, 다음엔 SF 찍자고…” 인기포토 제주 관광객 메르스 확진, 이제는 제주도까지…‘충격’ 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 서울특별시 중구 퇴계로 190 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved.RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY Luxmen 시티라이프 M-Print</t>
+  </si>
+  <si>
+    <t>제주도, 메르스 확진자 3박 4일간 관광 ‘85명 자가격리’ - 스타투데이 매경미디어그룹 바로가기 뉴스 증권 부동산 프리미엄 교육 신문PDF 구독신청 더보기 뉴스 인기뉴스오피니언기획·연재스페셜에디션스타투데이스포츠게임진영문뉴스MK ChinaMK JapanMK빌리어드뉴스미라클어헤드MK ESG 프리미엄 매경e신문매경프리미엄레이더M레이더P오늘의 매경뉴스레터들려주는 뉴스 재테크 증권부동산경제용어신설법인 라이프 골프Book여행날씨우버人사이트MK생애설계센터LUXURY MM플레이Car 비즈니스 The Biz Times닛케이텔레콤집꾸미기 큐레이션 건빵한국데이터거래소MK몰 서비스 전체보기 본문 바로가기 스타투데이 &gt; 제주도, 메르스 확진자 3박 4일간 관광 ‘85명 자가격리’ 기사입력 2015.06.19 19:47:10 [매일경제 스타투데이 김민준 인턴기자] 제주도에 중동호흡기증후군(메르스) 확진자가 3박 4일간 관광을 한 사실이 알려져 충격을 주고 있다. 19일 제주도 메르스 관리대책본부는 제주 관광 후 메르스 확진 판정을 받은 141번 환자와 접촉한 도내 관광시설 종사자 등 166명을 자가격리 또는 능동감시하고 있다고 밝혔다. 자가격리 자는 2ｍ 이내 거리에서 밀접 접촉한 것으로 판단된 85명으로, 도는 1인당 3명의 공무원을 배치해 24시간 상태를 파악하고 있다. 메르스 환자 접촉자의 격리 기간은 접촉한 다음 날부터 14일이지만 이 기간을 3일 연장하기로 했다.나머지 능동감시 대상자에 대한 모니터링 기간도 1주일씩 연장한다. 능동감시 대상은 항공사, 공항공사, 코코몽에코파크, 제주승마장 직원과 음식점 종사자 등이다. 제주도 메르스 관리대책본부는 현재까지는 자가격리·능동감시 대상들 가운데 메르스 관련 증세를 보이는 사람은 없다고 밝혔다. 해당 환자가 이용했던 신라호텔의 객실과 렌터카 등에 대한 방역을 마무리하고, 이후 이용자들에 대한 모니터링도 하고 있다. 이 소식을 접한 네티즌들은 “제주도 메르스라니 이게 무슨 일이야” “제주도 메르스까지 갔네 결국” “제주도 메르스 환자 관광이라니” 등의 다양한 반응을 보이고 있다. 신혜성 측 "만취해 본인 차 아닌 줄 몰라"선우은숙, 유영재 아나와 재혼…혼인신고 마쳤다김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”노홍철, 빵집→이탈리아 가정식집 오픈 "조만간 예약 받음"'♥이필모' 서수연 육아 근황…"머리 묶을 틈도 없어"꼴찌 한화 12명 정리..9위 두산도 칼바람 예고[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 인기뉴스 "하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 .. "과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메.. "밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 .. [단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계.. [단독] 文정부 탈원전 후폭풍…핵폐기물 비용 동결에 .. "GTX 개통되면 코레일 연간 1천억원 손실…재무건전성.. 경기침체를 알리는 지표가 시장의 호재가 되는 역설 [.. "은행 예금이 이자 더 주네"…고금리 매력 사라지는 .. "엉덩이 깨물어 멍들게 했다"…동거녀 10대 딸 학대한.. "한번 타보면 또다시 사는 수입차"…계약 즉시 출고, .. 선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[.. 치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [.. 공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] ‘인형 아니야?’...홍진영, 젖은 머리로 뽐낸 섹시美 김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님.. 신혜성 측 “만취해 본인 차 아닌 줄 몰라, 변명 여지.. 김한나 치어리더, 뒤태 美쳤다…콜라병 몸매 자랑 [똑.. ‘28살 맞아?’...수지, 점점 어려지는 동안 미녀 에이핑크 출신 손나은, 매끈한 몸매라인 [똑똑SNS] 꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예.. 치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 .. 유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 ‘5억원 미납’ 신뢰 잃은 캐롯, 지옥의 미디어데이 .. "어떤 방법이라도 찾아준다고…나를 믿어준 kt에 고마.. 고우석, 이종범 감독 사위 된다…이정후 여동생과 내.. 中 “임효준 베이징올림픽 SNS 논란, 한국 오해” 전국당구대회 첫 우승 ‘무명’ 허진우…그는 지독한 .. 스타인터뷰 정일우 “‘굿잡’서 또 만난 권유리, 다음엔 SF 찍자고…” 인기포토 제주도, 메르스 확진자 3박 4일간 관광 ‘85명 자가격리’ 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 서울특별시 중구 퇴계로 190 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved.RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY Luxmen 시티라이프 M-Print</t>
+  </si>
+  <si>
+    <t>&lt; SNS여론&gt; '청정' 제주도 비상 걸게한 '메르스 관광객' 논란 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 &lt; SNS여론&gt; '청정' 제주도 비상 걸게한 '메르스 관광객' 논란 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 &lt; SNS여론&gt; '청정' 제주도 비상 걸게한 '메르스 관광객' 논란 송고시간2015-06-19 08:22 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 정아란 기자 기자 페이지 "이기주의의 초절정" 비판…"그 사람도 피해자" 두둔도 (서울=연합뉴스) 정아란 기자 = 중동호흡기증후군(메르스) 확진 환자가 증상이 있는 상태로 제주를 관광한 사실이 뒤늦게 밝혀지면서 누리꾼들은 '청정' 제주까지 메르스 발병 지역이 될까 불안함을 감추지 못했다. 특히 그 주인공인 141번 환자가 수일 뒤 서울 강남세브란스 병원에서 "내가 메르스에 걸렸다면 다 퍼뜨리고 다니겠다"면서 탈출 소동을 벌인 40대 남성이었다는 점에서 사람들의 분노는 더 커졌다. 네이버 아이디 'shar****'는 "141번 환자는 이기주의 초절정"이라면서 "50만 제주도민은 무슨 죄냐"고 말했다. 광고 네이버 아이디 'sall****'는 "제주도는 경제적으로 타격을 입었다"면서 "방송이 나가자마자 시장이나 마트, 식당에 손님이 뚝 끊겼다는 것이 한눈에 보일 정도"라고 전했다. 'julyinsummer'라는 아이디를 쓰는 트위터리안은 경악을 금치 못하면서 "보도가 사실이라면 (영업을 중단한) 신라호텔은 손해배상을 청구하고, 제주에서 발생할 모든 메르스 환자 치료비용은 141번 환자가 대야 한다"고 주장했다. 141번 환자는 지난달 27일 아버지 정기검진을 위해 함께 삼성서울병원에 들렀다가 메르스에 감염된 것으로 알려졌다. 그가 5~8일 나흘간 제주도를 관광했을 당시 아직 삼성서울병원 부분 폐쇄 이야기가 나오지 않았고, 자가 격리 상태도 아니었다는 점 등을 들어 그를 두둔하는 사람들도 적지 않았다. 네이버 아이디 'fant****'는 "자신이 메르스에 걸렸다는 걸 모른 채 제주도에 간 것인데 왜 비난하느냐"면서 "정부나 서울삼성병원이 투명하게 발표하기 전이니 이 사람도 피해자"라고 주장했다. 또다른 아이디 'pkfa****'도 "141번 환자가 자가격리 중에 난동을 부리고 제주도로 여행간 것으로 많은 분이 오해하는 듯 하다"면서 "우리가 알아야 하는 사실은 병원 공개와 격리가 늦어서 메르스 환자가 제주도로 갔다는 것"이라고 강조했다. airan@yna.co.kr 관련기사 메르스 발생 한 달…SNS 관련 언급량 감소세 WHO 결론은…"한국 메르스, 이례적이지만 이길 수 있다" 메르스 환자, 의심증상 상태서 제주 관광…방역 비상(종합2보) 제주신라호텔 "메르스 우려 사라질 때까지 영업중단"(종합) 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/06/19 08:22 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 80대 아버지 흉기로 찔러 살해…60대 아들 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 혼자 사는 70대 여성 살해하고 달아난 50대 검거 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 선우은숙, 4살 연하 아나운서 유영재와 재혼 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 25 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도가 추천하는 관광사업체 41곳은? &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 11:41 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 제주도교육청-대학 간 교육 협력 제도화 조례 제정 ‘시동’ JDC, 제주도-첨단과기단지 투자기업 '파트너스데이' 제주도 중학교 과밀학급 29.8%...전국 2위 ‘콩나물 교실’ 여전 제주도, 민간일자리 창출 소상공인에 사회보험료 전액 지원 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도가 추천하는 관광사업체 41곳은? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도가 추천하는 관광사업체 41곳은? 기자명 이승록 기자					(leerevol@naver.com) 입력 2015.06.26 10:41 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 품질 높은 관광서비스를 제공하는 41개 업소를 발굴, 7월1일자로 우수관광사업체로 지정한다고 26일 밝혔다.지정된 우수관광사업체는 2017년 6월30일까지 2년간 자격이 인정되며, 지정업체에 대해서는 우수관광사업체 인증패 부착 및 홍보지원비가 지급된다.제주관광진흥기금 우대지원, 우수관광사업체 홍보물 제작, 제주도 관광정보 홈페이지 게재, 인증마크 활용 등의 혜택이 주어진다.우수관광사업체는 음식점 9곳, 숙박업소 12곳, 관광지 18곳, 여행사 1곳, 교통업체 3곳 등이다.우수관광사업체 지정제도는 제주특별법에 따라 2008년부터 운영되고 있으며, 현재 총 143곳이 지정됐다.  2015년도 상반기 제주특별자치도 우수관광사업체 지정 업체❍ 음식분야 : 9개소 (신규 6, 재지정 3)구분사업체명세부업종대표자소재지연락처신규쌍둥이횟집본점일식이상철서귀포시 중정로 62번길 14 (서귀동)762-0478(주) 천해천샤브샤브채규조제주시 한라대학로 25 (노형동)742-1101씨푸드샹그릴라(주)뷔페허옥석외서귀포시 중문관광로 154-17 (색달동)738-2888중문비치카오카오뷔페허옥석외서귀포시 중문관광로 154-17 (색달동)738-2888돌하르방뚝배기식당한식노현규서귀포시 성산읍 일출로 264 (성산리)784-6888토끼와거북이한식문홍택제주시 서해안로 498-6 (용담삼동, 101호)713-4444재지정사해방중식김병준서귀포시 중문관광로 336 (대포동)738-7775다미진횟집일식황옥희서귀포시 표선면 민속해안로 578-1(표선리)787-5050제주오라성한식고성익제주시 오라남로 16 (오라이동)748-3005❍ 숙박분야 : 12개소 (신규 3, 재지정 9)구분사업체명세부업종대표자소재지연락처신규마이호텔호텔양인철제주시 은남1길 26 (연동)743-5001마라도호텔호텔홍지수제주시 도남로 4 (삼도일동)727-3004북경모텔여관신순열제주시 사라봉9길 14 (건입동)758-0441재지정포시즌민박한은주서귀포시 칠십리로 285번길 3-1 (토평동)732-5222파인비치민박한민경서귀포시 칠십리로 285번길 3 (토평동)732-5224센트럴호텔여관강봉순제주시 사장1길 30 (연동)748-2511빌로우비치호텔호텔박진태제주시 애월읍 곽지1길 23 (곽지리)799-2345비치스토리호텔고근택제주시 조천읍 조함해안로 492-5 (함덕리)784-7400뉴제주호텔호텔김태관제주시 원노형6길 2 (노형동)743-7001스위트모텔호텔신동환제주시 삼무로3길 9 (연동)744-1144발리호텔호텔강태희제주시 삼무로 26 (연동)745-0016노블레스호텔호텔김유진제주시 연동8길 31 (연동)748-1500❍ 관광지분야 : 18개소 (신규 1, 재지정 17)구분사업체명세부업종대표자소재지연락처신규제주씨월드(주)체험공연시설형고규완서귀포시 성산읍 성산등용로 130-21 (성산리)784-5674재지정부국개발(주)여미지식물원옥외시설형남상규서귀포시 중문관광로 93 (색달동)735-1100세계자동차제주박물관전시시설형김영락서귀포시 안덕면 중산간서로 1610 (상창리)792-3000(주)삼영관광 일출랜드옥외시설형강재업서귀포시 성산읍 중산간동로 4150-30 (삼달리)784-2080대국해저관광(주)서귀포잠수함체험공연시설형김용이서귀포시 남성중로 40 (서홍동)732-6060(주)산굼부리자연자원형김명진제주시 조천읍 비자림로 768 (교래리)783-9900(주)아프리카박물관전시시설형한종훈서귀포시 이어도로 49 (대포동)738-6565(주)소인국테마파크옥외시설형진동열서귀포시 안덕면 중산간서로 1878 (서광리)794-5400제주허브동산옥외시설형조재권서귀포시 표선면 돈오름로 170 (표선리)787-7362제주민속촌전시시설형김흥식서귀포시 표선면 민속해안로 631-34 (표선리)787-4501휴애리(주)옥외시설형양지선서귀포시 남원읍 신례동로 256 (신례리)732-2114(주)청원 생각하는 정원옥외시설형성지연제주시 한경면 녹차분재로 675 (저지리)772-3701(주)제주테마조각공원 제주러브랜드옥외시설형최은주제주시 1100로 2894-72 (연동)712-6988방림원옥외시설형방한숙제주시 한경면 용금로 864 (저지리)773-0090퍼시픽랜드체험공연시설형허옥석고정학서귀포시 중문관광로 154-17 (색달동)738-2888제주테디베어박물관전시시설형전인학서귀포시 중문관광로 110번길 31 (색달동)738-7600한림공원옥외시설형송상훈제주시 한림읍 한림로 300 (협재리)796-0001(주)제주김녕미로공원유원지더스틴 프레들릭에이취제주시 구좌읍 김녕리 만장굴길 122 (김녕리)782-9266❍ 여행사분야 : 1개소 (신규 1)구분사업체명세부업종대표자소재지연락처신규(주)문주란여행사일반여행업조대희제주시 과원로 51-1 (연동)732-5222❍ 교통분야 : 1개소 (재지정 1)구분사업체명세부업종대표자소재지연락처재지정(주)제주오케이렌터카렌터카김종식외제주시 용문로 64 (용담이동)743-4000 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"제주도 메르스 관광객, 검사때 ‘내가 메르스면 다 퍼뜨릴것’…소란"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 최신기사 제주도 메르스 관광객, 검사때 ‘내가 메르스면 다 퍼뜨릴것’…소란 2015.06.18 15:57 [헤럴드경제]지난 13일 중동호흡기증후군(메르스) 확진 판정을 받은 141번(42) 환자가 확진 며칠 전 가족과 제주에서 3박 4일간 여행하며 공항과 관광지 등을 방문한 것으로 확인돼 ‘메르스 청정지역’을 유지해 온 제주도 보건당국에 비상이 걸렸다.18일 제주도 메르스 관리대책본부에 따르면 141번 환자는 지난 5일 오후 부인과 아들, 다른 가족 등 8명과 함께 항공편으로 제주공항에 도착했다.렌터카를 타고 오후 5시께 서귀포시 중문관광단지 신라호텔에 도착한 환자 일행은 오후 6시쯤 신라호텔 앞 고깃집에서 식사한 뒤 숙소로 돌아왔다.여행 둘째 날인 6일에는 아침에 호텔 뷔페에서, 점심에 호텔 수영장의 식당에서, 저녁에 제주시 해안도로의 횟집에서 각각 식사했다.셋째 날인 7일에는 오전 11시께 호텔 뷔페에서 아침식사를 한 뒤 서귀포시 남원읍의 코코몽에코파크를 방문했으며, 오후 3시께 제주시 조천읍의 승마장에 갔다. 오후 5시쯤 호텔에 돌아온 141번 환자의 일행은 고깃집에서 저녁식사를 했으나 141번 환자는 이 자리에 불참했다.이 환자 일행은 8일 오전 호텔 뷔페에서 아침식사를 한 뒤 제주공항에서 항공편으로 귀경했다. 이 환자는 신라호텔에서는 뷔페와 수영장, 식당 외에 다른 시설은 이용하지 않았다고 밝힌 것으로 알려졌다.또한 여행 중 몸이 좋지 않아 혼자서 차에 머무르는 시간이 많았다고 해 이때부터 메르스 증상이 나타난 것이 아닌지 의심된다.이 환자는 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 메르스에 감염됐을 것으로 추정된다. 이 환자는 제주 여행을 마친 다음 날인 9일 오후 직장에서 퇴근한 뒤 발열과 기침 등의 증세를 보였으며, 지난 13일 최종 확진 판정을 받았다.이 환자의 부인과 아들 등 밀접접촉자에게서는 현재까지 발열 등 특이증상은 나타나지 않은 것으로 알려졌다. 도 메르스 관리대책본부는 신라호텔의 폐쇄회로(CC)TV와 직원의 진술 등을 통해 현재까지 34명의 밀접접촉자를 파악하고 이 가운데 신원이 확인된 호텔 직원 31명에 대해 자가격리하도록 통보했다. 이들은 모두 환자와 2ｍ 이내 거리에 있던 사람들이다. 호텔에는 영업을 자제해달라고 통보했다.공항과 이 환자가 방문한 관광지, 렌터카 회사 등의 폐쇄회로(CC)TV 영상을 확보해 이 환자의 정확한 여행 동선을 파악하고 중앙대책본부 중앙역학조사반과 전반적인 역학조사를 시행한다. 또한 밀접접촉자를 파악해 격리 조치하고, 해당 시설에 대해서는 방역작업을 벌인다. 확진 환자 동선에 포함되는 식당과 관광지 등을 이용한 도민과 관광객은 보건소에 신고해달라고 요청할 계획이다.한편 141번 환자는 강남세브란스병원에서 메르스 검사를 받던 중 “내가 메르스에 걸렸다면 다 퍼뜨리고 다니겠다”며 소란을 부렸으며, 검사 결과도 기다리지 않고 걸쇠를 부수고 진료소를 벗어나 택시를 타고 집에 돌아가기도 했다.메르스 검사를 받던 중 “내가 메르스에 걸렸다면 다 퍼뜨리고 다니겠다”며 소란을 부렸으며, 검사 결과도 기다리지 않고 걸쇠를 부수고 진료소를 벗어나 택시를 타고 집에 돌아가기도 했다.onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>신라호텔, 제주도 관광 메르스 환자 발생에 방역소독 실시 menu search 전체기사 리폿@ 스타 TV 가요 영화 해외 인터뷰 이슈 SNS close 전체기사 리폿@ 스타 TV 가요 영화 해외 인터뷰 이슈 SNS search close 신라호텔, 제주도 관광 메르스 환자 발생에 방역소독 실시 기사입력 2015.06.18 1:16 PM 신라호텔 제주 메르스 [TV리포트=김명석 기자] 제주도를 관광한 42세 남성이 중동호흡기증후군(메르스) 확진 판정을 받았다. 18일 제주도 메르스 관리대책본부는 지난 5일 오전 항공편으로 가족과 함께 제주도에 도착해 8일 오후 서울로 간 남성 관광객(141번 환자)이 메르스 확진 판정을 받았다고 밝혔다. 제주 메르스 관광객은 지난 5일 오후 4시 아내, 아들, 친구 부부 등 4가족과 함께 제주공항에 도착한 뒤 렌터카를 이용해 서귀포시 중문관광단지 신라호텔에 도착했다. 이후 3박4일간 신라호텔에 머물며 횟집 등에서 식사를 하고 승마장 등 관광지를 이용한 뒤 8일 제주도를 떠난 것으로 조사됐다. 이 관광객은 공항을 통해 제주에 올 당시 발열검사에서 별다른 증상을 보이지 않았지만 9일 오후 4시께 발열 및 기침 증세를 보이지 11일까지 출근하지 않고 집에서 휴식을 취했다. 이후 12일 보건소 1차 검사 결과 양성판정을 받고 13일 국립모건연구원에서 2차 검사 결과 최종확진 판정을 받았다. 당국은 제주도 메르스 관광객이 지난달 27일 삼성서울병원에서 외래 정기검진을 받은 부친과 동행했다가 14번 환자와 접촉했을 것으로 추정하고 있다. 제주도는 메르스 관광객 동선에 포함되는 식당과 관광지 등을 공개하고 이곳을 이용한 도민들은 보건소에 신고해달라고 요청할 계획이며 해당 시설에 대해 긴급 방역 소독을 식시할 방침이다. 또 신라호텔에서 이 환자의 호텔 내 동선을 파악하고 폐쇄회로(CC)TV를 확인해 34명의 밀접접촉자를 분류했다. 제주도는 이중 31명의 신원을 확인해 자가격리 통보했다. 김명석 기자 kms0228@tvreport.co.kr / 사진=제주도 메르스 신라호텔 인기 글 34세 男배우, 20살 어린 미성년과 교제 '충격' “엄태웅♥” 윤혜진, 럭셔리 하우스에서 발레 하는 일상[리포트:컷] ‘노출 소신’ 고백 후 다시 노출 감행한 톱배우 김성령, 깜짝 놀란 근황.. ‘다이애나 비’ 헤어도 소화하는 미코진 클래스[리포트:컷] 김구라 "TV에 압류딱지 붙어...누가 다녀갔나 섬뜩" 미인대회女 “전 남친 염산테러로 피부+시력 잃어” 최신 글 옷 지적에 존댓말 강요까지, 김숙 "우리 아버지도 저런 말 안 해" 분노 ('연참3') 박설이 / 2022-10-11 11:44:37 '뉴욕댁' 이진, 미국서 골프 삼매경...남다른 스윙 자태 [리포트:컷] 노민택 / 2022-10-11 11:40:00 (여자)아이들 'I love', 선주문 70만 장 돌파...자체 최고 박설이 / 2022-10-11 11:27:04 제시카, 중국 친구들과 상하이 디즈니 나들이 [리포트:컷] 박설이 / 2022-10-11 11:07:38 모태범, ♥임사랑母 만날 준비? 요리 수업 받는다 ('신랑수업') 박설이 / 2022-10-11 10:59:56 마마무, 오늘(11일) 1년 만 완전체 컴백 박설이 / 2022-10-11 10:52:41 이경규 딸 이예림, ♥김영찬이 설렌 청순한 미모 [리포트:컷] 노민택 / 2022-10-11 10:43:06 명칭: (주)티비리포트 / 제호: 티비리포트 / 등록번호: 서울 아00301 / 등록(발행)일자: 2006년 12월 21일 발행인・편집인: 백승현 / 청소년보호책임자: 김시은 / 발행소: 서울시 강남구 언주로 135길 32-11, 2층 전화번호 : 02-3444-0367 Copyrightⓒ2014 TV리포트. All rights reserved. 청소년보호정책 명칭: (주)티비리포트 / 제호: 티비리포트 등록번호: 서울 아00301 / 등록(발행)일자: 2006년 12월 21일 발행인・편집인: 백승현 / 청소년보호책임자: 김시은 발행소: 서울시 강남구 언주로 135길 32-11, 2층 전화번호 : 02-3444-0367 Copyrightⓒ2014 TV리포트. All rights reserved. 청소년보호정책</t>
+  </si>
+  <si>
+    <t>제주도 학생 270명과 교사 14명 자가격리 중, 메르스 환자 관광여파 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도 학생 270명과 교사 14명 자가격리 중, 메르스 환자 관광여파 입력 : 2015-06-22 11:40:23 수정 : 2015-06-22 13:32:31 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 메르스(중동호흡기증후군) 141번째 환자 A(42)씨가 확진 판정 전 제주 여행을 다녀옴에 따라 A씨와 접촉했던 업소의 직원 등의 자녀들이 자가 격리조치 됐다. 22일 제주도교육청에 따르면 이날 오전 9시 현재 도내 87개 유치원·초·중·고등학교의 학생 270명과 교직원 14명 등 284명이 메르스 예방을 위해 오는 24일까지 자가격리돼 등교 또는 출근하지 않고 있다. 이들은 141번째 환자가 확진 판정 전인 지난 5∼8일 제주 여행을 하며 들렀던 신라호텔·관광지·식당 등을 함께 이용한 사람, 이들 업소의 직원과 이들의 자녀 등이다. 또 메르스 확진 환자가 들렀던 부산한서병원에서 진료를 받은 초등학생 1명이 부산에서 자가격리 중이며 앞서 자가격리된 학생·교직원 27명은 격리 기간이 끝나 정상적으로 등교·출근하고 있다. 박태훈 기자 buckbak@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20150622002142 0101080100000 0 2015-06-22 13:32:31 2015-06-22 13:32:31 0 제주도 학생 270명과 교사 14명 자가격리 중, 메르스 환자 관광여파 세계닷컴 박태훈 0028f8cc-c883-4815-9315-2c6633fff652 buckbak@segye.com 관련 뉴스 메르스 사망자 2명 늘어 총 27명…용인 80대 101번 환자 사망 메르스 76번 환자 '제 4의 슈퍼 전파자'될까, 지금까지 8명 감염시켜 평택서 수사팀 정상화, 메르스 경찰관 접촉으로 격리됐던 13명 업무복귀 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>"제주도 메르스, 서귀포시 일대에서 관광..."제주신라호텔 영업 중단""- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 뉴스 제주도 메르스, 서귀포시 일대에서 관광..."제주신라호텔 영업 중단" 2015.06.18 19:28 사진 : YTN뉴스[헤럴드 리뷰스타=이진아 기자] 메르스 판정을 받은 141번 환자가 확진 며칠 전 가족과 제주여행을 다녀온 것으로 전해져 충격을 주고 있다. 18일 제주도 메르스 관리대책본부에 따르면 141번 환자는 지난 5일 오후 부인과 아들, 다른 가족 등 8명과 함께 항공편으로 제주공항에 도착했다. 5일 오후 5시께 제주도 서귀포시 중문관광단지 신라호텔에 도착한 환자 일행은 오후 6시께 신라호텔 앞 고깃집에서 식사한 뒤 숙소로 돌아왔다. 또한 6일에는 신라호텔 뷔페에서, 호텔 수영장에서 머문 것으로 전해졌다. 이에 18일 제주 신라호텔 측은 "메르스 우려가 사라질 때까지 영업을 잠정 중단하고 투숙객을 이날 모두 돌려보낼 것"이라며 "뷔페나 수영장 등 부대시설 운영도 중단한다"고 밝혔다. 제주도는 전날 보건복지부 중앙메르스관리대책본부로부터 141번 환자가 신라호텔을 머물렀던 사실을 통보받은 뒤 호텔 측에 영업 자제를 당부했다. 호텔 관계자는 "고객의 안전과 건강을 고려해 내린 결정"이라며 "투숙객에 대해 숙박료 환불이나 타 숙박시설 안내, 항공편 안내 등 필요한 조치를 할 것"이라고 전했다. 제주도 메르스 소식을 접한 누리꾼들은 "제주도 메르스, 제발 아무 일도 없었으면" "제주도 메르스, 청정지역이었는데" "제주도 메르스, 동선파악 다 된건가"등의 반응을 보이고 있다. idsoft3@reviewstar.net 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>"40대 제주도 관광객 메르스 확진…신라호텔 영업 잠정 중단, 비행기 승객 명단 확보"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 최신기사 40대 제주도 관광객 메르스 확진…신라호텔 영업 잠정 중단, 비행기 승객 명단 확보 2015.06.18 17:25 [헤럴드 경제] 지난 13일 메르스 확진 판정을 받은 40대 남성이 제주도를 여행했던 것으로 확인됐다.제주특별자치도 메르스관리대책본부는 이날 141번 환자(42)가 지난 5일 오전 제주도에 관광차 왔다가 8일 오후 서울로 돌아갔다고 밝혔다.141번 환자는 당시 배우자와 아들, 친구 부부 등 8명과 함께 제주 서귀포시 중문관광단지 신라호텔에 3박4일간 투숙하면서 승마장 등 관광지를 돌아다녔다. 사진=게티이미지서울로 돌아온 141번 환자는 9일 오후 4시쯤 발열과 기침 증세를 보여 11일까지 출근하지 않고 집에서 휴식을 취했으며, 12일 보건소를 찾았다가 메르스 의심자로 분류됐다. 이날 1차 검사에서 양성 판정을 받았고, 이튿날(13일) 2차 검사에서 확진 판정을 받았다.보건복지부 중앙메르스관리대책본부는 141번 환자가 지난달 27일 아버지가 삼성서울병원에 정기건강검진차 방문했을 때 동행했다가 14번 환자에게 감염된 것으로 추정하고 있다.이에 따라 141번 환자가 확진 판정 전인 지난 5∼8일 제주 여행을 하며 묵었던 제주 서귀포시 중문관광단지의 신라호텔이 메르스 우려가 사라질 때까지 영업을 잠정 중단하기로 했다. 신라호텔 측은 18일 “메르스 우려가 사라질 때까지 영업을 잠정 중단하고 이날 투숙객을 모두 돌려보낼 예정”이라며 “뷔페와 수영장 등의 부대시설 운영도 중단한다”고 밝혔다. 방역당국은 141번 환자 가족과 호텔 직원, 비행기 승무원 등 밀접접촉자 56명을 자가격리 조치했다. 또 김포~서울을 오가는 비행기에 함께 탔던 승객 500여 명 명단을 확보해 메르스 증상 여부를 파악 중이다.onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 이효리 집, 얼마나 많은 관광객이 찾아가기에… 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아닷컴|연예 제주도 이효리 집, 얼마나 많은 관광객이 찾아가기에… 최우혁기자 입력 2015-06-16 18:31업데이트 2015-06-16 18:32 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 제주도에 집을 짓고 결혼생활을 하고 있는 가수 이효리(여·36)가 일부 관광객의 지나친 관심 때문에 사생활 침해를 받고 있다고 토로했다.이효리는 15일 오후 자신의 페이스북에 ‘친애하는 제주도 관광객 여러분들께’라는 글을 올렸다.이효리는 “죄송하지만 저희(이효리·이상순(41·가수) 부부) 집은 ‘관광코스’가 아니다”며 “아침부터 밤까지 하루에도 수십 차례 울리는 초인종과 경보음으로 저희 모두 심한 스트레스를 받고 있다”고 밝혔다.이효리는 이어 “참고로 저희 집은 대문 밖에선 나무에 가려 집도 전혀 보이지 않습니다. 힘들게 오셔도 헛걸음만 하실 수 있다”며 “사진도 많이 올릴 테니 서운해 하지 말아 달라” 당부했다. 한편, 이효리는 블로그와 개인 SNS(소셜네트워크서비스)를 통해 제주도 ‘소길댁’으로서 소탈한 일상을 공개했으나 최근 모든 콘텐츠를 삭제한 상태다.앞서 지난해 6월에도 이효리는 자신의 트위터에 이번과 거의 같은 내용으로 일부 관광객의 ‘무작정 방문’으로 인해 불편함을 호소한 바 있다.이효리 페이스북의 글을 접한 네티즌들은, “이효리가 연예인이지만 사생활은 지켜 줘야한다”, “이효리 씨가 죄송해 할 이유가 없다”, “매너 없는 사람들이 많구나”, “이효리 씨 힘내세요!”, “이효리 씨 얼마나 힘들었으면 이렇게 당부할까”라며 일부 관광객들의 행태에 대해 비판하고 이효리를 격려하는 댓글이 이어졌다.동아닷컴 디지털뉴스팀 기사제보 dnews@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 8 “간사 간 협의하라” “체면 좀 차려라”…감사원 국감 8분만에 파행 9 신혜성, 만취해 남의 차 끌고 운전…음주측정도 거부해 체포 10 의원 보좌진이 기업 임원에 “국회로 들어오라”… 아침에 가니 한밤 나타나 “요즘 인사 잘 안오네” 최신기사 김진욱 공수처장 “부장검사 6명, 모두 檢 출신…공수처 진용 갖췄다” 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 택시기사 연매출, 배달업 3분의 1 수준에도 못미쳐 주호영 “짧은 시간 묻고 보내는 증인 없는지 점검”…‘갑질 국감’ 주의 당부 ‘푸틴 동원령’에 블라디서 러男 8명 태운 요트 동해 입항 -BBC 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 메르스 관광객, 뒤늦게 기침 사실 알려 "논란" 제주도 메르스 관광객, 뒤늦게 기침 사실 알려 "논란" - 스포츠 월드- 세계일보 세계비즈 스포츠월드를 시작페이지로 지면보기 구독신청 RSS 스포츠월드 Naver Kakao 스포츠 전체메뉴 검색 스포츠 야구 프로야구 해외야구 야구일반 축구 프로축구 해외축구 축구일반 골프 국내골프 해외골프 골프일반 농구/배구 프로농구 NBA 농구일반 프로배구 배구일반 e스포츠 스포츠종합 격투기 해외스포츠 스포츠일반 연예 방송/TV 가요/음악 영화 공연/문화 해외연예 연예일반 문화일반 레저&amp;조이 경륜-경마-경정 토토 레저-조이일반 라이프 여행/레저 건강 포토 핫포토 스포츠 연예 이슈 사회 칼럼 피플 온라인이슈 제주도 메르스 관광객, 뒤늦게 기침 사실 알려 '논란' 입력 : 2015-06-19 10:22:02 수정 : 2015-06-19 10:22:02 인쇄 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주도 메르스 관광객이 소란을 피운 사실이 알려졌다. 제주도는 지난 17일 중앙대책본부로부터 "지난 5일부터 8일까지 제주 관광에 나섰던 40대 남자 관광객이 '메르스 141번 확진 환자'로 확인됐다는 사실을 통보받았다"고 밝혔다. 이어 보건당국은 19일 "확진 판정이 나온 지 나흘이 지난 어제서야 해당 환자가 일선 보건소로부터 제주 여행 사실을 보고 받았다"면서 "제주도에 함께 다녀온 사람들이 여행 도중, 이 환자가 기침을 했다는 사실을 해당 보건소에 알렸다"고 밝혔다. 제주 메르스 관광객은 친구 부부 등 모두 네 가족과 함께 제주공항에 도착한 뒤 렌터카로 서귀포 중문으로 이동해 그 곳에 있던 호텔에서 3박 4일 동안 머물면서 횟집 등에서 식사하고 승마장 등 관광지를 이용한 것으로 파악됐다. 또한 제주 메르스 관광객 환자는 강남세브란스병원에서 메르스 검사를 받던 중 "내가 메르스에 걸렸다면 다 퍼뜨리고 다니겠다"며 소란을 부렸으며, 검사 결과도 기다리지 않고 걸쇠를 부수고 진료소를 벗어나 택시를 타고 집에 돌아가기도 해 논란에 휩싸였다. 제주 메르스 관광객 소식에 누리꾼들은 '제주 메르스 관광객, 제주도도 청정지역이 아니네''제주 메르스 관광객, 미쳤네''제주 메르스 관광객, 정신 나갔군' 등의 반응을 보이고 있다. 온라인 뉴스팀 사진=YTN &lt;스포츠월드&gt;스포츠월드&gt; 20150619001101 1140050000000 0 2015-06-19 10:22:2 2015-06-19 10:22:2 0 제주도 메르스 관광객, 뒤늦게 기침 사실 알려 '논란' 스포츠월드 김동현 0028f8cc-c883-4815-9315-2c6633fff652 많이 본 뉴스 연예 스포츠 라이프 포토 연예 스포츠 라이프 포토 HOT레드 별, 막내딸 희귀병 투병 고백 "폭풍 같은 한 달" '임창정♥' 서하얀, 이러니 살찔 틈이 없지 톱모델 한혜진, 20년간 유지한 모닝 루틴 돈 스파이크, 필로폰 1천 회분 압수 '충격' 조예영♥한정민, 공항서 애틋한 이별 제시, 싸이 품 떠나더니…안타까운 링거 투혼 곽도원, 제주서 음주운전…차기작 불똥 육준서, 공적 활동 중단 선언…왜? '고딩엄빠2' 출연자, 조작 방송 폭로…"작가가 시켜" 포토 회사소개 지면광고 온라인광고 구독신청 연락처 독자인권위원회 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 스포츠월드 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아52423 등록일(발행일) : 2019년 6월 23일 발행인·편집인 : 정희택 전화번호 : 02-2000-1800 청소년보호 책임자 : 류근원 Copyright ⓒ 스포츠월드 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 일본군 전쟁유적 정비… 교육·관광 등에 적극 활용한다-국민일보 시사 시사 &gt; 전체기사 제주도, 일본군 전쟁유적 정비… 교육·관광 등에 적극 활용한다 입력 : 2015-06-23 02:53 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주에 산재한 일본군 전쟁유적을 정비해 교육 및 관광에 활용하는 방안이 추진된다. 제주도는 태평양 전쟁유적에 대한 정비 및 활용에 150억원의 사업비가 필요한 것으로 예상된다고 22일 밝혔다. 도는 ‘제주 태평양전쟁유적(제주도 일본군 침략전쟁유적) 종합정비 및 활용계획’ 수립을 위한 용역보고서를 제출받음에 따라 본격적인 정비작업을 시작할 방침이다. 용역보고서에 따르면 도내 태평양전쟁유적은 동굴진지 102곳과 건조물 12곳, 비행장 유적지 3곳 등 117곳으로 조사됐다. 보고서는 동굴진지 가운데 사라봉·어승생악·가마오름·서우봉·셋알오름·일출봉 해안·송악산 해안과 외륜에 위치한 등록문화재 진지동굴 8곳, 수월봉·월라봉·단산에 남아 있는 비지정 동굴진지 3곳에 관람 공간을 조성하고, 탐방로를 개설할 것을 주문했다. 보고서는 또 가마오름 동굴진지에 태평양 전쟁의 참상을 알리는 박물관을 건립, 역사 교육의 장으로 활용하고 관광자원화 하는 방안을 제시했다. 서귀포시 알뜨르비행장 전체를 문화재로 지정하고, 올레 10코스와 연계해 방문객을 유도하는 방안도 담겼다. 사업비용은 가마오름 박물관 조성에 99억8900만원, 동굴진지 정비에 37억원, 남제주 비행기 격납고 등 건조물 정비에 18억원이 소요될 예정이다. 제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다” 국제유가, 주유소 기름값 영향 시점은…제주도, 시차 조사 착수 경기도, 중소기업·도민 대상 지식재산 역량 강화 지원 외국인 노동자 상대 마약 유통, 태국인 무더기 검거 美 명문 스탠퍼드대, 캠퍼스 내 대낮 성폭행 잇따라</t>
+  </si>
+  <si>
+    <t>‘발열 증상’ 제주도 관광객 등 5명 메르스 검사 ‘음성’ ‘발열 증상’ 제주도 관광객 등 5명 메르스 검사 ‘음성’ : 스포츠조선 뉴스 최신뉴스 카드뉴스 PDF 보기 포토 펀펌 스포츠 야구 축구 농구 배구 골프 학교체육 연예 SC초점 SC이슈 SC현장 라이프 여행레저 헬스케어 Family Site 청룡영화상 청룡시리즈어워즈 조선일보 와이즈토토 야구 축구 종합 연예 라이프 포토 만화 운세 Diva 운세의신 달리고 펀펌 사회 ‘발열 증상’ 제주도 관광객 등 5명 메르스 검사 ‘음성’ 기사입력 2015-06-19 09:41:56 제주 메르스 관광객 ⓒAFPBBNews = News1발열 증상을 보인 제주도 관광객과 도민 등 5명이 중동호흡기증후군(MERS 메르스) 검사 결과 모두 음성으로 판정됐다.제주도 메르스 관리대책본부는 18일 발열 증상을 보인 관광객과 도민 등 5명에 대해 메르스 감염 여부 검사 결과 모두 음성으로 판정됐다고 밝혔다. 이날 오전 11시 30분께 대구에서 제주에 온 관광객 A씨(48·여)는 제주공항 열 감지기에서 발열 현상을 보여 체온을 측정한 결과 38도로 확인돼 제주대학교병원에 격리돼 검사를 받았다.발열·기침·설사 등의 증상을 보인 B씨(41·여·제주공항 면세점 근무), 발열과 두통 증세를 보인 C씨(56·여), 열은 없지만 기침이 계속된 31세 남성, 미열을 보이는 30세 여성도 검사를 받았다.그러나 이들 모두 음성 판정을 받았다.이보다 앞서 검사를 진행한 삼성서울병원 방문자(25세 여성)와 제주대병원 입원환자(87세 남성), 2차 검사를 받은 4명 역시 모두 음성으로 판정됐다.지난 2일부터 현재까지 제주지역 메르스 의심 신고자는 모두 49명이며, 이들 가운데 양성 판정을 받은 사람은 아직 없다.아버지가 메르스 확진 판정을 받아 격리됐던 여성 관광객은 격리 해제돼 귀가했다. &lt;스포츠조선닷컴&gt;제주 메르스 관광객 제주 메르스 관광객 ☞ 할리우드 여신들의 눈부신 몸매 '디바'☞ 중국인이 읽는 한류 뉴스 '올댓스타' 스포츠조선, 무단 전재 및 재배포 금지※보도자료 및 기사제보 news@sportschosun.com - 톱배우 충격 근황..파킨슨병으로 불편한 모습 “온몸 두들겨 맞는듯한 한해 보내” 김지민 “쌍둥이 임신해서 ♥김준호와 결혼한다고”→박미선 “떠밀려 결혼하지 마” '부모 빚투' 마이크로닷, '닭발집' 앞에서 근황을? 코 수술·뮤비 촬영 위해 귀국 '뺑소니' 조형기, 방송가 사라진 후 “美 필라델피아서 자주 목격” 박미선·김용만 불화로 갈등..“좋은 사람 아닌 것 같아” 연예 많이본뉴스 1."사는게 사는게 아니었다"…1세대 예능인 이용식 아내 충격 고백 이유('건강한집') 2.'여동생 칼로 찌르겠다'에 화났던 헨리, 또 뿔났다…"최악의 날, 복수할 수도 없고" 3.[SC리뷰]'백종원♥'소유진, 큰 집이 고민?… "식탁 3m 넘어"('홈즈') 4.'재벌가 며느리' 이향, 4살 아들과 해외 여행도 럭셔리하게…근데 후회된다니 5.[SC리뷰] '청담동 65억 건물주' 장성규 "과거 주식으로 전재산 잃어"('미우새') 스포츠 많이본뉴스 1.'스무살 한국 청년'이 타이거 우즈 기록 깼다…김주형, PGA투어 최연소 다승 신기록! 2.35세 베테랑 투수 신정락 떠난다, 한화 선수 6명 웨이버 공시 3.'해킹당했다' 카시야스 충격 커밍아웃, 알고보니 해커 소행? 4.'SV왕' 고우석, '바람의 가족' 된다…이정후 동생과 백년가약 5.'절치부심 하위권' B등급 FA 최대어, 강민호는 무조건 넘는다...김현수는? 스포츠조선 회사소개 광고/제휴문의 사진대여 신문구독신청 개인정보처리방침 청소년보호정책 조선일보 와이즈토토 청룡영화상 등록번호 : 서울 아01720 등록일자 : 2011년 7월 29일 발행일자 : 2000년 11월 1일 주소 : 서울 양천구 목동동로 233-1 전화번호 :02-3219-8114 발행인 : 이성관 편집인 : 신보순 청소년보호책임자 : 이재훈 RSS PDF Copyright (c) SPORTSCHOSUN.COM All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 메르스 환자 발생, 원희룡 “외국인 관광객 1/5로 급감” | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제주도 메르스 환자 발생, 원희룡 “외국인 관광객 1/5로 급감” 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제주도 메르스 환자 발생, 원희룡 “외국인 관광객 1/5로 급감” 기자정보, 기사등록일 입력 2015-06-19 11:11 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 아주경제 석유선 기자 = 제주도에도 메르스 확진 환자가 발생한 가운데, 원희룡 제주도지사는 19일 메르스 사태 확산에 따른 여파로 "제주도를 찾는 외국인 관광객이 평소 보다 1/5로 급감하고 있다"고 우려를 표했다. 원 지사는 이날 오전 MBC 라디오 '신동호의 시선집중'에 출연, "이번 메르스 사태로 제주도를 찾는 관광객, 특히 외국인 관광객이 급감했으며 휴가철 예약도 줄줄이 취소되고 있다"면서 이같이 말했다. 그는 “우선 외국인 관광객이 평소에 예를 들어서 한 5000명이 왔다 그러면 지금 한 1000명 수준으로 줄어 있는 상태”라면서 “더 심각한 문제는 성수기인 7월, 8월에 예약이 많이 취소되고 신규예약이 이루어지고 있지 않기 때문에 사실 관광객의 감소는 앞으로 추이를 더 지켜봐야 되고 매우 심각하리라고 판단하고 있다”고 우려했다. 제주도에도 메르스 확진 환자가 발생한 가운데, 원희룡 제주도지사는 19일 메르스 사태 확산에 따른 여파로 "제주도를 찾는 외국인 관광객이 평소 보다 1/5로 급감하고 있다"고 우려를 표했다. [사진제공=제주도청] 또한 원 지사는 이른바 ‘제주 메르스 관광객’으로 알려진 141번 확진 환자가 발병 전 일행과 3박 4일간 제주도 여행을 다녀간 뒤 메르스가 발병한 것과 관련, “(제주도 여행) 당시에는 발병 전이었고 증상이 나타난 것은 이틀 후였기 때문에 질병관리본부나 도내에서 역학조사를 직접 한 팀들의 판단은 제주 체류 당시 감염돼 있을 가능성은 그리 크지 않다고 보고 있다”고 밝혔다. 그러면서 “하지만 저희는 단 1%의 (제주도 메르스에서 발생할) 가능성이 있다 하더라도 최악의 경우에 대비해 가장 강력한 조치를 취해야 한다고 생각하고 있다”고 메르스 확산 방지 대응에 만전을 기하고 있음을 강조했다. 앞서 전날 오후 원 지사는 도청 기자실에서 기자회견을 열고 메르스 추가 확산을 방지하기 위해, 141번 환자가 발병 전 제주도를 여행할 당시 동선을 공개했다. 이에 대해 원 지사는 “(141번 환자가 제주에 머물 당시) 밀접 접촉자는 모두 격리 조치를 하고 있다”고 밝혔다. 또한 제주도 메르스 확진 환자의 동행자들의 상태를 파악한 결과 의심증세를 보이는 이는 하나도 없다고 전했다. 관련기사제주도 메르스 의심 57명 전원 음성 판정…원희룡“메르스 확산 방지 최선”제주도 메르스 확진자, 잠복기 22일로 해제 #원희룡 #제주 메르스 관광객 #제주도 메르스 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4버거에 꽂힌 유통·식품업계 3세들 5원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 6세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 7숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>KBS NEWS Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 본문 영역 요청하신 페이지를 찾을 수 없습니다. 홈으로 이전 페이지 고객센터 전화번호 : 02-781-1000 (오전 08:00~오후 06:00) 고객센터 이메일 : news@kbs.co.kr 오늘의 HOT클릭! 동영상 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 호텔·관광지 '발칵'…메르스 전파 가능성은? | JTBC 뉴스 서비스 메뉴 바로가기 본문 바로가기 아티클 바로가기 프로그램 목록 바로가기 신문 중앙일보 중앙SUNDAY 일간스포츠 Korea Joongang Daily The Korea Daily 조인디 방송 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF JTBC worldwide 멀티플렉스 &amp; 레저 메가박스 필름 소사이어티 클래식 소사이어티 휘닉스 호텔앤드리조트 휘닉스 평창 휘닉스 섭지코지 매거진 &amp; 출판 월간중앙 이코노미스트 포브스코리아 중앙북스 엘르 바자 코스모폴리탄 에스콰이어 전문 콘텐트 조인스랜드 헬스미디어 차이나랩 어문연구소 영어의 신 ESU 서비스 JOINS PRIME 썰리 fol:in JTBC NOW JTBC NEWS OOH MEDIA 중앙멤버십 JJ라이프 렛츠고시골 TJ4대전충청 CLOSE JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC GOLF 중앙그룹 브랜드 회원가입 로그인 JTBC 뉴스 방송 편성표 JTBC JTBC2 JTBC GOLF&amp;SPORTS JTBC4 JTBC Golf 온에어 검색열기 키워드 검색하기 닫기 뉴스홈 속보 정치 경제 사회 국제 문화 연예 스포츠 날씨 다시보기 JTBC 뉴스룸 아침&amp; 썰전 라이브 정치부 회의 보도특집 오픈 저널리즘 타임라인 이슈 VOD 이슈 기자 구독 뉴스제보 JTBC SNS 여론조사 JTBC 뉴스룸 VOD 다시보기 AOD 다시듣기 팩트체크 밀착 카메라 비하인드+ 월페이퍼 카드뉴스 영상구성 랭킹 APP 제보하기 제주도 호텔·관광지 '발칵'…메르스 전파 가능성은? 입력 2015-06-19 09:34 크게 작게 프린트 메일 URL 줄이기 페이스북 트위터 복사 URL 줄이기 레이어 닫기 [앵커]메르스 문제, 좀 더 깊이있게 말씀 나누겠습니다.가톨릭대 의대 미생물학교실 백순영 교수 나오셨습니다. Q. 제주도 뚫리나…잠복 기간에 여행Q. 호텔·관광지 발칵…전파 가능성은Q. 투석실도 노출…110여명 어쩌나 관련기사"국내 첫 감염환자 회복 중"…확진 165명·사망 23명 강동경희대병원 새 진원지로?…투석실 이용자 격리 76번 확진자, 500여 명 접촉…새 '슈퍼전파자' 되나? '평택 경찰' 감염 경로는?…당국, '제3의 병원' 의심 삼성서울병원 간호사 확진…응급실 밖에서 또 감염 취재 황남희 | 해당 기자의 기사 구독신청 구독해지 반갑습니다^^ JTBC 뉴스로 인사드리고 있는 황남희 앵커입니다. 카메라 저 너머에 계실 시청자 여러분들을 항상 생각하겠습니다. 어떻게 하면 잘 들리는 뉴스를 할 수 있을까 늘 고민하겠습니다. 배려하는 앵커, 함께 공감하는 앵커가 되겠습니다. JTBC 뉴스 많이 사랑해주세요! 이메일블로그 이전 취재기자 보기 다음 취재기자 보기 이전 다음 JTBC 뉴스 카카오톡 공식 채널 친구추가 JTBC 뉴스 페이스북 공식 채널 좋아요 JTBC 뉴스 유튜브 공식 채널 구독하기 프린트 메일 페이스북 트위터 URL 줄이기 복사 URL 줄이기 레이어 닫기 JTBC 핫클릭</t>
+  </si>
+  <si>
+    <t>메르스 확진 제주도 관광객 묵은 ‘제주 신라호텔’ 영업 잠정중단 &lt; 뉴스 &lt; 사회 &lt; 시사&amp;이슈 &lt; 기사본문 - 시사포커스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:52 (화) 로그인 회원가입 후원하기 Family Site 시사신문 땡큐뉴스 포커스tv post blog facebook kakao instagram 시포TV 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 정치 국제 사회 문화 머니&amp;머니 경제정책 산업 소비자경제 금융 테크 숫자콕 시사&amp;이슈 머니&amp;머니 핫토픽 어린이 일자리 바이러스 전국뉴스 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 칼럼 인터뷰 기자수첩 포토뉴스 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 보도자료AD 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 메르스 확진 제주도 관광객 묵은 ‘제주 신라호텔’ 영업 잠정중단 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 시사&amp;이슈 사회 뉴스 메르스 확진 제주도 관광객 묵은 ‘제주 신라호텔’ 영업 잠정중단 기자명 장영혜 기자 입력 2015.06.19 13:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 메르스 진원지 삼성서울병원에 이어 신라호텔까지…삼성가 메르스 비상 ▲ 메르스 확진 판정을 받은 환자가 4일 동안 묵었던 제주 신라호텔이 영업을 잠정 중단한다고 밝혔다. ⓒTV조선뉴스 캡처 메르스 확진자가 4일 동안 머물렀던 ‘제주 신라호텔’에서 영업을 잠정 중단하겠다고 밝혔다, 제주 신라호텔 측은 메르스 관리대책본부가 어제(18일) 지난 5일 제주도로 여행을 떠나 나흘 간 머물렀던 141번(42·남) 환자가 메르스 확진 판정을 받았다고 발표하자, 메르스 감염 우려가 사라질 때까지 호텔 영업을 잠정 중지하겠다고 밝혔다. 141번 환자는 5월 27일 삼성서울병원에 외래 정기검진을 받는 부친과 동행했다가 14번 환자와 접촉해 감염된 것으로 파악됐다. 이후 그는 지난 5일 아내와 아들을 포함한 친구 부부 등 총 9명과 함께 대한항공 항공기를 타고 제주도에 도착해 3박 4일의 일정을 보냈다. 신라호텔 뷔페와 승마장, 테마파크 등에서 관광을 한 것으로 드러났다. 141번 환자는 8일 오후 서울로 돌아갔고, 9일 출근한 직장에서 퇴근한 뒤 발열 등 증세를 보여 11일까지 자택에서 휴식을 취했다. 이후 12일 메르스 1차 검사 결과 양성판정, 13일 2차 검사에서 메르스 확진판정을 받았다. 앞서 제주도 메르스 관리대책본부는 제주도 관광객 중 메르스 확진자가 발생하자 그가 머물렀던 숙소인 제주신라호텔 측에 영업 자제를 요청한 바 있다. 이에 신라호텔은 투숙객 전원을 퇴실 조치 했으며, 투숙객에 대해 숙박료 환불과 항공편 안내 등의 조치가 행할 방침이라고 밝혔다. 또한 호텔 운영 중단에 이어 뷔페와 수영장 등의 부대시설 운영도 중단할 예정이며, 현재 호텔 예약은 전혀 받지 않고 있다고 전했다. 삼성서울병원에서 많은 메르스 감염자가 발생한 데 이어 신라호텔까지 메르스에 노출되며 삼성그룹이 메르스에 몸살을 앓고 있다. [시사 포커스 / 장영혜 기자] 관련기사 보건복지부 “메르스 진정세 접어들었다 판단” 장영혜 기자 jyh0139@naver.com 다른기사 보기 저작권자 © 시사포커스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 [포토] 3년 만에 정조대왕 능행차하시다. [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 7일 15일 30일 1 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 2 [포토] 3년 만에 정조대왕 능행차하시다. 3 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 4 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 5 3년간 전기車 3배 늘었지만…고속도로 충전시설 '턱없이 부족' 6 [기획] 국감 화두로 떠오른 문재인, 민주당 ‘文 구하기’ 성공할까 7 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 8 [국감] 모다모다샴푸 위해성 성분 사용 논란, 보건복지위 국감장 후끈 9 [기획] 게이트 전쟁? 與 “성남FC·새만금 게이트” vs 野 “대감 게이트” 10 [국감] 지성호 “난 인권유린국 출신, 기업 자유 보장‧근로자 보호하는 한국에 충격” 1 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 2 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 3 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 4 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 5 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 6 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 7 [포토] 3년 만에 정조대왕 능행차하시다. 8 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 9 공유 PM 업체들, ‘블루오션’ 전기자전거 사업 뛰어든다 10 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 1 '청춘블라썸' 윤현수-오유진, '완벽재현' 캐릭터 포스터 전격 공개 2 [포토] 꽃말 '단란한 일가' 보라빛 버베나 꽃밭에서 추억만들기..... 3 [기획] 이준석 불송치에 상황 반전된 국힘, 윤리위도 '무리한 징계' 도마위 4 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 5 [포토] 꽃말 '섹시한 여인' 가우라 꽃밭에서 아름다운 데이트를... 6 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 7 [포토] 흥인지문 앞에서 육의전 축제 8 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 9 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 10 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 단독기사 의정부시 녹양역세권 개발, '토지주 vs 조합' 5년 소송 끝에 조합 승소 [경기북부 /고병호 기자] 경기 의정부시와 경기도가 도시개발계획에 따라 지정 승인한 의정부시 녹양역세권 개발 사업 중 주거지역에 해당하는 녹양동 주상복합 스카이59조합아파트 사업은... 요거프레소 방지법, 발의 초읽기…가맹본부 예상매출액 과장 엄단 남양주시체육회장, 본인 운영 법인서 횡령·분식회계 논란 사건사고 법원, 초등학생 성추행한 스쿨버스 운전사… 징역 7년 선고 경북소방, 포항제철소 화재 ···전국동원령 1호 발령 경찰,불법 대마잎 판매 일당 무더기 검거 경북 봉화 광산서 붕괴 사고 발생 공군 기강 추락···훔친 차로 고속도로 '음주 사고' 연예·방송 스포츠 엑소 첸, 3년 만에 신곡 '사라지고 있어' 31일 발매 [시사포커스 / 이청원 기자] 그룹 엑소 첸이 3년 만에 새 솔로 앨범으로 귀환한다.11일 소속사 측은 첸이 오는 31일 세 번째 미니앨범 '사라지고 있어 (Last Scene)'... 드림캐쳐, '아포칼립스'로 6개월 만에 컴백 이현이, SBS플러스 '우아달 리턴즈' MC 발탁…10일 첫방 엘링 홀란드, 한니발 렉터 스타일 식단 공개로 충격… 20골 비결? [시사포커스 / 이근우 기자] 엘링 홀란드(22, 맨체스터 시티)의 식단에 현지 팬들이 큰 충격을 받았다.영국 매체 ‘데일리 메일’은 10일(한국시간) “홀란드는 이번 시즌 벌써 ... 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 건강 여행 인터뷰 시민단체 '민주당, 이재명 후보 교체하라', 왜? [시사포커스 / 이혜영 기자] 친문(문재인)성향의 시민단체인 '스페이스민주주의'가 더불어민주당을 향해 불만을 표하면서 이재명 대선후보 사퇴를 촉구하고 나선 가운데 김연진 스페이스민... '탈당' 박지효 "민주당에 비판·자성 들어설 자리 없어" 하단영역 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 Top 매체정보 발행처 : (주)일간시사신문 제호 : 시사포커스 서울특별시 마포구 와우산로3길 3 (시사포커스 빌딩) 대표전화 : 02-323-2223 등록번호 : 서울 아 00397 등록일자(발행일자) : 2007-07-10 대표이사 : 김명자 발행·편집인 : 김명자 청소년보호책임자 : 김명자 Copyright © 2022 시사포커스. All rights reserved. mail to sisafocus02@sisafocus.co.kr 위로 전체메뉴 전체기사 시포TV 전체 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 전체 정치 국제 사회 문화 머니&amp;머니 전체 경제정책 산업 소비자경제 금융 테크 포토뉴스 전체 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 연예·스포츠 전체 연예 스포츠 숫자콕 전체 시사&amp;이슈 머니&amp;머니 핫토픽 전체 어린이 일자리 바이러스 전국뉴스 전체 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 전체 칼럼 인터뷰 기자수첩 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>‘메르스 확진 前 제주도 여행’ 관광객, 나흘 간 동선 자세히 살펴 보니? 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 ‘메르스 확진 前 제주도 여행’ 관광객, 나흘 간 동선 자세히 살펴 보니? 동아일보 입력 2015-06-19 07:57업데이트 2015-06-19 11:11 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 사진=동아일보DB‘메르스 확진 前 제주도 여행’ 관광객, 나흘 간 동선 자세히 살펴 보니? ‘메르스 확진 前 제주도 여행’ 관광객‘메르스 청정지역’을 유지해온 제주도에 비상이 걸렸다. 메르스 감염 141번 환자(42)가 확진 직전 가족 등과 함께 제주도에서 나흘간 머문 것으로 밝혀진 것. 제주도 메르스 관리대책본부는 141번 환자가 5일부터 8일까지 제주도에 머물며 호텔, 관광지, 식당 등을 돌아다닌 것으로 확인됐다고 18일 밝혔다.141 번 환자는 서울로 돌아간 뒤 10일 오전 4시경 발열과 기침이 발생했다. 이어 12일 강남구보건소 검사 결과 양성으로 나왔고 이튿날 국립보건연구원에서 2차 검사 결과 확진 판정을 받았다. 이 환자는 제주 여행 이전부터 감기와 유사한 증상이 있었던 것으로 알려졌다.141번 환자는 부인과 아들, 다른 가족 일행 등 11명과 함께 5일 대한항공 편으로 제주에 도착했다. 렌터카를 타고 서귀포시 중문관광단지 호텔신라제주에 도착한 일행은 호텔 앞 식당에서 식사했다. 6일에는 호텔 뷔페, 호텔 수영장 식당, 제주시 해안도로의 횟집에서 각각 식사했고, 7일에는 서귀포시 남원읍의 코코몽에코파크, 제주시 조천읍의 승마장 등을 방문했다. 이 환자는 몸 상태가 좋지 않아 렌터카에 머문 시간이 많았던 것으로 알려졌다.제주도 관리대책본부는 17일 오후 11시 30분경 이 같은 내용을 통보받고 호텔신라제주 등지에서 현장 조사를 벌였다. 폐쇄회로(CC)TV 등을 통해 확진 환자와 가까운 곳에 있었던 호텔 직원 등 35명을 자가 격리 조치했으며 64명을 모니터링하고 있다. 호텔신라는 이날 호텔신라제주의 영업을 잠정 중단했다. 호텔신라 측은 “현재 보건 당국의 역학조사가 진행되고 있다”며 “결과를 보고 감염 우려가 없는 것으로 밝혀지면 운영을 재개할 것”이라고 밝혔다. 호텔신라 측은 현재 이 호텔에 묵고 있는 투숙객들에게 인근 호텔로 옮기도록 안내하거나 숙박비를 환불해 주고 있다. 수영장과 식당 등 부대시설 운영도 모두 중단된다. 대한항공도 141번 환자가 탑승한 김포∼제주 노선 항공기 승무원, 공항 직원 등 22명을 자가 격리했다. 제주행 항공기에는 317명, 김포행 항공기에는 212명의 승객이 각각 탑승했다.제 주도는 확진환자의 동선과 접촉자를 조사하고 있지만 일부 시간대의 동선은 확인하지 못했다. 배종면 제주도 메르스 민간역학조사지원단장은 “확진환자 가족과 통화한 결과 제주에서 여행할 당시 발열 등의 증상은 없었다. 잠복기에 고열, 기침 등의 증상이 없었다면 감염원은 아닌 것으로 판단하지만 선제적 조치로 밀접 접촉자에 대해 격리 조치를 권고했다”고 말했다.메 르스 중앙대책본부는 이 환자가 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 때 동행했다가 감염됐을 것으로 추정하고 있다. 이 환자의 부인과 아들 등 밀접 접촉자에게서는 아직까지 발열 등 특이 증상은 나타나지 않은 것으로 알려졌다. 한편 18일 오전 제주를 방문하던 관광객 A 씨(59·여)가 제주공항 도착 때 발열감지기에 고열 증상이 나타나 보건 당국이 메르스 감염 여부를 확인 중이다.‘메르스 확진 前 제주도 여행’ 관광객. 사진=동아일보DB동아닷컴 디지털뉴스팀 기사제보 dnews@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 8 “간사 간 협의하라” “체면 좀 차려라”…감사원 국감 8분만에 파행 9 신혜성, 만취해 남의 차 끌고 운전…음주측정도 거부해 체포 10 의원 보좌진이 기업 임원에 “국회로 들어오라”… 아침에 가니 한밤 나타나 “요즘 인사 잘 안오네” 최신기사 김진욱 공수처장 “부장검사 6명, 모두 檢 출신…공수처 진용 갖췄다” 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 택시기사 연매출, 배달업 3분의 1 수준에도 못미쳐 주호영 “짧은 시간 묻고 보내는 증인 없는지 점검”…‘갑질 국감’ 주의 당부 ‘푸틴 동원령’에 블라디서 러男 8명 태운 요트 동해 입항 -BBC 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 메르스 환자 체류 파장…관광시장 ‘급랭’ - 아시아투데이 아시아투데이 서울 다른도시12.3℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 21.4℃ 도쿄 24.4℃ 베이징 10℃ 자카르타 27.2℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, 메르스 환자 체류 파장…관광시장 ‘급랭’ 대우건설, '시화 MTV 푸르지오 디오션' 오피스텔 분양 수도권 전세보증금 반환보증보험 사고 속출…전체 92% 2022년 10월 11일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 검색버튼 제주도, 메르스 환자 체류 파장…관광시장 ‘급랭’ 기사승인 2015. 06. 20. 13:09 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 중동호흡기증후군(메르스) 확진 환자(141번)가 확진 판정을 받기전 제주도 여행을 다녀온 것이 확인된 뒤 제주 관광 시장이 직견탄을 맞고 있다. 20일 제주도 관광협회에 따르면 제주를 찾은 관광객은 19일 3만2872명에 이어 이날 2만9000여명으로 예상된다. 이는 지난해 6월 19∼20일 이틀간(7만6846명)과 비교해 13％가량 관광객이 감소한 수준이다. 전세 버스와 렌터카는 예약률이 각각 5∼15％, 30∼40％에 그쳤다. 지난달까지 90％ 수준이던 제주∼김포 노선 항공기 탑승률도 40∼50％로 반 토막 수준이다. 숙박업소 예약률 역시 펜션 35∼45％, 호텔 50∼60％로 낮아졌다.141번 환자가 제주에서 묵었던 제주 신라호텔은 영업을 잠정 중단하기로 한 상태다. 이 여파로 호텔 주변 중문관광단지 역시 타격이 불가피할 전망이다. 메르스 사태로 지난 10일까지만 내국인 3만5000여 명, 외국인 3만7600여 명 등 7만2000여 명이 계획된 제주 관광을 포기한 것으로 파악되고 있다. 제주보건소는 메르스 상담 문의가 평소 1일 350건 안팎이지만, 18일 이후 반나절 만에 460여 건이 접수되는 등 지역사회 불안도 커지고 있다. 141번 환자는 확진 판정을 받기 전인 지난 5일 낮 1시 40분 김포공항을 이용해 제주공항에 도착, 신라호텔에 투숙하면서 8일 오후 4시 대한항공으로 제주를 떠나기 전까지 음식점 3곳, 코코몽파크랜드와 제주승마장 등의 관광지를 다녀갔다.제주도 메르스 관리대책본부는 141번 환자와 접촉한 관광시설 종사자 등 56명을 자가격리시켜 24시간 상태를 파악하고 있다. 자가격리 대상자는 애초 85명이었으나 이 중 도민 2명을 능동감시 대상자로 변경했고, 다른 시도 거주자 27명에 대해서는 해당 시도로 관리를 넘겼다. 또 141번 환자가 제주서 다녀간 것으로 추가 확인된 용두암 해촌 식당 종사자 6명 등 도민 123명을 능동감시하고 있다. 안소연 기자 asy@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 북한, 전투기 150대 동시출격…군, F-35A로 맞대응 2 野 “한동훈 美 출장에 현직 검사 동행”…韓 “실무자 수.. 3 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 4 삼성전자 “우크라 지사, 미사일 직격 면해… 인명 피해.. 5 ‘음주측정 불응·경찰폭행’ 장용준 14일 대법 선고 6 “시장 저평가 탈출할까”…목표주가에 못미친 종목들 주목 1 ‘환승연애2’ 정현규♥성해은, 달달함 통했나…티빙 유료가.. 2 임영웅의 기록은 어디까지? 유튜브 조회수 17억 뷰 눈앞.. 3 韓피겨 밝은 미래, 차준환 이어 김예림도 女피겨 챌린저.. 4 ‘김하성 3볼넷 3득점 맹활약’ 샌디에고, 메츠 꺾는 파.. 5 최영선, ‘리나 살라 갈로 피아노 콩쿠르’서 우승 “한국.. 6 ‘숨은 히어로’ 김하성, 이번엔 111승 다저스 사냥 ‘.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도 관광객 메르스 확진...'불안감'↑, 상담전화 폭주 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객 메르스 확진...'불안감'↑, 상담전화 폭주 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 관광객 메르스 확진...'불안감'↑, 상담전화 폭주 윤철수 headlinejeju@headlinejeju.co.kr 승인 2015.06.19 12:45 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 141번 확진자 제주여행 세부일정 공개되자, 468건 상담전화밀접접촉 166명 자가격리.능동감시...의심신고 57명 모두 '음성' 메르스(MERS, 중동호흡기증후군) 감염 141번 환자 A씨(42. 서울)가 확진 판정을 받기 전 3박4일 일정의 제주관광을 한 것으로 확인돼, 2차 감염피해를 막기 위해 A씨의 제주여행 세부 이동경로 동선 및 시간대가 공개되자 의심 상담전화가 폭주하고 있다. 제주특별자치도 메르스 관리대책본부는 141번 확진자가 메르스 발병 전에 제주에 다녀갔다는 발표에 따라 각 보건소에 메르스 의심상담 전화 등이 이어지고 있다고 밝혔다. 공개된 첫날인 18일 하루 보건소 등에 접수된 상담건수는 468건에 달했다. 평소보다 30% 이상 늘어난 수치다. 보건소 외에 제주도내 행정기관에는 A씨가 제주에 머물면서 관광지, 횟집, 승마장, 식당 등을 들렀다는 소식이 전해지자, 이의 구체적 동선을 확인하기 위한 전화도 크게 빗발치고 있다. 원희룡 제주도지사는 19일 "현재까지 파악된 상황으로는 141번 환자가 무차별 대상자와의 접촉은 없었던 것으로 파악하고 있지만, 혹시 모르는 상황이 있을 수 있기 때문에 다중인과의 접촉이 있을 수 있는 업소와 시간대에 대해서는 방송이나 인터넷 등을 통해 공개하겠다"며 A씨의 제주여행 세부 여행동선을 공개했다. 또 공개된 여행동선을 따라 밀접접촉자 등을 확인한 결과 총 166명을 확인하고 이들에 대한 집중적인 모니터링을 하고 있다고 밝혔다. 166명은 자가격리 85명, 능동감시 대상자 81명이다. A씨 동선에 따른 접촉자를 보면 △항공기 52명(자가격리 24명, 능동감시 28명) △제주공항 직원 23명(자가격리 8명, 능동감시 15명) △제주신라호텔 직원 34명(자가격리) △렌터카 회사직원 △19명(자가격리) △신라호텔 인근 식당 직원 8명(능동감시) △제주시 용담해안도로 횟집 직원 13명(능동감시) △코코몽파크랜드 직원 14명(능동감시) △승마장 직원 3명(능동감시) 등이다. 대책본부는 A씨가 제주를 다녀간 시점을 기준으로 최장 잠복기간으로 알려져 있는 14일이 곧 종료되지만, 제주도는 도민사회의 심리적 안정을 위해 모니터링 기간을 연장키로 했다고 밝혔다. 이에따라 자가격리 기간은 3일 연장해 오는 26일까지, 능동감시 기간은 7일 연장해 30일까지 이뤄진다. 대책본부는 그러나 19일 오전 10시까지 메르스 추가 의심신고자 8명을 포함해 총 57명을 대상으로 검사를 실시한 결과 모두 '음성'으로 판정됐다고 밝혔다. 한편 가족과 친구부부 등 12명이 함께 여행을 했던 A씨는 지난 5일 오후 12시15분 김포공항 출발 항공편을 이용해 오후 1시42분 제주국제공항에 도착해, 8일까지 3박4일간 서귀포시 중문관광단지에 위치한 제주신라호텔에 투숙하며 제주여행을 했다. A씨 일행은 제주공항에 도착한 후, 오후 4시43분께 카니발승합차를 렌터한 후 호텔로 이동해 체크인을 했고, 이어 오후 7시 호텔 인근 식당에서 저녁식사를 한 후 오후 9시50분께 호텔로 돌아갔다 6일에는 오전 7시49분쯤부터 호텔 뷔페에서 아침식사를 하고, 이어 호텔 수영장에 들러 그곳 식당에서 점심식사를 했다. A씨는 수영장 물속에는 들어가지 않았던 것으로 확인됐다. 이날 오후 6시12분쯤에는 제주시 용담 해안도로에 위치한 횟집에서 10시2분께까지 저녁식사를 했고, 식사를 마친 후 차량을 이용해 다시 호텔로 이동했다. 7일에는 오전 10시41분까지 호텔에 있다가 차량을 이용해 오전 11시24분께부터 오후 1시7분까지 서귀포시 남원읍 소재 코코몽 파크랜드에 들러 관광을 했다. 오후 2시부터 3시까지는 제주시 조천읍 소재 승마장을 찾았는데, 이 때 A씨는 몸상태가 좋지 않아 차량 내에 그대로 있었던 것으로 확인됐다. 오후 3시48분께에는 투숙호텔 인근에 있는 식당에서 식사를 한 후 오후 5시34분 호텔에 투숙했다. 이날 A씨는 저녁식사를 하지 않았다. 마지막날인 8일에는 오전 11시11분까지 호텔에 있다가 제주공항으로 이동, 낮 12시7분께 공항에 도착했다. 공항에서는 오후 3시6분껚지 4층 푸드코너와 커피숍(낮 12시21분~12시56분), 3층 흡연실(오후 1시20분, 2시47분), 4층 커피숍(오후 1시39분) 등을 이용한 것으로 나타났다. 이어 오후 4시30분 비행기를 타고 이도했다. 이번 세부 여행동선을 공개한 원 지사는 "능동감시 대상자를 포함해서 모니터링 대상자에 대해서는 제주는 더 강화된 조치를 한다는 차원에서 1주일 연장된 모니터링을 실시하도록 하겠다"며 "조금이라도 의심이 드는 분들께서는 보건당국으로 신고를 해달라"고 당부했다. &lt;헤드라인제주&gt; &lt;윤철수 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 메르스 확진자 잠복기 중 제주관광...긴급 역학조사 메르스 잠복기 중 제주여행 40대男 확진자, 이동동선은? 메르스 확진판정 5일 후에야 '제주여행' 사실 통보 제주관광객 메르스 확진...3박4일 투숙 신라호텔 '초비상' 메르스 잠복기 제주관광객 탑승 비행기 승무원 등 격리 메르스 잠복기 관광객 투숙 신라호텔, 영업 중단 결정 제주 관광객 메르스 확진 '비상'..."여행중 증상여부가 관건" "메르스 141번 환자, 제주도 여행 감염전파 가능성 낮아" 제주도 메르스 '비상'...166명 긴급 모니터링 실시 메르스 141번 환자, 확진전 '제주여행' 이동 동선은? 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 메르스, 40대 관광객 서울에서 확진 판정 ‘ 3박 4일 여행 일정은?’ TV LIVE VOD 튜브온 주요행사 채널안내 편성표 전체뉴스 MTN deep 한 발 더 깊고 한 걸음 더 넓은 뉴스 MTN hip요즘 뜨는 '힙(hip)'한 이슈 핫리포트핫라인5 생생리포트 MTN 인사이트경제에 통찰력을 더하다 MTN 기자실경제전문 기자들의 취재파일 연속 기획보도이슈를 파고드는 기획취재 연중대기획고품격 특집 다큐멘터리 여의도튜브 발칙한 경제 주식초등학교 Pick 튜브기사보다 더 깊은 이야기 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 최신뉴스 사회 제주도 메르스, 40대 관광객 서울에서 확진 판정 ‘ 3박 4일 여행 일정은?’ 머니투데이방송 백승기 기자 입력 2015-06-18 15:46:56 가 제주도 메르스, 40대 관광객 서울에서 확진 판정 ‘ 3박 4일 여행 일정은?’제주도 메르스제주도를 여행한 40대 관광객이 서울에서 메르스 확진 판정을 받았다.18일 제주특별자치도 메르스 관리대책본부는 지난 5일 오전 항공편으로 제주에 도착해 8일 오후 항공편으로 서울로 이동한 남성 관광객(141번 환자·42)이 중동호흡기증후군(메르스) 확진 판정을 받았다고 밝혔다.141번 환자는 지난 5일 오후 4시 아내, 아들, 친구 부부 등 4가족(8명)과 함께 제주공항에 도착한 뒤 렌터카를 이용해 서귀포시 중문관광단지 신라호텔에 도착했다.이후 3박 4일간 신라호텔에 머물며 호텔 앞 고깃집, 해안도로 횟집, 승마장에 방문한 것으로 알려졌다.이 환자 일행은 8일 제주공항에서 항공편으로 귀경했다. 이후 9일 부터 발열 및 기침증세가 보였고, 13일 국립보건연구원에서 메르스 최종 확진 판정을 받았다.메르스 중앙대책본부는 141번 환자가 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 14번 환자와 접촉했을 것으로 추정하고 있다.제주도는 141번 환자가 메르스 증상 전 제주도에 여행왔지만 만일의 사태에 대비, 역학조사와 밀접접촉자 격리 등에 나서고 있다.한편 제주도는 이날 제주를 찾은 중앙역학조사반과 함께 제주 여행 동선에 대한 전반적인 역학조사를 실시, 결과가 나오는 대로 동선을 공개할 예정이다.(사진:뉴스1)[MTN 온라인 뉴스팀=백승기 기자(issue@mtn.co.kr)] 머니투데이방송의 기사에 대해 반론·정정추후 보도를 청구하실 분은 아래의 연락처로 연락주시길 바랍니다, 고충처리인 : 콘텐츠총괄부장 ombudsman@mtn.co.kr 02)2077-6288 MTN 기자실 경제전문 기자들의 취재파일 전체보기 Pick 튜브 기사보다 더 깊은 이야기 전체보기 많이 본 뉴스 분야별뉴스 취재와이드 MTN 기자실 Pick 튜브 바로가기 분야별뉴스 P4F MTN deep MTN hip 핫리포트 MTN 인사이트 연속 기획보도 연중대기획 MTN 기자실 Pick 튜브 여의도튜브 발칙한경제 주식초등학교 K-디펜스 월가워즈 여의도약방 니은티비 바로가기 검색 TV LIVE APP 소개 MTN YOUTUBE 회사소개 광고제휴안내 이용약관 청소년보호정책 개인정보처리방침 공시조회 (주)머니투데이방송    대표이사 유승호 (07328) 서울특별시 영등포구 여의나루로 60 (여의도동,여의도우체국) 2,4층 등록번호 : 서울 아01083    대표전화 : 02-2077-6200 기사배열책임자 콘텐츠총괄부장    청소년보호책임자 디지털기획부장 Copyright ⓒ MTN All Right Reserved</t>
+  </si>
+  <si>
+    <t>제주도, 제2회 추경안 확정…관광·경제분야 초점 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 제2회 추경안 확정…관광·경제분야 초점 (제주=뉴스1) 현봉철 기자					| 2015-06-23 15:35 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주특별자치도가 제2회 추가경정예산안을 확정했다.제주도는 22, 23일 보조금심의위원회를 열어 보조금 예산 규모를 확정하고 추경예산에 반영해 26일께 도의회에 제2회 추경안을 제출할 계획이다.이번 추경안은 메르스 여파로 인한 경제 위기 극복을 위해 관광과 지역경제 지원에 초점이 맞춰질 것으로 전해졌다.또 본예산에 반영하지 못한 사업 예산과 국가보조 사업 예산 등이 반영될 전망이다.제주도의회는 다음 달 6일 제332회 1차 정례회를 개회해 추경예산안을 처리한다.23일간의 회기로 진행되는 이번 정례회는 지난달 실시된 2014년도 제주도(행정시 포함)와 도교육청에 대한 결산검사 결과에 대한 심의를 진행하고 제주도와 제주도교육청에서 제출한 추경안을 심사한다.특히 이번 추경안 심사과정에 제주도와 도의회가 참여하는 예산제도개혁협의체가 본격 가동될지 여부도 관심을 끌고 있다.예산제도개혁협의체에 시민단체와 주민대표, 전문가 등의 참여하는 것에는 공감하지만 이들의 역할에 대해 양측의 의견이 엇갈리는 부분이 해소될지가 협의체 가동 여부를 결정한 전망이다. hbc@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 김혜자, 김용건에 "아기 잘 자라?"…김수미 "김용건 딱 닮아" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>메르스 제주, 감염 확진자 제주도 관광 동선 공개 '엄청난 이동 경로' - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 연예 포토 공연전시 생활문화 날씨 메르스 제주, 감염 확진자 제주도 관광 동선 공개 '엄청난 이동 경로' 발행일 : 2015-06-19 13:35 &lt;메르스 제주 출처 메르스 홈페이지 &gt; 메르스 제주 제주도를 관광한 42세 남성이 중동호흡기증후군 메르스 확진 판정을 받았다. 18일 제주특별자치도 메르스 관리대책본부는 지난 5일 오전 항공편으로 제주에 도착해 8일 오후 항공편으로 서울로 이동한 남성 관광객(141번 환자·42)이 중동호흡기증후군(메르스) 확진 판정을 받았다고 밝혔다. 제주 메르스 관리대책본부에 따르면 제주 관광객 메르스 확진 141번 환자는 지난 5일 오후 부인과 아들, 다른 가족 등 8명과 함께 항공편으로 제주 공항에 도착했다고 밝혔다. 렌터카를 타고 오후 5시께 서귀포시 중문관광단지 제주신라호텔에 도착한 환자 일행은 오후 6시께 제주신라호텔 앞 고깃집에서 식사한 뒤 숙소로 돌아왔다. 여행 둘째 날인 6일에는 아침에 제주신라호텔 뷔페에서, 점심에 제주신라호텔 수영장의 식당에서, 저녁에 제주시 해안도로의 횟집에서 각각 식사를 했다. 셋째 날인 7일에는 오전 11시께 제주신라호텔뷔페에서 아침식사를 한 뒤 서귀포시 남원읍의 코코몽에코파크를 방문했으며, 오후 3시께 제주시 조천읍의 승마장에 방문했다. 오후 5시께 제주신라호텔에 돌아온 141번 환자의 일행은 고깃집에서 저녁식사를 했으나 141번 환자는 이 자리에 불참했다. 관련 기사지드래곤 손석희, 당당한 태도 "엑소 샤이니팬 화내도 어쩔수 없어"홍자, 김창렬과 다정한 라디오 인증샷 공개..'오누이 느낌'메르스 확진자 수, 1명 추가돼 166명 사망자 수 24명 퇴원자 수 30명손연재, 조재현 딸 조혜정 힘들 때 여기로 끌고가 '아무 말 없이 앞만 봤다' 어디?유상무, 장도연에 사심 고백 "우리 카메라 꺼지면 100% 사귈걸" 공개 열애 암시?손석희 지드래곤, 앵커석에 앉아 남남 케미 발산 '튀는 머리 색도 가볍게 소화하는 권지용' 이 환자 일행은 8일 오전 제주신라호텔 뷔페에서 아침식사를 한 뒤 제주공항에서 항공편으로 귀경했다. 이 환자는 제주신라호텔에서는 뷔페와 수영장, 식당 외에 다른 시설은 이용하지 않았다고 밝힌 것으로 알려졌다. 또한 여행 중 몸이 좋지 않아 혼자서 차에 머무르는 시간이 많았다고 해 이때부터 메르스 증상이 나타난 것으로 추측되고 있다. 메르스 확진 제주 관광객은 공항을 통해 제주에 올 당시 발열검사에서도 별다른 증상을 보이지 않은 것으로 전해졌다. 9일 직장에서 퇴근 후 오후 4시쯤 발열 및 기침 증세를 보이자 11일까지 출근하지 않고 집에서 휴식을 취했으며, 12일 보건소 1차 검사 결과 양성판정을 받고 13일 국립보건연구원에서 2차 검사 결과 최종 확진판정을 받았다. 제주도는 제주 관광객 메르스 확진 환자 동선에 포함되는 식당과 관광지 등을 공개하고, 이곳을 이용한 도민들은 보건소에 신고해달라고 요청할 계획이며, 해당 시설에 대해 긴급 방역소독을 실시할 방침이라 밝혔다. 한편 제주 관광객 메르스 확진 환자는 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 메르스에 감염됐을 것으로 추정된다. 메르스 제주 소식에 "메르스 제주, 엄청나네 정말" "메르스 제주, 이게 무슨 일이래" "메르스 제주, 3차 감염자 생기면 어떡하지" "메르스 제주, 무섭다" 등 반응을 보였다. 김현이 기자 life@etnews.com 핫뉴스 in LIFE 1 송가인, 전국투어 콘서트 매진 행렬... "웃돈 줘도 살 수 없다" 2 단풍놀이는 언제가 절정?…‘2022 단풍 예측 지도’! 3 송가인과 김호중이 뭉쳤다! 新 예능 ‘복덩이들고(GO)’ 기대감 폭발 4 송가인 X 금잔디, 털털함으로 뭉친 트롯 여신들 5 “한복 입은 가인이어라♥”…송가인, ‘치명적 단아美’ [화보] AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>42세男 확진前 3박4일 제주도 관광…여행 동선 역학조사 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 42세男 확진前 3박4일 제주도 관광…여행 동선 역학조사 동아일보 입력 2015-06-18 11:04업데이트 2015-06-19 08:55 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 동아DB42세男 확진前 3박4일 제주도 관광…여행 동선 역학조사40대 제주도 관광객이 메르스(중동호흡기증후군) 확진 판정을 받았다. 18일 제주도 메르스 관리대책본부에 따르면 5일부터 8일 제주도를 방문한 42세 관광객 남성이 메르스 확진 판정을 받았다. 이에 따라 메르스 청정지역을 유지하던 제주도에 비상이 걸렸다. 이 남성은 17일 141번 환자로 확진을 받았다. 중앙대책본부에 따르면 141번 환자는 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 14번 환자와 접촉한 것으로 추정했다. 141번 환자는 제주도 광광 당시에는 별다른 증상이 없다가 서울로 돌아간 뒤 발열 등 증상을 나타냈다. 제주도 메르스 대책본부는 중앙대책본부로부터 이같은 사실을 통보받고 141번 환자가 머물렀던 제주여행 주요동선의 역학조사를 벌이고 있다고 밝혔다. 이날 질병관리대책본부도 제주도를 방문해 역학조사에 참여 중이다. 제주도 메르스 대책본부는 CCTV, 호텔직원 등의 진술을 종합해 141번 환자와 접촉한 34명의 밀접 접촉자를 확인했다. 이중 31명은 자가격리를 통보했다고 전했다. 141번 환자는 5일 오후 4시 아내와 아들 및 친구부부 등 모두 4가족 9명과 함께 제주공항에 도착한 뒤 렌터카를 이용해 중문 제주신라호텔에 머물면서 3박4일 동안 관광을 즐겼다. 이후 8일 호텔에서 아침을 먹은 뒤 공항을 통해 제주도를 떠났다.3박4일 체류기간 동안 호텔출입구에 설치된 발열감지카메라에도 특이사항은 없었던 것으로 알려졌다. 이후 141번 환자는 9일 직장에서 퇴근 후 오후 4시 쯤 발열과 기침 증세를 보인 뒤 11일까지 출근하지 않고 집에서 휴식을 취했다. 12일 강남구보건소에 연락해 1차 검사결과 메르스 양성 판정을 받은 뒤 13일 국립보건연구원의 2차 검사결과에서도 양성 판정을 받았다.제주신라호텔은 메르스 확진 환자가 묵은 것으로 확인돼 당분간 영업을 중지한다고 전했다. 제주 메르스 관광객. 사진=제주 메르스 관광객동아닷컴 디지털뉴스팀 기사제보 dnews@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 8 “간사 간 협의하라” “체면 좀 차려라”…감사원 국감 8분만에 파행 9 신혜성, 만취해 남의 차 끌고 운전…음주측정도 거부해 체포 10 의원 보좌진이 기업 임원에 “국회로 들어오라”… 아침에 가니 한밤 나타나 “요즘 인사 잘 안오네” 최신기사 김진욱 공수처장 “부장검사 6명, 모두 檢 출신…공수처 진용 갖췄다” 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 택시기사 연매출, 배달업 3분의 1 수준에도 못미쳐 주호영 “짧은 시간 묻고 보내는 증인 없는지 점검”…‘갑질 국감’ 주의 당부 ‘푸틴 동원령’에 블라디서 러男 8명 태운 요트 동해 입항 -BBC 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주 관광객 메르스 확진, 청정구역 제주도 마저 "긴장" 제주 관광객 메르스 확진, 청정구역 제주도 마저 "긴장" - 스포츠 월드- 세계일보 세계비즈 스포츠월드를 시작페이지로 지면보기 구독신청 RSS 스포츠월드 Naver Kakao 스포츠 전체메뉴 검색 스포츠 야구 프로야구 해외야구 야구일반 축구 프로축구 해외축구 축구일반 골프 국내골프 해외골프 골프일반 농구/배구 프로농구 NBA 농구일반 프로배구 배구일반 e스포츠 스포츠종합 격투기 해외스포츠 스포츠일반 연예 방송/TV 가요/음악 영화 공연/문화 해외연예 연예일반 문화일반 레저&amp;조이 경륜-경마-경정 토토 레저-조이일반 라이프 여행/레저 건강 포토 핫포토 스포츠 연예 이슈 사회 칼럼 피플 온라인이슈 제주 관광객 메르스 확진, 청정구역 제주도 마저 '긴장' 입력 : 2015-06-18 15:02:21 수정 : 2015-06-18 15:02:21 인쇄 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주 관광객이 메르스 확진 판정을 받았다는 소식이다. 제주도는 지난 17일 중앙대책본부로부터 "지난 5일부터 8일까지 제주 관광에 나섰던 40대 남자 관광객이 '메르스 141번 확진 환자'로 확인됐다는 사실을 통보받았다"고 밝혔다. 이 관광객은 친구 부부 등 모두 네 가족과 함께 제주공항에 도착한 뒤 렌터카로 서귀포 중문으로 이동해 그 곳에 있던 호텔에서 3박 4일 동안 머물면서 횟집 등에서 식사하고 승마장 등 관광지를 이용한 것으로 파악됐다. 이 관광객은 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 14번 환자와 접촉한 것으로 추정되고 있다. 이 관광객은 관광 당시에는 특이 증상이 없다가 서울로 돌아간 9일 발열과 기침 증세를 보이다 지난 13일 최종 확정 판정을 받았다. 제주 관광객 메르스 확진 소식에 누리꾼들은 '제주 관광객 메르스 확진, 제주도도 청정지역이 아니네''제주 관광객 메르스 확진, 제주도도 당분간 못가겠다''제주 관광객 메르스 확진, 큰일이네' 등의 반응을 보이고 있다. 온라인 뉴스팀 사진=MBN &lt;스포츠월드&gt;스포츠월드&gt; 20150618002952 1140050000000 0 2015-06-18 15:2:21 2015-06-18 15:2:21 0 제주 관광객 메르스 확진, 청정구역 제주도 마저 '긴장' 스포츠월드 김동현 0028f8cc-c883-4815-9315-2c6633fff652 많이 본 뉴스 연예 스포츠 라이프 포토 연예 스포츠 라이프 포토 HOT레드 별, 막내딸 희귀병 투병 고백 "폭풍 같은 한 달" '임창정♥' 서하얀, 이러니 살찔 틈이 없지 톱모델 한혜진, 20년간 유지한 모닝 루틴 돈 스파이크, 필로폰 1천 회분 압수 '충격' 조예영♥한정민, 공항서 애틋한 이별 제시, 싸이 품 떠나더니…안타까운 링거 투혼 곽도원, 제주서 음주운전…차기작 불똥 육준서, 공적 활동 중단 선언…왜? '고딩엄빠2' 출연자, 조작 방송 폭로…"작가가 시켜" 포토 회사소개 지면광고 온라인광고 구독신청 연락처 독자인권위원회 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 스포츠월드 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아52423 등록일(발행일) : 2019년 6월 23일 발행인·편집인 : 정희택 전화번호 : 02-2000-1800 청소년보호 책임자 : 류근원 Copyright ⓒ 스포츠월드 All rights reserved.</t>
+  </si>
+  <si>
+    <t>[메르스] 40대 남성, 감염 후 제주도 관광 본문 바로가기 [메르스] 40대 남성, 감염 후 제주도 관광 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 경제 [메르스] 40대 남성, 감염 후 제주도 관광 기사입력 2015-06-18 19:40 l 최종수정 2015-06-18 19:59 VOD 시청 안내 어도비 플래시 플레이어 서비스 종료에 따라현재 브라우저 버전에서는 서비스가 원할하지 않습니다.아래 버튼을 클릭하셔서 브라우저 업그레이드(설치) 해주시기 바랍니다. 브라우저 업그레이드 및 설치 【 앵커멘트 】 지난 13일 메르스 확진 판정을 받은 40대 남성이 직전에 제주도를 여행했던 것으로 확인됐습니다. 청정지역이던 제주도 메르스에 뚫린 것 아니냐는 우려가 나오고 있습니다. 이정석 기자입니다. 【 기자 】 제주특별자치도 메르스 관리대책본부는 141번 환자인 42살 남성이 3박4일간 제주도를 다녀갔다고 밝혔습니다. 이 남성은 지난 5일부터 8일까지 가족과 친구 부부 등 8명과 함께 제주도 신라호텔에 머물면서 관광을 한 것으로 확인됐습니다. 이후 서울로 돌아온 뒤 발열과 기침 증세를 보이다 13일 국립보건연구원에서 메르스 확진 판정을 받았습니다. 중앙메르스관리대책본부는 이 남성이 지난달 27일, 삼성서울병원에 외래진료를 위해 방문했다가 14번 환자와 접촉했을 것으로 추정하고 있습니다. 하지만, 문제의 응급실이 아닌 비뇨기과를 방문했기 때문에 당시 자가 격리 대상에선 제외됐습니다. ▶ 인터뷰 : 정은경 / 중앙메르스관리대책본부 현장점검반장 - "6월 9일이 발병일이었고, 6월 9일 이전에 제주도 여행력이나 이런 것은 발병 이전의 시기에 일어난 일이기 때문에 어떤 감염에 대한 위험이 있다고는 판단하지 않고 있었는데…." 제주도는 즉각 신라호텔과 공항 CCTV를 확인하고, 식당과 승마장 등 이 남성이 거쳐 간 관광지 동선 파악에 나섰습니다. 신라호텔도 잠정적으로 영업을 중단하고, 투숙객을 모두 돌려보내기로 결정했습니다. MBN뉴스 이정석입니다. [ljs730221@naver.com] 영상편집 : 박기덕 Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 관련 뉴스 "청약통장 삽니다"…부동산 호황에 불법 거래 '꿈틀'[메르스] 남편 따라 2주 뒤 아내도…'메르스' 부부 사망[메르스] 의료진 악전고투…주말도 없이 17시간씩 근무 화제 뉴스 "경력 1년 통째로 날아가"…한전, 채용형 인턴 차별적 운용 [단독] 은행원 기지로 '5000만 원' 보이스피싱 수거책 체포 'naver.pay' 주소·로고까지 똑같다…네이버페이로 속이고 사기 친 판매자 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 '우유 없는 밀크티 부터 고기 없는 육포까지' 중국 제조법 폭로남 계정 삭제 신화 신혜성, 도난 차량 운전 혐의…음주측정 거부로 현행범 체포 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 메르스 진정대비 영남권 유치간담회 개최 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 메르스 진정대비 영남권 유치간담회 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 메르스 진정대비 영남권 유치간담회 개최 기자명 고나연 기자 입력 2015.06.21 10:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 지난 18일 영빈관에서 영남지역 제주관광 관련사업체 대표들과 간담회를 갖고 있는 모습. (제주=국제뉴스) 고나연기자 = 제주도와 제주도관광협회(회장 김영진)는 18일 영빈관에서 최근 메르스감염 확산의 영향으로 국내․외 관광객 제주여행 취소가 급증해 이를 극복하고 향후 진정국면을 적극 대처키 위해 관광객 유치를 위한 영남지역 제주관광 관련 사업체 대표들과의 간담회를 가졌다고 21일 밝혔다.이날 개최된 간담회는 메르스 영향으로 업체별 상황 공유, 현 메르스 사태가 지속될 경우를 대비한 지역 업체별 상호 협력 마케팅 방안을 제시하고 메르스 사태 진정국면 대비 관광객 유치 활성화를 위한 논의를 했다는 것.특히 도 관광협회는 이날 간담회를 통해 영남지역 제주여행상품 전문판매 여행업 대표들에게 현 위기 사태를 상호 협업해 극복하고, 메르스 사태 진정국면을 대비해 관광객 유치를 위해 다양한 테마가 있는 상품을 개발하고 청정이미지를 활용한 이미지 마케팅을 전개키로 했다. 한편 6월 뜻하지 않은 메르스감염 확산이 증가하며 국내·외 관광객 제주여행 취소 등 여행 기피현상으로 이어져 입도관광객 증가 추세가 주춤거릴 전망이다.이에 관계자는 “메르스 사태를 대처하기 위해 지속 권역별 제주관광홍보사무소의 다양한 마케팅 경로를 활용해 제주를 홍보하고 위기 상황을 업계와 협력해 적극 극복해 나갈 계획”이라고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주관광공사, ‘제주도 방문관광객 실태조사’ 결과 발간 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주관광공사, ‘제주도 방문관광객 실태조사’ 결과 발간 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주관광공사, ‘제주도 방문관광객 실태조사’ 결과 발간 기자명 고연정 기자 입력 2015.06.22 17:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ ‘2014 제주특별자치도 방문관광객 실태조사’ 결과 발간[제주도민일보=고연정 기자] 제주관광공사(사장 최갑열)는 국가승인통계인 ‘2014 제주특별자치도 방문관광객 실태조사’ 결과를 발간했다.이번 조사는 지난해 제주를 방문한 내·외국인 및 크루즈 관광객 8000여 명을 대상으로 제주도의 대행을 받아 진행됐다. 조사는 제주국제공항, 제주여객터미널, 제주외항 크루즈 전용부두 등 주요 관문에서 개별면접조사 방식으로 이루어졌다. 관광객 성향, 제주관광실태, 제주여행평가, 일반사항 등을 관광객 유형에 따라 조사했다.이번 조사는 지난해 7월2일 제주도가 통계청으로부터 ‘국가승인통계’로 지정받았다. 관광객의 여행형태와 특성을 파악하고 기초통계자료를 생산함으로써 현실적이고 합리적인 관광정책 마련과 전략적 마케팅활동을 위해 진행됐다.현재 지방자치단체 중에 ‘국가승인통계’로 지정받아 관광객 실태조사를 진행한 곳은 제주도를 비롯한 5개 지역에 불과하다. 이번 조사는 지역통계발전협의회에서 우수사례로 선정돼 소개되기도 했다.이번 실태조사 결과 자료는 제주관광공사 홈페이지(http://www.ijto.or.kr)와 제주도청 홈페이지(http://www.jeju.go.kr)내 실국홈페이지(문화관광스포츠국 자료실)에서 확인할 수 있다.제주관광공사 측은 “향후 지속적으로 제주 방문관광객 대상의 실태조사를 수행하고 과학적이고 체계적인 통계분석방법을 통해 심도있는 결과를 제시하겠다”며 “이를 통해 관광정책 및 마케팅 전략수립에 큰 도움이 될 수 있도록 하겠다”고 전했다. 고연정 기자 jjibi@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>페이지를 찾을 수 없습니다 - 머니투데이 그룹 사이트 VIP    스타뉴스    the bell    머니S    MTN    뉴스1    뉴시스    지디넷    PIXTA 로그인     회원가입 서비스 이용에 불편을 드려 죄송합니다. 원하시는 페이지를 찾을 수가 없습니다. 페이지의 주소가 변경 혹은 삭제되어 요청하신 페이지를 찾을 수 없습니다. 입력하신 주소가 정확한지 다시 한번 확인해 주시기 바랍니다. 이전페이지로 가기 메인으로 가기 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 오태동 NH투자증권 리서치센터장은 "연말까지는 주가 가격 조정이 이어질 것"이라고 11일 전...2022.10.11 11:01 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리...2022.10.11 05:00 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 IT썰애플의 긴급구조 요청 기능이 오작동하는 사례가 잇따르고 있다.10일(현지시간) 월스트리트저널(WSJ)에 ...2022.10.11 08:16 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 중국에서 가짜 식품에 대한 의혹을 제기하던 거대 인플루언서가 식품업계 압박에 못 이겨 스스로 계정을 삭제하는...2022.10.11 06:11 "삽시간에 쓸어" 베네수엘라 대규모 산사태 남미 베네수엘라에 쏟아진 폭우로 산사태와 수해가 발생해 최소 36명이 숨지고 56명이 실종됐다.10일(현지 시간) ...2022.10.11 11:24 노벨경제학상 수상자 "금융위기, 어느 곳에서나 발생할 수 있다" "금융위기는 사람들이 시스템의 안정성에 대한 신뢰를 잃기 시작할 때 더 악화된다"올해 노벨...2022.10.11 03:07 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>‘메르스 확진’40대 男, 3박 4일 제주도 관광 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS ‘메르스 확진’40대 男, 3박 4일 제주도 관광 입력 : 2015-06-18 11:16:13 수정 : 2015-06-18 11:41:54 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주 메르스 제주도를 관광한 42세 남성이 중동호흡기증후군(메르스·MERS) 확진 판정을 받아 제주도민들의 불안이 깊어지고 있다. 18일 제주특별자치도 메르스 관리대책본부 측에 따르면 지난 5일 오전 항공편으로 제주에 도착해 8일 오후 항공편으로 서울로 이동한 남성 관광객(141번 환자·42)이 중동호흡기증후군(메르스) 확진 판정을 받았다. 141번 환자는 지난 5일 오후 4시 아내, 아들, 친구 부부 등 4가족과 함께 제주공항에 도착한 뒤 렌터카를 이용해 서귀포시 중문관광단지 신라호텔으로 향했다. 이후 3박 4일간 신라호텔에 머물며 횟집 등에서 식사를 하고 승마장 등 관광지를 이용한 뒤 8일 제주를 떠난 것으로 확인됐다. 또한 이 관광객은 공항을 통해 제주에 올 당시 발열검사에서도 별다른 증상을 보이지 않았으나 9일 직장에서 퇴근 후 오후 4시쯤 발열 및 기침 증세를 보이자 11일까지 출근하지 않고 집에서 휴식을 취했으며, 12일 보건소 1차 검사 결과 양성판정을 받고 13일 국립보건연구원에서 2차 검사 결과 최종 양성 판정을 받은 것으로 알려졌다. 제주 메르스 소식에 네티즌들은 "제주 메르스, 제주도 어쩌나" "제주 메르스, 더 이상의 청정지역은 없네" "제주 메르스, 난리구나" 등의 반응을 보이고 있다. 제주 메르스 제주 메르스 제주 메르스 제주 메르스 제주 메르스 인터넷팀 김현주 기자 khj@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20150618001686 0101080100000 0 2015-06-18 11:41:54 2015-06-18 11:41:54 0 ‘메르스 확진’40대 男, 3박 4일 제주도 관광 세계닷컴 인터넷팀 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도 관광객 메르스 확진환자 판정 여행기간 5~8일 숙박 제주신라호텔 - 부산일보 로그인 회원가입 지면보기 모바일보기 메뉴펼치기 사회 사회 교육시험 정치 정치 세계 경제해양 경제해양 해양수산 부동산 자동차 IT월드 문화 문화 문화 라이프 라이프 맛 헬스 여행 산&amp;길 시리즈 스포츠 스포츠 롯데자이언츠 야구 해외야구 축구 해외축구 골프 오피니언 오피니언 사설 밀물썰물 논설위원의 시선 논설위원의 뉴스 요리 임성원 칼럼 박종호 칼럼 강병균 칼럼 이병철의 인사이트 곽명섭의 플러그인 강윤경 칼럼 김건수의 지금 여기 임광명의 정견만리 김승일의 디지털 광장 편집국에서 데스크칼럼 노트북단상 기자전문칼럼 바른말광 기자일기 독자광장 독자의눈 기고 오늘을 여는 시 김필남의 영화세상 조준현의 사람사는 경제 공감 월요칼럼 화목칼럼 수요칼럼 금요칼럼 시론 경남울산 경남울산 울산 동부경남 중부경남 서부경남 사람들 사람들 인사 부고 펫플스토리 펫플스토리 전체보기 펫영상 펫스토리 스타의 펫 펫정보&amp;팁 펫칼럼 공지사항 펀부산 펀부산 부산맛집 산들산들 문화관광 해피존 닥터큐 톡한방 부산시정뉴스 가장 많이 본 뉴스 2022.10.11 (화) 닫기 제주도 관광객 메르스 확진환자 판정 여행기간 5~8일 숙박 제주신라호텔 가 입력 : 2015-06-18 16:03:53 수정 : 2015-06-19 14:38:55 부산닷컴 기사퍼가기 중동호흡기증후군(메르스) 확진 판정을 받은 141번(42) 환자가 지난 5∼8일 3박 4일간 제주 여행 중 숙소로 이용했던 서귀포시 중문관광단지 신라호텔에 이달 초 설치된 발열 감지기가 18일 투숙객들의 발열 여부를 검사하고 있다. 연합뉴스지난 13일 메르스(중동호흡기증후군) 확진 판정을 받은 141번(42) 환자가 확진 며칠 전 의심 증상이 있는 상태로 가족 등 일행과 함께 제주에서 3박 4일간 여행하며 공항과 관광지 등을 방문한 것으로 확인됐다.18일 제주도 메르스 관리대책본부에 따르면 5일부터 8일 제주도를 관광한 42세 남성이 메르스 확진 판정을 받았다. 이에 따라 메르스 청정지역을 유지하던 제주도에 비상이 걸렸다.중앙대책본부에 따르면 141번 환자는 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 14번 환자와 접촉한 것으로 추정했다. 141번 환자는 제주도 관광 당시에는 별다른 증상이 없다가 서울로 돌아간 뒤 발열 등 증상을 나타냈다.제주도 메르스 대책본부는 중앙대책본부로부터 이같은 사실을 통보받고 141번 환자가 머물렀던 제주여행 주요동선의 역학조사를 벌이고 있다고 밝혔다.141번 환자는 지난 5일 오후 부인과 아들, 다른 가족 등 8명과 함께 제주공항에 도착했다. 이 환자는 5일 낮 12시 15분 김포공항에서 출발한 대한항공 KE1223편 비즈니스석을 이용했다.렌터카를 타고 오후 5시께 서귀포시 중문관광단지 신라호텔에 도착한 141번 환자 일행은 오후 6시께 신라호텔 앞 고깃집에서 식사한 뒤 숙소로 돌아왔다.여행 둘째 날인 6일에는 아침에 호텔 뷔페에서, 점심에 호텔 수영장의 식당에서, 저녁에 제주시 해안도로의 횟집에서 각각 식사했다.셋째 날인 7일에는 오전 11시께 호텔 뷔페에서 아침식사를 한 뒤 서귀포시 남원읍의 코코몽에코파크를 방문했으며, 오후 3시께 제주시 조천읍의 승마장에 갔다. 오후 5시께 호텔에 돌아온 141번 환자의 일행은 고깃집에서 저녁식사를 했으나 141번 환자는 이 자리에 불참했다.이 환자 일행은 8일 오전 호텔 뷔페에서 아침식사를 한 뒤 오후 4시 30분 제주공항에서 출발한 대한항공 KE1238편 비즈니스석을 이용해 귀경했다.이 환자는 신라호텔에서는 뷔페와 수영장, 식당 외에 다른 시설은 이용하지 않았다고 밝힌 것으로 알려졌다.또한 여행 중 몸이 좋지 않아 혼자서 차에 머무르는 시간이 많았다고 해 이때부터 메르스 증상이 나타난 것이 아닌지 의심된다.이후 141번 환자는 9일 직장에서 퇴근 후 오후 4시 쯤 발열과 기침 증세를 보인 뒤 11일까지 출근하지 않고 집에서 휴식을 취했다. 12일 강남구보건소에 연락해 1차 검사결과 메르스 양성 판정을 받은 뒤 13일 국립보건연구원의 2차 검사결과에서도 양성 판정을 받았다.제주도 메르스 대책본부는 CCTV, 호텔직원 등의 진술을 종합해 141번 환자와 접촉한 34명의 밀접 접촉자를 확인했다. 이중 31명은 자가격리를 통보했다고 전했다.호텔에는 영업을 자제해달라고 통보했다. 호텔 측은 자체적으로 방역작업을 벌였다.확진 환자 동선에 포함되는 식당과 관광지 등을 이용한 도민과 관광객은 보건소에 신고해달라고 요청할 계획이다.대한항공은 이 환자와 같은 여객기에 탑승한 승무원 14명과 카운터 직원 4명, 게이트 직원 4명 등을 격리조치했다. 이들 모두 건강상태는 양호한 것으로 알려졌다. A씨가 제주로 갈 때 탔던 여객기는 당일, 올 때 탄 여객기는 탑승 다음날 소독을 받은 것으로 확인됐다.대한항공은 보건당국에 해당 여객기 두 편의 탑승객 500여명의 명단과 연락처를제출했다.멀티미디어부 multi@ ⓒ 부산일보(www.busan.com), 무단전재 및 수집, 재배포금지 당신을 위한 AI 추천 기사 ▶ 디지털 뉴스콘텐츠 이용규칙 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 공모 왜 했나… ‘부산롯데타워’ 명칭 두고 지역사회 논란 지방대 반도체학과 43% 미달… 수도권 위주 육성책 지방엔 ‘독’ 2022 진주남강유등축제 개막, 이달 말까지 푸틴, 우크라이나에 미사일 보복 인정…'테러에는 가혹한 대응' 라이브리 댓글 작성을 위해 javascript를 활성화해주세요. 당신을 위한 PICK 오늘의 추천 뉴스 부산공동어시장 ‘바닥 위판’ 2025년 사라진다 "부산시 보호종료아동 자립정착금, 7대 도시 중 최저 수준" 깜짝 투수로 등판한 조선의 4번 타자, 영화 같은 22년 마무리 지역 반발 높은데… 한수원, 건식저장시설 건설 일정 ‘일방 확정’ [BIFF] 열띤 축제의 한가운데… 별들의 바다, 관객들 환호 출렁이다 [BIFF] “5년 지난 지금도, 영화제에 그가 없다는 게 믿기지 않아요” 1년 4개월 만에 ‘강제 퇴장’ 이준석, ‘비윤 세력’ 결집 나서나 부산 경찰 “교차로 우회전 일시 정지, 당분간 계도 계속” FUN 부산 펫플 스토리 [반려동물과 여기 어때] 광안리 ‘핫플’ 3곳 부산여자대학교 반려동물과 내달 6일까지 수시 1차 접수 우리 절대 물지 않는다? 견주들 과한 자신감부터 버려라 바로가기 펫플스토리 바로가기 전체보기 펫영상 펫스토리 스타의 펫 펫정보&amp;팁 펫칼럼 비즈 Biz 대선주조-부산시, 지역축제 활성화 위해 5억 원 지원 협약 (주)경성리츠, 저소득 가정 아동 온누리 상품권 지원 부산 라발스호텔, 가을맞이 '야놀자라이브' 진행...코너룸 라이브 특가로 첫 선 바로가기 비즈 Biz 바로가기 전체보기 CEO와 차 한잔 비즈Biz칼럼 / 동정 비즈Biz포럼 비즈Biz란 톡한방 TV [한방정보]장마철 더해지는 교통사고 후유증, 입원 시기 중요 바로가기 톡한방TV 바로가기 톡한방 추천한의원 톡!한방 칼럼 톡한방 정보 톡한방 한의원 소식 톡한방 상담실 해양소식 웹매거진 한국 전담 무역특사 존 위팅데일을 만나다 바로가기 해양소식 | 웹매거진 바로가기 해양소식 | 웹매거진 바로가기 청년기업 소식 국민커피 더리터, 가맹점에 집중호우 수해 복구를 위한 커피 원두 지원 기업 바로가기 동아인코팜 달리미술관 이상커뮤니케이션 포인트넛 부산365mc 바이오플러스 씨엔컴퍼니 제비표우의 왕신 알시스쾌어 오렌슈츠 아이피텍코리아 제이컴즈 폴짝센터 헬씨코 린치핀 리더스손해사정 우양미술관 희천 프리젠트 보라공사 도시농사꾼 동네북 소식 얘들아, ‘연제구 아이사랑뜰’에서 놀자 바로가기 | 구청 바로가기 | 강서구 동래구 사상구 사하구 부산진구 금정구 중구 해운대구 수영구 영도구 북구 남구 동구 서구 기장군 연제구 | 경남울산 바로가기 | 울산시청 김해시청 창원시청 거제시청 양산시청 대학 소식 부산가톨릭대학교 물리치료학과, 2022년 대한PNF학회 우수 논문 공모전 학생부문 최우수상 수상 바로가기 | 대학소식 바로가기 | 동서대학교 경성대학교 인제대학교 부산외국어대학교 신라대학교 부산교육대학교 동명대학교 부산가톨릭대학교 부경대학교 화신사이버대학교 부산대학교 고신대학교 영산대학교 가야대학교 동아대학교 동의대학교 한국해양대학교 부산디지털대학교 | 전문대소식 바로가기 | 동의과학대학교 부산경상대학교 경남정보대학교 부산과학기술대학교 부산여자대학교 동주대학교 대동대학교 한국폴리텍대학부산캠퍼스 부산시정뉴스 '제23회 부산 국제관광전(BITF2022)' 개최 바로가기 부산시정뉴스 바로가기 뉴스인뉴스 캠코, 신조펀드 지원 3호 선박 ‘DAT Mercury’호 명명식 개최 바로가기 기관소식 바로가기 부산정보산업진흥원 동래여성인력개발센터 한국국제협력단 부산인재평생교육진흥원 벡스코 한국청소년상담복지개발원 한국수력원자력 부산테크노파크 국민건강보험 부산항만공사 부산광역시소방안전본부 부산관광공사 해운대여성인력개발센터 한국토지주택공사 기술보증기금 부산국제교류재단 부산환경공단 한국환경공단 렛츠런파크 한국국토정보공사 부산연탄은행 한국건강관리협회 한국자산관리공사 사하여성인력개발센터 동구여성인력개발센터 부산농협 부산지방우정청 부산도시공사 한국수산자원공단 터치뉴스 부산일보 강당 대관안내 부일CEO아카데미 안내광고 보기 신문전시관 고충처리인·독자위원회 [48789] 부산시 동구 중앙대로 365 (수정동) ｜ 전화번호 : 051)461-4114 ｜ 이메일 : webmaster@busan.com 등록번호 : 부산아00091 ｜ 등록일자 : 2011년 5월24일 ｜ 발행·편집 겸 인쇄인 : 김진수 ｜ 청소년보호책임자 : 박영홍 모든 콘텐츠를 커뮤니티, 카페, 블로그 등에서 무단 사용하는것은 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. COPYRIGHT (C) 2016 부산일보사 ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>제주도, 메르스에 관광산업 비상..."외국인 관광객 절반수준" &lt; 정치·사회 &lt; 기사본문 - 초이스경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED. 2022-10-11 11:44 (화) 로그인 회원가입 모바일웹 전체메뉴 버튼 뉴스+ 경제 산업 금융 피플 포토 뉴스 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 메르스에 관광산업 비상..."외국인 관광객 절반수준" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치·사회 제주도, 메르스에 관광산업 비상..."외국인 관광객 절반수준" 기자명 김슬기 기자 승인 2015.06.23 09:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 원희룡 제주도지사 "엄격하고 선제적인 조치 취하고 있다" ▲ 원희룡 제주도지사가 '메르스 대응 및 경제위기 극복회의'를 주재하고 있다. [초이스경제 김슬기 기자] 메르스의 여파로 외국인 여행객 급감과 국내 여행객이 줄면서 제주도의 관광산업에 비상이 걸렸다. 이에 CBS '박재홍의 뉴스쇼'에서 원희룡 제주도지사의 현지 상황 및 대책을 전했다.23일 '뉴스쇼'에 출연한 원희룡 제주도지사는 먼저 "외국인 관광객이 평소의 절반 이하로 줄었고 국내 단체 여행객들도 취소하는 경우가 많아 전세버스 가동률이 기존의 10% 수준에 그치고 있다. 외국인 관광객의 경우 6월, 7월 예약했던 것들이 취소되고 있는 것과 더불어 신규예약도 이뤄지지 않고 있어 지금보다 관광업계가 더 악화될 것으로 보고있다"고 말했다.그러면서 "지난 5일부터 8일까지 제주도를 다녀간 141번 환자의 경우 제주도에 왔을 때는 증세가 없었던 잠복기였고 제주에서 떠나고 이틀 후에 확진을 받았다. 접촉자로 추정되는 180여명은 격리와 밀착감시로 상태를 지켜봤지만 공식적인 잠복기가 어제 끝났다. 감염자는 한 명도 없는 상태지만 모니터링 기간을 일주일 연장해 만약의 상황에 대비하고 있다"고 덧붙였다.신라호텔 이부진 대표와의 만남에 대해서는 "지난 17일 연락이 와서 만나게 됐다. 신라호텔 측이 141번 잠복기 환자의 동선을 파악하고 투숙객들의 명단을 파악하는 데 협조를 잘 해줬다. 호텔을 거쳐 간 사람이 많은 점을 감안해 영업 자제를 요청했는데 이부진 대표가 다음날 바로 영업중단이라는 결단을 내려줬기 때문에 방역조치나 접촉자들의 동선추적에 도움이 됐다. 앞으로도 제주관광의 회복을 위해 협력을 할 계획이다"고 설명했다.141번 환자와 접촉했던 것으로 파악된 학생, 교직원의 등교자제 조치를 했던 제주교육청과 제주도 간 입장 차를 묻는 질문에는 "교육청에서는 휴교를 하지 않는 대신 현장에서 선제적이고 강화된 조치를 취했다. 다만 격리조치를 지나치게 확장하는 과정에서 당시 근무하지 않았던 직원의 가족까지 격리대상자로 포함시켰다. 불필요한 감시로 인해 아이들에게 상처가 될 것을 우려해 제한적으로 운영하자는 의견을 제시했지만 이는 조정을 거쳐 해결했다"고 답했다.정부의 미흡한 초기대응과 비공개주의 등을 지적하는 것에 대해서는 "초기 질병본부, 보건복지부에서 상황판단이 잘 안됐고 국가의 위기 컨트롤 본부나 대통령에 정확한 정보전달이 안됐던 것은 큰 문제다. 병원 이름이 늦게 공개된 것도 국민들의 불신과 공포를 키웠다. 물론 위험부담이 큰 결정인 만큼 결정을 내리기 쉽지 않았겠지만 장관이나 대통령이 결정해야할 타이밍을 놓친 부분이 아쉽다"고 평가했다.원희룡 도지사는 "제주도 등 지방자치는 행정자치부와 일을 처리하는데 세월호 이후 국민안전처가 만들어졌고 질병관리본부는 보건복지부 산하에 있는 등 통일된 정보와 지침을 주고받을 수 없는 시스템 하에 있다 보니 혼선이 생긴다. 기본적인 컨트롤타워는 장관, 총리, 대통령인데 결국 최고 통치권자가 이런 칸막이를 뛰어넘고 국민의 공감과 신뢰를 얻을 수 있다는 리더십을 발휘해야 한다"고 지적했다.그러면서 "새정치민주연합이 성명을 통해 대통령의 사과가 필요하다고 했는데 대통령이 국민에게 사과하는 것은 몇 번이든 문제가 없다. 현재 중요한 것은 국제적 위신추락, 국가 신임도 추락 등의 문제를 빚고 있는 메르스를 진정시키고 국민들의 불안감을 진정시키는 게 시급하다"고 말했다. 원희룡 도지사는 "141번 잠복기 환자와 관계없이 엄격하고 선제적인 조치를 취하고 있는 만큼 청정지역 제주도를 안심하고 방문해달라"고 강조했다. 김슬기 기자 seul8952@choicenews.co.kr 다른기사 보기 저작권자 © 초이스경제 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 대구에서도 감귤 재배 성공 정해인 '빛나는 외모' '한땀 한땀' 퀼트 세계 "장미가 예쁘네" 붉게 물들어가는 '코키아' 제주 범섬의 일출 K팝 콘서트의 열기 제주 무지개 해안도로 어때요 인기 기사 1 '두 악재' 미국증시 '강타', 나스닥 · 반도체주 '휘청' 2 미국증시 나스닥100 '폭락'...반도체 · 전기차주 '추락', 거의 전종목 '하락' 3 미국증시 다우존스 지수 '급락'...머크 빼고 '전멸', 인텔 · 애플 '뚝' 4 美실업률 '뚝', AMD '악재'...미국증시 장중, 나스닥 · 반도체주 '폭락' 5 국경절 연휴 끝낸 중국증시, 1%대 '급락 마감' 6 中 "대만 TSMC, 중국시장 잃고 한국이 대신 차지할 수 있다" 7 중국 측 "미국의 대중국 반도체 수출 제한, 타격 미미" 8 미국증시 S&amp;P500 '추락'...AMD · MPWR '급락 ' vs DXCM · 할리버튼 '껑충' 9 美실업률 '하락'...유럽증시 '뚝', 미국증시 '장중추락', 테슬라 '장중급락', 美국채금리 '껑충'' 10 중국 국경절 황금연휴, 관광 · 영화 · 유통서 활발한 '소비 활동' 굿모닝 경제 뉴스 미국 대기업 CEO 보수, 직원의 400배...격차 더욱 확대 [초이스경제 곽용석 기자] 미국 기업의 CEO 보수가 주가 상승을 웃도는 속도로 증가하는 것으로 조사됐... '악재 속출'...미국증시 자동차주 '줄줄이 급락' 미국증시 다우지수 '하락'...머크 · 애플 '상승' vs CRM ·MSFT· 인텔 '뚝' 홍콩 경매에서, 핑크 다이아몬드 가격 '새 기록' 달성 HOT 클릭 뉴스 "태양 미스테리 풀자"...중국 태양관측 위성 발사 성공 [초이스경제 홍인표 기자] 중국이 태양의 미스테리를 풀기 위한 노력으로 태양 관측 전문위성 과푸(夸夫) ... 홍콩이 관광 부흥 위해 꺼내든 비장의 카드는? 중국 측 "미국의 대중국 반도체 수출 제한, 타격 미미" ACEA "유럽 올해 신차 판매 전망 대폭 하향, 역성장 우려" 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 마포구 백범로31길 8 , 제업무시설동 403호·404호 (공덕SK리더스뷰) 대표전화 : 02-565-7276 팩스 : 02-2234-7276 청소년보호책임자 : 이미애 법인명 : 주식회사 초이스경제 제호 : 초이스경제 등록번호 : 서울, 아02162 등록일 : 2012-06-18 발행일 : 2012-07-05 발행인 : 최원석 편집인 : 이영란 초이스경제 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 초이스경제. All rights reserved. mail to webmaster@choicenews.co.kr 위로 전체메뉴 전체기사 경제 전체 경제 글로벌 IT 경제 핫 이슈 경제 · 산업 이슈 세계 부동산 소식 재벌뷰 산업 전체 산업 글로벌 IT 세계 부동산 소식 경제 · 산업 이슈 금융 전체 금융 뉴스 국내 금융 마켓 핫 이슈 환율 보도자료 피플 전체 칼럼 인사 동정 장경순의 만필세상 포토 뉴스 전체 포토 뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 메르스 관광객, 확진 판정…'정확한 동선 파악 어려워' | SBS연예뉴스 연예뉴스 검색 바로가기 연예뉴스 본문 바로가기 연예뉴스 메뉴 바로가기 연예뉴스 하단메뉴 바로가기 SBS연예뉴스 페이지 주메뉴 최신 방송 전체 프로그램 리뷰 방송 인사이드 촬영장 핫뉴스 드라마 영화 전체 스크린 현장 핫 리뷰 뮤직 스타 전체 끝장 인터뷰 스타는 지금 스타일 라이프 포토 SBS SBS뉴스 SBS Star 로그인 검색 검색하기 검색창 닫기 공유 카카오톡 공유하기 카카오톡 페이스북 공유하기 페이스북 트위터 공유하기 트위터 URL 공유하기 URL 라이프 문화사회 제주도 메르스 관광객, 확진 판정…'정확한 동선 파악 어려워' 연예뉴스팀 Seoul 연예뉴스팀 작성 2015.06.18 15:57 조회 2,233 기사 인쇄하기 폰트 사이즈 줄이기 폰트 사이즈 키우기 [SBS연예뉴스 연예뉴스팀] 제주도 메르스 관광객, 확진 판정…'정확한 동선 파악 어려워' 제주도 메르스 메르스 환자가 확진 판정을 받기 직전 제주를 여행했던 사실이 뒤늦게 밝혀져 관심이 집중되고 있다. 제주도는 지난 13일, 메르스 확진 판정을 받은 141번 환자가 확진 판정을 받기 전인 지난 5∼8일 3박4일 일정으로 가족 등 8명과 함께 제주를 관광하고 돌아갔다는 사실을 최근 보건복지부로부터 통보받았다고 18일 밝혔다. 이 환자는 대한항공편으로 제주에 도착해 렌터카를 빌려 서귀포시 중문관광단지에 있는 신라호텔로 가서 여장을 풀고 호텔 앞 고깃집에서 저녁 식사를 한 뒤 숙소에서 하룻밤을 보냈다. 다음날은 호텔 뷔페와 호텔 수영장의 식당, 제주시 해안도로의 한 횟집에서 각각 식사했다. 여행 3일째인 7일에는 호텔 뷔페와 서귀포시 남원읍에 있는 코코몽에코파크, 조천읍에 있는 한 승마장을 다녔고, 마지막 날은 호텔 뷔페에서 아침 식사를 하고 제주공항으로 이동해 대한항공기를 타고 귀경했다. 그런데 이 환자는 여행 중에도 몸이 좋지 않아 혼자서 차에 머무르는 시간이 많았던 것으로 알려져 이미 메르스 증세를 보였던 것으로 추정되고 있다. 이 환자는 지난달 27일, 아버지 정기검진을 위해 함께 삼성서울병원에 들러 응급실 화장실을 이용하다 감염된 것으로 보고 있는데, 증상 발현 기간이 보통 5∼7일인 점을 고려하면 제주 여행 당시 이미 메르스 증상이 발현됐을 가능성이 큰 것으로 알려졌다. 제주도는 이 환자와 2미터 이내 거리에 있던 밀접접촉자 34명을 확인하고 이 가운데 신원이 확인된 신라호텔 직원 31명에 대해 자가격리 하도록 하고, 1차 검사를 하고 있다. 제주도는 뒤늦게 이 환자의 동선을 파악하고 있지만, 정확한 동선 파악에 어려움을 겪고 있는 것으로 알려졌다. 보건복지부는 처음 역학조사 때에는 환자가 본인이 지난 9일부터 증세가 생겼다고 진술해 제주도 여행 사실에 대해 조처를 안 했다가, 주위에서 그분이 기침 등 호흡기증상이 있었다고 진술해 접촉자 관리에 들어갔다고 해명했다. 제주도 메르스 소식에 네티즌들은 "제주도 메르스, 정말 큰일이네요", "제주도 메르스, 더이상 확산되면 안되는데", "제주도 메르스, 별일 없었으면 좋겠다" 등의 반응을 보였다. (제주도 메르스, 사진=SBS) 연예뉴스팀 기사공유 공유하기 공유하기 카카오톡 공유하기 카카오스토리 공유하기 페이스북 공유하기 트위터 공유하기 네이버밴드 공유하기 네이버 공유하기 URL 공유하기 공유하기 닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V) 해주세요. 확인 닫기 관련 기사 광고영역 태그기사 광고영역 닫기 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email. sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 뉴스제보 제휴문의 이용약관 개인정보 처리방침 트위터 바로가기 페이스북 바로가기 핀터레스트 바로가기 네이버밴드 바로가기 ⓒ SBS &amp; SBS Digital News Lab all rights reserved. SBS Family 더보기 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S 지역민영방송 더보기 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 페이지 최상단으로 가기</t>
+  </si>
+  <si>
+    <t>메르스 발생, 제주도 확진 관광객 일행은 모두 음성..'파장 없나' - 전자신문 Conference allshowTV 검색 뉴스 속보 경제·금융 전자·모빌리티 통신·미디어·게임 소재·부품 SW·보안 산업·에너지·환경 플랫폼·유통 벤처·바이오 뉴스 정치 전국 국제 골프 화제의뉴스 인사·부음 오피니언 특집 연재 비주얼IT 스페셜리포트 뷰포인트 인포그래픽 라이프 연예 포토 공연전시 생활문화 날씨 부가서비스 콘퍼런스 allshowTV IT 전시 컨벤션 ET프리미엄 시사용어 PDF 서비스 English 서비스 안내 신문구독신청 온라인광고안내 콘텐츠구매 초판서비스 번역센터 회원 서비스 로그인 회원가입 패밀리미디어 서울신문 RPM9 EBN 산업경제신문 연예 포토 공연전시 생활문화 날씨 메르스 발생, 제주도 확진 관광객 일행은 모두 음성..'파장 없나' 발행일 : 2015-06-20 13:15 &lt;메르스 발생 출처:/ YTN 캡처&gt; 메르스 발생 메르스 발생 환자와 함께 제주도를 관광한 가족 11명과 일행이 모두 음성 판정을 받았다. 20일 제주도 메르스 관리대책본부에 따르면 메르스 잠복기간중 제주여행을 다녀간 관광객의 여행 동선과 관련해 총 179명에 대해 모니터링중이다. 관광객 동선에 포함된 음식점, 여행지 등 밀접접촉자 179명을 확인, 이중 56명은 자가격리 조치하고 123명은 능동감시자로 분류해 모니터링을 실시하고 있다. 관련 기사'사람이 좋다' 전미라, 과거 윤종신은 거짓말?.."다시 태어나도 전미라와 결혼''사람이 좋다' 전미라 "남편 혈변, 무섭다고 하더라"..'눈물''사람이 좋다' 전미라 "지금도 남편 혈변 봐"..'눈물''삼시세끼' 유해진 "만재도는 체계적, 여긴 어수선해"'삼시세끼' 유해진, 이서진 발언에 옥택연 '폭소'..'아무것도 하기 싫어'메르스 발생, 제주도 확진자 일행 모두 음성..'안심' 또 관리대책본부는 141번 일행가족 11명에 대한 메르스 검사 결과 1차에서 모두 음성판정이 나왔다고 밝혔다. 대책본부는 20일 오전 10시 현재 메르스 추가 의심 신고자는 4명이며 모두 음성판정을 받았다고 밝혔다. 이에 따라 현재까지 누적인원은 68명으로 모두 음성이다. 김현욱 기자 life@etnews.com 핫뉴스 in LIFE 1 송가인, 전국투어 콘서트 매진 행렬... "웃돈 줘도 살 수 없다" 2 단풍놀이는 언제가 절정?…‘2022 단풍 예측 지도’! 3 송가인과 김호중이 뭉쳤다! 新 예능 ‘복덩이들고(GO)’ 기대감 폭발 4 송가인 X 금잔디, 털털함으로 뭉친 트롯 여신들 5 “한복 입은 가인이어라♥”…송가인, ‘치명적 단아美’ [화보] AI와 빅데이터, 어디까지 활용해봤니? RPA의 성장에 실패한 기업들이 간과했던 여섯 가지- 역량 내재화와 프로세스 자동화 CoE를 중심으로 전자신문 회사소개 지면광고 행사문의 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 8~9층 대표번호: 02-2168-9200 구독문의: 02-2671-1806~7 전자신문인터넷 회사소개 이용약관 개인정보취급방침 고충처리 사이트맵 주소: 서울시 서초구 양재대로2길 22-16 호반파크1관 7층 대표번호: 02-857-0114 사업자번호: 107-81-80959 등록번호: 서울 아04494 제호: 전자신문인터넷 등록일자: 2017년 04월 27일 발행일자: 1996년 04월 10일 발행·편집인: 심규호 청소년보호책임자: 김인기 Copyright © Electronic Times Internet. All Rights Reserved. 패밀리미디어 RPM9 서울신문 EBN 산업경제신문</t>
+  </si>
+  <si>
+    <t>제주 관광객 메르스 확진, 의심 상태로 3박4일 관광…'청정지역' 제주도 비상 뉴스 &gt; 연예스포츠 제주 관광객 메르스 확진, 의심 상태로 3박4일 관광…'청정지역' 제주도 비상 [조세일보] 임재윤 기자 이메일 : jyfly86@joseilbo.com</t>
+  </si>
+  <si>
+    <t>кҙҖкҙ‘к°қм—җ вҖҳмІӯм •вҖҷ м ңмЈјлҸ„ лҡ«лҰ¬лӮҳ | м„ңмҡёмӢ л¬ё м „мІҙ м„ңмҡёмӢ л¬ёкіөмӢқ SNS мұ„л„җкө¬лҸ… &amp; мўӢм•„мҡ”!! м„ңмҡёмӢ л¬ё лёҢлһңл“ң мӢ л¬ёкө¬лҸ… м§Җл©ҙ PDF лЎңк·ёмқё кіөмӢқSNS Since 1904.7.18 кё°мӮ¬м ңліҙл¶ҲнҺёмӢ кі лүҙмҠӨлёҢлһңл“ң м„ңмҡёмӢ л¬ё лӮҳмҡ°лүҙмҠӨ м„ңмҡёPn м„ңмҡёEye м„ңмҡёTV м„ңмҡёEn м„ңмҡём»¬мІҳ кіөмғқкіөмӮ¬ кіөмқө/л¬ёнҷ”/мӮ¬м—… м„ңмҡёл§Ҳмј“ м„ңмҡёк°Өлҹ¬лҰ¬ лҚ”л¶Ҳм–ҙмғҒмЎ° н•ҳн”„л§ҲлқјнҶӨ м»ӨлІ„лҢ„мҠӨ лҜёлһҳм»ЁнҚјлҹ°мҠӨ мғқлӘ…кіөн•ҷмә н”„ нҸүнҷ”м—°кө¬мҶҢ м„ңл№„мҠӨ/л¬ёмқҳ мӢ л¬ёкө¬лҸ… PDF м§Җл©ҙліҙкё° л””м§Җн„ёмҙҲнҢҗ ліҙлҸ„мһҗлЈҢ м§Җл©ҙкҙ‘кі мҳЁлқјмқёкҙ‘кі мҳҘмҷёкҙ‘кі м„ңмҡёл§ҲлӢ№ лҢҖкҙҖ мӮ¬нҡҢ мөңмӢ кё°мӮ¬ мӮ¬кұҙВ·мӮ¬кі лІ•мӣҗВ·кІҖм°° нҷҳкІҪ көҗмңЎ кіјн•ҷ ліҙкұҙВ·мқҳлЈҢ ліҙкұҙВ·ліөм§Җ м •м№ҳ мӮ¬нҡҢ кІҪм ң көӯм ң мҳӨн”јлӢҲм–ё м •мұ…В·мһҗм№ҳ л¬ёнҷ”В·кұҙк°• кё°нҡҚВ·м—°мһ¬ мҠӨнҸ¬мё м—°мҳҲ н”јн”Ң м „мІҙкё°мӮ¬/мӮ¬мқҙнҠёл§ө нҷҲмӮ¬нҡҢ кҙҖкҙ‘к°қм—җ вҖҳмІӯм •вҖҷ м ңмЈјлҸ„ лҡ«лҰ¬лӮҳ мһ…л Ҙ :2015-06-18 23:38г…Ј мҲҳм • : 2015-06-19 03:40 нҷ•м§„мһҗ м§ҖлӮң 5~8мқј к°ҖмЎұкіј м—¬н–үвҖҰ кіөн•ӯВ·мӢ лқјнҳён…”В·н…Ңл§ҲнҢҢнҒ¬ л“ұ л°©л¬ё л©”лҘҙмҠӨ нҷҳмһҗк°Җ л°ңлі‘ м§Ғм „м—җ м ңмЈјлҘј м—¬н–үн•ң кІғмңјлЎң л“ңлҹ¬лӮ¬лӢӨ. м ңмЈјлҸ„ ліҙкұҙ лӢ№көӯмқҙ м ‘мҙүмһҗ кІ©лҰ¬ мЎ°м№ҳм—җ лӮҳм„°кі , нҷҳмһҗк°Җ нҲ¬мҲҷн–ҲлҚҳ мӢ лқјнҳён…”мқҖ мҳҒм—…мқ„ м „кІ© мӨ‘лӢЁн–ҲлӢӨ. м ңмЈјлҸ„ л©”лҘҙмҠӨ кҙҖлҰ¬лҢҖмұ…ліёл¶ҖлҠ” 18мқј вҖңмӨ‘м•ҷлҢҖмұ…ліёл¶ҖлЎңл¶Җн„° вҖҳ141лІҲм§ё л©”лҘҙмҠӨ нҷ•м§„ нҷҳмһҗмқҳ н–үм Ғм—җ лҢҖн•ң мЎ°мӮ¬ кІ°кіј м§ҖлӮң 5мқјл¶Җн„° 8мқјк№Ңм§Җ м ңмЈјлҘј м—¬н–үн–ҲлӢӨвҖҷлҠ” мӮ¬мӢӨмқ„ нҶөліҙл°ӣм•ҳлӢӨвҖқкі  л°қнҳ”лӢӨ. 141лІҲм§ё нҷҳмһҗ(42)лҠ” м§ҖлӮң 5мқј л¶Җмқёкіј м•„л“Ө, лӢӨлҘё к°ҖмЎұ л“ұ 12лӘ…кіј н•Ёк»ҳ к№ҖнҸ¬кіөн•ӯм—җм„ң лҢҖн•ңн•ӯкіө(KE1223)мқ„ мқҙмҡ©н•ҙ м ңмЈјм—җ лҸ„м°©, м„ңк·ҖнҸ¬ мӨ‘л¬ёкҙҖкҙ‘лӢЁм§Җ мӢ лқјнҳён…”м—җ лЁёл¬јлӢӨ 8мқј м ңмЈјкіөн•ӯм—җм„ң лҢҖн•ңн•ӯкіө(KE1238)нҺёмңјлЎң к·ҖкІҪн–ҲлӢӨ. м ңмЈјлҸ„лҠ” мқҙ нҷҳмһҗк°Җ м ңмЈјмӢңлӮҙ нҡҹм§‘, м„ңк·ҖнҸ¬ м§Җм—ӯ нҶ мҶҚмқҢмӢқм җ л“ұм—җм„ң л°Ҙмқ„ лЁ№кі  м ңмЈј лҸҷл¶Җ м§Җм—ӯ мҠ№л§ҲмһҘ, н…Ңл§ҲнҢҢнҒ¬ л“ұмқ„ лӢӨлӢҢ кІғмңјлЎң нҷ•мқён–ҲлӢӨ.мқҙ нҷҳмһҗлҠ” м ңмЈј м—¬н–үмқ„ л§Ҳм№ң нӣ„ 9мқјл¶Җн„° л°ңм—ҙкіј кё°м№Ё л“ұмқҳ мҰқм„ёлҘј ліҙмҳҖмңјл©°, м§ҖлӮң 13мқј мөңмў… нҷ•м§„ нҢҗм •мқ„ л°ӣм•ҳлӢӨ. мқҙ нҷҳмһҗлҠ” м§ҖлӮңлӢ¬ 27мқј л¶Җм№ңмқҙ мӮјм„ұм„ңмҡёлі‘мӣҗм—җм„ң мҷёлһҳ м •кё°кІҖм§„мқ„ л°ӣмқ„ лӢ№мӢң лҸҷн–үн–ҲлӢӨк°Җ 14лІҲм§ё нҷҳмһҗмҷҖ м ‘мҙү, л©”лҘҙмҠӨм—җ к°җм—јлҗң кІғмңјлЎң м¶”м •лҗңлӢӨ. кёҙкёү м—ӯн•ҷмЎ°мӮ¬м—җ лӮҳм„  м ңмЈјлҸ„лҠ” мқҙлӮ  мӢ лқјнҳён…” м§Ғмӣҗ л“ұ л°Җм ‘ м ‘мҙүмһҗ 31лӘ…мқ„ мһҗк°Җ кІ©лҰ¬ нҶөліҙн–ҲлӢӨ.мӢ лқјнҳён…” мёЎмқҖ вҖңкі к°қмқҳ м•Ҳм „кіј кұҙк°•мқ„ мөңмҡ°м„ м ҒмңјлЎң кі л Өн•ҙ мҳҒм—… мӨ‘лӢЁмқ„ кІ°м •н–ҲлӢӨвҖқл©° вҖңнҲ¬мҲҷк°қм—җ лҢҖн•ҙм„ңлҠ” мҲҷл°•лЈҢ нҷҳл¶Ҳ, лӢӨлҘё мҲҷл°•мӢңм„Ө м•ҲлӮҙ, н•ӯкіөнҺё м•ҲлӮҙ л“ұмқҳ мЎ°м№ҳлҘј н•ҳкі  мһҲлӢӨвҖқкі  л§җн–ҲлӢӨ. мқҙ нҷҳмһҗк°Җ мҲҷл°•н•ҳкі  нҳён…” л·”нҺҳмҷҖ мҲҳмҳҒмһҘмқ„ мқҙмҡ©н•ң мӮ¬мӢӨмқҙ м•Ңл Өм§Җмһҗ мқҙлӮ  мӢ лқјнҳён…” нҲ¬мҲҷк°қ мғҒлӢ№мҲҳк°Җ л§ҲмҠӨнҒ¬лҘј м“°кі  лӢӨл…”мңјл©° л·”нҺҳ л“ұ л¶ҖлҢҖмӢңм„ӨлҸ„ н•ңмӮ°н•ң лӘЁмҠөмқ„ ліҙмҳҖлӢӨ.лҢҖн•ңн•ӯкіөмқҖ м—¬к°қкё°м—җ нғ‘мҠ№н•ң мҠ№л¬ҙмӣҗ 8лӘ…мқҖ 19мқјк№Ңм§Җ, 8мқј к№ҖнҸ¬н–ү м—¬к°қкё°м—җ нғ‘мҠ№н–ҲлҚҳ мҠ№л¬ҙмӣҗ 6лӘ…мқҖ 26мқјк№Ңм§Җ кІ©лҰ¬ мЎ°м№ҳн–ҲлӢӨ. кіөн•ӯ м№ҙмҡҙн„° м§Ғмӣҗ 4лӘ…кіј кІҢмқҙнҠё м§Ғмӣҗ 4лӘ… л“ұ кіөн•ӯ м§Ғмӣҗ 8лӘ…(м ңмЈј 4лӘ…, к№ҖнҸ¬ 4лӘ…)лҸ„ кІ©лҰ¬н–ҲлӢӨ. лҢҖн•ңн•ӯкіөмқҖ лҳҗ ліҙкұҙ лӢ№көӯм—җ н•ҙлӢ№ м—¬к°қкё° л‘җ нҺёмқҳ нғ‘мҠ№к°қ 529лӘ…мқҳ лӘ…лӢЁкіј м—°лқҪмІҳ м „мІҙлҘј м ңм¶ңн–ҲлӢӨ. л°°мў…л©ҙ м ңмЈјлҢҖ мқҳн•ҷм „л¬ёлҢҖн•ҷмӣҗ көҗмҲҳ(к°җм—јм—ӯн•ҷ)лҠ” вҖң141лІҲм§ё нҷҳмһҗмқҳ мһ ліөкё°к°Җ мөңлҢҖ 14мқјмқё м җмқ„ кі л Өн•  л•Ң мҳӨлҠ” 22мқјк№Ңм§Җ кІ©лҰ¬мһҗм—җкІҢм„ң мқҙмғҒ мҰқмғҒмқҙ лӮҳнғҖлӮҳм§Җ м•ҠлҠ”лӢӨл©ҙ нҒ° мҡ°л ӨлҠ” н•ҳм§Җ м•Ҡм•„лҸ„ лҗңлӢӨвҖқкі  л°қнҳ”лӢӨ.м ңмЈј нҷ©кІҪк·ј кё°мһҗ kkhwang@seoul.co.kr 2015-06-19 2л©ҙ м„ңмҡёмӢ л¬ё м¶”мІң мқёкё°кё°мӮ¬ вҖҳлӢӨмӢң, мқјліём—¬н–үвҖҷвҖҰл¬ҙл№„мһҗ кҙҖкҙ‘ мһ¬к°ң вҖңм—үлҚ©мқҙ л§Ңм§„ з”· кі мҶҢвҖқ к°•лӮЁ л№„нӮӨлӢҲеҘі л§ҲмқҢ л°”кҫј мқҙмң вҖңл°•мҲҳнҷҚ, жҜҚмҷҖ кҙҖкі„ нҡҢліө мӣҗн•ңлӢӨвҖқ л°ңм–ё, м •л§җ мһҲм—ҲлӮҳ нҷ©кёҲліҖкё°м—җ м•үмқҖ лІҢкұ°лІ—мқҖ н‘ёнӢҙвҖҰм№ мҲң көҙмҡ• м„ л¬ј [лӢЁлҸ…] мҡ°лҰ¬ көӯл Ҙм—җ 3л§Ңtкёү н•ӯкіөлӘЁн•ЁмқҖ м Ғм •н•ңк°Җ вҖңмЈҪмқҢмқҳ кіөнҸ¬вҖқвҖҰлӢ¬лҰ¬лҠ” нғқмӢңм„ң кё°мӮ¬ 70нҡҢ нҸӯн–үн–ҲлӢӨ KнҢҢмқј вҖңм—¬мһҗлҠ” лЁ№мһҮк°җвҖқ пҰҒВ·мҳҒм•„ м„ұнҸӯн–ү лҹ¬кө°, лҚ” м§җмҠ№ к°ҷм•„м§„ л°ҖлҰ¬н„°лҰ¬ мқёмӮ¬мқҙл“ң мҡ°лҰ¬ көӯл Ҙм—җ 3л§Ңtкёү н•ӯкіөлӘЁн•ЁмқҖ м Ғм •н•ңк°Җ лӢ¬мҪӨн•ң мӮ¬мқҙм–ёмҠӨ мӨ‘л…„м—җ кјӯ вҖҳмҳӨл©”к°Җ3вҖҷ мұҷкІЁлЁ№м–ҙм•ј н•ҳлҠ” мқҙмң , м•Ңкі ліҙлӢҲ. мҲ  мқҙм•јкё° мһ¬мҠӨлҜјн–Ҙ к°Җл“қ, мӨ‘мӢқм—җ л”ұ нҸ¬нҶ  лӢӨнҒҗ лӮҙ л°ңкіј лӣҙлӢӨ, л„Ө л°ңмқҳ м „мҡ° кёҖлЎңлІҢ мқёмӮ¬мқҙнҠё вҖңн•ңкөӯмқҙ л°ҳмӨ‘м „м„  м„ л‘җ лӮҳнҢ”мҲҳ м•ҲлҸјм•ј, л°ҳ кұёмқҢ лҠҰкІҢ к·ёлҰјкіј и©© м Җл¬ҙлҠ” нҷ©нҳј/м„ңм •мЈј лүҙмҠӨлҘј л¶ҖнғҒн•ҙ м№ҳм—ҙн•ҙм§„ лҜёл””м–ҙ м„ кұ°м „вҖҰм—¬м•ј лҢҖм„  вҖҳмһ…вҖҷл“Өмқҳ м „мҹҒ мқҙ мӮ¬лһҢмқҙ мӮ¬лҠ” лІ• м§Җкө¬мҙҢ вҖҳмӢ мӢ  м»Өн”ҢвҖҷ 1л§Ң 4000мҢҚ вҷЎ 100м„ёл¶Җн„° к°Җ к№Җнғңк· мқҳ JлЎңк·ё вҖңмқјліёмқҳ мҮ лқҪмқ„ мқјліёмқёл“ӨмқҖ лӘ°лқјвҖҰм—¬м „нһҲ к°•лҢҖкөӯмқҙлһҖ л§қмғҒвҖқ мҳҒмғҒ м·Ёмһ¬ лІ„мҠӨм—җ л‘җкі  лӮҙлҰ° 350л§Ңмӣҗ л“  к°Җл°© м°ҫм•„мӨҖ кІҪм°°кҙҖ вҖңк¶ҢнҲ¬лҠ” н•ң л°©мқҙ мһҲм§Җл§Ң мқёмғқмқҖ н•ң л°©мқҙ м—ҶмЈ вҖқ, м „м„Өмқҳ вҖңмҲҳмғҒн•ҳл„ӨвҖқ кІҪм°°кҙҖ лҲҲмҚ°лҜём—җ л”ұ кұёлҰ° л¬ҙл©ҙн—Ҳ мҡҙм „мһҗ ліҙмқҙмҠӨн”јмӢұлІ” мһЎмқҖ м№ҙнҺҳ мЈјмқёмқҳ кё°м§Җ к°ҖмһҘ л§Һмқҙ ліё лүҙмҠӨ 1~5 6~10 н‘ёнӢҙ, лҜёмӮ¬мқј ліҙліө мқём •вҖҰвҖңн…Ңлҹ¬, к°Җнҳ№н•ҳкІҢ лҢҖмқ‘вҖқ вҖҳмӢ мқҳ м§ҒмһҘвҖҷ л§һл„ӨвҖҰкіөкё°м—… м§Ғмӣҗ м§‘мӮҙ л•Ң 1%лҢҖ м ҖкёҲлҰ¬ м–өлҢҖ лҢҖм¶ң вҖңмқјліёмқҖ м ңмқј мўӢмқҖ кІҢ лҸҷмҳҒмғҒвҖқвӢҜн•ҙкі лҗң көҗмӮ¬, вҖҳм„ мІҳвҖҷ мқҙмң лҗҗлӢӨ м„ мҡ°мқҖмҲҷ, вҖҳ4мӮҙ м—°н•ҳвҖҷ мң мҳҒмһ¬ м•„лӮҳмҡҙм„ңмҷҖ кІ°нҳј вҖҳн’ҖмҶҢмң вҖҷ л…јлһҖ нӣ„ мӮ¬лқјм§„ нҳңлҜјмҠӨлӢҳ, 2л…„л§Ңм—җ нҸ¬м°©лҗң к·јнҷ© вҖҳмӮјм„ұм „мһҗ мһ…мЈјвҖҷ нӮӨмқҙмҡ° л№Ңл”©, лҹ¬ кіөмҠө н”јн•ҙ(мҳҒмғҒ) мӢ нҳңм„ұ мёЎ вҖңмқҢмЈјмҡҙм „ мқём •, лҸ„лӮң м°Ёлҹү нғ‘мҠ№н•ң мқҙмң лҠ”вҖҰвҖқ н‘ёнӢҙ вҖҳн”јмқҳ ліҙліөвҖҷвҖҰ мҡ°нҒ¬лқј мӢңлҜј л•Ңл ёлӢӨ м—¬м„ұ мӢ мІҙ л§Ңм§Җкі  лҸ„мЈјвҖҰмһЎкі ліҙлӢҲ 6кёү көҗмңЎкіөл¬ҙмӣҗ мҡ°нҒ¬лқјмқҙлӮҳ нӮӨмқҙмҡ° нҒ° нҸӯл°ңмқҢвҖҰ лҜёмӮ¬мқј кіөмҠө м¶”м • м„ңмҡёEye : нҸ¬нҶ лүҙмҠӨ лӮҳмҡ°лүҙмҠӨ : м§Җкө¬мҙҢ лі„лі„ мқҙм•јкё° [STOP н‘ёнӢҙ] нҒ¬лҰјлҢҖкөҗ нҸӯл°ңмқҙ н•өм „мҹҒмңјлЎң? вҖҳм№ңмӨ‘вҖҷ л°ңм–ё мҸҹм•„лӮё лЁёмҠӨнҒ¬ лҚ•?вҖҰн…ҢмҠ¬лқј, мӨ‘көӯм„ң м—ӯ [нҸ¬м°©] нҒ¬лҰјлҢҖкөҗ нҸӯл°ңмқҖ мҡ°нҒ¬лқј мҶҢн–ү? вҖҳмқҳл¬ёмқҳ л¬јкІ° м–ҙлҰ°мқҙ 350лӘ… мӮҙн•ҙн•ң нқ¬лҢҖмқҳ мӮҙмқёл§Ҳ вҖҳм•ҲлҚ°мҠӨ кҙҙл¬јвҖҷ мҳ· л°”кҝ” мһ…кі  кі мҡ©мЈј лҢҖмӢ  PCR кІҖмӮ¬вҖҰдёӯ к·№лӢЁм Ғ м ң м„ңмҡёEn : л°©мҶЎВ·м—°мҳҲ мӢ нҳңм„ұ мёЎ вҖңмқҢмЈјмҡҙм „ мқём •, лҸ„лӮң м°Ёлҹү нғ‘мҠ№н•ң мқҙмң лҠ”вҖҰвҖқ [м „л¬ё] мҮјн•‘лӘ° лҢҖл°•лӮң к°•лҜјкІҪ, 65м–ө л№Ңл”© кіөк°ң л§ҲлҸҲлӮҳ, кіјлҸ„н•ң м„ұнҳ• нғ“? л„Ҳл¬ҙлҸ„ лӢ¬лқјм§„ м–јкөҙ м„ мҡ°мқҖмҲҷ, вҖҳ4мӮҙ м—°н•ҳвҖҷ мң мҳҒмһ¬ м•„лӮҳмҡҙм„ңмҷҖ кІ°нҳј вҖҳ60м„ёвҖҷ нҶ° нҒ¬лЈЁмҰҲ, мҡ°мЈјм„ң мҳҒнҷ” м°ҚлҠ” мөңмҙҲ л°°мҡ° лҗҳлӮҳ мӮ¬нҡҢ мөңмӢ  нҸ¬нҶ лүҙмҠӨ лӮҳл¬ј мәҗлӢӨ м°ҫмқҖ л°ұкіЁ мӮ¬мІҙвҖҰ10нҸү лҸҷкұ° м§Җм ҒмһҘм• мқёл“Өмқҳ мөңвҖҰ лЈЁлӮҳ мӮ¬нғң 5к°ңмӣ”вҖҰкІҖм°°, вҖҳк°ҖмғҒнҷ”нҸҗ=мҰқк¶ҢвҖҷ мһ…мҰқ мЈјл Ҙ вҖңмҳ¬л°”лҘё мӣ”кІҪмҡ©н’Ҳ мў…лҘҳВ·мӮ¬мҡ©лІ• м•Ңл ӨмЈјм„ёмҡ”вҖқвҖҰ60% м—¬м„ұмІӯвҖҰ вҖңмҲЁ м•Ҳ мү°лӢӨвҖқ лӘЁн…”м„ң мҲЁм§„ 5к°ңмӣ” м—¬м•„вҖҰвҖҳл¶ҖлӘЁ л°©м№ҳвҖҷ вҖҰ н•ңлқјлҢҖ кҙҖкҙ‘кІҪмҳҒн•ҷкіј, м·Ём—…л©ҳнҶ л§Ғ н–үмӮ¬ к°ңмөң мҳӨн”јлӢҲм–ёВ·мӮ¬м„Ө м„ңмҡёкҙ‘мһҘ көӯк°Җліҙм•ҲлІ•мқҳ мҡҙлӘ…, м°Ёл¶„нһҲ м§Җмјңліҙмһҗ мӢңлЎ мҠӨнҶ нӮ№лІ”мЈ„, мқҙм ңлҠ” көӯнҡҢк°Җ мқ‘лӢөн•ҙм•ј н•ңлӢӨ м—ҙлҰ°м„ёмғҒ мқјлЎ  лЁёмҠӨнҒ¬мқҳ лҜёмҷ„м„ұ ліҙкі мӮ¬м„Ө мІӯл…„ кҝҲ м§“л°ҹмқҖ мқҙмҠӨнғҖн•ӯкіө мұ„мҡ© мІӯнғҒл№„лҰ¬ кІҪм ңВ·м•Ҳліҙ мң„кё°ліҙлӢӨ м •м№ҳ мң„кё°к°Җ лҚ” л¬ҙм„ӯлӢӨ еҢ— н•өнғҖкІ© лӘ©н‘ң м ҒмӢң, л©ҙл°Җн•ң лҢҖл№„нғңм„ё к°–м¶°м•ј м„ңмҡёPn : м •мұ…/мһҗм№ҳ/кі мӢң вҖҳл°°лҳҗлЎұвҖҷ, мҳ¬ м•„лҰ„лӢӨмҡҙ мҡ°лҰ¬л§җ мғҒн‘ң м„ м • мқҙлҙүм°Ҫ мқҳмӮ¬ мҲңкөӯ 90мЈјкё° м¶”лӘЁмӢқ вҖңлҜјмӣҗ вҖҳм ңлЎңвҖҷ лҗ  л•Ңк№Ңм§Җ кө¬м„қкө¬м„қ лҲ„лІјм•јмЈ вҖқ мҪ”лЎңлӮҳлЎң м§Җм№ң мЈјлҜјл“Ө мқјмғҒ лӢӨмӢң м°ҫм•„ мӨҖ м„ңмҙҲ м•„лҸҷл“Өм—җкІҢ нқ¬л§қ м „н•ҳлҠ” вҖҳкҙҖм•… мҶҢл§қ л°°лӢ¬л¶ҖвҖҷ м„ңмҡёмӢ л¬ё кіөмӢқ SNS мұ„л„җ кө¬лҸ… &amp; мўӢм•„мҡ”!! мӢ л¬ёкө¬лҸ… н–үмӮ¬ м•ҲлӮҙ м•ҢлҰјВ·мӮ¬кі м Җмһ‘л¬ј кө¬л§Ө лҸ…мһҗк¶Ңмқөмң„ кі м¶©мІҳлҰ¬В·м •м •ліҙлҸ„ м ңнңҙ л°Ҹ л¬ёмқҳ нҡҢмӮ¬мҶҢк°ң мұ„мҡ© мқҙмҡ©м•ҪкҙҖ к°ңмқём •ліҙм·Ёкёүл°©м№Ё мІӯмҶҢл…„ліҙнҳём •мұ…(мұ…мһ„мһҗ:мқҙм§Җмҡҙ) м Җмһ‘к¶Ң к·ңм•Ҫ мЈјмҶҢ : м„ңмҡёмӢң мӨ‘кө¬ м„ёмў…лҢҖлЎң 124 (нғңнҸүлЎң1к°Җ) l мқён„°л„·мӢ л¬ёл“ұлЎқлІҲнҳё : м„ңмҡё м•„03681 л“ұлЎқмқјмһҗ : 2015.04.20 l л°ңн–үмқё : кіҪнғңн—Ң В· нҺём§‘мқё : мқҙмў…лқҪ l мӮ¬мқҙнҠёл§ө Copyright в“’ м„ңмҡёмӢ л¬ёмӮ¬ All rights reserved. l Tel (02)2000-9000</t>
+  </si>
+  <si>
+    <t>제주도 메르스 관광객 발생…“환자가 다녔던 동선과 밀접접촉자들을 파악하는 데 주력” - 열린세상 열린방송 MBN 홈 &gt; 전체기사 &gt; 기사 |  글자크기 제주도 메르스 관광객 발생…“환자가 다녔던 동선과 밀접접촉자들을 파악하는 데 주력” 기사입력 2015.06.19 11:04:47 기사 나도 한마디 Tweet 0 0 구글 제주도 메르스 관광객 발생…“환자가 다녔던 동선과 밀접접촉자들을 파악하는 데 주력” 제주도 메르스, 제주도 메르스, 제주도 메르스 제주도 메르스 화제 제주도 메르스 관광객 발생…“환자가 다녔던 동선과 밀접접촉자들을 파악하는 데 주력” 제주도 메르스 관광객 발생/ 사진=MBN 메르스 환자가 확진 판정을 받기전 제주를 여행했던 사실이 밝혀져 불안감이 더욱 커지고 있다. 제주도 메르스 관리대책본부는 지난 13일 메르스 확진 판정을 받은 141번 환자가 확진 판정을 받기 전인 지난 5∼8일 3박4일 일정으로 가족 등 8명과 함께 제주를 관광하고 돌아갔다는 사실을 최근 중앙대책본부로부터 통보받았다고 18일 밝혔다. 이 환자는 대한항공편으로 제주에 도착, 렌터카를 빌려 서귀포시 중문관광단지에 있는 신라호텔로 가서 여장을 풀고 호텔 앞 고깃집에서 저녁식사를 한 뒤 숙소에서 하룻밤을 보낸 것으로 알려졌다. 강홍균 제주도 소통정책관은 "신라호텔에 영업을 자제해달라고 당부했다"며 "환자가 다녔던 동선과 밀접접촉자들을 파악하는 데 주력하고 있다"고 말했다. /온라인 뉴스팀 @mkculture.com&lt; Copyright ⓒMBN(www.mbn.co.kr)무단전재 및 재배포 금지 &gt; 관련기사 신혜성, 도난차량서 음주측정 거부하다 체포 크러쉬, 인종차별 논란 해명 "제스처 오해" 이세영, 밥 먹는 모습 마저도 섹시 그 자체 나연, 무대 뒤에서도 숨길 수 없는 예쁨 서현, 우아+섹시미 가득한 드레스 MBN STAR 최신포토 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. ‘음주운전 자숙’ 리지, 새 증명사진 공개...미소 다시.. 마마무, 빈티지한 무드 가득한 ‘MIC ON’ 하이라이트 .. 이찬혁, 첫 솔로 앨범 타이틀곡 제목 ‘파노라마’...의.. ‘안나’ 수지 “‘국민 첫사랑’ 너무 좋은데요.. 수지 박해수 신시아 송강호 박해진 박해진 지창욱 송가인 주상욱 주상욱 드라마 우아한 가레벨업최고의 치킨설렘주의보마성의 기쁨마녀의 사랑리치맨고품격 짝사랑시추에이션 연남동 539엄마니까 괜찮아수상한 가족천국의 눈물 예능 트로트 퀸지구방위대친한 예능자연스럽게모던 패밀리엄지의 제왕속풀이쇼 동치미알토란스포츠 야예능 특집 프로그램 교양 나는 자연인이다여행생활자 집시맨기막힌 이야기 실제상황생생 정보마당판도라천기누설소나무휴먼다큐 사노라면현장르포 특종세상MBN 토요포커스열린TV 열린세상성공다큐 최고다 보도 MBN 종합뉴스이 한 장의 사진픽 뉴스굿모닝 MBN아침 &amp; 매일경제뉴스 &amp; 이슈뉴스파이터MBN 프레스룸MBN 뉴스와이드전국네트워크뉴스MBN 뉴스와이드 주말스포츠뉴스굿모닝 월드실리콘밸리 라이브MBN 뉴스특보시사스페셜데이터로 본 세상 뉴스 전체 정치 경제 사회 국제 문화 연예 스타 스포츠 생활ㆍ건강 지역 인기척 현장에서 뉴스제보 서비스 헬스 날씨 뉴스레터 이벤트 SNS 유튜브 Entertainment 유튜브 News 카카오스토리 페이스북 인스타그램 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 RSS 사이트맵 SNS MBN Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 류호길 |서울시 중구 퇴계로 190 (주)매일방송 |오시는길|대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 |인터넷신문등록번호 서울 아01043 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved. (본 사이트는 IE8.0 에 최적화 되어 있습니다.) 시작페이지 설정 즐겨찾기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 서울서 메르스 확진…의료진 “위급상황엔 방호복도 못 입어” 감염 적신호? 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 제주도 관광객 서울서 메르스 확진…의료진 “위급상황엔 방호복도 못 입어” 감염 적신호? 동아일보 입력 2015-06-19 15:10업데이트 2015-06-19 19:57 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 방송 캡쳐화면 제주도 관광객 서울서 메르스 확진…의료진 “위급상황엔 방호복도 못 입어” 감염 적신호?제주도 여행을 다녀온 40대 남성이 서울에서 메르스(중동호흡기증후군) 확진 판정을 받은 가운데, 메르스와 사투를 벌이고 있는 의료진의 모습이 눈길을 모았다.18일 방송된 YTN 뉴스에서는 메르스와 사투를 벌이고 있는 의료진의 모습이 전파를 탔다. 국립중앙의료원 호흡기 내과 이지연 의사는 “‘이 분은 꼭 살려야 되겠다. 이 분은 꼭 좋아져야 되는데’ 이런 마음이 있지만, 급격하게 나빠져서 손쓸 수 없이 됐을 때 저희도 마음이 괴롭다”라며 “환자가 위험에 빠질 때 너무 저희 마음도 급하기 때문에 사실은 방호복을 갖춰 입지 못 한 상태에서 시술을 하려고 뛰어 들어갈 경우가 있다. 그렇게 해서 위험에 노출이 되는 경우도 있다”고 말했다.중환자 병동 강소영 간호사도 “(음압 병동에) 장기간 오래 있으면 힘들거든요. 그런데 그 안에서 보호장비까지 다 착용하고 일하려니까 군대에서 완전 군장하고 행군하는 듯한 느낌”이라며 “누가 됐든 해야 되는 일이다. 해야 되는 일이니까 솔선수범까진 아니더라도 간호사의 입장에서 사명감을 가져야 한다”고 전했다.한편, 제주도 메르스 관리대책본부는 141번 환자가 5일부터 8일까지 제주도에 머물며 호텔, 관광지, 식당 등을 돌아다닌 것으로 확인됐다고 이날 밝혔다.141번 환자는 서울로 돌아간 뒤 10일 오전 4시경 발열과 기침이 발생했다. 이어 12일 강남구보건소 검사 결과 양성으로 나왔고 이튿날 국립보건연구원에서 2차 검사 결과 확진 판정을 받았다. 이 환자는 제주 여행 이전부터 감기와 유사한 증상이 있었던 것으로 알려졌다.제주도 관리대책본부는 이 환자가 거쳐 간 호텔신라제주 등지에서 현장 조사를 벌이는 한편, 접촉자에 대해선 자가격리 조치했다. 호텔신라는 호텔신라제주의 영업을 잠정 중단했다고 전했다. 제주도 관광객 서울서 메르스 확진. 사진=제주도 관광객 서울서 메르스 확진동아닷컴 디지털뉴스팀 기사제보 dnews@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 5 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 8 “간사 간 협의하라” “체면 좀 차려라”…감사원 국감 8분만에 파행 9 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 10 신혜성, 만취해 남의 차 끌고 운전…음주측정도 거부해 체포 최신기사 軍, 북한 ‘저수지 SLBM’ 발사에 “‘킬체인’ 의식한 궁여지책” “학교급식 종사자, 폐암 의심 유병률 일반인 35배” “2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄 與, 김용민 ‘尹 퇴진’ 발언에 “불법 쿠데타 획책” “충격적 망언” “욕설에 뒤통수 때린 음주 손님, 면허 취소시켰다”…대리기사의 대처법 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>스포츠서울 - 제주도 관광 141번 환자, 검사 도중 난동 "내가 메르스면 다 퍼트리고 다니겠다" 제주도 관광 141번 환자, 검사 도중 난동 "내가 메르스면 다 퍼트리고 다니겠다" 입력2015-06-18 15:06 수정2015-06-18 15:06 제주도 메르스[스포츠서울] 중동호흡기증후군인 메르스(MERS) 확진 141번 환자가 가족과 함께 제주도 3박 4일 여행한 사실이 알려지면서 이들 가족의 여행 경로에 관심이 집중되고 있는 가운데 이 환자가 서울에서 메르스 검사를 받던 중 소란 피운 사실이 주목받고 있다.18일 한 매체는 제주 관광을 다녀온 메르스 환자가 강남 소재 한 병원에서 검사를 받던 중 소란을 피웠다고 전했다.이 보도에 따르면 141번 환자는 자신의 부인과 아들 등 총 8명과 함께 제주도 관광을 다녀왔다. 이후 141번 환자는 강남보건소에서 지난 12일 1차 검사를 받고, 양성 반응을 보였다. 이어 2차 검사에서는 확진 판정을 받았다.이 과정에서 이 141번 환자는 "내가 메르스에 걸렸다면 다 퍼트리고 다니겠다"라는 충격적인 발언을 한 것으로 알려졌다. 또한 이 환자는 검사 결과를 기다리다가 걸쇠를 부수고 진료소를 벗어나는 등 소동을 벌이기도 한 것으로 전해졌다.메르스 141번 환자의 소식을 접한 네티즌들은 "제주도 메르스 환자, 저런 사람은 사회에서 격리 시켜야 한다", "제주도 메르스 환자, 다 같이 죽자는 심보네", "제주도 메르스 환자, 생각하는 게 나쁘다", "제주도 메르스 환자, 저런 사람은 처벌받아야 한다", "제주도 메르스 환자, 심정은 이해하지만 소란은 피우지 마라" 등의 반응을 보였다.한편, 제주특별자치도 측은 이 메르스 환자의 동선을 파악해 밀접 접촉자를 격리하는 등 방역에 총력을 다하고 있다고 전했다.이용수 인턴기자 news@sportsseoul.com사진= YTN 방송화면 캡처 ▶ 디지털 뉴스콘텐츠 이용규칙 보기 0 오늘의 핫키워드 선우은숙 재혼 l 김지민 l 신혜성 l 오은영 박사 인기기사-네이버 '재혼' 선우은숙-유영재 아나, 어떻게 만났나 ... '쌍둥이 임신?' 김지민, 열애 공개한 이유가.... 7kg 감량 홍진영, 초미니로 뽐낸 각선미 '이정후 절친' 고우석, 이종범 사위 된다 '이상화♥' 강남, 장모와 XX수술도 같이해 외도 70대 노부부...오은영도 할 말 잃었다 신혜성, 도난차량서 음주측정 거부로 '체포' 강민경, '65억대' 매입 신사옥으로 이사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 영상 포토 페이스북 트위터 카카오톡 구글플러스 카카오스토리 밴드 TOP 뉴스 1/2 이전 다음 맥심 선정 '세계 최고 섹시 미녀' 골프선수 중 타이거 우즈보다 팔로워 수가... 강민경, '65억' 매입 신사옥으로 이사 강민경이 신사옥으로 이사한다... 신세경, '헉' 소리 나는 베이글 여신 배우 신세경이 여신 같은 아름다움을... 호주 가라테 국대 출신, 남심 저격 호주 가라테 국가대표 출신으로 모델과... 과감 누드 화보 찍은 '91세' 최고령 모델 미국은 물론이고 전세계를 통틀어... 16살인데...이동국 딸, 넘사벽 성숙미 축구스타 이동국의 딸이자 모델 재시가... 부산국제영화제 레드카펫, 최고의 여신은? 부산국제영화제 레드카펫은... '아이언맨'의 그녀, 50세 기념 누드 배우 기네스 팰트로가 50세 생일을 기념한... SS TV 캐스트 구독하기 스포츠서울 SNS 스포츠서울 앱 살펴보기 스포츠서울 서울가요대상 Android 서울가요대상 IOS [사고]2022 제11회 전국 중.고 인문학 경진대회 X</t>
+  </si>
+  <si>
+    <t>제주도 관광객 42세男 서울서 메르스 확진…관광객-면세점 직원 등 5명 메르스 증세? ‘검사 中’ 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 제주도 관광객 42세男 서울서 메르스 확진…관광객-면세점 직원 등 5명 메르스 증세? ‘검사 中’ 동아일보 입력 2015-06-18 19:13업데이트 2015-06-19 09:24 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 동아DB제주도 관광객 42세男 서울서 메르스 확진…관광객-면세점 직원 등 5명 메르스 증세? ‘검사 中’40대 제주도 관광객이 메르스(중동호흡기증후군) 확진 판정을 받은 가운데 보건당국이 추가 감염 여부를 검사하고 있다. 18일 제주도 메르스 관리대책본부에 따르면 발열 증상을 보인 관광객 등 5명에 대해 메르스 감염 여부를 검사 중이다. 이날 오전 11시 30분경 대구에서 제주에 온 관광객 A씨(48·여)는 제주공항 열 감지기에서 발열현상을 보였다. 체온을 측정한 결과 38도로 확인돼 제주대학교병원에 격리해 메르스 검사를 받고 있다. 제주공항 면세점에 근무하는 B씨(41·여)는 11일부터 발열·기침·설사 등의 증상을 호소했다. 딸이 면세점에 근무하는 C씨(56·여)도 발열과 두통 증세를 보였다. 또 다른 30세 여성과 31세 남성도 열은 없지만 기침이 계속돼 메르스 검사를 받고 있다. 한편, 이날 제주도 메르스 관리대책본부에 따르면 5일부터 8일 제주도를 관광한 42세 남성이 메르스 확진 판정을 받았다. 이 남성은 17일 141번 환자로 확진을 받았다. 141번 환자는 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 14번 환자와 접촉한 것으로 추정했다. 141번 환자는 제주도 광광 당시에는 별다른 증상이 없다가 서울로 돌아간 뒤 발열 등 증상을 나타냈다. 제주도 메르스 대책본부는 중앙대책본부로부터 이같은 사실을 통보받고 141번 환자가 머물렀던 제주여행 주요동선의 역학조사를 벌였다. 141번 환자는 5일 오후 4시 아내와 아들 및 친구부부 등 모두 4가족 9명과 함께 제주공항에 도착한 뒤 렌터카를 이용해 중문관광단지에 있는 제주신라호텔에 머물면서 3박4일 동안 관광을 즐겼다. 이후 8일 호텔에서 아침을 먹은 뒤 공항을 통해 제주도를 떠났다.제주신라호텔은 메르스 확진 환자가 묵은 것으로 확인돼 당분간 영업을 중지한다고 전했다. 제주신라호텔 측은 “고객의 안전과 건강을 최우선으로 고려해 제주 신라호텔에서 메르스 감염 우려가 사라질 때까지 영업을 잠정 중지키로 했다”라며 “현재 제주 신라호텔 투숙객 전원을 모두 돌려보낼 방침”이라고 말했다. 이에 따라 제주신라호텔은 이날 오전부터 호텔 예약을 받지 않는 상태다. 질병관리본부는 제주신라호텔을 찾아 역학조사를 벌이고 있다. 제주도 메르스 제주신라호텔. 사진=제주도 메르스 제주신라호텔.동아닷컴 디지털뉴스팀 기사제보 dnews@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 5 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 8 “간사 간 협의하라” “체면 좀 차려라”…감사원 국감 8분만에 파행 9 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 10 신혜성, 만취해 남의 차 끌고 운전…음주측정도 거부해 체포 최신기사 軍, 북한 ‘저수지 SLBM’ 발사에 “‘킬체인’ 의식한 궁여지책” “학교급식 종사자, 폐암 의심 유병률 일반인 35배” “2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄 與, 김용민 ‘尹 퇴진’ 발언에 “불법 쿠데타 획책” “충격적 망언” “욕설에 뒤통수 때린 음주 손님, 면허 취소시켰다”…대리기사의 대처법 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>5~8일까지 제주 관광한 42세男 메르스 확진… 18일 제주도 역학조사 - 뉴스인사이드 × 전체기사 연예 전체 인터뷰 기획 방송 가요 영화 스포츠 경제 전체 가상화폐 환율인사이드 주식종합 정치 사회 생활 전체 잡인사이드 미세먼지 날씨뉴스 공연정보 물가정보 유가정보 게임 English 中國語 포토 영상 2022-10-11 12:00 (화) 모바일웹 검색버튼 기사검색 검색 전체 연예 전체 방송 가요 영화 기획 스포츠 경제 정치 사회 라이프 인터뷰 GOLF GOLMATE 페이스북 네이버 포스트 네이버 블로그 카카오스토리 카카오채널 유튜브 이전 다음 5~8일까지 제주 관광한 42세男 메르스 확진… 18일 제주도 역학조사 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회 5~8일까지 제주 관광한 42세男 메르스 확진… 18일 제주도 역학조사 승인 2015.06.18 10:57 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × ▲ 제주 메르스 [스타서울TV 이현지 기자] 제주도를 관광한 남성이 메르스 확진을 받았다.지난 5일부터 8일까지 제주도를 관광한 42세 남성이 질병관리본부로부터 메르스(MERS·중동호흡기증후군) 확진판정을 받은 것으로 확인됐다.제주특별자치도는 질병관리본부가 지난17일 메르스 확진 판정을 받은 관광객 1명이, 확진 판정이 나기 전 제주 여행을 다녀간 것으로 확인해 17일 밤 통보해왔다고 18일 밝혔다.질병관리본부는 이에 따라 18일 오전 제주도에 와 역학조사를 벌인다. 이 관광객은 공항을 통해 제주에 올 당시 발열검사에서도 별다른 증상을 보이지 않았고, 제주에서 중문관광단지 내 한 특급호텔에 투숙하면서 여러 관광지를 돌아다닌 것으로 알려졌다. 제주도는 이와 관련 이날 오전 10시쯤 공식 브리핑을 통해 관련 내용을 밝힐 예정이다. 한편 보건복지부 중앙메르스관리대책본부에 따르면 국내 메르스(MERS·중동호흡기증후군) 환자가 3명 추가돼 총 165명으로 늘었다. 추가된 환자 중 2명이 모두 의료진이다. 이중 1명은 삼성서울병원발(發) 2차 유행을 촉발한 14번(35) 환자와 응급실에 머물다 바이러스에 감염됐던 환자가 입원한 병동의 의료진으로 확인됐다. 병원 내 3차 전파인 셈이다. 사망자가 3명 더 나와 총 23명이 됐다. 치사율은 14%에 육박한다. 병이 완치돼 퇴원한 환자는 5명 늘어 모두 24명이다. 제주 메르스/사진=뉴시스[스타서울TV 보도자료 및 제보=sstvpress@naver.com 무단전재 및 재배포 금지] 모바일 보기 신문사소개 기사제보 광고문의 RSS 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 팩스 : 02-6455-7740 청소년보호책임자 : 김윤현 제호 : 뉴스인사이드 등록번호 : 서울 아 00380 등록일 : 2007-06-04 발행일 : 2007-02-01 발행인 : 천태영 편집인 : 천태영 편집국장 : 홍준성 부사장 : 조병권 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 뉴스인사이드의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright © 2022 뉴스인사이드. All rights reserved. mail to news@newsinside.kr 위로</t>
+  </si>
+  <si>
+    <t>제주 메르스 관광객, 감염 후 제주도行…'격리 대상서 제외된 이유보니?' 본문 바로가기 제주 메르스 관광객, 감염 후 제주도行…'격리 대상서 제외된 이유보니?' 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 사회 제주 메르스 관광객, 감염 후 제주도行…'격리 대상서 제외된 이유보니?' 기사입력 2015-06-19 09:55 제주 메르스 관광객, 감염 후 제주도行…'격리 대상서 제외된 이유보니?' ↑ 제주 메르스 관광객/사진=MBN 지난 13일 메르스 확진 판정을 받은 40대 남성이 직전에 제주도를 여행했던 것으로 확인됐습니다. 청정지역이던 제주도 메르스에 뚫린 것 아니냐는 우려가 나오고 있습니다. 제주특별자치도 메르스 관리대책본부는 141번 환자인 42살 남성이 3박4일간 제주도를 다녀갔다고 밝혔습니다. 이 남성은 지난 5일부터 8일까지 가족과 친구 부부 등 8명과 함께 제주도 신라호텔에 머물면서 관광을 한 것으로 확인됐습니다. 이후 서울로 돌아온 뒤 발열과 기침 증세를 보이다 13일 국립보건연구원에서 메르스 확진 판정을 받았습니다. 중앙메르스관리대책본부는 이 남성이 지난달 27일, 삼성서울병원에 외래진료를 위해 방문했다가 14번 환자와 접촉했을 것으로 추정하고 있습니다. 하지만, 문제의 응급실이 아닌 비뇨기과를 방문했기 때문에 당시 자가 격리 대상에선 제외됐습니다. 제주도는 즉각 신라호텔과 공항 CCTV를 확인하고, 식당과 승마장 등 이 남성이 거쳐 간 관광지 동선 파악에 나섰습니다. 신라호텔도 잠정적으로 영업을 중단하고, 투숙객을 모두 돌려보내기로 결정했습니다. Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 관련 뉴스 MBN 뉴스8 간추린 오늘김장훈 친구데이 "청소년에게 연예인 역할 중요" 뭔가 보니?…'아하!'메르스 확진자 166명, 격리자 수는 5930명으로 줄어…'경기도 휴교 중단?' 화제 뉴스 "경력 1년 통째로 날아가"…한전, 채용형 인턴 차별적 운용 [단독] 은행원 기지로 '5000만 원' 보이스피싱 수거책 체포 'naver.pay' 주소·로고까지 똑같다…네이버페이로 속이고 사기 친 판매자 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 신혜성, 음주운전 인정…"본인 차 아닌지 몰랐다" '우유 없는 밀크티 부터 고기 없는 육포까지' 중국 제조법 폭로남 계정 삭제 오늘의 이슈픽 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 제30회 한국국제관광전 '최우수 마케팅상' 수상 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:01 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 제30회 한국국제관광전 '최우수 마케팅상' 수상 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 제30회 한국국제관광전 '최우수 마케팅상' 수상 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.06.16 12:57 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 여름 레저스포츠.지질트레일 관광홍보부스 호평 제주도가 지난 11일부터 14일까지 서울 코엑스에서 개최된 '제30회 한국국제관광전'에서 '최우수 마케팅상'을 수상했다. 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 이번 한국국제관광전에서 관람객들에게 제주의 여름과 다양한 레저스포츠를 메인이미지로 구성한 제주관광홍보부스를 운영했다. 홍보부스에서는 가족, 연인, 동호회 등 개별 및 단체 관광객을 위한 다양한 관광정보를 제공하는 한편, 관광협회와 제주관광공사, 관광업계가 협력해 공동 마케팅을 펼치며 관광상품 홍보를 극대화했다는 평가를 받으면서 '최우수 마케팅상' 수상의 영예를 안았다. 제주관광공사에서는 유네스코 세계지질공원 핵심마을 활성화 사업의 일환으로 추진하고 있는 '지질트레일'을 중점 홍보했다. 올해로 30회를 맞이한 한국국제관광전에는 52개국 500여 업체가 참가하여 관광, 여행, 공연 등 다양한 문화콘텐츠를 선보였는데, 약 8만명의 관람객이 행사장을 찾은 것으로 집계되고 있다. &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>수요미식회 제주도, 3大 맛집 공개…관광객보다 현지인이 많이 찾는다 : 비즈N 본문바로가기 로그인 | 회원가입 스포츠동아 | 신동아 | 주간동아 | 우먼동아 | VODA | VOSS | 최신뉴스IT생활경제비즈N컷헬스트래블The Insight|동아오토부자동검색검색창 닫기 검색창 검색 최신뉴스IT생활경제비즈N컷헬스트래블The Insight동아오토부자동 수요미식회 제주도, 3大 맛집 공개…관광객보다 현지인이 많이 찾는다 동아경제 입력 2015-06-11 14:18:00 수정 2015-06-11 14:22:34 댓글보기 | 폰트 | 뉴스듣기 여성 남성 | 프린트 이메일 기사공유 | 수요미식회 제주도, 사진=tvN ‘수요미식회’ 방송화면수요미식회 제주도, 3大 맛집 공개…관광객보다 현지인이 많이 찾는다‘수요미식회’에서 이번에는 제주도 3대 맛집을 소개했다.10일 방송된 tvN ‘수요미식회’ 제주도 음식 1편에서는 ‘천혜의 관광지 제주의 맛’을 주제로 다양한 이야기를 나눴다.이날 ‘수요미식회’는 ‘식당의 역사가 그 음식의 역사가 된 집’과 ‘전국구로 명성을 떨친 집’을 기준으로 세 군데의 제주도 맛집을 선정했다.첫 번째 맛집은 ‘순옥이네 명가’로 15년째 영업 중인 식당이다. 이 집은 현직 해녀가 운영하는 곳으로 유명하며 전복물회와 성게 미역국, 해물뚝배기 등이 대표 메뉴로 꼽힌다.이어 소개된 맛집은 ‘돌하르방 식당’으로 1987년 개업 후 29년째 영업 중인 곳이다. 이 곳은 각재기와 배추를 넣고 시원하게 끓여낸 제주도 토속음식인 각재기국과, 통통한 멸치를 넣고 맑게 끓이는 멜국이 대표 메뉴다. 특히 이곳은 관광객들보다 제주 현지인들이 많이 찾는 식당으로 유명하다.마지막으로 선정된 맛집은 남성들의 정력에 좋다는 보말을 넣어 만든 보말칼국수로 유명한 ‘옥돔식당’이다. 지난 1999년 개업해 15년째 영업 중인 ‘옥돔식당’은 보말을 넣어 만든 보말칼국수와 보말국이 대표 메뉴로 꼽힌다.한편, ‘수요미식회’ 제주도 편에서는 올레길 소문난 간식으로 꿀빵, 닭 튀김, 꽁치김밥, 천혜향 주스 등도 소개됐다.동아경제 기사제보 eco@donga.com 관련기사메르스 14명 늘어 122명, 메르스 경찰관은 ‘검사 결과 엇갈려 입·퇴원 반복’…뒤늦게 확진옥수현과 키스신 폭로한 ‘라디오스타’ 이지훈… 옥주현 “아오, 나 정말 미치겠다”오늘의 날씨, 전국 대체로 흐리고 비…낮 최고 기온은 어제보다 낮아맨도롱또똣 유연석, 강소라 고백에…“너 병이 상사병이었어?…못 보내”백종원 만능간장 레시피 공개, 설탕은 필수?…3:2:1의 비밀은? 비즈N컷 편의점에 ‘금 자판기’ 등장 “곤충으로 사망시점 추정” 1966년 6만원대 ‘금성 TV’, 3140만 원에… 35억 당첨 복권 휴지조각될 뻔… 스팸 분류? 카드뉴스 “월세살이 인식, 최근 긍정적으로 변화” 비즈N 탑기사삼성 “메모리 감산 없다… 내년 5세대 10나노 D램 생산”[EV라운지] 전기차의 고속도로 타이어 펑크 대처방법불완전판매 민원 10명 중 3명은 60세 이상‘첫 정부 차원’ 지역 일자리 지도 나온다…내년 1월 목표‘시끄러운 이유 있었네’…오토바이 불법튜닝 4년새 10배 급증국토부, 2024년 상반기 GTX B노선 민자-재정구간 동시 착공‘반도체 겨울’ 직격탄…삼성전자 3분기 영업익 전년比 31.7% 급감 동아오토[EV라운지] 전기차의 고속도로 타이어 펑크 대처방법‘시끄러운 이유 있었네’…오토바이 불법튜닝 4년새 10배 급증 부동산“내놔도 안 나가” 서울 아파트 매수심리, 세종보다 낮아졌다[고준석의 실전투자]대항력 없는 보증금, 유치권 주장 못해 라이프 국내외 식·의약품 전문가가 본 ‘카레’의 효능부담없이 훌쩍 떠나기 좋은 해외여행지 어디?전기차의 고속도로 타이어 펑크 대처방법 첫번째 이미지두번째 이미지세번째 이미지 이 시각 핫클릭 많이 본 기사 ‘텐트 금지’ 현수막에도 빼곡…주차장 모인 민폐 캠핑족들필로폰 투약 혐의 유명 작곡가는 돈 스파이크…경찰 체포“엄마, 나 사고 났어”…보이스피싱 57% 고령층 발생“주식 때문에 사채 손대서” 금은방 턴 30대 긴급 체포‘김수미 며느리’ 서효림, 세살 딸 위해 전원생활 “텃밭 일구고 장작 패기도”유빈·선예, 10년만 합동무대 눈물…“잘 살아줘 고마워”의사 대신 간호조무사가 척추 ‘대리수술’…의료진 4명 검찰 송치자전거 도둑 잡고 보니 현직 경찰…“새 자전거 타고 싶었다”“책냄새 맡으면 눈물 줄줄”…‘숙제 알레르기’ 호소 11세 소년 폭소보이스피싱 조직인 줄 모르고 현금 수거·전달한 50대 ‘무죄’ 전기차의 고속도로 타이어 펑크 대처방법“비쌀수록 인기” 한국도 ‘아이폰14 프로’ 쏠림 현상…‘급나누기’ 통했다“형 만한 아우 있다” 기아 쏘렌토, 현대차 그랜저 잡을까‘시끄러운 이유 있었네’…오토바이 불법튜닝 4년새 10배 급증불완전판매 민원 10명 중 3명은 60세 이상[고준석의 실전투자]대항력 없는 보증금, 유치권 주장 못해“내놔도 안 나가” 서울 아파트 매수심리, 세종보다 낮아졌다배달 심부름에 농사일까지…도로공사, 갑질 신고 80건에 징계는 3건청소년 근로자 47% 근로계약서 미수령…인권위 “제도 개선해야”[단독]“카드값은 내달에” 리볼빙 홍보에 120억 비즈N |등록번호: 서울아04346|등록·발행일: 2017.02.02 |발행인: 박원재 |편집인: 최용석 |청소년보호책임자: 구민회 |이용약관 |개인정보처리방침 주소: 서울특별시 서대문구 충정로 29 |Tel: 02-360-0400 |Copyright by dongA.com All rights reserved. 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>메르스 양성자 접촉의심 관광객 2명 제주도서 병원격리-국민일보 시사 시사 &gt; 전체기사 메르스 양성자 접촉의심 관광객 2명 제주도서 병원격리 입력 : 2015-06-06 15:23 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도 중동호흡기증후군(메르스) 관리대책본부는 5일 관광객 A(31·여)씨와 B(32·여)씨를 거점병원 격리병실에 입원 조치해 역학조사를 진행하고 있다고 6일 밝혔다. 도는 A씨의 아버지가 메르스 양성반응을 보여 현재 확진 여부를 검사하고 있다는 다른 지역 보건소의 연락을 받고 A씨와 친구 B씨를 밀접 접촉자로 판단해 이같이 조치했다. 지난 4일 제주공항을 통해 제주에 온 A씨와 B씨는 1차 조사에서 메르스 음성 판정을 받아 관련 증세를 보이지 않고 있다. 도는 이들에 대해 조만간 2차 검사를 할 예정이다. 도는 A씨의 아버지가 메르스 감염 환자로 확진되면 A씨와 B씨도 자가 격리 대상자에 해당된다고 설명했다. 도는 6일 현재까지 메르스 증세가 의심된다는 다른 신고자 7명도 검사한 결과 모두 음성 판정이 나왔다고 밝혔다. 이 중 6명은 메르스와 관련한 대응 조치를 해제했으며 1명(24·여)은 당분간 자택에 머무르도록 격리했다.김태희 선임기자 thkim@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다” 국제유가, 주유소 기름값 영향 시점은…제주도, 시차 조사 착수</t>
+  </si>
+  <si>
+    <t>제주도 관광객 서울서 메르스 확진…완치자 “이제 내가 죽는구나 싶었다” 인터뷰 ‘관심↑’ 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 제주도 관광객 서울서 메르스 확진…완치자 “이제 내가 죽는구나 싶었다” 인터뷰 ‘관심↑’ 동아일보 입력 2015-06-19 14:00업데이트 2015-06-19 16:43 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 방송 캡쳐화면 제주도 관광객 서울서 메르스 확진…완치자 “이제 내가 죽는구나 싶었다” 인터뷰 ‘관심↑’제주도 여행을 다녀온 40대 남성이 서울에서 메르스 확진 판정을 받은 가운데, 메르스 완치자의 인터뷰가 눈길을 모았다. 18일 KBS ‘뉴스라인’은 메르스 완치자 송길용 씨의 인터뷰를 공개했다. 송 씨는 열여덟에 실종된 딸을 찾아 16년 째 전국을 누비던 중 지난달 말 허리 통증으로 병원에 입원했다가 메르스에 감염됐다. 이날 송길용 씨는 “이제 내가 죽는구나. 딸 하나 찾자고 했는데 그것 하나 못 찾고 병으로 죽는구나 했다”고 당시 심경을 전했다. 이어 “희망을 절대 버리지 마세요. 좌절하지 말고 희망만 품고 있으면 꼭 퇴원한다”라며 메르스 환자들에게 희망적 메시지를 전했다. 그는 퇴원하자마자 다시 딸을 찾아 나설 것이라고 전했다. 또 다른 메르스 완치자 우종하 씨도 “많은 의료진이 이렇게 손발을 걷어붙이고 나서고 계시니까 충분히 완쾌할 것”이라고 덧붙였다. 한편, 제주도 메르스 관리대책본부는 141번 환자가 5일부터 8일까지 제주도에 머물며 호텔, 관광지, 식당 등을 돌아다닌 것으로 확인됐다고 이날 밝혔다. 141번 환자는 서울로 돌아간 뒤 10일 오전 4시경 발열과 기침이 발생했다. 이어 12일 강남구보건소 검사 결과 양성으로 나왔고 이튿날 국립보건연구원에서 2차 검사 결과 확진 판정을 받았다. 이 환자는 제주 여행 이전부터 감기와 유사한 증상이 있었던 것으로 알려졌다.제주도 관리대책본부는 이 환자가 거쳐 간 호텔신라제주 등지에서 현장 조사를 벌이는 한편, 접촉자에 대해선 자가격리 조치했다. 호텔신라는 호텔신라제주의 영업을 잠정 중단했다고 밝혔다. 제주도 관광객 서울서 메르스 확진. 사진=제주도 관광객 서울서 메르스 확진동아닷컴 디지털뉴스팀 기사제보 dnews@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 5 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 8 “간사 간 협의하라” “체면 좀 차려라”…감사원 국감 8분만에 파행 9 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 10 신혜성, 만취해 남의 차 끌고 운전…음주측정도 거부해 체포 최신기사 軍, 북한 ‘저수지 SLBM’ 발사에 “‘킬체인’ 의식한 궁여지책” “학교급식 종사자, 폐암 의심 유병률 일반인 35배” “2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄 與, 김용민 ‘尹 퇴진’ 발언에 “불법 쿠데타 획책” “충격적 망언” “욕설에 뒤통수 때린 음주 손님, 면허 취소시켰다”…대리기사의 대처법 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 5 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>[채널] 이주 러시와 관광 개발로 몸살 앓는 제주도 - 매일신문 2022-10-11 (화) 지면보기 기사제보 로그인 회원가입 최신기사 오피니언 정치 경제 사회 국제 문화 스포츠 연예 라이프 포토·영상 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 [채널] 이주 러시와 관광 개발로 몸살 앓는 제주도 매일신문 매일신문 입력 2015-06-19 05:00:00 수정 2015-06-19 05:00:00 0 가 가 페이스북 트위터 카카오스토리 밴드 네이버블로그 카카오톡 라인 URL복사 EBS1 '하나뿐인 지구' 오후 8시 50분 EBS1 TV '하나뿐인 지구-제주도 바람났네' 편이 19일 오후 8시 50분에 방송된다. 제주도가 관광지를 넘어 거주지로 떠오르고 있다. 제주 이주 러시다. 하지만 원주민도 이주민도 불편한 속사정을 내비치고 있다. 제주도에서 과연 무슨 일이 벌어지고 있는 걸까. 제주시 월정리는 조용한 바닷가 마을이었다. 하지만 에메랄드빛 바다와 풍력발전기가 돌아가는 해변 등 멋진 풍경 덕분에 최근 관광지로 큰 인기를 얻고 있다. 이제 월정리 바닷가는 카페와 게스트하우스로 가득하다. 그런데 덩달아 땅값도 뛰어 불과 3년여 사이에 30배 이상으로 급증했다. 월정리만의 얘기는 아니다. 제주 유입 인구가 늘면서 제주도의 카페 수는 2010년 100여 곳에서 지난해 1천여 곳으로 10배나 늘었다. 같은 기간 게스트하우스도 700여 개에서 1천700여 개로 2배 이상 증가했다. 제주도는 매일 공사 중이다. 원주민들은 이러한 변화가 마냥 기쁘지만은 않다. 관광객들이 내는 소음에 바쁜 농사철에도 잠을 설치기 일쑤다. 이주민들과의 불협화음도 끊이지 않고 있다. 제주시 하가리에서는 700년 된 마을 지명을 외지인이 카페 이름으로 상표권을 등록해 갈등이 빚어졌다. 또 이주민들은 낭만을 꿈꾸며 왔지만 생활이 녹록지 않다는 하소연을 털어놓는다. 황희진 기자 hhj@msnet.co.kr 네이버TV구독 + 유튜브구독 + 최신 기사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 많이 본 뉴스 일간 주간 월간 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 [영상] "삼성전자 입주 키이우 건물 러 미사일 폭격 피해"…우크라 정부 "폭발로 최소 8명 사망" 北미사일 발사장에 나란히 선 김정은 부부…귀막고 눈 찡긋 수서~포항 KTX 운행 연내 성사되나…원희룡 "적극 검토할 것" 푸틴의 보복?…우크라 키이우 70일만 미사일 공습 "사상자 발생" 새마을운동중앙회장 맡아 다시 현역으로 돌아온 곽대훈 전 의원 구미 원룸서 40대 여성 숨진 채 발견...살해 용의자 현장서 긴급체포 [대구 시월] "더는 쌀을 구할 방법이 없다"…그해 10월은 민생고가 빚어낸 '폭풍' 경주시립미술관 예정 부지 외지고 유동인구 적어…'유령미술관' 우려 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지더보기 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 칠곡경북대병원 간호사 퇴사 70% '입사 1년차' 구미 年 4천억 매출 기업, 화마로 '셧다운'…지역경제 타격 불가피 대구 'MBC네거리' 새명칭 선정 난항…연내에 다시 논의하기로 홍준표 시장 "대구 미래 산업 될 신수종산업 유치, 반도체 대기업과 협상 중" 등산하다 굴렀다던 아내…알고보니 남편에게 맞아 숨졌다 대구 아파트 전세값 '뚝뚝'…하락폭 비수도권 광역시 '최대' 홍준표, 尹·김건희 풍자 '윤석열차' 두고 "표현의 자유" '尹 식사하느라 英여왕 조문 못했나' 질문에 박진 외교장관, 적극 부인 못해더보기 대전 현대 프리미엄아울렛 화재…지하주차장서 전기차 폭발 추정 호텔수성 또 소송?…이번엔 주차장 갈등, 수성구청 "소송 불사" 전국 어디든 '1시간 50분대'…성주군, 6방향 사통팔달 도시로 태풍 '힌남노' 폭우, 주택 앞마당에 묻어둔 현금 항아리 깨져 "30cm 처마 값으로 45억원 내놔라니"…두류동 재개발 '공중 알박기' 논란 대구 수성못 주변 주상복합 취소 소송, 수성구청 최종 승소 국내 대표 방위산업체 'LIG넥스원·한화시스템' 구미에 4천억 푼다 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" 13호 태풍 므르복 日 남쪽 아닌 멀리 태평양서 발생 임박 "14호 난마돌 발생 여부 주목" 로또 1033회 1등 당첨지역은? 인천 부평구서만 2곳, 충청 3곳 선전더보기 이슈&amp;뉴스 美 출장은 이재명 수사 목적 주장에 한동훈 "내부 고발 하나" 민주당 "이재명 두산그룹 후원 유치, 칭찬할 일" '포항 참사' 숨진 중학생, 市보험금 못 받아 논란 초등학생 청소 밀대로 때린 교사…3천만원대 합의에도 실형 손톱 10개 합친 길이만 13m…25년째 안 자른 사연은 댓글 많은 뉴스 10 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지 5 안철수 "유승민, 당대표 출마 힘들 것…나는 尹 정부 연대보증인" 5 나경원, 이재명 겨냥 "한미일 훈련이 국방참사라니…北에 당하란 말인가" 5 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 3 "경북지역 노후 저수지 3200곳, 언제 터질지 모른다" 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 회사소개 광고안내 구독신청 고충처리인운영규정 청소년보호정책 개인정보처리방침 사업제휴 편집윤리규정 윤리자율규제지침 윤리실천요강 본사 : 대구광역시 중구 서성로20 (계산 2가 71번지) 매일신문사 (우 41933) : TEL : (053) 255-5001~7 경북본사 : 경북 안동시 풍천면 수호로 63, 3층(우 36759) : TEL : (054) 855-1700 서울지사 : 서울특별시 중구 세종대로 124 (태평로 1가 25) 한국프레스센터 1801호 (우 04520) : TEL(02) 733-0755~6 인터넷신문등록번호 : 대구,아00201 등록일자 : 2016.11.28 발행인 : 정창룡, 편집인 : 정창룡 Copyright ⓒ MAEIL, All right reserved 댓글 삭제 Close 댓글삭제</t>
+  </si>
+  <si>
+    <t>‘수요미식회’ 제주도 특집, 관광객 사로잡은 다양한 먹거리 소개 - 열린세상 열린방송 MBN 홈 &gt; 전체기사 &gt; 기사 |  글자크기 ‘수요미식회’ 제주도 특집, 관광객 사로잡은 다양한 먹거리 소개 기사입력 2015.06.10 17:05:03 기사 나도 한마디 Tweet 0 0 구글 [MBN스타 최윤나 기자] tvN ‘수요미식회’가 제주의 맛을 주제로 풍성한 대화를 나눈다. 10일 오후 방송되는 ‘수요미식회’에서는 우리나라의 대표적 관광지이자 중국, 일본 등 해외 관광객들로 북적거리는 제주의 다양한 먹거리들을 하나씩 소개할 예정이다. 이날 방송에서는 번호표를 뽑고도 한 시간 넘게 기다려야 할 정도로 관광객에게 유명세를 타고 있는 식당들에 대한 패널들의 솔직한 평가를 공개한다. 또 제주도만의 특색 있는 문화와 음식 이야기가 제주 여행을 계획하고 있는 시청자들에게 놓칠 수 없는 유용한 팁이 될 것으로 기대를 모은다. 사진=CJ E&amp;M 제공 더불어 이날 ‘수요미식회’에는 오세득 셰프와 최태준이 게스트로 출연한다. 제주 생활이 익숙한 오세득은 타지 사람들은 잘 모르는 정보들로 대화를 풍성하게 만든다. 이어 최태준은 제주도의 먹거리 체험기를 생생하게 전달할 예정이다. 두 게스트의 활약에 힘입어 제주의 맛에 대한 다양한 시각이 잘 조화를 이룰 것으로 기대된다. 이에 대해 CJ E&amp;M의 이길수 PD는 “각 지역의 맛을 돌아보는 기획을 통해 시청자의 간접 경험이 극대화 될 것으로 기대한다”며 “그 지역의 유명한 음식점은 물론 잘 알려지지 않는 음식들을 통해 지역사회의 분위기, 경제적, 문화적 배경까지 고르게 이야기를 나눌 것”이라고 밝혔다. 한편, ‘수요미식회’는 매주 수요일 오후 9시40분 방송된다. 최윤나 기자 refuge_cosmo@mkculture.com / 페이스북 https://www.facebook.com/mbnstar7&lt; Copyright ⓒMBN(www.mbn.co.kr)무단전재 및 재배포 금지 &gt; 관련기사 신혜성, 도난차량서 음주측정 거부하다 체포 크러쉬, 인종차별 논란 해명 "제스처 오해" 이세영, 밥 먹는 모습 마저도 섹시 그 자체 나연, 무대 뒤에서도 숨길 수 없는 예쁨 서현, 우아+섹시미 가득한 드레스 MBN STAR 최신포토 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. ‘음주운전 자숙’ 리지, 새 증명사진 공개...미소 다시.. 마마무, 빈티지한 무드 가득한 ‘MIC ON’ 하이라이트 .. 이찬혁, 첫 솔로 앨범 타이틀곡 제목 ‘파노라마’...의.. ‘마녀2’ 신시아, ‘소녀’일 수밖에 [M+인터뷰.. 신시아 송강호 박해진 박해진 지창욱 송가인 주상욱 주상욱 현리 김희재 드라마 우아한 가레벨업최고의 치킨설렘주의보마성의 기쁨마녀의 사랑리치맨고품격 짝사랑시추에이션 연남동 539엄마니까 괜찮아수상한 가족천국의 눈물 예능 트로트 퀸지구방위대친한 예능자연스럽게모던 패밀리엄지의 제왕속풀이쇼 동치미알토란스포츠 야예능 특집 프로그램 교양 나는 자연인이다여행생활자 집시맨기막힌 이야기 실제상황생생 정보마당판도라천기누설소나무휴먼다큐 사노라면현장르포 특종세상MBN 토요포커스열린TV 열린세상성공다큐 최고다 보도 MBN 종합뉴스이 한 장의 사진픽 뉴스굿모닝 MBN아침 &amp; 매일경제뉴스 &amp; 이슈뉴스파이터MBN 프레스룸MBN 뉴스와이드전국네트워크뉴스MBN 뉴스와이드 주말스포츠뉴스굿모닝 월드실리콘밸리 라이브MBN 뉴스특보시사스페셜데이터로 본 세상 뉴스 전체 정치 경제 사회 국제 문화 연예 스타 스포츠 생활ㆍ건강 지역 인기척 현장에서 뉴스제보 서비스 헬스 날씨 뉴스레터 이벤트 SNS 유튜브 Entertainment 유튜브 News 카카오스토리 페이스북 인스타그램 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 RSS 사이트맵 SNS MBN Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 류호길 |서울시 중구 퇴계로 190 (주)매일방송 |오시는길|대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 |인터넷신문등록번호 서울 아01043 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved. (본 사이트는 IE8.0 에 최적화 되어 있습니다.) 시작페이지 설정 즐겨찾기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 메르스 사태 따른 관광객 감소 현장 조사 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 하단 메뉴 바로가기 국가기간뉴스통신사 연합뉴스 배너 검색 영역 뉴스, 포토, 영상, 그래픽을 검색하실 수 있습니다. GO 비주얼 뉴스홈 영상 영상홈 영상뉴스 사건재구성 한반도N 많이본영상 날짜별영상 포토 포토홈 정치 북한 경제 산업 사회 전국 세계 문화 연예 스포츠 모멘트 화보 #D 그래픽 검색 열기 검색 닫기 포토홈 제주도관광협회, 메르스 사태 따른 관광객 감소 현장 조사 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 (제주=연합뉴스) 고성식 기자 = 제주도관광협회가 중동호흡기증후군(메르스) 확산에 따른 불안감으로 제주를 방문하는 관광객의 감소 실태에 대해 현장 조사에 나선 가운데 9일 관광협회 임원진들이 제주시 한경면의 생각하는 정원을 방문해 성범영 원장(오른쪽)과 이야기를 나누고 있다. 2015.06.09. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/06/09 17:08 송고 #메르스 #전염병 #중동호흡기증후군 '오늘부터 개량백신 접종 시작'…60세미만도 잔여백신 접종가능 10-11 09:57 '감사원 국감, 시작 9분만에 파행'…비어있는 의원석 10-11 10:45 '가을 위에 내려앉은 겨울'…태백 만항재 10-11 10:22 후나코시 다케히로 日 외무성 국장, 한일국장급협의 참석 10-11 10:29 코스피 장중 2,170대로 뒷걸음…원/달러 환율 1,430원대 10-11 09:29 댓글쓰기 맨위로 전체메뉴 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 사람들 인사 부고 동정 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 이슈돋보기 주요신문톱뉴스/사설 이 시각 헤드라인 날씨/재난 날씨 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이 본 뉴스 모바일 뉴스 모바일앱 모바일웹 비주얼뉴스 #흥 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷 맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 유튜브 연합뉴스 통통컬처 Korea Now 한반도N 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로2길 25 | 등록번호 문화, 나00009 | 등록일자 1980.12.29 | 발행일자 1980.12.29 | Tel. 02-398-3114 (C) Yonhapnews [대표이사] 성기홍 [편집인] 조채희 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 카카오스토리 서비스안내 전체보기 서비스안내 전체보기 닫기 연합뉴스 연합뉴스TV 인포맥스</t>
+  </si>
+  <si>
+    <t>[메르스 사태] 제주도 “감염자 없다” 결론…관광업계 ‘안도’ 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설.부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 영상 포토 운세/사주 지면PDF 포럼&amp;컨퍼런스 메트로소개 공지사항 네이버 뉴스스탠드 구독설정 구독신청 글로벌 메트로신문 로그인 회원가입 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 정치 사회 IT.과학 국제 문화 연예 스포츠 경제 산업 금융 증권 건설/부동산 유통 경제일반 오피니언 기자수첩 칼럼 인사 동정 부음 플러스 한줄뉴스 포토 영상 운세/사주 독자서비스 지면PDF RSS 공지사항 포럼&amp;컨퍼런스 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 정치 사회 IT.과학 국제 문화 연예 스포츠 산업 금융 증권 건설/부동산 유통 경제일반 기자수첩 칼럼 인사 동정 부음 AI앵커뉴스 메트로in 금융 에듀&amp;JOB 로컬뉴스 기획연재 뉴스 경제 오피니언 포럼&amp;컨퍼런스 지면PDF 사회&gt;지역 [메르스 사태] 제주도 “감염자 없다” 결론…관광업계 ‘안도’ 메트로신문 이홍원 기자 ㅣ2015-06-22 15:48:29 뉴스듣기 가 가 가 가 가 [메트로신문 이홍원 기자] 제주도에서 '메르스'(중동호흡기증후군) 감염자가 없는 것으로 확인돼 관광업계가 안도하고 있다. 제주도와 제주도 메르스민간역학조사단장인 제주대 배종면 교수는 22일 기자회견을 열어 "141번 환자가 제주를 떠난 지난 8일 이후 현재까지 도내 메르스 의심자 가운데 양성 반응자가 한 명도 없다"며 "141번 환자가 감염원이 아닐 가능성이 크다"고 밝혔다. 또 배 교수는 메르스 잠복기가 14일 이상일 수 있다는 일부의 지적에 대해 "현재까지 잠복기를 2주일로 보고 있고, 141번 환자는 제주에서 증상도 나타나지 않았기 때문에 14일이면 관찰 기간으로 충분하다"고 설명했다. 141번 환자가 잠복기 상태에서 나흘간 묵은 것으로 확인된 뒤 지난 18일 영업을 자진해 중단한 제주 신라호텔은 공식 잠복기가 종료되자 한짐 던 분위기다. 이날 신라호텔 관계자는 "고객과 임직원의 안전을 최우선 고려해 메르스 우려가 가실 때까지 영업을 중단을 이어 간다"며 "질병관리본부의 지침에 따라 객실 등 호텔 전반적으로 방역활동을 해나가겠다"고 말했다. 141번 환자가 탑승했던 항공기의 항공사도 감염 확산을 막기 위한 방역작업을 벌이며 항공기 내 공기 순환 시스템으로 전염 물질이 기내 공기를 통해서 확산할 수 없다는 점을 강조하며 이용객들을 안심시키는 중이다. 제주국제공항을 운영하는 한국공항공사 제주지역본부는 월 3회 계획했던 특별방역을 월 8회로 늘리고 보안검색장 주변 스팀 소독기를 추가 배치했다. 141번 환자가 제주서 다녀간 다른 중소형 관광지와 음식점도 이번 일로 상호가 공개되는 타격을 입었다. 그러나 정상 영업을 이어가면서 메르스 사태가 이른 시일 내 종식되기를 기대하고 있다. 141번 환자의 제주 방문 소식이 지난 18일 발표된 이후 지난 19∼21일 제주를 찾은 관광객은 9만261명으로 지난해 같은 기간(11만2282명)에 견줘 19.6％ 급감했다. 이 기간 전세 버스와 렌터카 예약률은 각각 5∼15％, 30∼40％으로 지난달 기준 절반가량에 그쳤다. 숙박업소 예약률도 펜션 35∼45％, 호텔 50∼60％로 낮아졌다. 지난달까지 90％ 수준이던 제주∼김포 노선 항공기 탑승률도 지난 주말 40∼50％로 반 토막 수준에 머물렀다. 제주도관광협회는 메르스 사태로 제주가 메르스 청정 지역이 유지되면서 제주를 찾은 내국인 관광객은 다소 증가할 것으로 조심스럽게 전망했다. 도관광협회의 한 관계자는 "메르스 사태로 내국인들도 여행을 자제하는 분위기이다. 하지만 메르스 청정 지역인 제주에서 휴양·건강 목적의 관광을 즐기려는 내국인 관광객이 제주를 꾸준히 찾고 있다"며 "다음달에는 내국인 관광시장이 다소 숨통을 틀 것 같다"고 말했다. 현재 메르스 청정지역 유지로 제주 관광시장에 떨어진 발등의 불은 껐으나 이달뿐만 아니라 성수기에도 타격은 불가피한 상황이다. 도관광협회는 이달 들어 지난 10일까지만 해도 메르스 사태로 내국인 3만5000여명, 외국인 3만7600여 명 등 7만2000여 명이 이달부터 오는 9월까지 계획된 제주 관광을 포기한 것으로 파악했다. 제주도관광공사는 "메르스 사태로 제주∼중국 직항노선 정기와 전세 항공기가 수십 편이 끊겼으나 메르스 사태가 진정된다고 가정하면 다음달부터 항공사들이 운항을 재개할 가능성이 크다"며 "또 태국과 몽골 등 중국 외 다른 국가와 제주를 연결하는 전세기편을 늘려 외국인 관광객을 유치할 수 있도록 노력하겠다"고 말했다. 제주도 역시 메르스 여파로 관광객이 급감하면서 어려움을 겪는 41개 업종에 4500억원의 특별경영안정지원자금을 융자 지원, 위기 상황 극복에 나섰다. 또 도는 국내외 관광객 유치를 위한 홍보와 마케팅 활동, 도 단위 각종 대회와 행사, 지역 단위 문화예술행사와 축제, 마을 만들기 사업 등을 지원한다. 메트로신문 이홍원 기자 hong@metroseoul.co.kr 다른기사 보기 Copyright ⓒ 메트로신문 &amp; metroseoul.co.kr 회사소개 배포문의 기사제보 제휴문의 고충처리 이메일무단수집거부 청소년보호정책 구독신청 Copyright ⓒ Metro. All rights reserved. (주)메트로미디어의 모든 기사 또는 컨텐츠에 대한 무단 전재ㆍ복사ㆍ배포를 금합니다. 주식회사 메트로미디어 · 서울특별시 종로구 자하문로17길 18   ㅣ   Tel : 02. 721. 9800 / Fax : 02. 730. 2882 문의메일 : webmaster@metroseoul.co.kr    ㅣ   대표이사 · 발행인 · 편집인 : 이장규   ㅣ   신문사업 등록번호 : 서울, 가00206 인터넷신문 등록번호 : 서울, 아02546   ㅣ   등록일 : 2013년 3월 20일   ㅣ   제호 : 메트로신문 사업자등록번호 : 242-88-00131 ISSN : 2635-9219   ㅣ   청소년 보호책임자 및 고충처리인 : 안대성 지면PDF 한줄뉴스 오늘의 운세 오피니언 메트로 소개 Copyright ⓒ Metro. All rights reserved 맨위로</t>
+  </si>
+  <si>
+    <t>제주도 메르스 여파 6월 관광객↓… 관광객 6백만 명 돌파했지만 '걱정' 본문 바로가기 NAVER 뉴스 연예 스포츠 날씨 프리미엄 검색 언론사별 정치 경제 사회 생활/문화 IT/과학 세계 랭킹 신문보기 오피니언 TV 팩트체크 구독 서울경제 언론사 구독되었습니다. 메인 뉴스판에서 주요뉴스를 볼 수 있습니다. 보러가기 서울경제 언론사 구독 해지되었습니다. 제주도 메르스 여파 6월 관광객↓… 관광객 6백만 명 돌파했지만 '걱정' 입력2015.06.18. 오후 4:41 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주도 메르스 . 사진=자료사진 제주도 메르스 여파 6월 관광객↓… 관광객 6백만 명 돌파했지만 '걱정'중동호흡기증후군(MERSㆍ메르스)여파에도 불구하고 제주도 입도 관광객이 600만명을 돌파했다.17일 제주특별자치도관광협회(회장 김영진)에 따르면 올들어 제주 입도객수는 17일까지 잠정 600만9630명으로 집계돼 지난해보다 23일 앞서 600만명을 돌파했다.최근 3년간 600만명 돌파일은 지난 2013년 7월29일, 2014년 7월10일, 올해 6월17일로 점점 앞당겨 달성하고 있다.반면 지난 1일부터 현재까지 외국인 관광객은 12만3천441명으로 지난해 같은 기간(16만3천39명)과 비교해 24.3％ 줄었다.도관광협회 관계자에 따르면 국내 항공 좌석 증가로 개별 관광객 및 수학여행단이 호조를 보이며 600만명을 조기 달성했지만, 6월들어 메르스 영향으로 외국인 관광객이 감소되고 있다고 밝혔다.한편, 메르스 확진 판정을 받은 40대 남성이 제주도를 여행한 것으로 알려져 적잖은 충격을 주고 있다. 18일 제주도 메르스 관리대책본부는 "141번 환자가 지난 5일 오후 부인과 아들, 다른 가족 등 8명과 함께 항공편으로 제주공항에 도착했다"고 밝혔다.중앙대책본부에 따르면 141번 환자는 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 14번 환자와 접촉한 것으로 추정했다. 141번 환자는 제주도 광광 당시에는 별다른 증상이 없다가 서울로 돌아간 뒤 발열 등 증상을 나타냈다. 제주도 메르스 대책본부는 중앙대책본부로부터 이같은 사실을 통보받고 141번 환자가 머물렀던 제주여행 주요동선의 역학조사를 벌이고 있다고 밝혔다. 이날 질병관리대책본부도 제주도를 방문해 역학조사에 참여 중이다. 한국아이닷컴 이슈팀 reporter@hankooki.com[ⓒ 한국미디어네트워크, 무단 전재 및 재배포 금지] 한국아이닷컴 이슈팀 Copyright ⓒ 서울경제. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 토마토 몸에 좋은건 알았지만… 이럴수가! 엄청난 파장 몰고 올 새로운 은행 나온다 이건희 덕분에 1조9000억 '초대박' 국회의원에 이런 욕설 내뱉으면… 아뿔싸 삼성 얼마나 충격 받았길래 이런 일까지… 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 서울경제 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 서울경제 헤드라인 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 홍준표 대구시장이 국민의힘 차기 당권 주자로 이름을 올리고 있는 유승민 전 의원을 향해 "배신 경력 있는 사람은 가라"고 날카롭게 대립각을 세웠다. 홍 시장은 11일 자신의 페이스북에 올린 글을 통해 "악역도 마다하 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)이 음주 측정을 거부하다가 현행범으로 체포됐다. 이와 함께 경찰은 신혜성이 타고 있던 차량에 대해 도난 신고가 들어온 사실을 확인하고 절도 혐의도 함께 수사 중이다. 11일 아이폰14 들고 롤러코스터 탔다가…911 수십통 전화 '황당' 애플이 아이폰14 시리즈에서 새롭게 선보인 ‘충돌 감지 기능’의 오작동 사례가 발견됐다. 놀이기구에 탑승한 것을 교통사고로 인식해 911에 전화를 건 것이다. 10일(현지시간) 월스트리트저널(WSJ) 등 외신에 따르 "정말 91세 맞나"…현역 최고령 美모델, 과감한 누드 화보 91세 현역 최고령 모델 카르멘 델로레피체가 잡지 ‘뉴유(New You)’의 표지를 장식했다. 델로레피체는 과감한 누드 화보도 선보였다. 미국 건강 및 뷰티 잡지 ‘뉴유’는 홈페이지와 유튜브를 통해 최근 델로레피체의 이전 뉴스들 보기 3 다음 뉴스들 보기 서울경제가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 서울경제 헤드라인 더보기 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 56분전 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' 17시간전 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 1시간전 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 4시간전 아이폰14 들고 롤러코스터 탔다가…911 수십통 전화 '황당' 57분전 "정말 91세 맞나"…현역 최고령 美모델, 과감한 누드 화보 51분전 서울경제 랭킹 뉴스 오전 10시~11시까지 집계한 결과입니다. 오전 8시~11시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' 17시간전 2 14살 제자와 성관계 '발칵'…태권도 사범 "진심으로 사랑" 20시간전 3 쇼핑몰 대박 강민경, 65억 건물 사서 이사…"팀원들 다 울어" 7시간전 4 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 4시간전 5 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 1시간전 1 尹대통령, 北향해 “핵 통해 얻을 수 있는 건 아무것도 없다” 3시간전 2 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' 17시간전 3 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 4시간전 4 14살 제자와 성관계 '발칵'…태권도 사범 "진심으로 사랑" 20시간전 5 김용민 “尹, 5년 못 채우게”…대통령실 “헌정 질서 흔들겠다는 것” 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 재생하기 재생시간04:32 일본 여행 '모든 제한' 해제됐다…항공권 가격 천정부지 친절한 경제 시간입니다. 한지연 기자 나와 있습니다. 오늘(11일)부터 일본 자유 여행이 이제 가능해진다고요? 네, 2년 7개월 만이죠. 코로나 확산으로 2020년 3월 9일부터 중단됐던 일본 무비자 여행이 오늘부터 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 "주택대출 안 갚겠다" 뿔난 서민들…무너지는 중국 부동산 중국 경제의 핵심 축인 부동산산업에 경고음이 울리고 있다. 오는 16일 개막하는 중국 공산당 전국대표대회(당대회)에서 지도부가 어떤 대응책을 내놓을지 주목된다. 10일 시장정보 업체 중국부동산정보(CRIC)에 따르면 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 [단독] 물은 그대론데... 장관 한마디에 KTX 세면대 '음용불가' 문구 삭제 원희룡 국토교통부 장관의 한마디에 2004년 개통 이래 유지됐던 KTX 화장실 세면대에 적혀 있던 '이 물은 마실 수 없습니다'라는 문구가 사라진 것으로 확인됐다. 다만 KTX 열차 내 세면대 수질은 그대로라서 이용 치매, ○○ 무뎌지거나 코골이 심해지면 의심 치매 걱정된다면…가족과 가깝게, 친구는 많이 음주 후 전날 일 기억 안난다면 ‘경고등’ 흡연·비만·사회고립 등 위험인자 피해야 당신의 정신건강, 안녕하십니까 아침에 유난히 일어나기 힘들고, 작은 일에도 쉽게 화가 난 재생하기 재생시간02:19 농약 인터넷 판매 막았다더니..."점 하나 찍으면 바로 검색" 농약 불법유통을 막기만 해도 극단적 선택이 줄어든다고 합니다. 그래서 정부 차원에서 농약상 아닌 인터넷 판매를 막아놨는데요. 취재진이 인터넷으로 점 하나만 찍어 검색을 해보니 손쉽게 찾을 수 있었습니다. 이준엽 기자 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 재생하기 재생시간02:21 러, 키이우 등 우크라 전역에 보복 공격…우크라 “복수할 것” 러시아가 키이우 등 우크라이나 전역에 대대적 미사일 공격을 퍼부었습니다. 크림반도와 러시아 본토를 잇는 크림대교 폭발에 대한 보복 공격입니다. 70여명이 죽거나 다쳤는데 우크라이나는 복수를 다짐했고, 서방은 우크라이 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 전국 38만여가구가 집을 비롯해 전 재산을 다 팔아도 빚을 갚지 못하는 ‘고위험’ 상황인 것으로 나타났다. 고위험 가구가 진 빚은 전체 금융 부채의 6%를 넘는 69조원에 이른다. 미국이 돈줄을 강하게 죄면서 시중 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 재생하기 재생시간03:19 [단독] 'SLBM 개발' 국방과학연구소, 5년 동안 160명 떠났다 지난해 세계 7번째로 잠수함 발사 탄도미사일, SLBM 개발에 성공한 국방과학연구소에서 최근 5년 동안 160명 넘는 연구 인력이 퇴사한 것으로 YTN 취재 결과 파악됐습니다. SLBM 개발은 물론, 핵심 국방기술을 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 오늘부터 접종 시작 '코로나 2가 백신', 알고 맞자 오늘(11일)부터 코로나19 2가 백신을 활용한 동절기 추가접종이 시작된다. 추가접종에 사용되는 2가 백신은 기존 코로나19 바이러스(우한주)와 전 세계 코로나 재유행을 주도했던 오미크론 변이 BA.1을 표적으로 한 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 [관심 보고서] 3Q 실적 발표를 앞두고 실적이 상향되는 기업들 (1) 한국주식 미국ETF 유료 [영어표현] glow up / suit yourself / piggyback ride 우야한 영어사전 부동산 투자를 잘하기 위해서는 학문에 대한 공부가 필요할까요? (feat.부동산 학과 졸업생) 홈즈부동산 이슈픽 유료 대구 남구 아파트 리스트 - 대구의 숨은 명품 주거지! 스마트튜브 부동산조사연구소 유료 💌[연휴 특별판] ✍부린이 부동산 공부 가이드북👣 어썸레터 유료 [인사이트]&lt;기업과 권력②&gt; CJ 李남매의 권토중래...문재인 정부도 부담스러웠을 이강철 KT 사외이사 유목민의 시그널리포트 유료 [투자 웹소설_프롤로그] 뉴스를 보면 52주 최고가가 보인다 직관적인 주식이야기 (직관주식) 유료 이준석 전 대표의 3, 4, 5차 가처분 신청을 각하, 기각한 결정은 타당할까? LAW 파트너스 유료 식사 대용으로 먹을 수 있는 간식 영양쌤과 영양톡톡 유료 직원 모니터링의 역효과 HBR 에센셜 유료 오늘의 시사상식 문제 #347 매경 취업스쿨 유료 [A] 테일게이팅 프리미엄 조선 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 서울경제 예 아니오</t>
   </si>
   <si>
     <t>수요미식회 제주도, 관광 명소가 돼버린 3대 맛집은 어디? 현지인들에게 더 유명한 곳도 있어?! TV LIVE VOD 튜브온 주요행사 채널안내 편성표 전체뉴스 MTN deep 한 발 더 깊고 한 걸음 더 넓은 뉴스 MTN hip요즘 뜨는 '힙(hip)'한 이슈 핫리포트핫라인5 생생리포트 MTN 인사이트경제에 통찰력을 더하다 MTN 기자실경제전문 기자들의 취재파일 연속 기획보도이슈를 파고드는 기획취재 연중대기획고품격 특집 다큐멘터리 여의도튜브 발칙한 경제 주식초등학교 Pick 튜브기사보다 더 깊은 이야기 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 최신뉴스 수요미식회 제주도, 관광 명소가 돼버린 3대 맛집은 어디? 현지인들에게 더 유명한 곳도 있어?! 머니투데이방송 김민재 이슈팀 입력 2015-06-11 11:35:54 가 수요미식회 제주도 맛집이 화제다.지난 10일 방송된 tvN ‘수요미식회’에서는 국내 최고의 관광지라 손꼽히는 제주도의 향토음식, 맛집이 소개됐다.이날 방송에서 제주도 첫 번째 맛집으로 소개된 곳은 ‘순*이네 명가’다. 방송에 따르면 ‘순*이네 명가’는 현직 제주 해녀가 운영하는 것으로 전복 물회, 성게미역국, 해물 뚝배기가 대표 메뉴이며 이미 입소문이 나 번호표를 뽑고 기다려야 할 정도로 유명한 집이다.두번째 맛집은 1987년 개업한 ‘돌하루*’ 식당이다. 이 곳은 오히려 관광객들이 많이 찾지 않고 제주 현지인들에게 더 유명한 곳이라는 설명. 각재기국과 멜국 등이 인기 메뉴다.세 번째 맛집은 '옥*식당'. 1999년 시작해 15년째 영업중인 이 곳은 보말과 미역으로 우려낸 국물에 직접 썬 칼국수를 넣은 보말칼국수가 유명하다.(사진출처 : tvN '수요미식회' 캡처) [MTN 온라인 뉴스팀=김민재 기자(issue@mtn.co.kr)]'수요미식회' '수요미식회 제주도' '수요미식회' '수요미식회 제주도' '수요미식회' '수요미식회 제주도' '수요미식회' '수요미식회 제주도' '수요미식회' '수요미식회 제주도' '수요미식회' '수요미식회 제주도' '수요미식회' '수요미식회 제주도' 머니투데이방송의 기사에 대해 반론·정정추후 보도를 청구하실 분은 아래의 연락처로 연락주시길 바랍니다, 고충처리인 : 콘텐츠총괄부장 ombudsman@mtn.co.kr 02)2077-6288 MTN 기자실 경제전문 기자들의 취재파일 전체보기 Pick 튜브 기사보다 더 깊은 이야기 전체보기 많이 본 뉴스 분야별뉴스 취재와이드 MTN 기자실 Pick 튜브 바로가기 분야별뉴스 P4F MTN deep MTN hip 핫리포트 MTN 인사이트 연속 기획보도 연중대기획 MTN 기자실 Pick 튜브 여의도튜브 발칙한경제 주식초등학교 K-디펜스 월가워즈 여의도약방 니은티비 바로가기 검색 TV LIVE APP 소개 MTN YOUTUBE 회사소개 광고제휴안내 이용약관 청소년보호정책 개인정보처리방침 공시조회 (주)머니투데이방송    대표이사 유승호 (07328) 서울특별시 영등포구 여의나루로 60 (여의도동,여의도우체국) 2,4층 등록번호 : 서울 아01083    대표전화 : 02-2077-6200 기사배열책임자 콘텐츠총괄부장    청소년보호책임자 디지털기획부장 Copyright ⓒ MTN All Right Reserved</t>
   </si>
   <si>
-    <t>관광객 증가로 제주도 숙박시설 8월까지 풀예약, 수익형 풀빌라 ‘라메종’ 화제 본문 바로가기 이전 페이지 MBN 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 MBN 주요뉴스를 볼 수 있습니다. 보러가기 MBN 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 저녁방송 생중계 랭킹 관광객 증가로 제주도 숙박시설 8월까지 풀예약, 수익형 풀빌라 ‘라메종’ 화제 입력2015.06.16. 오후 6:12 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주도의 부동산시장이 뜨겁게 달아오르고 있다. 제주도를 찾는 관광객이 1200만 명을 돌파한데다가 각종 개발호재가 잇따르고 있기 때문이다. 제주영어교육도시에는 국제학교(학생수요 9000명, 7개교), 영어교육센터, 외국교육기관, 주거 및 상업시설 등이 들어선다. 총 사업비가 약 1조7810억원에 달하며 2021년 모두 완공된다. 이 곳에 7개의 국제학교가 모두 들어서면 학생수요가 9000여명에 이를 것으로 보인다. 현재, 제주영어교육도시 내에 영국 NLCS, BHA, KIS 3개 국제학교가 운영 중에 있다. 또 2016년 상반기 착공할 세인트 존스베리 아카데미 학교가 2017년 9월에 개교될 예정이다. 국제학교 졸업생들이 세계 100대 주요대학에 합격하면서 제주영어교육도시에 대한 관심이 더욱 높아지고 있다. 이로 인해 전국에서 제주영어교육도시에 몰리는 교육수요가 더욱 늘어날 것으로 예상된다.동북아 최대 규모의 한국형 복합리조트 개발로 주목받고 있는 ‘신화역사공원’은 올해 2월 착공해 오는 2018년까지 특급호텔, 컨벤션센터, 휴양리조트, 테마파크, 워터파크, 세계음식테마거리, 면세점, 외국인 전용 카지노, 고급 쇼핑시설 등이 갖춰진 복합 리조트로 조성될 예정이다. 제주도를 방문하는 내,외국인 관광객이 매년 증가세를 보임에 따라 현재 숙박시설이 턱없이 부족한 실정이다. 제주도내 숙박시설 현황에 따르면 2015년 6월에서 8월까지 성수기 풀빌라 예약은 마감된 상태이며, 마감에도 불구하고 관광객들의 문의가 끊이질 않고 있다. 스파펜션, 펜션 등이 약 10~25만원, 풀빌라는 약 40~70만원으로 거래되고 있어 충분한 희소성으로 인해 안정적인 수익을 얻을 수 있는 풀빌라에 투자자들의 관심이 집중되고 있다. 늘어나는 관광객 수에 대비 객실수가 부족하여 풀빌라 숙박시설 공급에도 활기를 보이고 있다. 그 동안 제주도에서는 분양형 호텔이 큰 인기를 얻은 바 있으나 공급과잉현상에 대한 우려가 커지면서 최근 수익형 풀빌라의 인기가 높아지고 있는 실정이다. 지난 4월 6일 제주도는 ‘농지기능관리 강화방침(농지의 용도변경을 통한 개발을 제한하고, 경자유전의 원칙을 철저히 적용하여 농지 고유의 목적에 맞게 이용하겠다)’을 발표하면서 “앞으로 제주도는 농지 개발이나 투자가 더욱 어려워 주거와 투자가치 상승 두 마리 토끼를 모두 잡을 수 있는 최고의 투자처”라며, “현재 전원생활을 꿈꾸거나 시세차익을 노리는 투자자, 영어교육도시 신입생 학부모, 세컨드하우스를 원하는 많은 이들의 투자 문의가 끊이질 않고 있다”고 전했다. 최근 제주도에서 가장 주목을 받고 있는 수익형 부동산 중 대표적인 상품이 바로 제주도 유수암리에 위치한 풀빌라 ‘라메종’ 이다. ‘라메종’은 무엇보다 기존 투자지분 방식이 아닌 건물과 토지의 개별등기가 가능하고 증축이 가능해 노후대비와 차후 매매를 통해 수익이 발생한다는 점이 주목된다.개인이 건축(건물 40평, 토지 100평) 시에는 3.3㎡당 약 600만원으로 5억 2천만원이 소요되는 반면 라메종 주택단지는 2억 6천만원으로 50%정도의 비용절감이 가능하다.현재 3.3㎡ 당 공사비용은 빌라 약 350만원, 아파트 약 420만원, 호텔 약 600만원 가량이며, 대부분의 금액은 지하토목 공사에 사용된다. 그러나 라메종 주택단지는 3.3㎡ 당 공사비용이 520만원이며, 지하토목 공사 없이 호텔급 건축으로 공사가 가능하고 무엇보다 국내최초 온도조절이 가능한 사계절 온수 수영장이 풀빌라 안으로 설계돼 있어 사계절 사용이 가능하기 때문에 럭셔리한 고급 전원주택 단지에서의 힐링과 여가를 즐기고자 하는 이들에게도 큰 인기를 얻고 있다.‘라메종' 고급전원주택 단지 분양에 관한 보다 자세한 상담은 전화(02-2655-9922) 또는 공식 사이트( www.라메종.com )를 통해 무료로 가능하다. [위 내용은 MBN의 편집방향과 무관하며, 해당업체에서 제공한 보도자료입니다.] ▶ 네이버 뉴스스탠드에서 MBN 뉴스를 바로 만나보세요 &lt; Copyright ⓒ MBN(www.mbn.co.kr) 무단전재 및 재배포 금지 &gt; Copyright ⓒ MBN. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 경제 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 정은지 다이어트 계기는 김범? "오빠가 너무 작아서…" '완벽 뒤태' 예정화, 뽀샵 의혹에 직접 옷 벗더니… 안영미, 다 벗었다…누드 화보 '몸매 장난 아냐' 매일 속옷 벗고 귀가하는 남편, 혹시? [M+초점] 바비킴, 영화보다 굴곡진 '기내 난동사건' A to Z 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 MBN 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! MBN 헤드라인 권성동 "다친 군인에게 '짜장면 먹고 싶냐'고 한 것이 무례" 감사원이 문재인 전 대통령에게 '서해 공무원 피격 사건'과 관련 서면 조사 통보를 하자 문 전 대통령이 "대단히 무례한 짓"이라고 강한 불쾌감을 표출한 가운데 국민의힘 전 원내대표였던 권성동 의원은 문 전 대통령의 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 블라디미르 푸틴 러시아 대통령이 지난달 30일 러시아 수도 모스크바의 붉은 광장에서 '사람들의 선택: 함께 영원히’라는 제목의 콘서트에서 고가 브랜드의 재킷을 입고 연단에 올라 논란이 일고 있습니다. 해당 행사는 우 이스라엘 유적지서 무더기 금화…전쟁 때 주인이 벽에 숨긴 재산 추정 이스라엘 골란고원에 있는 자연보호구역 내 유적지에서 동로마제국 시대의 금화가 무더기로 발견됐습니다. 이스라엘 문화재청(IAA)은 3일(현지시간) 최근 북부 헤르몬 스트림 자연보호구역 내 바니아스 유적지에서 발굴작업 북한, 동쪽으로 중거리 탄도미사일 발사…일본, 피난 지시 북한이 오늘(4일)도 탄도미사일을 발사했습니다. 합동참모본부는 "오늘 오전 7시 23분경 자강도 무평리 일대에서 발사되어 동쪽 방향으로 일본 상공을 통과한 중거리 탄도미사일로 추정되는 1발을 포착했다"고 밝혔습니다. 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 윤석열 대통령을 풍자하는 그림이 전국학생만화공모전에서 카툰 부문 금상을 받은 가운데 한국만화영상진흥원이 개최한 '한국만화축제'에 약 4일 동안 전시됐습니다. 이에 "지나치게 정치적"이라는 일각의 비판이 제기됐지만 주 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 이전 뉴스들 보기 3 다음 뉴스들 보기 MBN이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 MBN 헤드라인 더보기 권성동 "다친 군인에게 '짜장면 먹고 싶냐'고 한 것이 무례" 37분전 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 18시간전 이스라엘 유적지서 무더기 금화…전쟁 때 주인이 벽에 숨긴 재산 추정 1시간전 북한, 동쪽으로 중거리 탄도미사일 발사…일본, 피난 지시 2시간전 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 1시간전 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 16시간전 MBN 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 16시간전 2 김기현 "문재인 전 대통령, 5년 동안 나라 망쳐놨으면 책임져야" 1시간전 3 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 1시간전 4 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 18시간전 5 이스라엘 유적지서 무더기 금화…전쟁 때 주인이 벽에 숨긴 재산 추정 1시간전 1 김기현 "문재인 전 대통령, 5년 동안 나라 망쳐놨으면 책임져야" 1시간전 2 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 1시간전 3 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 16시간전 4 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 18시간전 5 심야택시 호출료 인상…정부, 오늘 택시대책 발표 2시간전 재생하기 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 코로나19 이후 주택 가격 폭등기 때 빚을 내 산 집이 2030세대에 ‘빚 폭탄’이라는 부메랑으로 돌아왔다. 특히 주택이 없는 동년배와 비교해 2년 반 사이 소득 대비 빚 부담 증가폭이 13배에 달했다. *주택보유는 [포착] 러軍 퇴각한 리만서 500억대 Su-34 전투기 ‘공중분해’ 굴욕 러시아군이 퇴각한 우크라이나 동부 요충지 리만에서 500억 원대 러시아 전투기가 산산조각이 난 채 발견됐다. 2일(이하 현지시간) 우크라이나 공군사령부는 동부 도네츠크 리만에서 러시아 신형 전술 폭격기 수호이(Su) "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 “2만원→4천원” 넷플릭스, 일주일 ‘몰아보기 싼 요금’ 부활 어때요? “넷플릭스에 새로 들어온 드라마 딱 1개만 ‘정주행’하고 싶은데…한달 요금 내자니 아깝고, 계정 ‘계모임’ 찾자니 귀찮네요. 좀 싸게 일주일만 보게 해주면 안되나요?” 넷플릭스, 웨이브, 티빙, 쿠팡플레이, 디즈니플 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 기사내용 요약 만화영상진흥원 "카툰부문 경우 정치적 풍자 성향 있어" "수상작 선정은 진흥원이 아닌 외부 심사위원이 맡아" [부천=뉴한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 안심전환대출, 4억이하 1주택자로 확대… 버팀목대출, 신혼부부는 최대 3억까지 6일부터 변동금리 주택담보대출(주담대)을 최저 연 3.7%의 장기·고정금리 상품으로 바꿔주는 ‘우대형 안심전환대출’ 신청 대상이 주택 가격 4억 원 이하까지로 확대된다. 또 21일부터는 서민에게 낮은 금리로 주택 구 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 [속보] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” 윤석열 대통령은 감사원이 서해 공무원 피살 사건과 관련해 문재인 전 대통령에 대한 서면조사를 통보하고 문 전 대통령 측이 반발한 데 대해 “대통령이 뭐라고 언급하는 것은 적절치 않다”고 말을 아꼈다. 윤 대통령은 4 이언주, 삭발사진 올리며 쓴소리 “‘공정과 상식’ 외치며 文정권 비판해 왔지만…” 이언주 전 의원, 현재 정부여당의 논란 및 갈등 상황 나열하며 비판 수위 끌어올려 “수사 등 사법적 정의를 실현하는 과정이나 잣대가 권력 유무에 따라 달라져” “주권자인 국민, 선거만 끝나면 수임자에게 주권 빼앗기고 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 부기 빼려 ‘이것’하단… 콩팥 망가진다 수시로 몸이 붓는 사람들이 있다. 부었다가 가라앉으면 괜찮은데, 부종이 심해지며 통증이 생길 때도 있다. 겉보기에 살찐 것 같아 거슬리기도 한다. 체액이 쌓여 몸이 부었으니, 소변을 자주 보면 부기가 빠질 거로 생각 재생하기 재생시간02:17 열차표 '18억 어치' 샀다가 환불…왜 이런 일 벌어지나? 타지도 않을 고속열차 표를 한 달에 몇 백장, 금액으로는 몇 억 원어치씩 샀다가 시간이 지나면 취소하는 사람들이 있습니다. 실제 기차 타려는 사람들이 큰 불편을 겪게 되는데, 왜 이런 일이 벌어지는 건지, 그동안 걸 재생하기 재생시간01:46 [단독] "상품권 싸게 팔아요"…인터넷서 20억대 신종 사기 요즘 인터넷 개인 판매업자에게 할인된 상품권 구매하시는 분들 계실텐데, 주의하셔야겠습니다. 상품권 가액보다 더 많은 현금으로 돌려준다고 하면서 20억 원 대의 돈을 가로챈 신종 사기범이 붙잡혔습니다. 윤정주 기자가 “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 '월급 600만원' 싱글 직장인, 알고보니 '돈' 이렇게 벌었다 대기업에서 소프트웨어 개발 업무를 하는 35세 김모씨는 서울 사당동 85㎡ 아파트에서 혼자 살고 있다. 월급이 600만원을 웃돌지만 절반에 가까운 300만원은 적금과 펀드 등에 넣는다. 주말엔 자전거로 배달라이더 일 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 “별 것 아냐”...평범한 건강 적신호 5 우리 몸에 이상이 생기면 다양한 모습으로 신체에 반응이 나타난다. 대표적으로 통증은 몸에 이상이 생겼다는 신호다. 몸에 어떤 변화가 생겼을 때는 건강에 빨간불이 켜진 것이 아닌지 주의를 기울여야 한다. 미국 ABC방 편의점서 1억3천만원 결제…도대체 뭘 샀길래 CU 10년 효자상품 분석 참이슬 소주 누적 3억개 팔려 삼각김밥은 '참치마요'가 1위 점포수·매출액 2배로 늘어 편의점서 1억 넘게 쓴 고객도 편의점 CU에서 지난 10년 동안 가장 많이 팔린 상품은 무엇일까. 편 하늘로 떠난 비운의 여성 빨치산 비전향 장기수 박정덕 선생이 2일 오후 세상을 떠났다. 향년 92세. 선생은 경기도 파주의 한 요양원에서 지내고 있었다. 선생의 고향은 전남 곡성군 죽곡면 당동리다. 1남 3녀 중 막내로 태어났다. 집안 살림은 넉넉 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 시속 137㎞ 좌회전, 뒷좌석 20대 사망…운전자는 만취였다 만취 상태에서 시속 137㎞로 과속 운전하다 동승자를 숨지게 한 30대 남성이 징역형을 선고받았다. 광주지방법원 형사8단독은 교통사고처리 특례법 위반(치사), 도로교통법 위반(음주운전) 혐의로 기소된 A씨(31)에게 인플레법 우려 현실됐다…현대차그룹 美 전기차 판매 크게 감소(종합) 9월 전기차 판매대수 전월대비 현대차 14%, 기아 22% 각각 줄어 9월 전체 車판매는 전년 동월 대비 현대차 11%, 기아 6%씩 증가 김태종 특파원 = 한국산 전기차에 대한 보조금 지급 차별 논란으로 우려를 낳 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 "3명 중 1명은 아이폰"…'삼성 텃밭' 한국서 반전 쓴 애플 [배성수의 다다IT선] '삼성 텃밭'으로 불리던 국내 스마트폰 시장에서 지각변동이 일어나고 있다. 좀처럼 20%대 점유율을 벗어나지 못했던 애플이 올해 하반기 들어 한국 시장에서 입지를 크게 키우면서다. 4일 트래픽 분석사이트 스탯카운터에 文 “감사원 무례한 짓” 與 “前대통령 성역 없어” 문재인 전 대통령이 서해 공무원 피살 사건과 관련한 감사원의 서면조사 요구에 “대단히 무례한 짓”이라고 했다. 더불어민주당도 “문 전 대통령을 정치보복의 올가미에 가두려는 윤석열 정권의 음모”라고 거세게 비판하며 감 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 JP모간 "증시 바닥 근접...지금 사야할 2개 종목" JP모간의 최고 분석가이자 대표적인 황소론자로 통하는 마르코 콜라노비치는 주식시장이 바닥에 근접했다면서 반등을 전망했다. 콜라노비치는 2일(현지시간) 투자노트를 내고 “미국 연방준비제도(Fed·연준)의 매파적 입장이 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 비트코인 암호, 양자컴퓨터에 깨질 수 있다? 에임리치 유료 동서식품 3세 김동욱, 장내서 '동서' 주식 사들이는 까닭은 thebellstock 유료 2022년 10월 3일(월) 정부일정 증시일정 주식아빠 고고스의 주식일정 유료 기업들이여 Z를 지워라 오늘도 출근중 당신은 무엇에 목말라 있습니까? 깊은코칭 기쁜인생 8. 나얼 '바람기억' : 이대 후문 그린하우스 생크림 곰보빵 뮤즈, 인월 유료 어렸을 때 찐 살은 정말 키로 갈까? 영양쌤과 영양톡톡 인생 2회차 둘째날 인생 2회차를 사는 방법에 대하여 유료 [하루 5분!! 미국 증시 따라가기] 22년 10월 4일 화요일 : 어제 나스닥 +2.3% 상승 / " 영국이랑 제조업 지수에서 만회한 주식 시장 분위기 " 배당상어의 돈에서 헤엄치기 유료 네가 알던 큐브가 아니야! 지금 과학 유료 [라오스 여행] 다른 곳엔 없는 Tip ! 루앙프라방 투어 알짜 정보 RK의 글스토랑 유료 혹시, '영끌'하셨나요? 스크류 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ MBN 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도 10명 메르스 모니터링…관광객 2명 계속 격리 중 본문 바로가기 이전 페이지 뉴시스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 뉴시스 주요뉴스를 볼 수 있습니다. 보러가기 뉴시스 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 세계 생활 IT 사설/칼럼 랭킹 제주도 10명 메르스 모니터링…관광객 2명 계속 격리 중 입력2015.06.07. 오전 11:19 수정2015.06.07. 오전 11:20 기사원문 강정만 기자 강정만 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 【제주=뉴시스】 고동명 기자= 메르스(중동호흡기증후군, MERS) 공포가 커지고 있는 4일 오후 제주 서귀포시 성산일출봉 앞에서 마스크를 쓴 관광객들이 지나가고 있다. 2015.06.04. kdm80@newsis.com 【제주=뉴시스】강정만 기자 = 제주특별자치도는 7일 오전 현재 중동호흡기증후군(MERS·메르스) 모니터링 대상자는 모두 10명이며, 이중 관광객 2명은 지난 6일부터 계속 시설격리중인 상태라고 밝혔다. 이 2명은 1차로 음성판정을 받았고 별다른 증상을 보이고 있지 않지만 48시간 지나서 재검사를 해야 하기 때문 격리조치 됐다. 결과는 8일 중 나올 예정이다. 이 관광객은 도가 지난 5일 오후 “관광객중 1명이 메르스 확진절차 진행중인 사람의 밀접 접촉자”라는 육지부 모 보건소의 모니터링 요청 통보를 받아 즉시 격리 조치됐다. 이 관광객(31·여)의 부친은 지난 5일 육지부 보건소에서 메르스 잠정 양성반응을 받았으며, 현재 확진 여부에 대한 검사가 진행중 이다. 이 관광객은 부친의 증세가 발생하기 전인 지난 4일 친구(32·여)와 함께 관광차 제주공항을 통해 입도했다. 한편 자가격리중이던 1명이 2차 음성판정을 받음에따라 해제조치됐고, 이에 따라 현재 자가격리자는 없다. 발열증세로 6일 오후 추가 신고한 20세 여성은 본인의 요청에 의해 메르스 감염여부 검사를 한 결과 음성으로 판정을 받았다. 이 여성은 병원에서 편도염 등으로 진단을 받아 진료를 받고 7일 오전 퇴원했다. 도민들의 보건기관 메르스 전화 상담 건수는 현재까지 총 618건으로, 주말인 6일 하루 상담은 56건으로 나타났다. 도 메르스관리대책본부는 메르스 감염 여부 진료를 위해 비상진료실용 컨테이너 2동을 메르스 거점병원에 지원해 이 병원을 찾는 일반 환자들의 불안감을 해소시키는데 주력하고 있다. 도 대책본부는 7일에도 비상근무를 하면서 공항 및 항만을 이용해 제주에 입도하는 관광객 등을 대상으로 발열감시를 지속적으로 실시하고 있다. kjm@newsis.com★ 뉴시스 뉴스, 이젠 네이버 뉴스 스탠드에서도 만나세요★ 손 안에서 보는 세상, 모바일 뉴시스&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt; 강정만 기자 프로필 구독 구독중 강정만 기자 구독자 0 응원수 0 제주, 미준공 유원지 개발사업지 7곳 '변경승인' 제주, 운영 최고 관광지는 '서귀포 치유의 숲' 뉴시스의 구독 많은 기자 뉴시스 기사를 더 보고 싶다면? 구독 뉴시스 언론사 구독되었습니다. 메인 뉴스판에서 뉴시스 주요뉴스를 볼 수 있습니다. 보러가기 뉴시스 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ 뉴시스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 성교육 강사가 섹스토이숍 단체 견학 ´발칵´ 소변 튀었단…1억원대 ´블링블링´ 변기통 노숙인 위해 집 짓는 9세 소녀, 이유는… ´스킨십 거부해?´ 노래방 여주인 협박한 경찰 신생아 살해 후 친정에 택배…30대母 영장 청구 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 뉴시스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 뉴시스 헤드라인 1억 넘는 외제차 굴리며 임대주택 거주…'가짜 서민' 수두룩 기사내용 요약 입주기준 초과한 고가차량 보유 세대 264가구 서민의 주거복지 일환으로 마련돼 있는 공공임대주택에 고가의 외제차 등 입주 기준가액 넘는 고가차량을 보유한 사례가 상당수 발견됐다. 공공임대주택에 대한 정 도심 호텔서 연인 감금·폭행하고 마약 혐의…20대男 체포 기사내용 요약 데이트 폭력 및 마약류관리법 위반 혐의 여자친구를 호텔에 감금한 채 폭행하고 마약까지 한 혐의를 받는 20대 남성이 경찰에 붙잡혔다. 4일 경찰에 따르면 서울 중부경찰서는 데이트 폭력(감금 등) 및 마 '팔'정부, 이스라엘에 서안지구의 '팔'인 살해 중지 요구 기사내용 요약 3일 라말라에서 '이'군이 2명 사살, 1명 상해 팔레스타인 대통령, 외교부 공식 항의, 국제사회 지원 촉구 [서울=뉴시스] 팔레스타인 자치정부는 3일 (현지시간) 이스라엘에게 서안지구에서 팔레스타인인 박홍근 "감사원 칼 끝, 끝내 文 전 대통령 겨냥…정치탄압" 기사내용 요약 "윤석열 정부 4개월만에 대한민국 난파 위기" 주장 "주가폭락에 안보리스크 더해지면 걷잡을 수 없어" "대통령 막말 덮으려 뻔뻔하게 국민·언론과 맞서" "느닷없이 文 서면조사 통보…명백한 정치탄압" [ "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 김수연 인턴 기자 = 고양시의 한 호프집에서 음식을 먹고 계산하지 않는 이른바 '먹튀' 사건이 발생해 경찰이 수사에 나섰다. 1일 보배드림에 '호프집 먹튀 인간들 수배합니다'라는 제목의 게시물이 올라왔다. 고양시 삼 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 기사내용 요약 만화영상진흥원 "카툰부문 경우 정치적 풍자 성향 있어" "수상작 선정은 진흥원이 아닌 외부 심사위원이 맡아" [부천=뉴시스] 정일형 기자 = 한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 이전 뉴스들 보기 3 다음 뉴스들 보기 뉴시스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 뉴시스 헤드라인 더보기 1억 넘는 외제차 굴리며 임대주택 거주…'가짜 서민' 수두룩 17분전 도심 호텔서 연인 감금·폭행하고 마약 혐의…20대男 체포 1시간전 '팔'정부, 이스라엘에 서안지구의 '팔'인 살해 중지 요구 55분전 박홍근 "감사원 칼 끝, 끝내 文 전 대통령 겨냥…정치탄압" 14분전 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 1시간전 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 1시간전 뉴시스 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 1시간전 2 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 1시간전 3 도심 호텔서 연인 감금·폭행하고 마약 혐의…20대男 체포 1시간전 4 전주환의 '두 얼굴'…신상공개 21명 중 18명이 신분증 사진 22시간전 5 최수연號 네이버, 창사 이래 최대 빅딜…북미 C2C 정조준(종합) 1시간전 1 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 1시간전 2 與, '감사원 文조사' 옹호…文 때려 보수층 결집 노려 13시간전 3 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 1시간전 4 전주환의 '두 얼굴'…신상공개 21명 중 18명이 신분증 사진 22시간전 5 '검·언 유착 허위글 SNS 유포 혐의' 최강욱, 오늘 1심 선고 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 윤석열 대통령의 ‘비속어 파문’ 여파 탓에 정부와 여당 지지율이 동반 하락하는 가운데 국민의힘이 격랑의 한 주를 맞았다. ‘정진석 비상대책위원회’의 존폐와 이준석 전 대표 추가 징계가 한꺼번에 결정될 가능성이 적지 재생하기 재생시간02:08 英 트러스 굴욕적 유턴·시장은 반색...뉴욕증시 2.5% 급등 영국의 신임 트러스 총리가 결국 부자 감세 정책을 철회하면서 집권 한 달 만에 체면을 구겼지만, 금융 시장은 반색했습니다. 국채금리가 안정세를 보이면서 뉴욕 증시는 2.5% 안팎의 급등세로 4분기를 기분 좋게 시작했 "귀신같은 꿀빨러" 이준석 팬도 혀 내두른 이재명 심야트윗 “잘 챙겨 보겠습니다. 망 사용료 법 문제점이 있어 보입니다.” 지난 2일 자정 직전에 이재명 더불어민주당 대표는 자신의 트위터에 이같은 글을 적었다. ‘망 사용료’ 지불을 의무화하는 법안의 문제점을 지적한 트위터 尹은 기차, 조종석엔 김건희 여사…고등학생이 그린 그림은 최근 개최된 한국 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시됐다는 사실이 알려져 주목을 받고 있다. 3일 문화체육관광부, 경기도, 부천시가 건립한 한국만화영상진흥원에 따르면 이날 폐막한 제 25회 부천국제만화 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 재생하기 재생시간02:17 열차표 '18억 어치' 샀다가 환불…왜 이런 일 벌어지나? 타지도 않을 고속열차 표를 한 달에 몇 백장, 금액으로는 몇 억 원어치씩 샀다가 시간이 지나면 취소하는 사람들이 있습니다. 실제 기차 타려는 사람들이 큰 불편을 겪게 되는데, 왜 이런 일이 벌어지는 건지, 그동안 걸 퇴임 뒤에도 '내로남불'?…박근혜 털었던 문재인, 자신 향한 서면조사엔 "무례한 짓" 감사원이 '서해 공무원 피살 사건'과 관련해 문재인 전 대통령을 서면조사하려 한 것으로 알려졌다. 문 전 대통령은 질의서 수령을 거부함과 동시에 불쾌감을 피력했으며, 더불어민주당도 "정치보복"이라며 일제히 반발하고 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 600억짜리 최신형 전투기 또 '산산조각'…러軍, 계속되는 굴욕 최근 우크라이나 동부 도네츠크 리만 지역에서 수백억원에 달하는 러시아 전투기가 박살 난 채 발견됐다. 2일(현지시간) 우크라이나 공군사령부는 동부 요충지인 리만에서 러시아 전투기 수호이(Su)-34 파편을 찾았다고 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 자강도 무평리서 1발 발사…8개월만의 IRBM 발사로 도발 수위 끌어올려 이번엔 고각 아닌 정상각도 발사 가능성…ICBM·핵실험 이어지나 우려 북한이 4일 동쪽으로 중거리 탄도미사일(IRBM)을 발사했다. 올해 1월 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 킴 카다시안, ‘SNS 1건’ 때문에…벌금만 18억원 냈다 ‘이더리움맥스’ 홍보 대가 미고지 美SEC 합의금 18억원 미국의 모델 겸 패션사업가인 킴 카다시안이 자신의 소셜네트워크서비스(SNS)에서 특정 가상화폐를 불법 광고했다. 이에 카다시안은 126만 달러(약 18억19 고물가에 '명품백' 내다 판다…"샤넬 캐비어 팝니다" 고물가와 경기 불황 상황이 지속되며 평소 가지고 있던 명품을 중고시장에 내놓는 사례가 눈에 띄게 늘면서 거래 사기 등 피해 예방책을 마련해야 한다는 지적이 나오고 있다. 지난달 27일부터 29일까지 중고거래 플랫폼 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 文 “감사원 서면조사 ‘무례한 짓’”…김연주 “지금이 무슨 ‘왕조시대’도 아니고” 김연주 시사평론가, 文 측 향해…“서면 조사 요청에 감사원의 권한 밖이라 규정하는 건 납득하기 어려워” “‘무례한 자(, 과연 누구인가…진실 밝히는 데 협조하는 일에 너와 내가 따로 있을 수 있겠나” “왜 무고한 우 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] ‘신라 최고의 명품 귀고리가 출토된 고분은 부부총이 아니었다.’ 9월 29~30일 국립중앙박물관 소강당에서 ‘국립박물관 소장 일제강점기 자료의 공개와 활용’ 학술대회가 열렸다. 우선 일제강점기 조선총독부 박물관이 한 정부 “실내 마스크 의무, 2023년 3월쯤 해제” “올겨울 트윈데믹 고비 남아있어” 요양시설 등 집단감염 절반 줄어 4일부터 입소자 대면면회 허용 신종 코로나바이러스 감염증(코로나19) 유행이 안정적으로 유지되면서 정부가 코로나19 출구전략에 속도를 내고 있지만, 전주환의 '두 얼굴'…신상공개 21명 중 18명이 신분증 사진 기사내용 요약 피의자 '머그샷' 거부하면 신분증 증명사진 공개 2019년부터 신상공개 21명…18명이 신분증 사진 공개된 신분증 사진, 언제 찍었는지 알지도 못해 피의자 신분증 사진과 현재 모습 너무 달라 논란 이성 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 하늘로 떠난 비운의 여성 빨치산 비전향 장기수 박정덕 선생이 2일 오후 세상을 떠났다. 향년 92세. 선생은 경기도 파주의 한 요양원에서 지내고 있었다. 선생의 고향은 전남 곡성군 죽곡면 당동리다. 1남 3녀 중 막내로 태어났다. 집안 살림은 넉넉 네이버 일냈다…한국 인터넷 역사상 최대 규모 2조원 ‘빅딜’ 네이버가 승부수를 던졌다. 한국 인터넷 역사상 최대 규모의 빅딜에 나섰다. 네이버는 4일 북미 최대 패션 C2C 커뮤니티 포쉬마크 인수를 통해 커머스 시장 선점에 나선다고 밝혔다. 인수 금액은 2조3000억원에 달한 '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 코로나19 이후 주택 가격 폭등기 때 빚을 내 산 집이 2030세대에 ‘빚 폭탄’이라는 부메랑으로 돌아왔다. 특히 주택이 없는 동년배와 비교해 2년 반 사이 소득 대비 빚 부담 증가폭이 13배에 달했다. *주택보유는 재생하기 재생시간01:46 [단독] "상품권 싸게 팔아요"…인터넷서 20억대 신종 사기 요즘 인터넷 개인 판매업자에게 할인된 상품권 구매하시는 분들 계실텐데, 주의하셔야겠습니다. 상품권 가액보다 더 많은 현금으로 돌려준다고 하면서 20억 원 대의 돈을 가로챈 신종 사기범이 붙잡혔습니다. 윤정주 기자가 文 “감사원 무례한 짓” 與 “前대통령 성역 없어” 문재인 전 대통령이 서해 공무원 피살 사건과 관련한 감사원의 서면조사 요구에 “대단히 무례한 짓”이라고 했다. 더불어민주당도 “문 전 대통령을 정치보복의 올가미에 가두려는 윤석열 정권의 음모”라고 거세게 비판하며 감 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 비트코인 암호, 양자컴퓨터에 깨질 수 있다? 에임리치 유료 동서식품 3세 김동욱, 장내서 '동서' 주식 사들이는 까닭은 thebellstock 유료 2022년 10월 3일(월) 정부일정 증시일정 주식아빠 고고스의 주식일정 유료 기업들이여 Z를 지워라 오늘도 출근중 당신은 무엇에 목말라 있습니까? 깊은코칭 기쁜인생 8. 나얼 '바람기억' : 이대 후문 그린하우스 생크림 곰보빵 뮤즈, 인월 유료 어렸을 때 찐 살은 정말 키로 갈까? 영양쌤과 영양톡톡 인생 2회차 둘째날 인생 2회차를 사는 방법에 대하여 유료 [하루 5분!! 미국 증시 따라가기] 22년 10월 4일 화요일 : 어제 나스닥 +2.3% 상승 / " 영국이랑 제조업 지수에서 만회한 주식 시장 분위기 " 배당상어의 돈에서 헤엄치기 유료 네가 알던 큐브가 아니야! 지금 과학 유료 [라오스 여행] 다른 곳엔 없는 Tip ! 루앙프라방 투어 알짜 정보 RK의 글스토랑 유료 혹시, '영끌'하셨나요? 스크류 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 뉴시스 예 아니오</t>
-  </si>
-  <si>
-    <t>수요미식회 제주도, ‘관광객NO 현지인 추천’맛집 보니.. :: 네이버 TV연예 메인 메뉴로 바로가기 본문으로 바로가기 검색 검색 검색창 닫기 NAVER TV연예 뉴스 TV연예홈 TV 포토 랭킹 영화 최신뉴스 수요미식회 제주도, ‘관광객NO 현지인 추천’맛집 보니.. 기사입력2015.06.10. 오후 3:41 최종수정2015.06.11. 오후 4:22 기사원문 좋아요 좋아요 평가하기 공감 좋아요 0 응원해요 0 축하해요 0 기대해요 0 놀랐어요 0 슬퍼요 0 글꼴 나눔고딕 맑은고딕 돋움체 바탕체 본문 사이즈 작게 본문 사이즈 크게 인쇄하기 [서울신문 En]지난 10일 방송된 tvN ‘수요미식회’ 제주도 음식 1편에서는 ‘천혜의 관광지 제주의 맛’을 주제로 제주도 맛집이 공개됐다. 이날 첫 번째로 소개된 맛집은 ‘순옥이네 명가’로 15년째 영업 중인 식당이다. 현직 해녀가 운영하는 이 맛집은 전복물회와 성게 미역국 그리고 해물뚝배기 등이 대표 메뉴로 꼽힌다. 이어 두 번째로 소개된 맛집은 ‘돌하르방 식당’이다. 1987년 개업 후 29년 째 영업 중인 곳으로 각재기와 배추를 넣고 시원하게 끓여낸 제주도 토속음식인 각재기국과, 통통한 멸치를 넣고 맑게 끓이는 멜국이 대표 메뉴다.마지막 맛집으로는 ‘옥돔식당’이 선정됐다. 옥돔식당은 남성들의 정력에 좋다는 보말을 넣어 만든 보말칼국수로 유명하다. 뉴스팀 seoulen@seoul.co.kr▶ 부담없이 즐기는 서울신문 ‘최신만화’ - 저작권자 ⓒ 서울신문사 - 기자 프로필 Copyright ⓒ 서울신문. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 연예 섹션으로 분류했습니다. 기사 섹션 분류 안내 개별 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 닫기 좋아요 0 응원해요 0 축하해요 0 기대해요 0 놀랐어요 0 슬퍼요 0 이 기사를 추천합니다 0 안내 보내기 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 이 기사는 사용자 추천으로 모바일 메인 연예판에 노출된 이력이 있습니다. 서울신문 주요뉴스 해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 보성 메르스 확진자 발생, 결혼식-성당미사 참여 '전파 가능성은?' 확진자 14명 늘어 122명 플레이보이 모델 "호날두, 내 가슴 사랑해" 초대형 G컵 제시카 파격 화보, 상반신 누드+하의 실종 '팬티만 입고..' 경악 성기 없는 남성, 여성 100명과 섹스 "성관계 어떻게?" 티파니, 물에 젖은 티셔츠에 가슴 주요부위 그대로 노출 '경악' 광고 많이 본 TV연예 뉴스 120살에 결혼한 우즈벡 아내, 남편 욕설에 속앓이 “경제활동도 안 해”(결혼지옥) 2[Oh!타임머신] '범죄도시2' 남문철, 대장암 투병 끝 사망..1200만 관객 눈물 (과거사재조명) 3제니·뷔 사생활 유포, 이제 멈추나…41일만에 YG "수사의뢰" 입장 발표 [MD이슈] 4성추행·사생활 논란→법적 대응 시끌…'수리남', 인기에도 웃을 수 없는 이유 [TEN스타필드] 5“하정우 내년 결혼생각有”..황보라는 임신 탓 ♥차현우와 이미 법적부부됐다 [어저께TV] 6"임신 때문에" 황보라♥차현우, 혼인신고 완료 '법적 부부'→11월 결혼 위해 18kg 감량 ('동상이몽2')[종합] 7서지승, ♥이시언과 결혼 후 더 예쁜 새댁..샤넬백 들고 화려한 외출 8오은영, 폭언+손가락 욕하는 남편에 "우즈벡 아내, 사랑하나"→남편, "반반" '충격' ('결혼지옥') [어저께TV] 9"♥정혜영 닮은 15살 子"…션, 생일 맞아 공개한 사진 10김준호, '그릇 가게' 사위 되겠네…김지민 母 손재주 대박 더보기 연예가 HOT 포토 정려원 '반짝이는 눈동자' 스타 공항패션 스트레이 키즈, 신곡 M/V 티저…"오감… 컴백 티저 이미지 최예나 "내 장르를 만드는 게 목표이자… 화보 속 스타 예리, 태연 만나 무슨 이야기 나눴나…… 스타들의 일상 연예가 인터뷰 '천하제일장사' 이경규 "강호동과의 인연 덕에 씨름 더 좋아져" 뉴스엔 [TEN인터뷰] '유해진과 닮은' 진선규 "아들, 빌런으로 변신한 나보고 못 생겼다고…" '더 존' 조효진·김동진PD "K·예능의 '오징어게임', 언젠가는 올 겁니다"[스경X인터뷰] 배다빈 "친동생 베리베리 호영과 커플 오해? 기분 좋았다" '현재는 아름다워' 배다빈 "윤시윤 닮은꼴? 부부 케미 도움" 넷플릭스 '글리치' 제작사 대표 윤신애 "외계인 추적극…도전은 내 운명" 더보기 AiRS 추천뉴스 "딴 남자 만나" '결혼지옥', 우즈벡 아내에 폭언 퍼붓는 남편…오은영,… OSEN '차현우♥'황보라, 결혼식 앞두고 미리 혼인신고...시험관 임신 준비 중… 스포츠조선 '24세 연하♥' 최성국 "저 결혼해요"(미스터리듀엣) MBC연예 "못 가겠다" 이찬원, 대중목욕탕 트라우마 고백…미미 "씻느라 바빠" (… 텐아시아 17억뷰 보인다! 임영웅 유튜브 채널 16억 8천만뷰 스타뉴스 손태영, ♥권상우를 낳았네..14살에 183cm 父 닮아 듬직 OSEN 송가인 전국투어, 이번엔 목포다 이데일리 서지승, ♥이시언과 결혼 후 더 예쁜 새댁..샤넬백 들고 화려한 외출 헤럴드POP 女 만나고 싶다는 36세 모태솔로男…서장훈 "배가 너무 많이 나왔다" 지… 엑스포츠뉴스 "♥정혜영 닮은 15살 子"…션, 생일 맞아 공개한 사진 엑스포츠뉴스 '이지훈♥' 아야네, 새벽 골프에도 내조는 꼬박꼬박 "연습 가야 하는 오… 마이데일리 아이린, 파리서 생각도 못한 사람 만났다 "내 딸이 다 컸어" OSEN '42세' 송혜교, 확신의 디즈니상...혼자 시간이 거꾸로 흘러가나봐 스포츠조선 박연수, 우애좋은 지아-지욱 남매..'13살 동생, 누나 아픈일 응징 생… 헤럴드POP 라이머 "♥안현모와 2세 조만간…더 시간 끌면 안 돼" (우리들의 차차차… 엑스포츠뉴스 "속궁합이 중요"…제이미·비비, 솔직과 불편 사이의 '성담화'[TEN피플… 텐아시아 '돌싱글즈3' 최동환, 안면 골절 ♥이소라 걱정 "빨리 회복하자" 뉴스엔 서하얀, 얼굴도 예쁜데 내조의 여왕..임창정 재혼 잘했네 헤럴드POP 김준호, '그릇 가게' 사위 되겠네…김지민 母 손재주 대박 엑스포츠뉴스 한소희, 타투 다 지운 줄 알았는데...크롭티 입으니 딱 보이네 스포츠조선 '범죄도시2' 남문철, 대장암 투병 끝 사망..1200만 관객 눈물 (과… OSEN 야노시호, 옆태 뻥 뚫린 수영복 입고 추사랑 번쩍 '모녀 다리길이에 깜짝… 마이데일리 "이거 무례한 거 맞죠?" 박은지, 밤 11시 경비실 연락에 불쾌 엑스포츠뉴스 '나는 솔로' 9기 옥순, 민희진도 놀랄 '뉴진스 춤' 따라잡기..끼가 … 스타뉴스 황재균, ♥지연만을 위한 트레이너 변신..달달한 헬스장 투샷 헤럴드POP '7년 열애' 김민희♥홍상수 감독, 韓무대 언제까지 피할까 [Oh!쎈 그… OSEN '장영란♥' 한창, 냉장고에 이걸 넣어놨어? 센스에 그저 감탄만 마이데일리 신다은 "갈곳이 백화점밖에 없어"…엄마 된 후 달라진 일상 엑스포츠뉴스 한정민♥조예영, 눈물의 이별…"조심히 가" 장거리 커플 근황 엑스포츠뉴스 '일당백집사' 이혜리X이준영X송덕호X이규한, 힐링케미 폭발 단체 포스터 … OSEN 남지현, 11월 26일 단독 팬미팅 개최…기획 참여 JTBC 김동휘 "최민식과 연기, 에베레스트 같은 거대한 도전"[스타화보] 뉴스엔 걸그룹 앨리스, 컴백 공식화 이데일리 르세라핌 홍은채, 코로나 확진…"나머지 멤버 음성" [전문] MBC연예 기안84, '나혼산' 김지우PD 新예능 '태어난김에 세계일주' 출연확정 … 스포츠조선 할리우드 영화감독, 자신 작품대로 엽기 살인..잔혹함에 경찰들도 경악 (… 스포츠조선 남명렬 박지일 추상미→손지윤 최석진 신주엽…연극 '오펀스' 캐스팅 뉴스엔 '얼어죽을 연애따위' 최시원, 첫 방송 D-1.."올 가을 가슴 따뜻하게… 헤럴드POP '안다행' 30주 1위…박명수부터 아이키→허니제이까지, '최강 조합' 파이낸셜뉴스 정려원 '하얀 차를 탄 여자' 런던·샌디에이고 영화제 초청 뉴스1 김구라 "드림캐쳐 글로벌 인기→말귀 못 알아듣는다" 독설(라떼9) 뉴스엔 방탄소년단(BTS) 진, '핸드크림' 광고에 어울리는 손을 가진 스타 1… 엑스포츠뉴스 '월수금화목토' 박민영·고경표, 혼수 장만 데이트 포착…달달 신혼 [N컷… 뉴스1 첫방 '내 눈에 콩깍지', 소문난 잔칫집 입증..16.1% 쾌조의 출발 OSEN 600만 돌파한 '공조2' 4주 연속 주말 1위 [박스오피스] 연합뉴스 박지훈, 강렬 이미지 변신…영화 같은 신보 프리뷰 뉴스1 신승환, 박성웅 분노 버튼 누르고 "형수님!" 조종 일인자 등극(캠핑짱) 뉴스엔 최유정 "군대 간 남친, 사랑한다면 기다릴 수 있어" ('이별리콜') 스포츠조선 "심근경색→급사가능성有" 1~2년 밖에 안 남았다는 문재완 정자수치 '충… OSEN 코요태 빽가, 우쥬록스와 전속계약…지석진과 한솥밥 뉴스1 새로운 뉴스 가져오기 영화계는 지금 [공식] '동감', 11월 16일 개봉 확정…여진구X조이현의 청춘 로맨스 유해진 류준열 사극 스릴러 '올빼미', 11월 말 개봉 확정 [D:초점] 마릴린 먼로 픽션 영화 '블론드'가 놓친 것 22년 만에 재탄생…여진구·조이현 '동감', 11월 16일 개봉 여진구·조이현 청춘 로맨스 ‘동감’, 11월 16일 개봉 [TEN인터뷰] '유해진과 닮은' 진선규 "아들, 빌런으로 변신한 나보고 못 생겼다고…" 더보기 이용약관 서비스 운영 원칙 개인정보 처리방침 책임의 한계와 법적고지 TV연예 고객센터 TV연예 제휴제안 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright © 서울신문 All Rights Reserved. NAVER Copyright © NAVER Corp. All Rights Reserved. 모바일 버전으로 보기</t>
-  </si>
-  <si>
-    <t>제주도, 러시아 관광객 유치 여름 특화상품 개발 본문 바로가기 이전 페이지 뉴시스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 뉴시스 주요뉴스를 볼 수 있습니다. 보러가기 뉴시스 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 세계 생활 IT 사설/칼럼 랭킹 제주도, 러시아 관광객 유치 여름 특화상품 개발 입력2015.06.03. 오전 10:55 수정2015.06.03. 오전 10:57 기사원문 강정만 기자 강정만 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 【제주=뉴시스】강정만 기자 = 제주특별자치도는 제주의 지역축제와 연계한 여름 특화상품을 개발해 러시아 및 중앙아시아 관광객을 유치할 계획이라고 3일 밝혔다. 도는 이를 위해 우선 제주 함덕뮤직위크 페스티벌 동안 진행되는 휘트니스 제주 비치 페스티벌(7월10일)·스테핑스톤 페스티벌(7월11일)·일렉트로닉 뮤직 페스티벌(8월1∼2일)·살사 페스티벌(8월30일)과 연계한 해변 포토타임·라틴밴드공연 관람·클럽파티 등 다양한 이벤트를 적극 홍보하기로 했다. 특히 러시아 관광객은 외래관광시장의 큰손으로 불리우는 만큼 이들을 위해 지역 밀착형 관광콘텐츠 개발과 장기체류 할 수 있는 상품을 개발할 계획이다. 도와 제주관광공사는 러시아관광객 유치를 위해 지난 5월 한국관광공사 모스크바지사와 공동으로 현지 여행업계 팸투어단을 초청해 해변인프라와 해녀 등 문화콘텐츠를 홍보했다. 또 극동지역의 중심도시인 하바롭스크와 블라디보스톡에서 해변 휴양형 이미지 광고와TV 매체를 활용하는 등 현지 홍보 마케팅을 강화하고 있다. kjm@newsis.com★ 뉴시스 뉴스, 이젠 네이버 뉴스 스탠드에서도 만나세요★ 손 안에서 보는 세상, 모바일 뉴시스&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt; 강정만 기자 프로필 구독 구독중 강정만 기자 구독자 0 응원수 0 제주, 미준공 유원지 개발사업지 7곳 '변경승인' 제주, 운영 최고 관광지는 '서귀포 치유의 숲' 뉴시스의 구독 많은 기자 뉴시스 기사를 더 보고 싶다면? 구독 뉴시스 언론사 구독되었습니다. 메인 뉴스판에서 뉴시스 주요뉴스를 볼 수 있습니다. 보러가기 뉴시스 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ 뉴시스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 우수전투병, 선임병 가혹행위로 수류탄 자살 시도 세살난 친딸 폭행해 숨지게 한 부부 긴급체포 김예원 "이태임 선배께 누를 끼쳐 죄송" ´비리 의혹´ 블래터 FIFA 회장 전격 사퇴 한인 천재소녀, 하버드·스탠포드에 저커버크까지 러브콜 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 뉴시스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 뉴시스 헤드라인 1억 넘는 외제차 굴리며 임대주택 거주…'가짜 서민' 수두룩 기사내용 요약 입주기준 초과한 고가차량 보유 세대 264가구 서민의 주거복지 일환으로 마련돼 있는 공공임대주택에 고가의 외제차 등 입주 기준가액 넘는 고가차량을 보유한 사례가 상당수 발견됐다. 공공임대주택에 대한 정 도심 호텔서 연인 감금·폭행하고 마약 혐의…20대男 체포 기사내용 요약 데이트 폭력 및 마약류관리법 위반 혐의 여자친구를 호텔에 감금한 채 폭행하고 마약까지 한 혐의를 받는 20대 남성이 경찰에 붙잡혔다. 4일 경찰에 따르면 서울 중부경찰서는 데이트 폭력(감금 등) 및 마 '팔'정부, 이스라엘에 서안지구의 '팔'인 살해 중지 요구 기사내용 요약 3일 라말라에서 '이'군이 2명 사살, 1명 상해 팔레스타인 대통령, 외교부 공식 항의, 국제사회 지원 촉구 [서울=뉴시스] 팔레스타인 자치정부는 3일 (현지시간) 이스라엘에게 서안지구에서 팔레스타인인 박홍근 "감사원 칼 끝, 끝내 文 전 대통령 겨냥…정치탄압" 기사내용 요약 "윤석열 정부 4개월만에 대한민국 난파 위기" 주장 "주가폭락에 안보리스크 더해지면 걷잡을 수 없어" "대통령 막말 덮으려 뻔뻔하게 국민·언론과 맞서" "느닷없이 文 서면조사 통보…명백한 정치탄압" [ "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 김수연 인턴 기자 = 고양시의 한 호프집에서 음식을 먹고 계산하지 않는 이른바 '먹튀' 사건이 발생해 경찰이 수사에 나섰다. 1일 보배드림에 '호프집 먹튀 인간들 수배합니다'라는 제목의 게시물이 올라왔다. 고양시 삼 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 기사내용 요약 만화영상진흥원 "카툰부문 경우 정치적 풍자 성향 있어" "수상작 선정은 진흥원이 아닌 외부 심사위원이 맡아" [부천=뉴시스] 정일형 기자 = 한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 이전 뉴스들 보기 3 다음 뉴스들 보기 뉴시스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 뉴시스 헤드라인 더보기 1억 넘는 외제차 굴리며 임대주택 거주…'가짜 서민' 수두룩 17분전 도심 호텔서 연인 감금·폭행하고 마약 혐의…20대男 체포 1시간전 '팔'정부, 이스라엘에 서안지구의 '팔'인 살해 중지 요구 55분전 박홍근 "감사원 칼 끝, 끝내 文 전 대통령 겨냥…정치탄압" 14분전 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 1시간전 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 1시간전 뉴시스 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 1시간전 2 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 1시간전 3 도심 호텔서 연인 감금·폭행하고 마약 혐의…20대男 체포 1시간전 4 전주환의 '두 얼굴'…신상공개 21명 중 18명이 신분증 사진 22시간전 5 최수연號 네이버, 창사 이래 최대 빅딜…북미 C2C 정조준(종합) 1시간전 1 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 1시간전 2 與, '감사원 文조사' 옹호…文 때려 보수층 결집 노려 13시간전 3 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 1시간전 4 전주환의 '두 얼굴'…신상공개 21명 중 18명이 신분증 사진 22시간전 5 '검·언 유착 허위글 SNS 유포 혐의' 최강욱, 오늘 1심 선고 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 자강도 무평리서 1발 발사…8개월만의 IRBM 발사로 도발 수위 끌어올려 이번엔 고각 아닌 정상각도 발사 가능성…ICBM·핵실험 이어지나 우려 북한이 4일 동쪽으로 중거리 탄도미사일(IRBM)을 발사했다. 올해 1월 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 벤츠·마세라티 타면서 임대주택 살았다…부적격 입주자 5년간 3만6000명 한국토지주택공사(LH)가 모집한 건설임대주택(공공·국민·영구임대, 장기전세, 행복주택) 입주자 가운데 입주 자격을 충족하지 않는 부적격 입주자가 최근 5년간 3만6000명을 넘어선 것으로 나타났다. 3일 국회 국토교 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” ‘학생들이 투표해서 학생회장을 뽑는데 왜 교장 선생님 도장이 찍힌 임명장을 줄까?’ 전남 강진군에 사는 중학교 3학년 정세희(15)양은 지난해 11월 학생회장에 당선된 뒤 교장 명의의 ‘임명장’을 받고 의문이 들었다 “왜 대답안해” 16살 딸 청소기로 때린 엄마…전치 8주 진단 사춘기 딸을 청소기로 때려 전치 8주의 상처를 입힌 친모가 징역형 집행유예를 선고받았다. 3일 춘천지법 형사2단독 박진영 부장판사는 아동복지법상 아동학대와 특수상해 혐의로 기소된 A씨(56)에게 징역 8개월에 집행유 “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 [속보] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” 윤석열 대통령은 감사원이 서해 공무원 피살 사건과 관련해 문재인 전 대통령에 대한 서면조사를 통보하고 문 전 대통령 측이 반발한 데 대해 “대통령이 뭐라고 언급하는 것은 적절치 않다”고 말을 아꼈다. 윤 대통령은 4 JP모간 "증시 바닥 근접...지금 사야할 2개 종목" JP모간의 최고 분석가이자 대표적인 황소론자로 통하는 마르코 콜라노비치는 주식시장이 바닥에 근접했다면서 반등을 전망했다. 콜라노비치는 2일(현지시간) 투자노트를 내고 “미국 연방준비제도(Fed·연준)의 매파적 입장이 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 기사내용 요약 만화영상진흥원 "카툰부문 경우 정치적 풍자 성향 있어" "수상작 선정은 진흥원이 아닌 외부 심사위원이 맡아" [부천=뉴한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 재생하기 재생시간02:08 英 트러스 굴욕적 유턴·시장은 반색...뉴욕증시 2.5% 급등 영국의 신임 트러스 총리가 결국 부자 감세 정책을 철회하면서 집권 한 달 만에 체면을 구겼지만, 금융 시장은 반색했습니다. 국채금리가 안정세를 보이면서 뉴욕 증시는 2.5% 안팎의 급등세로 4분기를 기분 좋게 시작했 BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 '월급 600만원' 싱글 직장인, 알고보니 '돈' 이렇게 벌었다 대기업에서 소프트웨어 개발 업무를 하는 35세 김모씨는 서울 사당동 85㎡ 아파트에서 혼자 살고 있다. 월급이 600만원을 웃돌지만 절반에 가까운 300만원은 적금과 펀드 등에 넣는다. 주말엔 자전거로 배달라이더 일 600억짜리 최신형 전투기 또 '산산조각'…러軍, 계속되는 굴욕 최근 우크라이나 동부 도네츠크 리만 지역에서 수백억원에 달하는 러시아 전투기가 박살 난 채 발견됐다. 2일(현지시간) 우크라이나 공군사령부는 동부 요충지인 리만에서 러시아 전투기 수호이(Su)-34 파편을 찾았다고 “2만원→4천원” 넷플릭스, 일주일 ‘몰아보기 싼 요금’ 부활 어때요? “넷플릭스에 새로 들어온 드라마 딱 1개만 ‘정주행’하고 싶은데…한달 요금 내자니 아깝고, 계정 ‘계모임’ 찾자니 귀찮네요. 좀 싸게 일주일만 보게 해주면 안되나요?” 넷플릭스, 웨이브, 티빙, 쿠팡플레이, 디즈니플 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 文 “감사원 무례한 짓” 與 “前대통령 성역 없어” 문재인 전 대통령이 서해 공무원 피살 사건과 관련한 감사원의 서면조사 요구에 “대단히 무례한 짓”이라고 했다. 더불어민주당도 “문 전 대통령을 정치보복의 올가미에 가두려는 윤석열 정권의 음모”라고 거세게 비판하며 감 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 홍준표, 4년 전 이준석 "'나는 왜 정치하나' 아침마다 5번 복창" 발언 두고 "조롱" 홍준표 대구시장이 최근 페이스북 글에서 타깃으로 정해 연일 비판을 가하고 있는 '개혁보수'에 대한 지적을 3일 저녁에도 이어나갔다. 전날인 2일 페이스북을 통해 "박근혜 전 대통령을 민주당과 합작해 끌어내린" "내부 윤 대통령 “北 무모한 도발…결연한 대응에 직면하게 될 것” 윤석열 대통령이 북한의 중거리 탄도 미사일 발사에 “이런 무모한 핵 도발은 우리 군을 비롯한 동맹국과 국제사회의 결연한 대응에 직면할 것”이라고 경고했습니다. 윤 대통령은 오늘(4일) 용산 대통령실 출근길 문답에서 정부 “실내 마스크 의무, 2023년 3월쯤 해제” “올겨울 트윈데믹 고비 남아있어” 요양시설 등 집단감염 절반 줄어 4일부터 입소자 대면면회 허용 신종 코로나바이러스 감염증(코로나19) 유행이 안정적으로 유지되면서 정부가 코로나19 출구전략에 속도를 내고 있지만, 文 “감사원 서면조사 ‘무례한 짓’”…김연주 “지금이 무슨 ‘왕조시대’도 아니고” 김연주 시사평론가, 文 측 향해…“서면 조사 요청에 감사원의 권한 밖이라 규정하는 건 납득하기 어려워” “‘무례한 자(, 과연 누구인가…진실 밝히는 데 협조하는 일에 너와 내가 따로 있을 수 있겠나” “왜 무고한 우 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 윤석열 대통령의 ‘비속어 파문’ 여파 탓에 정부와 여당 지지율이 동반 하락하는 가운데 국민의힘이 격랑의 한 주를 맞았다. ‘정진석 비상대책위원회’의 존폐와 이준석 전 대표 추가 징계가 한꺼번에 결정될 가능성이 적지 “담배 연기 가볍게 봤다가, 암보다 더 최악” ‘이것’ 먹으면 피해 막는다? “호흡기 손상으로 전세계 10초에 한명씩 사망, 예방책 있나?” 장(腸) 건강에 도움을 주는 것으로만 알려져있던 프로바이틱스 유산균이 담배 연기로 인해 유발되는 심각한 호흡기 손상(만성폐쇄성질환)을 예방할 수 있다는 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 코로나19 이후 주택 가격 폭등기 때 빚을 내 산 집이 2030세대에 ‘빚 폭탄’이라는 부메랑으로 돌아왔다. 특히 주택이 없는 동년배와 비교해 2년 반 사이 소득 대비 빚 부담 증가폭이 13배에 달했다. *주택보유는 “별 것 아냐”...평범한 건강 적신호 5 우리 몸에 이상이 생기면 다양한 모습으로 신체에 반응이 나타난다. 대표적으로 통증은 몸에 이상이 생겼다는 신호다. 몸에 어떤 변화가 생겼을 때는 건강에 빨간불이 켜진 것이 아닌지 주의를 기울여야 한다. 미국 ABC방 재생하기 재생시간01:37 중부 이어 남부 전선 돌파..."러시아 방어 능력 곧 상실" 우크라이나군이 중부에 이어 남부 지역의 요충지 여러 곳을 탈환했습니다. 러시아는 점령지 강제 병합에 성공했지만, 우크라이나군의 전방위 압박에 마주치게 됐습니다. 류재복 기자의 보도입니다. [기자] 우크라이나 국기를 이스라엘 유적지서 동로마시대 금화 무더기 발굴 각 무게 170g 정도의 금화 출토 7세기쯤 제작된 것으로 추정 이스라엘의 한 자연보호구역 내 유적지에서 동로마제국 시대의 금화가 무더기로 발굴돼 학계의 관심을 받고 있다. 3일(현지시간) 외신에 따르면 이스라엘 문 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 비트코인 암호, 양자컴퓨터에 깨질 수 있다? 에임리치 유료 동서식품 3세 김동욱, 장내서 '동서' 주식 사들이는 까닭은 thebellstock 유료 2022년 10월 3일(월) 정부일정 증시일정 주식아빠 고고스의 주식일정 유료 기업들이여 Z를 지워라 오늘도 출근중 당신은 무엇에 목말라 있습니까? 깊은코칭 기쁜인생 8. 나얼 '바람기억' : 이대 후문 그린하우스 생크림 곰보빵 뮤즈, 인월 유료 어렸을 때 찐 살은 정말 키로 갈까? 영양쌤과 영양톡톡 인생 2회차 둘째날 인생 2회차를 사는 방법에 대하여 유료 [하루 5분!! 미국 증시 따라가기] 22년 10월 4일 화요일 : 어제 나스닥 +2.3% 상승 / " 영국이랑 제조업 지수에서 만회한 주식 시장 분위기 " 배당상어의 돈에서 헤엄치기 유료 네가 알던 큐브가 아니야! 지금 과학 유료 [라오스 여행] 다른 곳엔 없는 Tip ! 루앙프라방 투어 알짜 정보 RK의 글스토랑 유료 혹시, '영끌'하셨나요? 스크류 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 뉴시스 예 아니오</t>
-  </si>
-  <si>
-    <t>메르스 종식 시점 "6월 내로는 어렵다"...제주도 관광객 "다 퍼뜨리겠다"..관광객 20% 수준으로 급감 본문 바로가기 이전 페이지 서울경제 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 서울경제 주요뉴스를 볼 수 있습니다. 보러가기 서울경제 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 메르스 종식 시점 "6월 내로는 어렵다"...제주도 관광객 "다 퍼뜨리겠다"..관광객 20% 수준으로 급감 입력2015.06.19. 오전 11:28 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 메르스 종식 시점 "6월 내로는 어렵다"...제주도 관광객 "다 퍼뜨리겠다"..관광객 20% 수준으로 급감 메르스 종식이 6월 내로 어렵다는 전망이 나온 가운데 제주 메르스 확진 관광객의 이동경로와 행적이 충격을 주고 있다.세계보건기구(WHO) 메르스 합동평가단 측은 18일 메르스 종식 시점이 6월 안으로는 어렵다는 관측을 내놨다.국회 메르스 대책특위는 이날 WHO 메르스 합동평가단에 참여한 한국 측 전문가들을 상대로 13일 발표된 합동평가단의 평가 결과 등에 대해 질의했다.이날 회의에 참여한 정해관 성균관대학교 예방의학과 교수는 이 자리에서 메르스 종식 시점과 관련해 "짧게 봤을 때는 6월 중에 종식되는 것은 힘들지 않겠나 본다"라며 "7월 중에 종식되면 대단히 성공적인 것이 될 것 같다"라고 밝혔다.이에 이종구 서울대 의과대학 교수는 "적어도 수주는 걸릴 것으로 평가단은 생각하며, 또 이는 지금처럼 산발적인 발병이 멈추고 난 뒤의 수주를 말하는 것이다"라고 밝혔다.한편 메르스 부부사망 소식과 함께 메르스를 퍼트리겠다고 난동 부리던 환자가 제주도 여행을 다녀온 것으로 밝혀져 충격을 주고 있다. 제주 관광객 메르스 확진 판정을 받은 환자가 가족 등 일행 12명과 함께 3박 4일로 제주도 여행을 다녀온 게 뒤늦게 밝혀져 충격을 주고 있다.보건당국은 19일 "확진 판정이 나온 지 나흘이 지난 어제서야 해당 환자가 일선 보건소로부터 제주 여행 사실을 보고 받았다"면서 "제주도에 함께 다녀온 사람들이 여행 도중, 이 환자가 기침을 했다는 사실을 해당 보건소에 알렸다"고 밝혔다. 삼성서울병원을 방문했다 감염된 이 환자는 지난 12일 강남세브란스병원에 격리돼 검사 결과를 기다리던 중 밖으로 뛰쳐 나와 소란을 피우기도 했다. 당시 이 환자는 강남세브란스병원에서 메르스 검사를 받던 중 "내가 메르스에 걸렸다면 다 퍼뜨리고 다니겠다"며 소란을 부렸으며, 검사 결과도 기다리지 않고 걸쇠를 부수고 진료소를 벗어나 택시를 타고 집에 돌아가기도 해 논란에 휩싸였다. 메르스 확진을 받은 141번 환자가 확진전 3박4일 일정으로 제주도를 여행한 사실이 알려져 파문을 일으키고 있는 가운데 원희룡 제주지사는 “청정 제주를 지키기 위해 최선을 다하겠다”고 밝혔다.이와 관련 원희룡 제주도지사는 19일 MBC라디오 ‘신동호의 시선집중’과의 인터뷰에서 141번 환자에 대해 “질병관리본부와 우리 도내에서 역학조사를 직접 한 팀들의 판단은 제주 체류 당시에 감염돼 있을 가능성은 그렇게 크진 않다고 보고 있다“면서 ”공항과 호텔내 발열감지기 상으로도 전혀 나타난 게 없었고 배우자 얘기로는 메르스를 의심할 수 있는 기침이라든가 발열은 없이 단지 몸이 피곤했다는 진술이다. 하지만 당시에 그 증세를 보였을 가능성까지 파악해서 밀접접촉자는 모두 격리조치를 하고 있다“고 설명했다.원지사는 이어 “그래도 혹시 파악이 미진한 동선상에 밀접접촉자가 있는지를 추가로 계속 파악하고 있으며 6월 8일 날 공항에서의 동선에서 일부 밀접 접촉자가 있을 수도 있다는 판단 때문에 최종 정리가 되는 대로 공개를 해서 혹시 있을지 모르는 그 밀접접촉자의 자진신고를 받을 계획이다”고 덧붙였다.원지사는 이번 메르스 사태로 제주도내 외국인 관광객이 급감했다며 “평소에 예를 들어서 한 5000명이 왔다 그러면 지금 한 1000명 수준으로 줄어 있는 상태고 더 심한 문제는 성수기인 7월, 8월에 예약이 많이 취소되고 신규예약이 이루어지고 있지 않기 때문에 사실 관광객의 감소가 매우 심각한 상황”이라고 안타까워 했다. 한국아이닷컴 이슈팀 reporter@hankooki.com[ⓒ 한국미디어네트워크, 무단 전재 및 재배포 금지] 한국아이닷컴 이슈팀 Copyright ⓒ 서울경제. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 면역력은 물론… 메르스 때문에 난리났다 김주하, 손석희에 얼마나 당했길래… 깜짝 연기연습 중 실종 여배우 3일만에… 경악 현대차 얼마나 안 팔리면 이런 일까지… '약속 깬' 박대통령에 돌직구 날린 오바마 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 서울경제 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 서울경제 헤드라인 [속보]이재명 "尹정부, 독재정권처럼 공포정치…정치탄압 노골화" 이재명 더불어민주당 대표가 4일 문재인 전 대통령을 향한 감사원의 조사와 관련해 “국민을 지키라는 총칼로 경쟁자를 짓밟았던 독재정권처럼 정의를 지키라는 사정권력으로 공포정치에 나선 것”이라고 비판했다. 이 대표는 4 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" '서해 공무원 피격 사건' 관련, 감사원의 서면 조사 요구에 대해 문재인 전 대통령이 "대단히 무례한 짓"이라고 불쾌감을 드러낸 것을 두고 권성동 국민의힘 의원이 "목함지뢰로 다리가 잘린 군인에게 '짜장면 먹고 싶냐 벤츠·페라리 타며 국민임대 거주…1년간 임대료도 안냈다 서민의 주거복지 일환으로 마련된 공공임대주택에 고가의 외제차 등 입주 기준가액을 넘는 고가 차량을 보유한 사례가 상당수 발견됐다. 4일 장철민 더불어민주당 의원이 한국토지주택공사(LH)와 주택관리공단에게 제출받은 ‘ "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림을 전시했다. 3일 한국만화영상진흥원에 따르면 이날 폐막한 제23회 부천국제만화축제 전시장에 '윤 허리케인 생방중 사라진 카메라맨…그가 달려간 곳은 초강력 허리케인 '이안'이 미국을 강타하면서 플로리다에서만 100여명에 가까운 사망자가 발생하는 등 막대한 피해가 발생한 가운데 생방송으로 허리케인 상황을 전하던 방송사 카메라맨이 카메라를 내려놓고 이재민을 돕는 모 이전 뉴스들 보기 3 다음 뉴스들 보기 서울경제가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 서울경제 헤드라인 더보기 [속보]이재명 "尹정부, 독재정권처럼 공포정치…정치탄압 노골화" 11분전 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" 59분전 벤츠·페라리 타며 국민임대 거주…1년간 임대료도 안냈다 47분전 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 21시간전 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 4시간전 허리케인 생방중 사라진 카메라맨…그가 달려간 곳은 39분전 서울경제 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 4시간전 2 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 21시간전 3 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 12시간전 4 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" 59분전 5 [속보] 尹 “北, 4000km 중장거리 미사일 발사…무모한 핵도발” 1시간전 1 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 4시간전 2 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 21시간전 3 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" 59분전 4 DJ 고향에 '윤석열 대교' 생기나…총 2800억·예타면제 추진 3시간전 5 [속보] 尹 “北, 4000km 중장거리 미사일 발사…무모한 핵도발” 1시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 네이버 일냈다…한국 인터넷 역사상 최대 규모 2조원 ‘빅딜’ 네이버가 승부수를 던졌다. 한국 인터넷 역사상 최대 규모의 빅딜에 나섰다. 네이버는 4일 북미 최대 패션 C2C 커뮤니티 포쉬마크 인수를 통해 커머스 시장 선점에 나선다고 밝혔다. 인수 금액은 2조3000억원에 달한 '월급 600만원' 싱글 직장인, 알고보니 '돈' 이렇게 벌었다 대기업에서 소프트웨어 개발 업무를 하는 35세 김모씨는 서울 사당동 85㎡ 아파트에서 혼자 살고 있다. 월급이 600만원을 웃돌지만 절반에 가까운 300만원은 적금과 펀드 등에 넣는다. 주말엔 자전거로 배달라이더 일 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 한동안 대여 공세 발언을 자제하던 이재명 더불어민주당 대표가 최근 윤석열 대통령을 향해 거친 언사를 쏟아내고 있다. 이 대표는 감사원이 ‘서해 공무원 피살 사건’과 관련해 문재인 전 대통령을 조사하자 윤석열 정부에 “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 尹은 기차, 조종석엔 김건희 여사…고등학생이 그린 그림은 최근 개최된 한국 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시됐다는 사실이 알려져 주목을 받고 있다. 3일 문화체육관광부, 경기도, 부천시가 건립한 한국만화영상진흥원에 따르면 이날 폐막한 제 25회 부천국제만화 "3명 중 1명은 아이폰"…'삼성 텃밭' 한국서 반전 쓴 애플 [배성수의 다다IT선] '삼성 텃밭'으로 불리던 국내 스마트폰 시장에서 지각변동이 일어나고 있다. 좀처럼 20%대 점유율을 벗어나지 못했던 애플이 올해 하반기 들어 한국 시장에서 입지를 크게 키우면서다. 4일 트래픽 분석사이트 스탯카운터에 재생하기 재생시간00:40 [속보] 윤대통령 "북 4,000km 중거리미사일 일본열도 위로 발사" - "북 무모한 핵도발, 우리군·동맹의 결연한 대응 직면" - "오전 9시부터 안보실장 주재 NSC 개최…저도 참석" - 감사원 文 서면조사에 "감사원은 독립운영 기관" - "대통령이 뭐라 언급하는 것은 적절치 않아 "귀신같은 꿀빨러" 이준석 팬도 혀 내두른 이재명 심야트윗 “잘 챙겨 보겠습니다. 망 사용료 법 문제점이 있어 보입니다.” 지난 2일 자정 직전에 이재명 더불어민주당 대표는 자신의 트위터에 이같은 글을 적었다. ‘망 사용료’ 지불을 의무화하는 법안의 문제점을 지적한 트위터 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 우크라 "러 남부 점령지 방어선 돌파…헤르손 곧 수복" 우크라이나군이 남부 요충지인 헤르손주의 러시아군 주요 방어선을 돌파했다고 발표하면서 러시아군이 계속 수세에 몰리고 있다. 우크라이나가 헤르손주 전역을 수복할 경우, 러시아는 주요 점령지들간 연계가 무너지면서 전황이 편의점서 1억3천만원 결제…도대체 뭘 샀길래 CU 10년 효자상품 분석 참이슬 소주 누적 3억개 팔려 삼각김밥은 '참치마요'가 1위 점포수·매출액 2배로 늘어 편의점서 1억 넘게 쓴 고객도 편의점 CU에서 지난 10년 동안 가장 많이 팔린 상품은 무엇일까. 편 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 재생하기 재생시간01:46 [단독] "상품권 싸게 팔아요"…인터넷서 20억대 신종 사기 요즘 인터넷 개인 판매업자에게 할인된 상품권 구매하시는 분들 계실텐데, 주의하셔야겠습니다. 상품권 가액보다 더 많은 현금으로 돌려준다고 하면서 20억 원 대의 돈을 가로챈 신종 사기범이 붙잡혔습니다. 윤정주 기자가 재생하기 재생시간02:29 나랏돈 43억 들어가는데…컵 받침으로 쓰인다는 '이것' 나랏돈을 지원받는 국책연구기관들은 해마다 책자와 함께 요즘은 잘 쓰지 않는 CD 형태로 보고서를 만듭니다. 이렇게 정부와 국회에 보낼 보고서를 만드는 데만 한 해에 40억 원 넘게 듭니다. 인터넷에 보고서가 다 공개 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 재생하기 재생시간01:14 김건희와 칼 든 검사 싣고…학생 공모전 금상 '윤석열차' 최근 한 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 화제가 되고 있다는 기사도 많이 봤습니다. 한국만화영상진흥원에 따르면 어제(3일) 폐막한 제23회 부천국제만화축제 전시장에 '윤석열차'라는 제목의 만화가 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 재생하기 재생시간02:20 우크라, 남부 전선도 돌파…핵 위기 커지나 우크라이나 소식입니다. 동부 요충지를 탈환한 우크라이나군이 남부에서도 주목할만한 전과를 올리고 있습니다. 그런데 우크라이나군이 영토 탈환에 성공할수록 러시아의 핵무기 사용 가능성이 커질 수 있다는 우려가 나옵니다. 이스라엘 유적지서 동로마시대 금화 무더기 발굴 각 무게 170g 정도의 금화 출토 7세기쯤 제작된 것으로 추정 이스라엘의 한 자연보호구역 내 유적지에서 동로마제국 시대의 금화가 무더기로 발굴돼 학계의 관심을 받고 있다. 3일(현지시간) 외신에 따르면 이스라엘 문 재생하기 재생시간02:08 英 트러스 굴욕적 유턴·시장은 반색...뉴욕증시 2.5% 급등 영국의 신임 트러스 총리가 결국 부자 감세 정책을 철회하면서 집권 한 달 만에 체면을 구겼지만, 금융 시장은 반색했습니다. 국채금리가 안정세를 보이면서 뉴욕 증시는 2.5% 안팎의 급등세로 4분기를 기분 좋게 시작했 BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 벤츠·마세라티 타면서 임대주택 살았다…부적격 입주자 5년간 3만6000명 한국토지주택공사(LH)가 모집한 건설임대주택(공공·국민·영구임대, 장기전세, 행복주택) 입주자 가운데 입주 자격을 충족하지 않는 부적격 입주자가 최근 5년간 3만6000명을 넘어선 것으로 나타났다. 3일 국회 국토교 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 진격의 우크라軍...“공격능력 잃은 러시아, 방어능력도 상실 직전” 우크라이나군이 동부에 이어 남부 헤르손주(州) 각지에서도 러시아에 빼앗긴 영토를 되찾아 가고 있다고 AP 통신과 로이터 통신 등 주요 외신이 3일(현지 시각) 보도했다. 외신 보도를 종합하면, 러시아 국방부 대변인 '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 코로나19 이후 주택 가격 폭등기 때 빚을 내 산 집이 2030세대에 ‘빚 폭탄’이라는 부메랑으로 돌아왔다. 특히 주택이 없는 동년배와 비교해 2년 반 사이 소득 대비 빚 부담 증가폭이 13배에 달했다. *주택보유는 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 주식하면서 이것만큼은 절대 하지 말자. 주식사주는누나 유료 문 전 대통령을 정면 겨냥했어요 업클 1기 신도시 재건축 신속 추진 정책 토론회 개최! 분당 재건축 언제 쯤이면 되나? 홈즈부동산 이슈픽 (인생영화)라라랜드'LA LA LAND'와 아스터 꽃(추천, 영화) 이헨젤, 나의 식물 선생님 유료 웃고 울며 즐기는 한국 최초 주크박스 뮤지컬 영화 영화가 필요한 당신에게 유료 6000억 밸류 도전하는 제이오, 올해 4번째 빅딜 될까 thebellstock 유료 2022년 9월 30일 | 삼성출판사 2~3개월 분할 매수 이선생 주식PT 유료 남궁민, 배우의 브랜드 품격, &lt;천원짜리 변호사&gt; 리뷰 영화선우 SSG닷컴이 진짜 이커머스 ‘삼강 구도’를 만들기 위해 필요한 조건 커넥터스 유료 온라인판매 시작전 이해해야 할 10가지 체크포인트, 나는 준비된 판매자인가? 첫단추마케팅 05. 코!(인족)집게 (2022. 09. 29) (지는별, 액시 인피니티에게도 봄은 올까?, 또 다시 화두에 오른 권도형 진실은 무엇일까?) 디지털 토큰 교육 연구원 유료 지식사업가의 글쓰기에 스토리를 우겨넣는 방법(반드시 그래야만 한다..) 신PD 지식사업연구소 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 서울경제 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도 관광산업도 메르스 '직격탄'…관광객 예약 취소 잇따라 본문 바로가기 이전 페이지 MBC 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 MBC 주요뉴스를 볼 수 있습니다. 보러가기 MBC 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 세계 생활 저녁방송 생중계 랭킹 제주도 관광산업도 메르스 '직격탄'…관광객 예약 취소 잇따라 입력2015.06.06. 오후 8:41 수정2015.06.06. 오후 9:03 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [뉴스데스크]◀ 앵커 ▶방금 부산 크루즈선 얘기도 전해드렸습니다마는 메르스 때문에 관광 업계에도 빨간불이 켜졌습니다.특히 관광 비중이 큰 제주의 경우에는 직격 탄을 맞는 모습입니다.이소현 기자입니다.◀ 리포트 ▶관광객들로 발 디딜 틈 없이 북적거렸던 성읍 민속마을.주말인데도 불구하고 한산한 모습을 보이고 있습니다. [장춘자 / 제주도 문화해설사]"10일에 예약이 됐는데 취소가 들어왔고요. 지금 주위에 보시면 지금 이 시간대에는 중국인 관광객들도 많았는데 지금은 한산한 편이에요. 오늘은"제주에서 유일하게 낙타 트레킹을 즐길 수 있는 관광업체는 영업이 중단됐습니다.메르스가 발생하지 않은 호주에서 지난해 8월 낙타 24마리를 들여왔지만 중동발 메르스 공포 때문에 손님이 끊긴 것입니다. 이곳의 낙타는 농림축산검역본부의 검사에서 메르스에 감염되지 않은 것으로 확인됐습니다.[양정환 / 낙타 체험장 전무이사]"낙타가 들어올 수 있는 나라가 호주나 캐나다 정도밖에 없거든요. 그렇게 해서 왔는데, 이게 중동 걸로 자꾸 오인을 해서.."오늘 제주를 찾은 관광객은 4만 명으로 지난주 토요일보다 17%나 줄었습니다. 이번 주 들어 제주 관광을 취소한 예약자는 7천 900여 명. 메르스 확산이 장기화 될 경우 여름철 관광 성수기를 앞두고 지역 관광 업계의 타격이 우려되고 있습니다.MBC뉴스 이소현입니다.(이소현)[저작권자(c) MBC (www.imnews.com) 무단복제-재배포 금지] 이소현 Copyright ⓒ MBC. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 생활 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. [속보] 메르 14명 추가, 총 64명…사망자 1명 포함 메르 환자 '60대 여성' 첫 퇴원…완치자 계속 추가될 듯 [집중취재] '도로 위 흉기' 자전거…이용 늘었지만 안전은 거꾸로 '적을 섬멸하라' 육군 대규모 사격 훈련…다연장포 화력 시범 카라반 캠핑, 안전에 '구멍'…전기 안전점검 없이 그대로 방치 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 MBC 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! MBC 헤드라인 재생하기 재생시간01:49 북한, 또 탄도미사일‥"태평양 낙하한 듯" ◀ 앵커 ▶ 북한이 사흘 만에 다시 탄도미사일을 쏘아 올렸습니다. 지난달 25일 이후 열흘 사이 벌써 5번째인데 이번에는 일본 상공을 넘어서 태평양으로 향하는 중거리 탄도미사일인 것으로 분석됐습니다. 엄지인 기자입니 윤 대통령 "감사원 감사에 언급은 부적절‥성역없는 진상규명은 일반원칙" 윤석열 대통령은 감사원이 서해 공무원 피살 사건과 관련해 문재인 전 대통령에 대한 서면조사를 통보하고, 문 전 대통령 측이 반발하는 데 대해 "대통령이 뭐라고 언급하는 것은 적절하지 않은 것 같다"고 밝혔습니다. 윤 재생하기 재생시간00:29 심야택시 호출료 인상‥오늘 국토부 발표 정부와 여당이 밤 시간 택시를 잡기 힘든 문제를 해결하기 위해 현재 최고 3천 원인 심야 호출료를 올리기로 했습니다. 또 택시기사들이 원한다면 수익이 높은 밤 시간에만 일할 수 있도록 하고 택시 의무휴업제도 해제할 재생하기 재생시간03:39 발로 차고 던지고‥어느 회장님의 '갑질' ◀ 앵커 ▶ 한 중견기업 회장이 직원들에게 폭언과 폭력을 서슴지 않고, 비서에게 가족 일은 물론 내연녀 심부름까지 수시로 시킨다는 제보가 들어왔습니다. 구나연 기자입니다. ◀ 리포트 ▶ 계열사 6곳과 주유소 14곳, 재생하기 재생시간00:40 [PD수첩 예고] 엄마의 24년, 거리에서 청소된 사람들 MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000 ▷ 이메일 mbcjebo@mbc.co.kr ▷ 카카오톡 @mbc제보 재생하기 재생시간00:53 [와글와글] 푸틴 동원령에 반발‥러시아 래퍼 극단 선택 '워키'라는 예명으로 활동하는 이 러시아의 래퍼는 최근 정부의 동원령에 반발해 극단적인 선택했습니다. 영국 데일리 메일 등의 보도인데요. 지인이 공개한 그의 휴대전화 메모장에 "무기를 들고 동족을 죽이고 싶지 않다" 이전 뉴스들 보기 3 다음 뉴스들 보기 MBC가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 MBC 헤드라인 더보기 북한, 또 탄도미사일‥"태평양 낙하한 듯" 40분전 재생하기 윤 대통령 "감사원 감사에 언급은 부적절‥성역없는 진상규명은 일반원칙" 42분전 심야택시 호출료 인상‥오늘 국토부 발표 3시간전 재생하기 발로 차고 던지고‥어느 회장님의 '갑질' 3시간전 재생하기 [PD수첩 예고] 엄마의 24년, 거리에서 청소된 사람들 43분전 재생하기 [와글와글] 푸틴 동원령에 반발‥러시아 래퍼 극단 선택 3시간전 재생하기 MBC 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 발로 차고 던지고‥어느 회장님의 '갑질' 3시간전 재생하기 2 [와글와글] 푸틴 동원령에 반발‥러시아 래퍼 극단 선택 3시간전 재생하기 3 북한, 중거리 탄도미사일 1발 발사‥"고도 970km로 4500km 비행" 2시간전 4 "대단히 무례한 짓"‥민주 "직권남용 고발" 4시간전 재생하기 5 심야택시 호출료 인상‥오늘 국토부 발표 3시간전 재생하기 1 "대단히 무례한 짓"‥민주 "직권남용 고발" 4시간전 재생하기 2 발로 차고 던지고‥어느 회장님의 '갑질' 3시간전 재생하기 3 북한, 중거리 탄도미사일 1발 발사‥"고도 970km로 4500km 비행" 2시간전 4 연쇄 이전에 또‥사이버사령부만 '111억' 3시간전 재생하기 5 '김건희 증인' 줄줄이 해외출장‥야당 반발 3시간전 재생하기 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 조종석엔 김건희 여사…고교생이 그린 ‘윤석열차’ 문화체육관광부·경기도·부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림을 전시했던 사실이 뒤늦게 알려졌다. 4일 한국만화영상진흥원에 따르면 전날 폐막한 제23회 부천국제만 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 재생하기 재생시간01:01 美태평양함대, 일본해 아닌 '동해·한반도 동쪽수역' 명기 미 해군이 최근 활동을 전하는 뉴스에서 동해를 일본해 대신 동해 또는 한반도 동쪽 수역이라고 잇따라 명기한 것으로 확인됐습니다. 미 해군 태평양함대 홈페이지를 보면 지난달 28일 기사에서 한미일 3국 연합 대잠훈련 재생하기 재생시간02:29 나랏돈 43억 들어가는데…컵 받침으로 쓰인다는 '이것' 나랏돈을 지원받는 국책연구기관들은 해마다 책자와 함께 요즘은 잘 쓰지 않는 CD 형태로 보고서를 만듭니다. 이렇게 정부와 국회에 보낼 보고서를 만드는 데만 한 해에 40억 원 넘게 듭니다. 인터넷에 보고서가 다 공개 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 자강도 무평리서 1발 발사…8개월만의 IRBM 발사로 도발 수위 끌어올려 이번엔 고각 아닌 정상각도 발사 가능성…ICBM·핵실험 이어지나 우려 북한이 4일 동쪽으로 중거리 탄도미사일(IRBM)을 발사했다. 올해 1월 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 “왜 대답안해” 16살 딸 청소기로 때린 엄마…전치 8주 진단 사춘기 딸을 청소기로 때려 전치 8주의 상처를 입힌 친모가 징역형 집행유예를 선고받았다. 3일 춘천지법 형사2단독 박진영 부장판사는 아동복지법상 아동학대와 특수상해 혐의로 기소된 A씨(56)에게 징역 8개월에 집행유 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 “2만원→4천원” 넷플릭스, 일주일 ‘몰아보기 싼 요금’ 부활 어때요? “넷플릭스에 새로 들어온 드라마 딱 1개만 ‘정주행’하고 싶은데…한달 요금 내자니 아깝고, 계정 ‘계모임’ 찾자니 귀찮네요. 좀 싸게 일주일만 보게 해주면 안되나요?” 넷플릭스, 웨이브, 티빙, 쿠팡플레이, 디즈니플 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 휴대전화를 충전하던 중 보조 배터리가 갑자기 폭발해 소비자가 심한 화상을 입었지만, 배터리 제조업체의 사후 대처에 논란이 일고 있다. 연합뉴스 보도에 따르면 최근 경기도 이천시에 거주 중인 30대 A씨와 아내는 최근 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” ‘학생들이 투표해서 학생회장을 뽑는데 왜 교장 선생님 도장이 찍힌 임명장을 줄까?’ 전남 강진군에 사는 중학교 3학년 정세희(15)양은 지난해 11월 학생회장에 당선된 뒤 교장 명의의 ‘임명장’을 받고 의문이 들었다 재생하기 재생시간01:46 [단독] "상품권 싸게 팔아요"…인터넷서 20억대 신종 사기 요즘 인터넷 개인 판매업자에게 할인된 상품권 구매하시는 분들 계실텐데, 주의하셔야겠습니다. 상품권 가액보다 더 많은 현금으로 돌려준다고 하면서 20억 원 대의 돈을 가로챈 신종 사기범이 붙잡혔습니다. 윤정주 기자가 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 쌍방울그룹이 북한 광물자원 개발의 대가로 북측에 1천만달러 상당 내의를 제공하려 한 정황이 국가정보원 내부 문건으로 파악됐다. 쌍방울의 대북사업 관련 뇌물 혐의로 이화영 전 부지사가 구속된 가운데 북측과 쌍방울 사이 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 “사령관을 발가벗겨서...” 리만서 퇴각한 러, 내부서도 군부 조롱 러시아군이 우크라이나 동부 핵심 요충지인 리만에서 패퇴한 가운데, 러시아 국내에서도 이를 놓고 비난 여론이 일고 있다고 외신들이 2일(현지 시각) 보도했다. 미국 워싱턴포스트(WP)는 러시아군이 리만에서 퇴각해 새로 홍준표, 4년 전 이준석 "'나는 왜 정치하나' 아침마다 5번 복창" 발언 두고 "조롱" 홍준표 대구시장이 최근 페이스북 글에서 타깃으로 정해 연일 비판을 가하고 있는 '개혁보수'에 대한 지적을 3일 저녁에도 이어나갔다. 전날인 2일 페이스북을 통해 "박근혜 전 대통령을 민주당과 합작해 끌어내린" "내부 부기 빼려 ‘이것’하단… 콩팥 망가진다 수시로 몸이 붓는 사람들이 있다. 부었다가 가라앉으면 괜찮은데, 부종이 심해지며 통증이 생길 때도 있다. 겉보기에 살찐 것 같아 거슬리기도 한다. 체액이 쌓여 몸이 부었으니, 소변을 자주 보면 부기가 빠질 거로 생각 승승장구하던 아시아나도 "거덜 날 판"…항공사들 '초비상' 아시아나항공과 저가항공사(LCC)들이 올 3분기 말 기준 ‘완전 자본잠식’에 빠질 위기에 처했다. 항공기 구매 또는 리스 과정에서 발생한 막대한 달러 빚 때문이다. 최근 원·달러 환율이 급등해 달러 부채를 원화로 환 '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 코로나19 이후 주택 가격 폭등기 때 빚을 내 산 집이 2030세대에 ‘빚 폭탄’이라는 부메랑으로 돌아왔다. 특히 주택이 없는 동년배와 비교해 2년 반 사이 소득 대비 빚 부담 증가폭이 13배에 달했다. *주택보유는 하늘로 떠난 비운의 여성 빨치산 비전향 장기수 박정덕 선생이 2일 오후 세상을 떠났다. 향년 92세. 선생은 경기도 파주의 한 요양원에서 지내고 있었다. 선생의 고향은 전남 곡성군 죽곡면 당동리다. 1남 3녀 중 막내로 태어났다. 집안 살림은 넉넉 "월급 줄 돈 없다"…기증 인체조직 헐값에 판 공공기관 인체조직을 기증받아 이식재를 생산하는 보건복지부 산하 공공기관이 직원들에게 줄 월급이 없다는 이유로 기증받은 인체조직을 '할인 판매'한 사실이 드러났습니다. 어제(3일) 국회 보건복지위원회 소속 더불어민주당 강선우 벤츠·마세라티 타면서 임대주택 살았다…부적격 입주자 5년간 3만6000명 한국토지주택공사(LH)가 모집한 건설임대주택(공공·국민·영구임대, 장기전세, 행복주택) 입주자 가운데 입주 자격을 충족하지 않는 부적격 입주자가 최근 5년간 3만6000명을 넘어선 것으로 나타났다. 3일 국회 국토교 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 재생하기 재생시간01:37 중부 이어 남부 전선 돌파..."러시아 방어 능력 곧 상실" 우크라이나군이 중부에 이어 남부 지역의 요충지 여러 곳을 탈환했습니다. 러시아는 점령지 강제 병합에 성공했지만, 우크라이나군의 전방위 압박에 마주치게 됐습니다. 류재복 기자의 보도입니다. [기자] 우크라이나 국기를 재생하기 재생시간03:39 발로 차고 던지고‥어느 회장님의 '갑질' ◀ 앵커 ▶ 한 중견기업 회장이 직원들에게 폭언과 폭력을 서슴지 않고, 비서에게 가족 일은 물론 내연녀 심부름까지 수시로 시킨다는 제보가 들어왔습니다. 구나연 기자입니다. ◀ 리포트 ▶ 계열사 6곳과 주유소 14곳, 편의점서 1억3천만원 결제…도대체 뭘 샀길래 CU 10년 효자상품 분석 참이슬 소주 누적 3억개 팔려 삼각김밥은 '참치마요'가 1위 점포수·매출액 2배로 늘어 편의점서 1억 넘게 쓴 고객도 편의점 CU에서 지난 10년 동안 가장 많이 팔린 상품은 무엇일까. 편 '월급 600만원' 싱글 직장인, 알고보니 '돈' 이렇게 벌었다 대기업에서 소프트웨어 개발 업무를 하는 35세 김모씨는 서울 사당동 85㎡ 아파트에서 혼자 살고 있다. 월급이 600만원을 웃돌지만 절반에 가까운 300만원은 적금과 펀드 등에 넣는다. 주말엔 자전거로 배달라이더 일 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 비트코인 암호, 양자컴퓨터에 깨질 수 있다? 에임리치 유료 동서식품 3세 김동욱, 장내서 '동서' 주식 사들이는 까닭은 thebellstock 유료 2022년 10월 3일(월) 정부일정 증시일정 주식아빠 고고스의 주식일정 유료 기업들이여 Z를 지워라 오늘도 출근중 당신은 무엇에 목말라 있습니까? 깊은코칭 기쁜인생 8. 나얼 '바람기억' : 이대 후문 그린하우스 생크림 곰보빵 뮤즈, 인월 유료 어렸을 때 찐 살은 정말 키로 갈까? 영양쌤과 영양톡톡 인생 2회차 둘째날 인생 2회차를 사는 방법에 대하여 유료 [하루 5분!! 미국 증시 따라가기] 22년 10월 4일 화요일 : 어제 나스닥 +2.3% 상승 / " 영국이랑 제조업 지수에서 만회한 주식 시장 분위기 " 배당상어의 돈에서 헤엄치기 유료 네가 알던 큐브가 아니야! 지금 과학 유료 [라오스 여행] 다른 곳엔 없는 Tip ! 루앙프라방 투어 알짜 정보 RK의 글스토랑 유료 혹시, '영끌'하셨나요? 스크류 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ MBC 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도 관광업계 ‘메르스 불똥’ 본문 바로가기 이전 페이지 한겨레 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 한겨레 주요뉴스를 볼 수 있습니다. 보러가기 한겨레 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 생중계 랭킹 제주도 관광업계 ‘메르스 불똥’ 입력2015.06.05. 오전 12:15 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [한겨레] 중국 관광객·수학여행단 예약취소숙박업소·전세버스업체 비상걸려 메르스 공포가 전국으로 번지면서 제주행을 계획했던 중국인 관광객과 수학여행단 등이 일정을 취소하면서 제주도 내 관광업계도 타격을 받고 있다.제주지역에서 운영하는 중국 전문 여행사인 ㅇ여행사는 3일과 4일 이틀 동안 중국 상하이와 베이징, 톈진에서 올 예정이던 중국인 400여명이 관광을 취소했다고 밝혔다. 또다른 대형 여행사는 하루 평균 400~500여명이 취소하는 것으로 나타났다.이처럼 중국인들의 제주 관광이 줄줄이 취소되면서 숙박업소와 전세버스업체들도 비상이 걸렸다. 제주시 연동 ㅇ호텔의 경우 다음주 예약됐던 객실 40여개가 3일 취소됐다.중국 전문 여행사 관계자는 “메르스에 대한 걱정 때문에 중국 현지에서 환불을 받아가는 사례가 나타나고 있다. 앞으로가 더 문제다. 10~14일 제주에 올 계획이던 단체관광객들도 일정을 취소할 것 같다”고 말했다.다른 지방의 수학여행단이나 체험학습단의 제주 일정도 잇따라 취소되는 것으로 알려졌다. 강원도 지역의 한 고교 수학여행단 190여명이 이달 제주도에 오기로 했다가 다른 지방으로의 수학여행과 체험학습을 전면 금지하라는 지침에 따라 최근 여행을 취소했다.이와 함께 제주도 내 초등학교 2곳과 고등학교 4곳 등 6곳도 이달 초 서울과 경기로 수학여행을 가기로 계획했다가 무기한 연기했다. 제주도관광협회 관계자는 “아직까지 큰 타격은 없는 것으로 보이지만 중국인 관광객들을 중심으로 예약을 취소하는 사례가 나타나고 있다. 정확한 실태를 파악하기 위해 여행사별로 최근 예약 취소 현황을 조사하고 있다”고 말했다.허호준 기자 공식 SNS [페이스북] [트위터] | [인기화보] [인기만화] [핫이슈] Copyrights ⓒ 한겨레신문사, 무단전재 및 재배포 금지 &lt;한겨레는 한국온라인신문협회(www.kona.or.kr)의 디지털뉴스이용규칙에 따른 저작권을 행사합니다.&gt; 허호준 Copyright ⓒ 한겨레. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 황교안 후보자님 뭐하세요?…메르스 탓에 잊혀진 것들 '메르스 환자' 숨진 지역 가보니… 사스-메르스 너무 다른 '방역 대처' [포토] 미군 카메라에 찍힌 1948년 한국 [화보] 이 아이가?…스타들의 어린 시절 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 한겨레 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 한겨레 헤드라인 [속보] 북, 중거리탄도미사일 발사…“일본 통과해 태평양 낙하” 북한이 4일 일본 상공을 통과하는 중거리 탄도미사일 1발을 쐈다고 합동참모본부(합참)가 밝혔다. 북한은 최근 열흘 사이에만 다섯 차례 미사일을 쏘았다. 합참은 이날 “오전 7시23분께 자강도 무평리 일대에서 발사돼 우크라이나, 남부 헤르손 전선 돌파…러시아군 고립 위기 우크라이나군이 동부 도네츠크주의 교통 요충지 리만을 되찾은 데 이어 남부 헤르손주의 전선도 돌파하는 큰 전과를 올렸다. 러시아가 지난달 30일 우크라이나 점령지 4곳을 자국 영토로 병합한다고 선언한 이후 잇따라 패배 [단독] 온실가스 뿜어댄 기업들, 그 덕에 되레 5600억 벌었다 포스코 557만톤(t), 삼성전자 99만톤 등 국내 산업부문 450개 안팎의 기업이 온실가스 배출권거래제 1·2차 계획기간(2015~2020년) 동안 정부에서 할당받은 배출권(배출 가능한 온실가스양) 중 2620만톤 국민 73% “정부 물가안정 대책 효과 체감 못 해” 할당관세 적용, 농축산물 할인쿠폰 사업, 수매비축 정책…. 정부가 실시하는 다양한 물가안정 대책에도 불구하고, 국민 10명 중 7명은 실질적인 정책효과를 체감하지 못하는 것으로 나타났다. 4일 무소속 윤미향 의원실( [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 토성 얼음위성에서 생명체의 ‘6대 원소’ 모두 찾았다 과학자들은 태양계에서 지구 말고도 생명체가 존재했거나 존재하고 있을 가능성이 있는 것으로 10여곳을 꼽는다. 화성과 금성, 토성의 위성 타이탄과 엔셀라두스, 트리탄과 목성의 위성 유로파와 이오, 칼리스토, 가니메데, 이전 뉴스들 보기 3 다음 뉴스들 보기 한겨레가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 한겨레 헤드라인 더보기 [속보] 북, 중거리탄도미사일 발사…“일본 통과해 태평양 낙하” 2시간전 우크라이나, 남부 헤르손 전선 돌파…러시아군 고립 위기 1시간전 [단독] 온실가스 뿜어댄 기업들, 그 덕에 되레 5600억 벌었다 2시간전 국민 73% “정부 물가안정 대책 효과 체감 못 해” 12분전 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 5시간전 토성 얼음위성에서 생명체의 ‘6대 원소’ 모두 찾았다 8분전 한겨레 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 5시간전 2 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” 5시간전 3 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 3시간전 4 [속보] 북, 중거리탄도미사일 발사…“일본 통과해 태평양 낙하” 2시간전 5 주춤하는 중국 반도체 인해전술…미국 포위망 뚫을까 3시간전 1 “대통령 지지층마저 등 돌려”…여론은 “자막 조작”에 싸늘 18시간전 2 [속보] 북, 중거리탄도미사일 발사…“일본 통과해 태평양 낙하” 2시간전 3 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” 5시간전 4 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 3시간전 5 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 5시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 자강도 무평리서 1발 발사…8개월만의 IRBM 발사로 도발 수위 끌어올려 이번엔 고각 아닌 정상각도 발사 가능성…ICBM·핵실험 이어지나 우려 북한이 4일 동쪽으로 중거리 탄도미사일(IRBM)을 발사했다. 올해 1월 이스라엘 유적지서 동로마시대 금화 무더기 발굴 각 무게 170g 정도의 금화 출토 7세기쯤 제작된 것으로 추정 이스라엘의 한 자연보호구역 내 유적지에서 동로마제국 시대의 금화가 무더기로 발굴돼 학계의 관심을 받고 있다. 3일(현지시간) 외신에 따르면 이스라엘 문 재생하기 재생시간01:46 [단독] "상품권 싸게 팔아요"…인터넷서 20억대 신종 사기 요즘 인터넷 개인 판매업자에게 할인된 상품권 구매하시는 분들 계실텐데, 주의하셔야겠습니다. 상품권 가액보다 더 많은 현금으로 돌려준다고 하면서 20억 원 대의 돈을 가로챈 신종 사기범이 붙잡혔습니다. 윤정주 기자가 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 한동안 대여 공세 발언을 자제하던 이재명 더불어민주당 대표가 최근 윤석열 대통령을 향해 거친 언사를 쏟아내고 있다. 이 대표는 감사원이 ‘서해 공무원 피살 사건’과 관련해 문재인 전 대통령을 조사하자 윤석열 정부에 재생하기 재생시간02:08 英 트러스 굴욕적 유턴·시장은 반색...뉴욕증시 2.5% 급등 영국의 신임 트러스 총리가 결국 부자 감세 정책을 철회하면서 집권 한 달 만에 체면을 구겼지만, 금융 시장은 반색했습니다. 국채금리가 안정세를 보이면서 뉴욕 증시는 2.5% 안팎의 급등세로 4분기를 기분 좋게 시작했 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 文 “감사원 서면조사 ‘무례한 짓’”…김연주 “지금이 무슨 ‘왕조시대’도 아니고” 김연주 시사평론가, 文 측 향해…“서면 조사 요청에 감사원의 권한 밖이라 규정하는 건 납득하기 어려워” “‘무례한 자(, 과연 누구인가…진실 밝히는 데 협조하는 일에 너와 내가 따로 있을 수 있겠나” “왜 무고한 우 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림을 전시했다. 3일 한국만화영상진흥원에 따르면 이날 폐막한 제23회 부천국제만화축제 전시장에 '윤 재생하기 재생시간02:29 나랏돈 43억 들어가는데…컵 받침으로 쓰인다는 '이것' 나랏돈을 지원받는 국책연구기관들은 해마다 책자와 함께 요즘은 잘 쓰지 않는 CD 형태로 보고서를 만듭니다. 이렇게 정부와 국회에 보낼 보고서를 만드는 데만 한 해에 40억 원 넘게 듭니다. 인터넷에 보고서가 다 공개 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 "3명 중 1명은 아이폰"…'삼성 텃밭' 한국서 반전 쓴 애플 [배성수의 다다IT선] '삼성 텃밭'으로 불리던 국내 스마트폰 시장에서 지각변동이 일어나고 있다. 좀처럼 20%대 점유율을 벗어나지 못했던 애플이 올해 하반기 들어 한국 시장에서 입지를 크게 키우면서다. 4일 트래픽 분석사이트 스탯카운터에 퇴임 뒤에도 '내로남불'?…박근혜 털었던 문재인, 자신 향한 서면조사엔 "무례한 짓" 감사원이 '서해 공무원 피살 사건'과 관련해 문재인 전 대통령을 서면조사하려 한 것으로 알려졌다. 문 전 대통령은 질의서 수령을 거부함과 동시에 불쾌감을 피력했으며, 더불어민주당도 "정치보복"이라며 일제히 반발하고 "월급 줄 돈 없다"…기증 인체조직 헐값에 판 공공기관 인체조직을 기증받아 이식재를 생산하는 보건복지부 산하 공공기관이 직원들에게 줄 월급이 없다는 이유로 기증받은 인체조직을 '할인 판매'한 사실이 드러났습니다. 어제(3일) 국회 보건복지위원회 소속 더불어민주당 강선우 文 “감사원 무례한 짓” 與 “前대통령 성역 없어” 문재인 전 대통령이 서해 공무원 피살 사건과 관련한 감사원의 서면조사 요구에 “대단히 무례한 짓”이라고 했다. 더불어민주당도 “문 전 대통령을 정치보복의 올가미에 가두려는 윤석열 정권의 음모”라고 거세게 비판하며 감 이언주, 삭발사진 올리며 쓴소리 “‘공정과 상식’ 외치며 文정권 비판해 왔지만…” 이언주 전 의원, 현재 정부여당의 논란 및 갈등 상황 나열하며 비판 수위 끌어올려 “수사 등 사법적 정의를 실현하는 과정이나 잣대가 권력 유무에 따라 달라져” “주권자인 국민, 선거만 끝나면 수임자에게 주권 빼앗기고 승승장구하던 아시아나도 "거덜 날 판"…항공사들 '초비상' 아시아나항공과 저가항공사(LCC)들이 올 3분기 말 기준 ‘완전 자본잠식’에 빠질 위기에 처했다. 항공기 구매 또는 리스 과정에서 발생한 막대한 달러 빚 때문이다. 최근 원·달러 환율이 급등해 달러 부채를 원화로 환 네이버 일냈다…한국 인터넷 역사상 최대 규모 2조원 ‘빅딜’ 네이버가 승부수를 던졌다. 한국 인터넷 역사상 최대 규모의 빅딜에 나섰다. 네이버는 4일 북미 최대 패션 C2C 커뮤니티 포쉬마크 인수를 통해 커머스 시장 선점에 나선다고 밝혔다. 인수 금액은 2조3000억원에 달한 재생하기 재생시간01:01 美태평양함대, 일본해 아닌 '동해·한반도 동쪽수역' 명기 미 해군이 최근 활동을 전하는 뉴스에서 동해를 일본해 대신 동해 또는 한반도 동쪽 수역이라고 잇따라 명기한 것으로 확인됐습니다. 미 해군 태평양함대 홈페이지를 보면 지난달 28일 기사에서 한미일 3국 연합 대잠훈련 [포착] 러軍 퇴각한 리만서 500억대 Su-34 전투기 ‘공중분해’ 굴욕 러시아군이 퇴각한 우크라이나 동부 요충지 리만에서 500억 원대 러시아 전투기가 산산조각이 난 채 발견됐다. 2일(이하 현지시간) 우크라이나 공군사령부는 동부 도네츠크 리만에서 러시아 신형 전술 폭격기 수호이(Su) 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 재생하기 재생시간03:39 발로 차고 던지고‥어느 회장님의 '갑질' ◀ 앵커 ▶ 한 중견기업 회장이 직원들에게 폭언과 폭력을 서슴지 않고, 비서에게 가족 일은 물론 내연녀 심부름까지 수시로 시킨다는 제보가 들어왔습니다. 구나연 기자입니다. ◀ 리포트 ▶ 계열사 6곳과 주유소 14곳, 시속 137㎞ 좌회전, 뒷좌석 20대 사망…운전자는 만취였다 만취 상태에서 시속 137㎞로 과속 운전하다 동승자를 숨지게 한 30대 남성이 징역형을 선고받았다. 광주지방법원 형사8단독은 교통사고처리 특례법 위반(치사), 도로교통법 위반(음주운전) 혐의로 기소된 A씨(31)에게 “별 것 아냐”...평범한 건강 적신호 5 우리 몸에 이상이 생기면 다양한 모습으로 신체에 반응이 나타난다. 대표적으로 통증은 몸에 이상이 생겼다는 신호다. 몸에 어떤 변화가 생겼을 때는 건강에 빨간불이 켜진 것이 아닌지 주의를 기울여야 한다. 미국 ABC방 “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 서울시가 2032년 하계올림픽의 서울-평양 공동개최를 위해 국제올림픽위원회(IOC)에 낸 제안서에서 ‘북한 인프라 구축’에 20조원이 넘는 예산을 책정한 것으로 알려졌다. 3일 국회 문화체육관광위원회 소속 국민의힘 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] ‘신라 최고의 명품 귀고리가 출토된 고분은 부부총이 아니었다.’ 9월 29~30일 국립중앙박물관 소강당에서 ‘국립박물관 소장 일제강점기 자료의 공개와 활용’ 학술대회가 열렸다. 우선 일제강점기 조선총독부 박물관이 한 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 비트코인 암호, 양자컴퓨터에 깨질 수 있다? 에임리치 유료 동서식품 3세 김동욱, 장내서 '동서' 주식 사들이는 까닭은 thebellstock 유료 2022년 10월 3일(월) 정부일정 증시일정 주식아빠 고고스의 주식일정 유료 기업들이여 Z를 지워라 오늘도 출근중 당신은 무엇에 목말라 있습니까? 깊은코칭 기쁜인생 8. 나얼 '바람기억' : 이대 후문 그린하우스 생크림 곰보빵 뮤즈, 인월 유료 어렸을 때 찐 살은 정말 키로 갈까? 영양쌤과 영양톡톡 인생 2회차 둘째날 인생 2회차를 사는 방법에 대하여 유료 [하루 5분!! 미국 증시 따라가기] 22년 10월 4일 화요일 : 어제 나스닥 +2.3% 상승 / " 영국이랑 제조업 지수에서 만회한 주식 시장 분위기 " 배당상어의 돈에서 헤엄치기 유료 네가 알던 큐브가 아니야! 지금 과학 유료 [라오스 여행] 다른 곳엔 없는 Tip ! 루앙프라방 투어 알짜 정보 RK의 글스토랑 유료 혹시, '영끌'하셨나요? 스크류 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 한겨레 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도 관광업계 ‘메르스 불똥’ 본문 바로가기 이전 페이지 한겨레 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 한겨레 주요뉴스를 볼 수 있습니다. 보러가기 한겨레 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 생중계 랭킹 제주도 관광업계 ‘메르스 불똥’ 입력2015.06.04. 오후 8:05 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [한겨레] 중국 관광객·수학여행단 예약취소숙박업소·전세버스업체 비상걸려 메르스 공포가 전국으로 번지면서 제주행을 계획했던 중국인 관광객과 수학여행단 등이 일정을 취소하면서 제주도 내 관광업계도 타격을 받고 있다. 제주지역에서 운영하는 중국 전문 여행사인 ㅇ여행사는 3일과 4일 이틀 동안 중국 상하이와 베이징, 톈진에서 올 예정이던 중국인 400여명이 관광을 취소했다고 밝혔다. 또다른 대형 여행사는 하루 평균 400~500여명이 취소하는 것으로 나타났다. 이처럼 중국인들의 제주 관광이 줄줄이 취소되면서 숙박업소와 전세버스업체들도 비상이 걸렸다. 제주시 연동 ㅇ호텔의 경우 다음주 예약됐던 객실 40여개가 3일 취소됐다. 중국 전문 여행사 관계자는 “메르스에 대한 걱정 때문에 중국 현지에서 환불을 받아가는 사례가 나타나고 있다. 앞으로가 더 문제다. 10~14일 제주에 올 계획이던 단체관광객들도 일정을 취소할 것 같다”고 말했다. 다른 지방의 수학여행단이나 체험학습단의 제주 일정도 잇따라 취소되는 것으로 알려졌다. 강원도 지역의 한 고교 수학여행단 190여명이 이달 제주도에 오기로 했다가 다른 지방으로의 수학여행과 체험학습을 전면 금지하라는 지침에 따라 최근 여행을 취소했다. 이와 함께 제주도 내 초등학교 2곳과 고등학교 4곳 등 6곳도 이달 초 서울과 경기로 수학여행을 가기로 계획했다가 무기한 연기했다. 제주도관광협회 관계자는 “아직까지 큰 타격은 없는 것으로 보이지만 중국인 관광객들을 중심으로 예약을 취소하는 사례가 나타나고 있다. 정확한 실태를 파악하기 위해 여행사별로 최근 예약 취소 현황을 조사하고 있다”고 말했다. 허호준 기자 공식 SNS [페이스북] [트위터] | [인기화보] [인기만화] [핫이슈] Copyrights ⓒ 한겨레신문사, 무단전재 및 재배포 금지 &lt;한겨레는 한국온라인신문협회(www.kona.or.kr)의 디지털뉴스이용규칙에 따른 저작권을 행사합니다.&gt; 허호준 Copyright ⓒ 한겨레. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 황교안 후보자님 뭐하세요?…메르스 탓에 잊혀진 것들 '메르스 환자' 숨진 지역 가보니… 사스-메르스 너무 다른 '방역 대처' [포토] 미군 카메라에 찍힌 1948년 한국 [화보] 이 아이가?…스타들의 어린 시절 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 한겨레 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 한겨레 헤드라인 [속보] 북, 중거리탄도미사일 발사…“일본 통과해 태평양 낙하” 북한이 4일 일본 상공을 통과하는 중거리 탄도미사일 1발을 쐈다고 합동참모본부(합참)가 밝혔다. 북한은 최근 열흘 사이에만 다섯 차례 미사일을 쏘았다. 합참은 이날 “오전 7시23분께 자강도 무평리 일대에서 발사돼 우크라이나, 남부 헤르손 전선 돌파…러시아군 고립 위기 우크라이나군이 동부 도네츠크주의 교통 요충지 리만을 되찾은 데 이어 남부 헤르손주의 전선도 돌파하는 큰 전과를 올렸다. 러시아가 지난달 30일 우크라이나 점령지 4곳을 자국 영토로 병합한다고 선언한 이후 잇따라 패배 [단독] 온실가스 뿜어댄 기업들, 그 덕에 되레 5600억 벌었다 포스코 557만톤(t), 삼성전자 99만톤 등 국내 산업부문 450개 안팎의 기업이 온실가스 배출권거래제 1·2차 계획기간(2015~2020년) 동안 정부에서 할당받은 배출권(배출 가능한 온실가스양) 중 2620만톤 국민 73% “정부 물가안정 대책 효과 체감 못 해” 할당관세 적용, 농축산물 할인쿠폰 사업, 수매비축 정책…. 정부가 실시하는 다양한 물가안정 대책에도 불구하고, 국민 10명 중 7명은 실질적인 정책효과를 체감하지 못하는 것으로 나타났다. 4일 무소속 윤미향 의원실( [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 토성 얼음위성에서 생명체의 ‘6대 원소’ 모두 찾았다 과학자들은 태양계에서 지구 말고도 생명체가 존재했거나 존재하고 있을 가능성이 있는 것으로 10여곳을 꼽는다. 화성과 금성, 토성의 위성 타이탄과 엔셀라두스, 트리탄과 목성의 위성 유로파와 이오, 칼리스토, 가니메데, 이전 뉴스들 보기 3 다음 뉴스들 보기 한겨레가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 한겨레 헤드라인 더보기 [속보] 북, 중거리탄도미사일 발사…“일본 통과해 태평양 낙하” 2시간전 우크라이나, 남부 헤르손 전선 돌파…러시아군 고립 위기 1시간전 [단독] 온실가스 뿜어댄 기업들, 그 덕에 되레 5600억 벌었다 2시간전 국민 73% “정부 물가안정 대책 효과 체감 못 해” 12분전 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 5시간전 토성 얼음위성에서 생명체의 ‘6대 원소’ 모두 찾았다 8분전 한겨레 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 5시간전 2 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” 5시간전 3 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 3시간전 4 [속보] 북, 중거리탄도미사일 발사…“일본 통과해 태평양 낙하” 2시간전 5 주춤하는 중국 반도체 인해전술…미국 포위망 뚫을까 3시간전 1 “대통령 지지층마저 등 돌려”…여론은 “자막 조작”에 싸늘 18시간전 2 [속보] 북, 중거리탄도미사일 발사…“일본 통과해 태평양 낙하” 2시간전 3 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” 5시간전 4 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 3시간전 5 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 5시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 홍준표, 4년 전 이준석 "'나는 왜 정치하나' 아침마다 5번 복창" 발언 두고 "조롱" 홍준표 대구시장이 최근 페이스북 글에서 타깃으로 정해 연일 비판을 가하고 있는 '개혁보수'에 대한 지적을 3일 저녁에도 이어나갔다. 전날인 2일 페이스북을 통해 "박근혜 전 대통령을 민주당과 합작해 끌어내린" "내부 조종석엔 김건희·칼 든 검사…만화축제 금상 ‘윤석열차’ 논란 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 전시됐다. 4일 한국만화영상진흥원에 따르면 전날 폐막한 제23회 부천국제만화축제 전시장에 ‘윤 "귀신같은 꿀빨러" 이준석 팬도 혀 내두른 이재명 심야트윗 “잘 챙겨 보겠습니다. 망 사용료 법 문제점이 있어 보입니다.” 지난 2일 자정 직전에 이재명 더불어민주당 대표는 자신의 트위터에 이같은 글을 적었다. ‘망 사용료’ 지불을 의무화하는 법안의 문제점을 지적한 트위터 편의점서 1억3천만원 결제…도대체 뭘 샀길래 CU 10년 효자상품 분석 참이슬 소주 누적 3억개 팔려 삼각김밥은 '참치마요'가 1위 점포수·매출액 2배로 늘어 편의점서 1억 넘게 쓴 고객도 편의점 CU에서 지난 10년 동안 가장 많이 팔린 상품은 무엇일까. 편 “왜 대답안해” 16살 딸 청소기로 때린 엄마…전치 8주 진단 사춘기 딸을 청소기로 때려 전치 8주의 상처를 입힌 친모가 징역형 집행유예를 선고받았다. 3일 춘천지법 형사2단독 박진영 부장판사는 아동복지법상 아동학대와 특수상해 혐의로 기소된 A씨(56)에게 징역 8개월에 집행유 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN 文 “감사원 무례한 짓” 與 “前대통령 성역 없어” 문재인 전 대통령이 서해 공무원 피살 사건과 관련한 감사원의 서면조사 요구에 “대단히 무례한 짓”이라고 했다. 더불어민주당도 “문 전 대통령을 정치보복의 올가미에 가두려는 윤석열 정권의 음모”라고 거세게 비판하며 감 하늘로 떠난 비운의 여성 빨치산 비전향 장기수 박정덕 선생이 2일 오후 세상을 떠났다. 향년 92세. 선생은 경기도 파주의 한 요양원에서 지내고 있었다. 선생의 고향은 전남 곡성군 죽곡면 당동리다. 1남 3녀 중 막내로 태어났다. 집안 살림은 넉넉 “2만원→4천원” 넷플릭스, 일주일 ‘몰아보기 싼 요금’ 부활 어때요? “넷플릭스에 새로 들어온 드라마 딱 1개만 ‘정주행’하고 싶은데…한달 요금 내자니 아깝고, 계정 ‘계모임’ 찾자니 귀찮네요. 좀 싸게 일주일만 보게 해주면 안되나요?” 넷플릭스, 웨이브, 티빙, 쿠팡플레이, 디즈니플 이언주, 삭발사진 올리며 쓴소리 “‘공정과 상식’ 외치며 文정권 비판해 왔지만…” 이언주 전 의원, 현재 정부여당의 논란 및 갈등 상황 나열하며 비판 수위 끌어올려 “수사 등 사법적 정의를 실현하는 과정이나 잣대가 권력 유무에 따라 달라져” “주권자인 국민, 선거만 끝나면 수임자에게 주권 빼앗기고 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 휴대전화를 충전하던 중 보조 배터리가 갑자기 폭발해 소비자가 심한 화상을 입었지만, 배터리 제조업체의 사후 대처에 논란이 일고 있다. 연합뉴스 보도에 따르면 최근 경기도 이천시에 거주 중인 30대 A씨와 아내는 최근 고물가에 '명품백' 내다 판다…"샤넬 캐비어 팝니다" 고물가와 경기 불황 상황이 지속되며 평소 가지고 있던 명품을 중고시장에 내놓는 사례가 눈에 띄게 늘면서 거래 사기 등 피해 예방책을 마련해야 한다는 지적이 나오고 있다. 지난달 27일부터 29일까지 중고거래 플랫폼 시속 137㎞ 좌회전, 뒷좌석 20대 사망…운전자는 만취였다 만취 상태에서 시속 137㎞로 과속 운전하다 동승자를 숨지게 한 30대 남성이 징역형을 선고받았다. 광주지방법원 형사8단독은 교통사고처리 특례법 위반(치사), 도로교통법 위반(음주운전) 혐의로 기소된 A씨(31)에게 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 네이버 일냈다…한국 인터넷 역사상 최대 규모 2조원 ‘빅딜’ 네이버가 승부수를 던졌다. 한국 인터넷 역사상 최대 규모의 빅딜에 나섰다. 네이버는 4일 북미 최대 패션 C2C 커뮤니티 포쉬마크 인수를 통해 커머스 시장 선점에 나선다고 밝혔다. 인수 금액은 2조3000억원에 달한 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” ‘학생들이 투표해서 학생회장을 뽑는데 왜 교장 선생님 도장이 찍힌 임명장을 줄까?’ 전남 강진군에 사는 중학교 3학년 정세희(15)양은 지난해 11월 학생회장에 당선된 뒤 교장 명의의 ‘임명장’을 받고 의문이 들었다 “별 것 아냐”...평범한 건강 적신호 5 우리 몸에 이상이 생기면 다양한 모습으로 신체에 반응이 나타난다. 대표적으로 통증은 몸에 이상이 생겼다는 신호다. 몸에 어떤 변화가 생겼을 때는 건강에 빨간불이 켜진 것이 아닌지 주의를 기울여야 한다. 미국 ABC방 재생하기 재생시간01:37 중부 이어 남부 전선 돌파..."러시아 방어 능력 곧 상실" 우크라이나군이 중부에 이어 남부 지역의 요충지 여러 곳을 탈환했습니다. 러시아는 점령지 강제 병합에 성공했지만, 우크라이나군의 전방위 압박에 마주치게 됐습니다. 류재복 기자의 보도입니다. [기자] 우크라이나 국기를 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 재생하기 재생시간01:46 [단독] "상품권 싸게 팔아요"…인터넷서 20억대 신종 사기 요즘 인터넷 개인 판매업자에게 할인된 상품권 구매하시는 분들 계실텐데, 주의하셔야겠습니다. 상품권 가액보다 더 많은 현금으로 돌려준다고 하면서 20억 원 대의 돈을 가로챈 신종 사기범이 붙잡혔습니다. 윤정주 기자가 정부 “실내 마스크 의무, 2023년 3월쯤 해제” “올겨울 트윈데믹 고비 남아있어” 요양시설 등 집단감염 절반 줄어 4일부터 입소자 대면면회 허용 신종 코로나바이러스 감염증(코로나19) 유행이 안정적으로 유지되면서 정부가 코로나19 출구전략에 속도를 내고 있지만, “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 재생하기 재생시간02:17 열차표 '18억 어치' 샀다가 환불…왜 이런 일 벌어지나? 타지도 않을 고속열차 표를 한 달에 몇 백장, 금액으로는 몇 억 원어치씩 샀다가 시간이 지나면 취소하는 사람들이 있습니다. 실제 기차 타려는 사람들이 큰 불편을 겪게 되는데, 왜 이런 일이 벌어지는 건지, 그동안 걸 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 역행자 - 자청 - 책리뷰 업투게더 유료 [학점은행제] 온라인 수업은 어디서 신청하고 들을 수 있나요? 어렵지 않은 학점은행제 유료 10/4 오늘의 주요 증시 일정 리치언니 투자노트 유료 讀大學法 중에서 태전서당 한자한문 유료 대구 수성구 아파트 리스트 - 서울 제외하면 가장 강력한 수요가 밀집되어 있는 곳! 스마트튜브 부동산조사연구소 유료 네이버 코인 '라인 링크' 테더마켓 첫 상장 의미는 thebellstock 유료 2022.09.29(목) Signal Report "리바운드의 세 가지 조건 기억하시죠?" 유목민의 시그널리포트 유료 내 형제를 죽인 범인을 30년 만에 찾았습니다. 텀크루즈 유료 만원의행복! 한종목투자 43차 (9월29일)로 월천벌기, 십억벌기에 도전하자~ 수익투자 원칙에 따라 투자하세요~ 두배로 주식투자 아카데미 유료 시를 바탕으로 우리 문학사 이해하기.(2) 왜 하필 시인가? 인문학 연구소 2022년 9월 【디딤돌대출】 대출요건 및 대출금리 리얼티문의 「부동산정보 올인원」 전자발찌 차고 야간 외출제한 받은 성범죄자 "회식하고 있어서 지금 집에 못 들어가요" 로톡뉴스 프리미엄 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 한겨레 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 메르스로 1만2천 관광객 취소.연기 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 메르스로 1만2천 관광객 취소.연기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 메르스로 1만2천 관광객 취소.연기 기자명 고나연 기자 입력 2015.06.08 11:35 수정 2015.06.08 16:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 道관광협회, 피해 최소화 위해 최선 ▲ 제주시 연동에서 메르스 공포로 마스크를 착용한채 관광을 하는 중국관광객 모습. (제주=국제뉴스) 고나연기자 = 제주도의 메르스로 인한 관광객 취소 또는 연기한 관광객을 잠정집계한 결과 1만1279명인 것으로 나타났다.또한 메르스 확산으로 피해도 늘어 날 것으로 전망돼 이에 대한 대책마련이 필요하다는 지적이 나오고 있다. 제주특별자치도관광협회(회장 김영진)는 지난 1일 메르스 제주 유입 방지 및 관광사업체 피해 최소화를 위해 단계별 대응방안을 마련하고 사무본부내에 비상 상황실을 운영해 메르스 피해 확산 방지에 철저를 기해 피해 최소화에 최선을 다하고 있다고 8일 밝혔다. 상황실에는 협회 전 회원사 대상 메르스 정보공유 및 감염 예방수칙 전달, 제주도 메르스 대책본부 지시사항 이행 및 확인사항 보고, 업종별 관광사업체 대상 관광객 취소사례 파악, 메르스 현장 모니터링 등에 철저를 가하고 있다.또한 메르스 심각단계 발령시 제주도 대책본부 지침에 의거 분야별 실천계획을 수립 추진하고, 관광협회 18개 분과위원장단회의 개최 후 사태에 적극 대처해 나갈 방침이다. 관계자는 "이날부터는 전 관광사업체를 대상으로 전수조사를 실시할 계획"이라고 말했다.한편 메르스 발생에 따 총 1만1279명의 관광객이 취소 및 연기한 것으로 잠정 집계됐고 이중  외국인은 5056명으로 중국인 4792명 일본 230명 동남아 22명 미주 12명이고 내국인 관광객은 6223명인 것으로 조사됐다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>이정 "관광객, 이효리 제주도 집 찾듯 우리집에도…" 호기 미래를 보는 경제신문 2022 | 10 | 04 20.8℃ 전자ICT 모바일·반도체 디스플레이·부품소재 게임·IT 통신·미디어 금융증권 정책·통화 은행 증권 보험·카드 시황·환율 재테크 일반 건설 정책 부동산 건설사 자동차 기업일반 신차출시 시승기 미래모빌리티 항공 택배 철강조선 기업일반 시황 수발주 친환경·스마트 에너지 정유·에너지 석유화학 정밀화학 첨단소재 제약·바이오 유통 채널 식품 패션·뷰티 호텔·가구 많이 본 기사 롯데케미칼, 배터리 소재부문 매출액 3.3조원 확대 전망 - IBK IBK투자증권은 롯데케미칼의 배터리 소재부문 매출액이 2025년까지 3.3조원까지 확대될 것으로 내다봤다. 투자의견 매수, 목표주가 21만원이다.이동욱 IBK투자증권 연구원은 "동박 사업 인수, 전해액 유기용매 플랜트 신설, 분리막 사업 확대, 바나듐 배터리 전해액 투자, 금속박 생산능력 증대 등을 통하여 2025년까지 배터리 소재부문 매출액을 3.3조원 원·달러환율, 2.2원 내린 1428원 출발 원·달러환율이 전일 대비 소폭 하락해 1420원 선에 출발했다.4일 서울 외환시장에서 원·달러환율은 2.2원 내린 1428원에 출발했다.달러인덱스(DXY)는 3일(현지시각) 오후 7시 54분 기준 전장 대비 0.14% 내린 111.59로 내려갔다.김유미 키움증권 연구원은 “역외차액결제선물환(NDF) 달러/원 환율 1개월물은 1432.16원으로 1원 상 금리 인상 속 국가 산업단지 인근 아파트 강세 유지 가파른 금리인상으로 부동산 시장의 혼조세가 이어지는 가운데 대출이자에 대한 부담감이 커지면서 분양 시장이 움츠러드는 분위기다. 반면 국가 산단 도시에서는 높은 청약 경쟁률이 이어져 대조적이다.4일 부동산시장 분석업체 부동산인포에 따르면 올해 5~6월 전국 아파트 청약자 수는 43만 1608명으로 평균 경쟁률 21.71 대 1을 기록했다. 반면 7월과 8 시멘트·레미콘 대치…이번주 국감 분수령 되나 시멘트 가격 인상을 둘러싼 시멘트·중소레미콘업계의 샅바 싸움이 이번 주가 분수령이 될 전망이다. 중소레미콘업계가 시멘트 가격 인상을 철회하지 않으면 오는 10일부터 전면 셧다운에 들어갈 것이라고 예고했기 때문이다.양측이 여론전을 이어가는 가운데, 국회가 시멘트사 대표를 국정감사 증인으로 채택해 갈등 해결의 실마리를 찾을 수 있을 지 귀추가 주목된다.4 우리의식탁, 현대백화점 무역센터점에서 팝업스토어 열어 우리의식탁은 현대백화점 무역센터점 식품관에서 팝업스토어를 운영한다고 4일 밝혔다.팝업스토어에서는 우리의식탁의 간편식 브랜드 '이지잇(easyeat)'제품과 '아내의 즙' 제품을 만나볼 수 있다. 이지잇제품으로는 최근 리뉴얼 출시한 '통통까스'를 선보인다. 함께 선보이는 아내의 즙은 아내의 사과즙, 아내의 당근사과즙, 아내의 배도라지즙 등 3종이다.우리 신협, 아톤과 ‘기업 전자금융 채널 개발사업’ 착수 신협중앙회는 법인과 개인사업자를 위한 기업뱅킹 서비스 강화를 위해 핀테크 전문기업 아톤(ATON)과 계약을 체결하고 ‘기업 전자금융 채널 개발사업’에 착수한다고 4일 밝혔다.신협은 기업 이용자의 지속적인 증가에 발맞춰 사업자 편의를 확대하고 디지털금융 경쟁력을 제고하고자 이번 사업을 실시한다. 기업 경영지원 강화와 법인사업자·소상공인·자영업자를 위한 서비 삼성SDI, 디스플레이 소재 시장 공략 잰걸음 삼성SDI가 배터리뿐 아니라 반도체, 디스플레이 소재 등 성장 가능성이 높은 차세대 시장 공략에 속도를 내고 있다. 특히 전자재료 사업부문은 다양한 디스플레이 소재를 개발하며 높은 수익성을 유지하고 있다.3일 시장조사기관 OMDIA에 따르면 2023년 모바일용 OLED 침투율은 약 40% 수준에 이를 것으로 예상된다. IT용 OLED 침투율은 2025년 [국감 '22] 태양광 발전시설 설치 위해 5년간 5184ha 훼손 지난 5년간 신재생에너지 정책이 오히려 환경을 파괴했다는 지적이 나왔다.4일 국회 정무위원회 소속 김희곤 의원(국민의힘·부산 동래구)이 산림청 자료를 조사 및 분석한 결과 지난 5년간 태양광 발전시설로 훼손된 산림은 5184ha로 집계됐다.연도별로 △2017년 1435ha △2018년 2443ha △2019년 1024ha △2020년 229ha △20 'e편한세상 사천 스카이마리나' 5일 1순위 청약 DL건설은 'e편한세상 사천 스카이마리나'가 5일 1순위 청약접수를 진행한다고 4일 밝혔다.e편한세상 사천 스카이마리나는 경남 사천시 용현면 선진리 1116, 1117번지 일원에 지하 2층~지상 29층, 9개 동 규모로 건립되는 아파트다.선호도 높은 전용면적 84㎡(2개 타입) 1043세대와 사천시 내에서 보기 드문 전용면적 154㎡(1개 타입) 펜트하 "IT 대세 한눈에"…2022 메타버스 코리아 개막 전 세계 화두로 떠오르고 있는 메타버스의 기술과 트렌드를 조명하는 '2022 메타버스 코리아(Metaverse Korea 2022)'가 4일 개막한다. 메타버스 코리아는 서울 삼성동 코엑스 B홀에서 오는 7일까지 개최된다. △NFT △블록체인 △디지털 휴먼 △항공 △유통 △엔터테인먼트 등 다양한 산업에 걸쳐 적용되고 있는 메타버스 서비스를 만나볼 수 로그인 회원가입 전자ICT 모바일·반도체 디스플레이·부품소재 게임·IT 통신·미디어 금융증권 정책·통화 은행 증권 보험·카드 시황·환율 재테크 일반 건설 정책 부동산 건설사 자동차 기업일반 신차출시 시승기 미래모빌리티 항공 택배 철강조선 기업일반 시황 수발주 친환경·스마트 에너지 정유·에너지 석유화학 정밀화학 첨단소재 제약·바이오 유통 채널 식품 패션·뷰티 호텔·가구 오피니언 기자수첩 외부칼럼 피플 인사 부고 동정 유료기사 화학 철강뉴스 조선·물류 코스피 2,204.38 ▲ 48.89(2.27%) 코스닥 690.21 ▲ 17.56(2.61%) USD$ 1434.0 ▼ -5.0 EUR€ 1409.2 ▼ -3.6 JPY¥ 991.0 ▼ -4.5 CNY¥ 201.6 ▼ -1.0 BTC 28,220,000 ▲ 386,000(1.39%) ETH 1,905,000 ▲ 36,000(1.93%) XRP 657 ▼ 2(-0.3%) BCH 166,950 ▼ 800(-0.48%) EOS 1,695 ▼ 5(-0.29%) 전자ICT 금융증권 건설 자동차 철강조선 에너지 유통 공유 인쇄 텍스트 축소 확대 url복사 이정 "관광객, 이효리 제주도 집 찾듯 우리집에도…" 호기 송고 2015.06.16 16:59 | 수정 2015.06.16 17:02 인터넷뉴스팀 (clicknews@ebn.co.kr) "나름 해외팬 있다…남미서 인기 괜찮아"이정은 최근 방송된 MBC '황금어장-라디오스타'에 출연해 제주도에 있는 자신의 집을 찾아오는 팬에 대해 언급했다.ⓒMBC '황금어장-라디오스타' 방송 화면 캡처가수 이효리가 SNS를 통해 자신의 제주도 집을 관광지처럼 찾아오는 일부 관광객에게 자제를 부탁한 가운데, 가수 이정이 이와 비슷한 경험을 했다고 전했던 얘기들이 새삼 화제다.이정은 최근 방송된 MBC 예능프로그램 '황금어장-라디오스타'에 출연해 '제주도에 대해 자랑을 해달라'는 MC들의 요청에 "이효리가 산다"고 답했다.당시 방송에서 MC들은 "이효리의 집이 제주도 관광지처럼 돼 논란이 된 적이 있는데 어떤가?"라고 물었고, 이정은 "초반에 피곤했을 거다. 우리 집에도 외국 팬인 필리핀 소녀가 온 적이 있다"고 털어놨다.이에 MC 김구라는 의심하는 반응을 보였고, 이정은 "제가 한국 활동이 저조해서 그렇지, 나름 해외팬들이 있다"고 항변했다.이어 이정은 "남미에서도 인기가 괜찮다. 정말 좋다"고 거듭 강조했고, MC 윤종신이 이를 깐죽거리자 이내 이정은 "유명해지면 두고 봐"라고 울분을 삭여 시청자에게 웃음을 자아냈다.이 소식을 접한 네티즌은 "이정 이효리, 집은 개인 사생활인데 왜 찾아갈까", "이정 이효리, 피해 많이 입었겠네", "이정 이효리, 관광 예절 지킵시다" 등 다양한 반응을 보였다.(인터넷뉴스팀)©(주) EBN 무단전재 및 재배포 금지 관련기사 17일 날씨, 수도권 및 내륙에 천둥 동반 '소나기'…제주도 흐리고 '비' 장나라, 장혁과 베드신 "품에 안겨 겨드랑이에 얼굴 묻고는 그만…" 이효리, 렌틸콩 이은 새 건강법 '오일풀링'이 뭐길래… 옥주현 "목욕탕서 이효리 벗은 몸 보고 쌍코피 터질 뻔" 어딜 봤길래? 이효리 "아무리 노력해도 옥주현 '이것' 따라갈 수 없었다" 고백 전체 댓글 0 로그인 후 댓글을 작성하실 수 있습니다. 베스트 클릭 1 롯데케미칼, 배터리 소재부문 매출액 3.3조원 확대 전망 - IBK 2 원·달러환율, 2.2원 내린 1428원 출발 3 금리 인상 속 국가 산업단지 인근 아파트 강세 유지 4 시멘트·레미콘 대치…이번주 국감 분수령 되나 5 우리의식탁, 현대백화점 무역센터점에서 팝업스토어 열어 이슈종합 더보기 3일: '산업용 전기료' 인상…상폐 공포 휩싸인 소액주주 등 30일: IRA 태풍 앞 K-배터리…발주 훈풍에도 힘 못쓴 중형조선사 등 29일: PF 중단에 돈줄 끊긴 건설사…대형사도 첫 삽 못뜬다 등 오피니언 더보기 美 정부의 바이오 행정명령과 대응 상속재산조회서비스 코로나19와 경주 최부자댁 저속 주행하고 있는 자율주행자동차 기준금리 인상에 연동된 주택시장 위축 시황 코스피 코스닥 환율 KOSPI 2,204.38 ▲ 48.89(2.27) KOSDAQ 690.21 ▲ 17.56(2.61) 매매기준율 USD$ 1434.0 ▼5 EUR€ 1409.2 ▼3.6 JPY¥ 991.0 ▼4.5 CNY¥ 201.6 ▼1 코인시세 비트코인 이더리움 리플 비트코인캐시 이오스 시세제공 업비트 빗썸 코빗 업비트 10.04 10:11 28,220,000 ▲ 386,000 (1.39%) 빗썸 10.04 10:11 28,201,000 ▲ 349,000 (1.25%) 코빗 10.04 10:11 28,177,000 ▲ 363,000 (1.31%) 업비트 10.04 10:11 1,905,000 ▲ 36,000 (1.93%) 빗썸 10.04 10:11 1,905,000 ▲ 36,000 (1.93%) 코빗 10.04 10:11 1,904,000 ▲ 37,000 (1.98%) 업비트 10.04 10:11 657 ▼ 2 (0.3%) 빗썸 10.04 10:11 657.9 ▼ 0.8 (0.12%) 코빗 10.04 10:11 657.1 ▼ 1.1 (0.17%) 업비트 10.04 10:11 166,950 ▼ 800 (0.48%) 빗썸 10.04 10:11 167,100 ▼ 900 (0.54%) 코빗 10.04 10:11 167,600 ▼ 300 (0.18%) 업비트 10.04 10:11 1,695 ▼ 5 (0.29%) 빗썸 10.04 10:11 1,698 ▼ 3 (0.18%) 코빗 10.04 10:11 1,709 ▲ 9 (0.53%) 등락률 : 24시간 기준 (단위: 원) 인사/부고/동정 더보기 ● [부고] 심혁(NH투자증권 강남금융센터 WM2 센터장)씨 부친상 ● [부고] 이기태(삼성증권 상무)씨 부친상 ● [인사] 서울신문 ● [부고] 이경민 홈플러스 결산총괄이사)씨 모친상 포토뉴스 8년만에 컴백 러버덕 "롯데월드타워·석촌호수로 오세요" 서울미디어홀딩스패밀리미디어 실시간 뉴스 “北 중거리 탄도미사일 日, 홋카이도 한때 대피령 여가부 폐지·재외동포청 신설...지각 조직개편 [사짚슈] 걸고 싶어도 못 거는 태극기 747억 횡령 책임론…은행장들 국감 줄소환 [단독] 손주까지 송곳 검증…공직인사 기준 강화 정치 국감? 정책 국감?…기재위에 쏠린 눈 해외주식 팔아 원화 바꾸면 양도세 혜택 비정규직 45%는 빨간날도 ‘검은 노동일’ 잔인한 9월 공매도 급증…삼전·LG엔솔 1·2위 작년 종부세 상한선 31만명…4년새 72배 청계천 자율주행 셔틀 '중국산' 플랫폼 탑재 교육부, 6000억원 규모 '디지털 교수학습플랫폼' 재시동 '윤 정부 첫 국정감사'...기업인 줄소환, 기업 길들이기 구태 여전 [세상을 바꾸는 스타트업]&lt;15·끝&gt;라덱셀, 암 치료 '게임 체인저' 도전 레이부터 토레스까지…전기차로 변신 중 업무 혁신 협업툴 '플로우'…유료고객사 5500곳 돌파 임박 “네이버클라우드로 헤쳐모여”…'B2B' 사업에 힘 주는 네이버 “환경영향평가사 의무고용제, 지방 중소기업 고사한다” [신산업부터 규제 풀자](10·끝) 대한민국을 위한 미래산업 [ETRI, 우주개발 핵심기관 거듭나다]&lt;1&gt;위성 지상 관제시스템 구현...산업계까지 육성 [포착] 민간인 죽어가는데…푸틴의 1100만원 재킷, 브랜드 알고보니 “日 원전 오염수 안전성 시연은 ‘조작’” 현지 언론도 지적 [여기는 일본] [영상] 핵 공격 임박?…러 언론, 핵 터지는 ‘오싹한 장면’ 방송 “사람 죽일 준비 안 됐다”…군대 피하려 극단적 선택한 러시아 남성 ‘한파와 폭염’이 동시에?…중국 이상기후 현재 상황 보니 [지구를 보다] 어린이 76명 신에게 제물로…페루서 ‘인신공양’ 유골 발견 [여기는 베트남] 가위로 직원 목을?…부적절 이미지로 갑질한 일본 기업 [아하! 우주] 얼어붙은 우주 컵케이크?…3차원으로 본 목성의 구름 화장실에 ‘직원 감시용’ 카메라 설치한 중국 기업 논란 탱크도 ‘당근’ 되나요? …‘무기 직거래’ 하는 러 군인들 포착 [우크라 전쟁] 광고문의 회사소개 제휴문의 개인정보취급방침 이메일주소 무단수집거부 저작권 규약 이용약관 (주)이비뉴스산업경제 l 등록번호 : 서울 아00054 l 등록일 : 2005.09.13 l 제호 : 이비엔(EBN)뉴스센터 l 발행인 : 김영락 l 편집인 : 정재웅 주소 : 서울 서초구 양재대로2길 22-16 호반파크1관 7층 (주)이비뉴스산업경제 ㅣ 대표번호 : 02-6952-9776 청소년보호정책(책임자 정재웅) | 메일문의 : ebnews@ebn.co.kr Copyright (c) 2011 by (주)이비뉴스산업경제 Co.,Ltd. All right reserved EBN 미래를 보는 경제신문</t>
-  </si>
-  <si>
-    <t>제주도 관광개발 사업 37%는 외국인이 추진 본문 바로가기 이전 페이지 경향신문 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 경향신문 주요뉴스를 볼 수 있습니다. 보러가기 경향신문 언론사 구독 해지되었습니다. 주요뉴스 프리미엄 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 제주도 관광개발 사업 37%는 외국인이 추진 입력2015.06.04. 오후 10:03 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 ㆍ중국자본이 대부분… 건물도 2116건 소유제주에서 이뤄지는 관광개발사업의 37%가 외국자본에 의해 추진되는 것으로 나타났다. 제주도가 발표한 1분기 외국인 관련 현황자료를 보면 제주도 전체 관광개발 38개 사업(17조3882억원) 중 37.8%인 9개(6조5894억원)가 외국인에 의해 추진되는 사업이라고 4일 밝혔다. 9개 사업은 테디벨리골프·리조트(중국·싱가포르), 신화역사공원(홍콩·싱가포르), 무수천 유원지(중국), 예래휴양형주거단지(말레이시아), 폴로승마리조트(싱가포르), 이호유원지(중국), 제주헬스케어타운(중국), 성산포 해양관광단지(중국), 백통신원제주리조트(중국)로, 중국 자본이 대부분이다. 외국인이 소유한 건축물은 제주도 전체 건물 면적의 0.72%에 해당하는 2116건이다. 숙박시설이 63%로 가장 많고 공동주택(18%), 단독주택(11%) 순이다.외국인이 제주에서 내는 세금은 제주도가 걷어들이는 취득세의 3.4%인 526억6500만원이며 재산세는 2.9%인 24억8400만원이다. 일반여행업체는 252개 중 13%가 외국인에 의해 운영되고 있다. 중국인 소유가 23개, 대만인 소유가 10개다. 외국인 소유 여행사는 2012년 3개에 불과했으나 최근 중국인 관광객이 급증하면서 직접 외국인이 여행사를 차리는 일이 많아진 것으로 분석된다. 음식점은 제주도 전체 1만2491곳 중 0.5%인 67곳이 외국인에 의해 운영되고 있다. 중국인 소유가 31곳으로 가장 많다. 외국인이 소유한 토지는 도 전체면적의 0.89%인 16.4㎢이다. 중국인이 45%로 가장 많고 미국, 일본 순이다. 지목별로는 임야(52.2%), 목장(15.2%), 농지(11.7%) 순이다.&lt;박미라 기자 mrpark@kyunghyang.com&gt; 모바일 경향 [경향 뉴스진 | 경향신문 앱 | 모바일웹] | 공식 SNS 계정 [경향 트위터] [페이스북] [세상과 경향의 소통 커뮤니티]- ⓒ 경향신문(www.khan.co.kr), 무단전재 및 재배포 금지〈경향신문은 한국온라인신문협회(www.kona.or.kr)의 디지털뉴스이용규칙에 따른 저작권을 행사합니다.〉 박미라 Copyright ⓒ 경향신문. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 박 대통령 "메르스 환자 15명" 발언, 다시보기하니 삭제됐다 사이언스지 "전례없는 '슈퍼전파'···한국서 메르스 폭발" 열아홉 여대생 "어릴 때부터 사람을 죽여보고 싶었다" 연쇄범행 메르스 지역·병원 표기 '전국 메르스 지도' 확산 EPL 선수 3명 성관계 인종차별 동영상 파문 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 경향신문 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 경향신문 헤드라인 [속보]이재명 “윤석열 정부, 독재정권처럼 공포정치···모든 걸 걸고 맞서겠다” 이재명 더불어민주당 대표는 4일 윤석열 정부를 향해 “국민을 지키라는 총칼로 경쟁자를 짓밟았던 독재정권처럼 공포정치에 나선 것”이라며 “정권이 국민의 기대를 저버리고 민주주의 파괴를 획책한다면 모든 걸 걸고 맞서겠다 퇴직자 밥벌이 수단으로 전락한 ‘LH토지주택대학’ ‘LH토지주택대학’이 한국토지주택공사(LH)퇴직자들의 밥벌이 수단으로 전락했다는 지적이 나왔다. 4일 국회 국토교통위원회 정동만 국민의힘 의원은 “LH가 지난해 임직원의 땅투기 사태 이후 강도높은 혁신을 추진하고 있 히잡 시위 두고 미국·이란 ‘으르렁’…“미국이 배후” “평화 시위 탄압 우려” 이란 최고지도자가 전국을 휩쓴 반정부 시위의 배후로 미국을 지목한 가운데 조 바이든 미국 대통령이 이란의 시위대 탄압을 비판하면서 추가 제재를 예고했다. 바이든 대통령은 3일(현지시간) 성명을 통해 “인간으로서의 기 윤 대통령 “순방, 많은 성과 거양···감사원은 독립기관, 대통령 언급 부적절” 윤석열 대통령이 4일 북한의 중거리탄도 미사일 발사에 대해 “제가 국군의날에서도 밝혔지만, 무모한 핵도발은 우리 군을 비롯한 동맹국과 국제사회의 결연한 대응에 직면할 것”이라고 밝혔다. 윤 대통령은 이날 용산 대통령 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 한동안 대여 공세 발언을 자제하던 이재명 더불어민주당 대표가 최근 윤석열 대통령을 향해 거친 언사를 쏟아내고 있다. 이 대표는 감사원이 ‘서해 공무원 피살 사건’과 관련해 문재인 전 대통령을 조사하자 윤석열 정부에 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] ‘신라 최고의 명품 귀고리가 출토된 고분은 부부총이 아니었다.’ 9월 29~30일 국립중앙박물관 소강당에서 ‘국립박물관 소장 일제강점기 자료의 공개와 활용’ 학술대회가 열렸다. 우선 일제강점기 조선총독부 박물관이 한 이전 뉴스들 보기 3 다음 뉴스들 보기 경향신문이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 경향신문 헤드라인 더보기 [속보]이재명 “윤석열 정부, 독재정권처럼 공포정치···모든 걸 걸고 맞서겠다” 53분전 퇴직자 밥벌이 수단으로 전락한 ‘LH토지주택대학’ 50분전 히잡 시위 두고 미국·이란 ‘으르렁’…“미국이 배후” “평화 시위 탄압 우려” 1시간전 윤 대통령 “순방, 많은 성과 거양···감사원은 독립기관, 대통령 언급 부적절” 50분전 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 12시간전 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] 5시간전 경향신문 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] 5시간전 2 [속보]이재명 “윤석열 정부, 독재정권처럼 공포정치···모든 걸 걸고 맞서겠다” 53분전 3 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 12시간전 4 하늘로 떠난 비운의 여성 빨치산 11시간전 5 우크라이나, 구체적인 타격 목표물 제시하며 미국에 “장거리 미사일 달라” 2시간전 1 [속보]이재명 “윤석열 정부, 독재정권처럼 공포정치···모든 걸 걸고 맞서겠다” 53분전 2 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 12시간전 3 하늘로 떠난 비운의 여성 빨치산 11시간전 4 광화문 일대 보수단체 대규모 집회…빗속 인파 뒤엉키며 시민 항의 빗발 12시간전 5 민주당 “범국민 저항운동 벌일 것”…윤 정부와 전면전 태세[감사원 ‘문 전 대통령 조사’ 파장] 13시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 文 “감사원 무례한 짓” 與 “前대통령 성역 없어” 문재인 전 대통령이 서해 공무원 피살 사건과 관련한 감사원의 서면조사 요구에 “대단히 무례한 짓”이라고 했다. 더불어민주당도 “문 전 대통령을 정치보복의 올가미에 가두려는 윤석열 정권의 음모”라고 거세게 비판하며 감 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 진격의 우크라軍...“공격능력 잃은 러시아, 방어능력도 상실 직전” 우크라이나군이 동부에 이어 남부 헤르손주(州) 각지에서도 러시아에 빼앗긴 영토를 되찾아 가고 있다고 AP 통신과 로이터 통신 등 주요 외신이 3일(현지 시각) 보도했다. 외신 보도를 종합하면, 러시아 국방부 대변인 하늘로 떠난 비운의 여성 빨치산 비전향 장기수 박정덕 선생이 2일 오후 세상을 떠났다. 향년 92세. 선생은 경기도 파주의 한 요양원에서 지내고 있었다. 선생의 고향은 전남 곡성군 죽곡면 당동리다. 1남 3녀 중 막내로 태어났다. 집안 살림은 넉넉 文 “감사원 서면조사 ‘무례한 짓’”…김연주 “지금이 무슨 ‘왕조시대’도 아니고” 김연주 시사평론가, 文 측 향해…“서면 조사 요청에 감사원의 권한 밖이라 규정하는 건 납득하기 어려워” “‘무례한 자(, 과연 누구인가…진실 밝히는 데 협조하는 일에 너와 내가 따로 있을 수 있겠나” “왜 무고한 우 재생하기 재생시간03:39 발로 차고 던지고‥어느 회장님의 '갑질' ◀ 앵커 ▶ 한 중견기업 회장이 직원들에게 폭언과 폭력을 서슴지 않고, 비서에게 가족 일은 물론 내연녀 심부름까지 수시로 시킨다는 제보가 들어왔습니다. 구나연 기자입니다. ◀ 리포트 ▶ 계열사 6곳과 주유소 14곳, 재생하기 재생시간01:14 김건희와 칼 든 검사 싣고…학생 공모전 금상 '윤석열차' 최근 한 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 화제가 되고 있다는 기사도 많이 봤습니다. 한국만화영상진흥원에 따르면 어제(3일) 폐막한 제23회 부천국제만화축제 전시장에 '윤석열차'라는 제목의 만화가 킴 카다시안, ‘SNS 1건’ 때문에…벌금만 18억원 냈다 ‘이더리움맥스’ 홍보 대가 미고지 美SEC 합의금 18억원 미국의 모델 겸 패션사업가인 킴 카다시안이 자신의 소셜네트워크서비스(SNS)에서 특정 가상화폐를 불법 광고했다. 이에 카다시안은 126만 달러(약 18억19 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 우크라 "러 남부 점령지 방어선 돌파…헤르손 곧 수복" 우크라이나군이 남부 요충지인 헤르손주의 러시아군 주요 방어선을 돌파했다고 발표하면서 러시아군이 계속 수세에 몰리고 있다. 우크라이나가 헤르손주 전역을 수복할 경우, 러시아는 주요 점령지들간 연계가 무너지면서 전황이 재생하기 재생시간02:29 나랏돈 43억 들어가는데…컵 받침으로 쓰인다는 '이것' 나랏돈을 지원받는 국책연구기관들은 해마다 책자와 함께 요즘은 잘 쓰지 않는 CD 형태로 보고서를 만듭니다. 이렇게 정부와 국회에 보낼 보고서를 만드는 데만 한 해에 40억 원 넘게 듭니다. 인터넷에 보고서가 다 공개 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 편의점서 1억3천만원 결제…도대체 뭘 샀길래 CU 10년 효자상품 분석 참이슬 소주 누적 3억개 팔려 삼각김밥은 '참치마요'가 1위 점포수·매출액 2배로 늘어 편의점서 1억 넘게 쓴 고객도 편의점 CU에서 지난 10년 동안 가장 많이 팔린 상품은 무엇일까. 편 퇴임 뒤에도 '내로남불'?…박근혜 털었던 문재인, 자신 향한 서면조사엔 "무례한 짓" 감사원이 '서해 공무원 피살 사건'과 관련해 문재인 전 대통령을 서면조사하려 한 것으로 알려졌다. 문 전 대통령은 질의서 수령을 거부함과 동시에 불쾌감을 피력했으며, 더불어민주당도 "정치보복"이라며 일제히 반발하고 '월급 600만원' 싱글 직장인, 알고보니 '돈' 이렇게 벌었다 대기업에서 소프트웨어 개발 업무를 하는 35세 김모씨는 서울 사당동 85㎡ 아파트에서 혼자 살고 있다. 월급이 600만원을 웃돌지만 절반에 가까운 300만원은 적금과 펀드 등에 넣는다. 주말엔 자전거로 배달라이더 일 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 재생하기 재생시간02:20 우크라, 남부 전선도 돌파…핵 위기 커지나 우크라이나 소식입니다. 동부 요충지를 탈환한 우크라이나군이 남부에서도 주목할만한 전과를 올리고 있습니다. 그런데 우크라이나군이 영토 탈환에 성공할수록 러시아의 핵무기 사용 가능성이 커질 수 있다는 우려가 나옵니다. 홍준표, 4년 전 이준석 "'나는 왜 정치하나' 아침마다 5번 복창" 발언 두고 "조롱" 홍준표 대구시장이 최근 페이스북 글에서 타깃으로 정해 연일 비판을 가하고 있는 '개혁보수'에 대한 지적을 3일 저녁에도 이어나갔다. 전날인 2일 페이스북을 통해 "박근혜 전 대통령을 민주당과 합작해 끌어내린" "내부 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림을 전시했다. 3일 한국만화영상진흥원에 따르면 이날 폐막한 제23회 부천국제만화축제 전시장에 '윤 전주환의 '두 얼굴'…신상공개 21명 중 18명이 신분증 사진 기사내용 요약 피의자 '머그샷' 거부하면 신분증 증명사진 공개 2019년부터 신상공개 21명…18명이 신분증 사진 공개된 신분증 사진, 언제 찍었는지 알지도 못해 피의자 신분증 사진과 현재 모습 너무 달라 논란 이성 “2만원→4천원” 넷플릭스, 일주일 ‘몰아보기 싼 요금’ 부활 어때요? “넷플릭스에 새로 들어온 드라마 딱 1개만 ‘정주행’하고 싶은데…한달 요금 내자니 아깝고, 계정 ‘계모임’ 찾자니 귀찮네요. 좀 싸게 일주일만 보게 해주면 안되나요?” 넷플릭스, 웨이브, 티빙, 쿠팡플레이, 디즈니플 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 쌍방울그룹이 북한 광물자원 개발의 대가로 북측에 1천만달러 상당 내의를 제공하려 한 정황이 국가정보원 내부 문건으로 파악됐다. 쌍방울의 대북사업 관련 뇌물 혐의로 이화영 전 부지사가 구속된 가운데 북측과 쌍방울 사이 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 [속보] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” 윤석열 대통령은 감사원이 서해 공무원 피살 사건과 관련해 문재인 전 대통령에 대한 서면조사를 통보하고 문 전 대통령 측이 반발한 데 대해 “대통령이 뭐라고 언급하는 것은 적절치 않다”고 말을 아꼈다. 윤 대통령은 4 네이버 일냈다…한국 인터넷 역사상 최대 규모 2조원 ‘빅딜’ 네이버가 승부수를 던졌다. 한국 인터넷 역사상 최대 규모의 빅딜에 나섰다. 네이버는 4일 북미 최대 패션 C2C 커뮤니티 포쉬마크 인수를 통해 커머스 시장 선점에 나선다고 밝혔다. 인수 금액은 2조3000억원에 달한 600억짜리 최신형 전투기 또 '산산조각'…러軍, 계속되는 굴욕 최근 우크라이나 동부 도네츠크 리만 지역에서 수백억원에 달하는 러시아 전투기가 박살 난 채 발견됐다. 2일(현지시간) 우크라이나 공군사령부는 동부 요충지인 리만에서 러시아 전투기 수호이(Su)-34 파편을 찾았다고 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 정부 “실내 마스크 의무, 2023년 3월쯤 해제” “올겨울 트윈데믹 고비 남아있어” 요양시설 등 집단감염 절반 줄어 4일부터 입소자 대면면회 허용 신종 코로나바이러스 감염증(코로나19) 유행이 안정적으로 유지되면서 정부가 코로나19 출구전략에 속도를 내고 있지만, 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 비트코인 암호, 양자컴퓨터에 깨질 수 있다? 에임리치 유료 동서식품 3세 김동욱, 장내서 '동서' 주식 사들이는 까닭은 thebellstock 유료 2022년 10월 3일(월) 정부일정 증시일정 주식아빠 고고스의 주식일정 유료 기업들이여 Z를 지워라 오늘도 출근중 당신은 무엇에 목말라 있습니까? 깊은코칭 기쁜인생 8. 나얼 '바람기억' : 이대 후문 그린하우스 생크림 곰보빵 뮤즈, 인월 유료 어렸을 때 찐 살은 정말 키로 갈까? 영양쌤과 영양톡톡 인생 2회차 둘째날 인생 2회차를 사는 방법에 대하여 유료 [하루 5분!! 미국 증시 따라가기] 22년 10월 4일 화요일 : 어제 나스닥 +2.3% 상승 / " 영국이랑 제조업 지수에서 만회한 주식 시장 분위기 " 배당상어의 돈에서 헤엄치기 유료 네가 알던 큐브가 아니야! 지금 과학 유료 [라오스 여행] 다른 곳엔 없는 Tip ! 루앙프라방 투어 알짜 정보 RK의 글스토랑 유료 혹시, '영끌'하셨나요? 스크류 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 경향신문 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 태국여행업협회와 우호교류 협약 체결 본문 바로가기 이전 페이지 국민일보 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 국민일보 주요뉴스를 볼 수 있습니다. 보러가기 국민일보 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 제주도관광협회, 태국여행업협회와 우호교류 협약 체결 입력2015.06.03. 오후 3:17 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주도관광협회는 태국여행업협회와 제주웰컴센터에서 관광상품 개발 및 관광시장 활성화를 위한 우호교류 협약을 체결했다고 3일 밝혔다. 협약에 따라 태국여행업협회는 제주∼태국 간 직항 전세기를 이용한 다양한 관광상품 개발에 합의, 양 회원사 간 교류확대 및 공동 프로모션 전개 등 협업 시스템을 구축키로 했다. 도 관광협회는 태국·말레이시아·대만·베트남 등 동남아지역 관광객 유치 확대를 위해 현지 유력 여행업계와 공동으로 제주의 우수한 관광자원과 스포츠를 연계한 관광상품 개발에 나설 방침이다.제주=주미령 기자 lalijoo@kmib.co.krGoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 재배포금지[뉴스 미란다 원칙] 취재원과 독자에게는 국민일보에 자유로이 접근할 권리와 반론·정정·추후 보도를 청구할 권리가 있습니다. 고충처리인(gochung@kmib.co.kr)/전화:02-781-9711 제주=주미령 기자 Copyright ⓒ 국민일보. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. "우리 아이 어떡해요?" 학교 가라는 문형표와 가지말라는 황우여 '자가격리 중 골프장?' 실종된 강남 메르스 의심환자가 향한 곳이… "필요없다더니 자긴 썼네" 문형표 마스크 발언 뭇매… 에라이 뉴스 강남 사는 메르스 의심환자 실종… 방역망 구멍 숭숭 "메르스 병원만 안가면 아이들 감염 가능성 적다"…본질은 '병원내 감염' 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 국민일보 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 국민일보 헤드라인 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 윤석열 대통령은 북한이 4일 탄도 미사일 도발을 감행한 데 대해 “10월 1일 국군의날에도 밝혔지만 이런 무모한 핵도발은 우리 군을 비롯한 동맹국과 국제사회의 결연한 대응에 직면할 것”이라고 지적했다. 윤 대통령은 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 문재인정부가 세계 최초 상용화를 내세우며 홍보했던 5세대 이동통신(5G)과 관련해 현 정부 과학기술정보통신부가 ‘구체적인 경제 효과 산출이 어렵다’는 입장을 밝힌 것으로 나타났다. 문재인정부는 2026년까지 5G 산 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 지난해 12월 27일 밤 11시30분쯤 서울 구로구에서 남성 A씨가 택시에 올랐다. 목적지는 경북 안동이었다. 1시간쯤 뒤 평택~제천 간 고속도로에 진입하자 그는 돌연 품속에서 커다란 흉기를 꺼내 들었다. “내가 가 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 이재명 더불어민주당 대표가 문재인 전 대통령에 관한 감사원의 조사 논란을 두고 “국민을 지키라는 총칼로 경쟁자를 짓밟았던 독재정권처럼 정의를 지키라는 사정권력으로 공포정치에 나선 것”이라고 말했다. 이 대표는 4일 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 대상을 수상해 온라인에서 이목을 모았다. 3일 한국만화영상진흥원에 따르면 이날 폐막한 제23회 이전 뉴스들 보기 3 다음 뉴스들 보기 국민일보가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 국민일보 헤드라인 더보기 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 30분전 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 23분전 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 2시간전 “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 10시간전 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 25분전 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 6시간전 국민일보 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 6시간전 2 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 2시간전 3 [속보] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” 1시간전 4 “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 5시간전 5 “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 10시간전 1 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ 6시간전 2 “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 5시간전 3 [속보] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” 1시간전 4 [단독] 내년 중앙동 이주하는 기재부, 이전 비용 공개 거부 4시간전 5 ‘文 서면조사’ 파장에… 대통령실, 거리두며 ‘국면전환’ 기대 10시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 코로나19 이후 주택 가격 폭등기 때 빚을 내 산 집이 2030세대에 ‘빚 폭탄’이라는 부메랑으로 돌아왔다. 특히 주택이 없는 동년배와 비교해 2년 반 사이 소득 대비 빚 부담 증가폭이 13배에 달했다. *주택보유는 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN 재생하기 재생시간02:17 열차표 '18억 어치' 샀다가 환불…왜 이런 일 벌어지나? 타지도 않을 고속열차 표를 한 달에 몇 백장, 금액으로는 몇 억 원어치씩 샀다가 시간이 지나면 취소하는 사람들이 있습니다. 실제 기차 타려는 사람들이 큰 불편을 겪게 되는데, 왜 이런 일이 벌어지는 건지, 그동안 걸 네이버 일냈다…한국 인터넷 역사상 최대 규모 2조원 ‘빅딜’ 네이버가 승부수를 던졌다. 한국 인터넷 역사상 최대 규모의 빅딜에 나섰다. 네이버는 4일 북미 최대 패션 C2C 커뮤니티 포쉬마크 인수를 통해 커머스 시장 선점에 나선다고 밝혔다. 인수 금액은 2조3000억원에 달한 尹은 기차, 조종석엔 김건희 여사…고등학생이 그린 그림은 최근 개최된 한국 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시됐다는 사실이 알려져 주목을 받고 있다. 3일 문화체육관광부, 경기도, 부천시가 건립한 한국만화영상진흥원에 따르면 이날 폐막한 제 25회 부천국제만화 “별 것 아냐”...평범한 건강 적신호 5 우리 몸에 이상이 생기면 다양한 모습으로 신체에 반응이 나타난다. 대표적으로 통증은 몸에 이상이 생겼다는 신호다. 몸에 어떤 변화가 생겼을 때는 건강에 빨간불이 켜진 것이 아닌지 주의를 기울여야 한다. 미국 ABC방 퇴임 뒤에도 '내로남불'?…박근혜 털었던 문재인, 자신 향한 서면조사엔 "무례한 짓" 감사원이 '서해 공무원 피살 사건'과 관련해 문재인 전 대통령을 서면조사하려 한 것으로 알려졌다. 문 전 대통령은 질의서 수령을 거부함과 동시에 불쾌감을 피력했으며, 더불어민주당도 "정치보복"이라며 일제히 반발하고 “2만원→4천원” 넷플릭스, 일주일 ‘몰아보기 싼 요금’ 부활 어때요? “넷플릭스에 새로 들어온 드라마 딱 1개만 ‘정주행’하고 싶은데…한달 요금 내자니 아깝고, 계정 ‘계모임’ 찾자니 귀찮네요. 좀 싸게 일주일만 보게 해주면 안되나요?” 넷플릭스, 웨이브, 티빙, 쿠팡플레이, 디즈니플 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 한동안 대여 공세 발언을 자제하던 이재명 더불어민주당 대표가 최근 윤석열 대통령을 향해 거친 언사를 쏟아내고 있다. 이 대표는 감사원이 ‘서해 공무원 피살 사건’과 관련해 문재인 전 대통령을 조사하자 윤석열 정부에 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 인플레법 우려 현실됐다…현대차그룹 美 전기차 판매 크게 감소(종합) 9월 전기차 판매대수 전월대비 현대차 14%, 기아 22% 각각 줄어 9월 전체 車판매는 전년 동월 대비 현대차 11%, 기아 6%씩 증가 김태종 특파원 = 한국산 전기차에 대한 보조금 지급 차별 논란으로 우려를 낳 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 재생하기 재생시간02:08 英 트러스 굴욕적 유턴·시장은 반색...뉴욕증시 2.5% 급등 영국의 신임 트러스 총리가 결국 부자 감세 정책을 철회하면서 집권 한 달 만에 체면을 구겼지만, 금융 시장은 반색했습니다. 국채금리가 안정세를 보이면서 뉴욕 증시는 2.5% 안팎의 급등세로 4분기를 기분 좋게 시작했 600억짜리 최신형 전투기 또 '산산조각'…러軍, 계속되는 굴욕 최근 우크라이나 동부 도네츠크 리만 지역에서 수백억원에 달하는 러시아 전투기가 박살 난 채 발견됐다. 2일(현지시간) 우크라이나 공군사령부는 동부 요충지인 리만에서 러시아 전투기 수호이(Su)-34 파편을 찾았다고 결혼식날 신부 혼자 탄 차에 발길질한 여성…따지자 "더러운 X" 결혼식 당일 신부가 타 있는 차량에 이유 없이 발길질하고, 이에 신부가 항의하자 사과도 하지 않고 되레 욕설을 한 여성의 행태가 알려져 빈축을 사고 있다. 최근 한문철 변호사가 운영하는 유튜브 채널 '한문철 TV'에 BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 “왜 대답안해” 16살 딸 청소기로 때린 엄마…전치 8주 진단 사춘기 딸을 청소기로 때려 전치 8주의 상처를 입힌 친모가 징역형 집행유예를 선고받았다. 3일 춘천지법 형사2단독 박진영 부장판사는 아동복지법상 아동학대와 특수상해 혐의로 기소된 A씨(56)에게 징역 8개월에 집행유 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 윤석열 대통령의 ‘비속어 파문’ 여파 탓에 정부와 여당 지지율이 동반 하락하는 가운데 국민의힘이 격랑의 한 주를 맞았다. ‘정진석 비상대책위원회’의 존폐와 이준석 전 대표 추가 징계가 한꺼번에 결정될 가능성이 적지 재생하기 재생시간02:20 우크라, 남부 전선도 돌파…핵 위기 커지나 우크라이나 소식입니다. 동부 요충지를 탈환한 우크라이나군이 남부에서도 주목할만한 전과를 올리고 있습니다. 그런데 우크라이나군이 영토 탈환에 성공할수록 러시아의 핵무기 사용 가능성이 커질 수 있다는 우려가 나옵니다. "월급 줄 돈 없다"…기증 인체조직 헐값에 판 공공기관 인체조직을 기증받아 이식재를 생산하는 보건복지부 산하 공공기관이 직원들에게 줄 월급이 없다는 이유로 기증받은 인체조직을 '할인 판매'한 사실이 드러났습니다. 어제(3일) 국회 보건복지위원회 소속 더불어민주당 강선우 홍준표, 4년 전 이준석 "'나는 왜 정치하나' 아침마다 5번 복창" 발언 두고 "조롱" 홍준표 대구시장이 최근 페이스북 글에서 타깃으로 정해 연일 비판을 가하고 있는 '개혁보수'에 대한 지적을 3일 저녁에도 이어나갔다. 전날인 2일 페이스북을 통해 "박근혜 전 대통령을 민주당과 합작해 끌어내린" "내부 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 "3명 중 1명은 아이폰"…'삼성 텃밭' 한국서 반전 쓴 애플 [배성수의 다다IT선] '삼성 텃밭'으로 불리던 국내 스마트폰 시장에서 지각변동이 일어나고 있다. 좀처럼 20%대 점유율을 벗어나지 못했던 애플이 올해 하반기 들어 한국 시장에서 입지를 크게 키우면서다. 4일 트래픽 분석사이트 스탯카운터에 재생하기 재생시간01:46 [단독] "상품권 싸게 팔아요"…인터넷서 20억대 신종 사기 요즘 인터넷 개인 판매업자에게 할인된 상품권 구매하시는 분들 계실텐데, 주의하셔야겠습니다. 상품권 가액보다 더 많은 현금으로 돌려준다고 하면서 20억 원 대의 돈을 가로챈 신종 사기범이 붙잡혔습니다. 윤정주 기자가 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 건설 단계 민자도로, 국토부 출신 대표를 선호하는 이유 딜북뉴스 유료 [인사이트] 테라-루나 조사, 韓 ICT 기업 전방위로 확대 유목민의 시그널리포트 지옥 같은 시장에서 살아남은 통신업 📱 너겟 유료 &lt;9.28.수&gt; 오늘의 주요 증시 일정 리치언니 투자노트 미국 버추얼트립 - 앨라배마 민플릭스 유료 러 핵전쟁 우려💣 미국인 대피 금지령 떨어졌다🙀 주식사주는누나 유료 인버스 투기 수익 확정. 기록 남김. 버핏2배랩 '어제보다 나은 오늘' 만들기 프로젝트 습관부자의 부자 되는 습관 '피'와 땀으로 너희를 키웠다. 단호박 소설 유료 사흘만에 또 2발... 북한의 속셈은? 업클 유료 86번가 데일리 (2022년 10월 3일) - 영국의 부자 감세 철회 + ISM 제조업 PMI 부진 =&gt; 금리 하락, 주식 상승 86번가 유료 (서울 모아타운 가능성 분석) 서울 강남구 일원동 662-1 일대 젤리 부동산 연구소 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 국민일보 예 아니오</t>
+    <t>관광객 증가로 제주도 숙박시설 8월까지 풀예약, 수익형 풀빌라 ‘라메종’ 화제 본문 바로가기 관광객 증가로 제주도 숙박시설 8월까지 풀예약, 수익형 풀빌라 ‘라메종’ 화제 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 부동산 관광객 증가로 제주도 숙박시설 8월까지 풀예약, 수익형 풀빌라 ‘라메종’ 화제 기사입력 2015-06-16 18:10 제주도의 부동산시장이 뜨겁게 달아오르고 있다. 제주도를 찾는 관광객이 1200만 명을 돌파한데다가 각종 개발호재가 잇따르고 있기 때문이다. 제주영어교육도시에는 국제학교(학생수요 9000명, 7개교), 영어교육센터, 외국교육기관, 주거 및 상업시설 등이 들어선다. 총 사업비가 약 1조7810억원에 달하며 2021년 모두 완공된다. 이 곳에 7개의 국제학교가 모두 들어서면 학생수요가 9000여명에 이를 것으로 보인다. 현재, 제주영어교육도시 내에 영국 NLCS, BHA, KIS 3개 국제학교가 운영 중에 있다. 또 2016년 상반기 착공할 세인트 존스베리 아카데미 학교가 2017년 9월에 개교될 예정이다. 국제학교 졸업생들이 세계 100대 주요대학에 합격하면서 제주영어교육도시에 대한 관심이 더욱 높아지고 있다. 이로 인해 전국에서 제주영어교육도시에 몰리는 교육수요가 더욱 늘어날 것으로 예상된다. 동북아 최대 규모의 한국형 복합리조트 개발로 주목받고 있는 ‘신화역사공원’은 올해 2월 착공해 오는 2018년까지 특급호텔, 컨벤션센터, 휴양리조트, 테마파크, 워터파크, 세계음식테마거리, 면세점, 외국인 전용 카지노, 고급 쇼핑시설 등이 갖춰진 복합 리조트로 조성될 예정이다. 제주도를 방문하는 내,외국인 관광객이 매년 증가세를 보임에 따라 현재 숙박시설이 턱없이 부족한 실정이다. 제주도내 숙박시설 현황에 따르면 2015년 6월에서 8월까지 성수기 풀빌라 예약은 마감된 상태이며, 마감에도 불구하고 관광객들의 문의가 끊이질 않고 있다. 스파펜션, 펜션 등이 약 10~25만원, 풀빌라는 약 40~70만원으로 거래되고 있어 충분한 희소성으로 인해 안정적인 수익을 얻을 수 있는 풀빌라에 투자자들의 관심이 집중되고 있다. 늘어나는 관광객 수에 대비 객실수가 부족하여 풀빌라 숙박시설 공급에도 활기를 보이고 있다. 그 동안 제주도에서는 분양형 호텔이 큰 인기를 얻은 바 있으나 공급과잉현상에 대한 우려가 커지면서 최근 수익형 풀빌라의 인기가 높아지고 있는 실정이다. 지난 4월 6일 제주도는 ‘농지기능관리 강화방침(농지의 용도변경을 통한 개발을 제한하고, 경자유전의 원칙을 철저히 적용하여 농지 고유의 목적에 맞게 이용하겠다)’을 발표하면서 “앞으로 제주도는 농지 개발이나 투자가 더욱 어려워 주거와 투자가치 상승 두 마리 토끼를 모두 잡을 수 있는 최고의 투자처”라며, “현재 전원생활을 꿈꾸거나 시세차익을 노리는 투자자, 영어교육도시 신입생 학부모, 세컨드하우스를 원하는 많은 이들의 투자 문의가 끊이질 않고 있다”고 전했다. 최근 제주도에서 가장 주목을 받고 있는 수익형 부동산 중 대표적인 상품이 바로 제주도 유수암리에 위치한 풀빌라 ‘라메종’ 이다. ‘라메종’은 무엇보다 기존 투자지분 방식이 아닌 건물과 토지의 개별등기가 가능하고 증축이 가능해 노후대비와 차후 매매를 통해 수익이 발생한다는 점이 주목된다. 개인이 건축(건물 40평, 토지 100평) 시에는 3.3㎡당 약 600만원으로 5억 2천만원이 소요되는 반면 라메종 주택단지는 2억 6천만원으로 50%정도의 비용절감이 가능하다. 현재 3.3㎡ 당 공사비용은 빌라 약 350만원, 아파트 약 420만원, 호텔 약 600만원 가량이며, 대부분의 금액은 지하토목 공사에 사용된다. 그러나 라메종 주택단지는 3.3㎡ 당 공사비용이 520만원이며, 지하토목 공사 없이 호텔급 건축으로 공사가 가능하고 무엇보다 국내최초 온도조절이 가능한 사계절 온수 수영 장이 풀빌라 안으로 설계돼 있어 사계절 사용이 가능하기 때문에 럭셔리한 고급 전원주택 단지에서의 힐링과 여가를 즐기고자 하는 이들에게도 큰 인기를 얻고 있다. ‘라메종' 고급전원주택 단지 분양에 관한 보다 자세한 상담은 전화(02-2655-9922) 또는 공식 사이트( www.라메종.com )를 통해 무료로 가능하다. [위 내용은 MBN의 편집방향과 무관하며, 해당업체에서 제공한 보도자료입니다.] Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 관련 뉴스 관광객 증가로 제주도 숙박시설 8월까지 풀예약, 수익형 풀빌라 ‘라메종’ 화제 화제 뉴스 "경력 1년 통째로 날아가"…한전, 채용형 인턴 차별적 운용 [단독] 은행원 기지로 '5000만 원' 보이스피싱 수거책 체포 'naver.pay' 주소·로고까지 똑같다…네이버페이로 속이고 사기 친 판매자 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 신혜성, 음주운전 인정…"본인 차 아닌지 몰랐다" '우유 없는 밀크티 부터 고기 없는 육포까지' 중국 제조법 폭로남 계정 삭제 오늘의 이슈픽 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
+  </si>
+  <si>
+    <t>메르스 종식 시점 "6월 내로는 어렵다"...제주도 관광객 "다 퍼뜨리겠다"..관광객 20% 수준으로 급감 본문 바로가기 NAVER 뉴스 연예 스포츠 날씨 프리미엄 검색 언론사별 정치 경제 사회 생활/문화 IT/과학 세계 랭킹 신문보기 오피니언 TV 팩트체크 구독 서울경제 언론사 구독되었습니다. 메인 뉴스판에서 주요뉴스를 볼 수 있습니다. 보러가기 서울경제 언론사 구독 해지되었습니다. 메르스 종식 시점 "6월 내로는 어렵다"...제주도 관광객 "다 퍼뜨리겠다"..관광객 20% 수준으로 급감 입력2015.06.19. 오전 11:28 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 메르스 종식 시점 "6월 내로는 어렵다"...제주도 관광객 "다 퍼뜨리겠다"..관광객 20% 수준으로 급감 메르스 종식이 6월 내로 어렵다는 전망이 나온 가운데 제주 메르스 확진 관광객의 이동경로와 행적이 충격을 주고 있다.세계보건기구(WHO) 메르스 합동평가단 측은 18일 메르스 종식 시점이 6월 안으로는 어렵다는 관측을 내놨다.국회 메르스 대책특위는 이날 WHO 메르스 합동평가단에 참여한 한국 측 전문가들을 상대로 13일 발표된 합동평가단의 평가 결과 등에 대해 질의했다.이날 회의에 참여한 정해관 성균관대학교 예방의학과 교수는 이 자리에서 메르스 종식 시점과 관련해 "짧게 봤을 때는 6월 중에 종식되는 것은 힘들지 않겠나 본다"라며 "7월 중에 종식되면 대단히 성공적인 것이 될 것 같다"라고 밝혔다.이에 이종구 서울대 의과대학 교수는 "적어도 수주는 걸릴 것으로 평가단은 생각하며, 또 이는 지금처럼 산발적인 발병이 멈추고 난 뒤의 수주를 말하는 것이다"라고 밝혔다.한편 메르스 부부사망 소식과 함께 메르스를 퍼트리겠다고 난동 부리던 환자가 제주도 여행을 다녀온 것으로 밝혀져 충격을 주고 있다. 제주 관광객 메르스 확진 판정을 받은 환자가 가족 등 일행 12명과 함께 3박 4일로 제주도 여행을 다녀온 게 뒤늦게 밝혀져 충격을 주고 있다.보건당국은 19일 "확진 판정이 나온 지 나흘이 지난 어제서야 해당 환자가 일선 보건소로부터 제주 여행 사실을 보고 받았다"면서 "제주도에 함께 다녀온 사람들이 여행 도중, 이 환자가 기침을 했다는 사실을 해당 보건소에 알렸다"고 밝혔다. 삼성서울병원을 방문했다 감염된 이 환자는 지난 12일 강남세브란스병원에 격리돼 검사 결과를 기다리던 중 밖으로 뛰쳐 나와 소란을 피우기도 했다. 당시 이 환자는 강남세브란스병원에서 메르스 검사를 받던 중 "내가 메르스에 걸렸다면 다 퍼뜨리고 다니겠다"며 소란을 부렸으며, 검사 결과도 기다리지 않고 걸쇠를 부수고 진료소를 벗어나 택시를 타고 집에 돌아가기도 해 논란에 휩싸였다. 메르스 확진을 받은 141번 환자가 확진전 3박4일 일정으로 제주도를 여행한 사실이 알려져 파문을 일으키고 있는 가운데 원희룡 제주지사는 “청정 제주를 지키기 위해 최선을 다하겠다”고 밝혔다.이와 관련 원희룡 제주도지사는 19일 MBC라디오 ‘신동호의 시선집중’과의 인터뷰에서 141번 환자에 대해 “질병관리본부와 우리 도내에서 역학조사를 직접 한 팀들의 판단은 제주 체류 당시에 감염돼 있을 가능성은 그렇게 크진 않다고 보고 있다“면서 ”공항과 호텔내 발열감지기 상으로도 전혀 나타난 게 없었고 배우자 얘기로는 메르스를 의심할 수 있는 기침이라든가 발열은 없이 단지 몸이 피곤했다는 진술이다. 하지만 당시에 그 증세를 보였을 가능성까지 파악해서 밀접접촉자는 모두 격리조치를 하고 있다“고 설명했다.원지사는 이어 “그래도 혹시 파악이 미진한 동선상에 밀접접촉자가 있는지를 추가로 계속 파악하고 있으며 6월 8일 날 공항에서의 동선에서 일부 밀접 접촉자가 있을 수도 있다는 판단 때문에 최종 정리가 되는 대로 공개를 해서 혹시 있을지 모르는 그 밀접접촉자의 자진신고를 받을 계획이다”고 덧붙였다.원지사는 이번 메르스 사태로 제주도내 외국인 관광객이 급감했다며 “평소에 예를 들어서 한 5000명이 왔다 그러면 지금 한 1000명 수준으로 줄어 있는 상태고 더 심한 문제는 성수기인 7월, 8월에 예약이 많이 취소되고 신규예약이 이루어지고 있지 않기 때문에 사실 관광객의 감소가 매우 심각한 상황”이라고 안타까워 했다. 한국아이닷컴 이슈팀 reporter@hankooki.com[ⓒ 한국미디어네트워크, 무단 전재 및 재배포 금지] 한국아이닷컴 이슈팀 Copyright ⓒ 서울경제. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 면역력은 물론… 메르스 때문에 난리났다 김주하, 손석희에 얼마나 당했길래… 깜짝 연기연습 중 실종 여배우 3일만에… 경악 현대차 얼마나 안 팔리면 이런 일까지… '약속 깬' 박대통령에 돌직구 날린 오바마 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 서울경제 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 서울경제 헤드라인 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 홍준표 대구시장이 국민의힘 차기 당권 주자로 이름을 올리고 있는 유승민 전 의원을 향해 "배신 경력 있는 사람은 가라"고 날카롭게 대립각을 세웠다. 홍 시장은 11일 자신의 페이스북에 올린 글을 통해 "악역도 마다하 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)이 음주 측정을 거부하다가 현행범으로 체포됐다. 이와 함께 경찰은 신혜성이 타고 있던 차량에 대해 도난 신고가 들어온 사실을 확인하고 절도 혐의도 함께 수사 중이다. 11일 아이폰14 들고 롤러코스터 탔다가…911 수십통 전화 '황당' 애플이 아이폰14 시리즈에서 새롭게 선보인 ‘충돌 감지 기능’의 오작동 사례가 발견됐다. 놀이기구에 탑승한 것을 교통사고로 인식해 911에 전화를 건 것이다. 10일(현지시간) 월스트리트저널(WSJ) 등 외신에 따르 "정말 91세 맞나"…현역 최고령 美모델, 과감한 누드 화보 91세 현역 최고령 모델 카르멘 델로레피체가 잡지 ‘뉴유(New You)’의 표지를 장식했다. 델로레피체는 과감한 누드 화보도 선보였다. 미국 건강 및 뷰티 잡지 ‘뉴유’는 홈페이지와 유튜브를 통해 최근 델로레피체의 이전 뉴스들 보기 3 다음 뉴스들 보기 서울경제가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 서울경제 헤드라인 더보기 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 56분전 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' 17시간전 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 1시간전 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 4시간전 아이폰14 들고 롤러코스터 탔다가…911 수십통 전화 '황당' 57분전 "정말 91세 맞나"…현역 최고령 美모델, 과감한 누드 화보 51분전 서울경제 랭킹 뉴스 오전 10시~11시까지 집계한 결과입니다. 오전 8시~11시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' 17시간전 2 14살 제자와 성관계 '발칵'…태권도 사범 "진심으로 사랑" 20시간전 3 쇼핑몰 대박 강민경, 65억 건물 사서 이사…"팀원들 다 울어" 7시간전 4 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 4시간전 5 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 1시간전 1 尹대통령, 北향해 “핵 통해 얻을 수 있는 건 아무것도 없다” 3시간전 2 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' 17시간전 3 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 4시간전 4 14살 제자와 성관계 '발칵'…태권도 사범 "진심으로 사랑" 20시간전 5 김용민 “尹, 5년 못 채우게”…대통령실 “헌정 질서 흔들겠다는 것” 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 전국 38만여가구가 집을 비롯해 전 재산을 다 팔아도 빚을 갚지 못하는 ‘고위험’ 상황인 것으로 나타났다. 고위험 가구가 진 빚은 전체 금융 부채의 6%를 넘는 69조원에 이른다. 미국이 돈줄을 강하게 죄면서 시중 “한동훈 말만하면 화제, 관심 피크 찍었다”… 어록집 나오는 이유 한동훈 법무부 장관의 발언을 모은 어록집이 출판되는 가운데, 이를 기획한 출판사 측은 “유튜브 방송을 보다가 어떤 분이 출판계에서는 야당 인사들이 낸 책들이 베스트(셀러)가 되는데 정부나 여당에 속한 분들 책은 거의 ‘비속어 보도 경위’ 따졌던 대통령실, MBC에 “답 해라” 압박 대통령실이 윤석열 대통령의 ‘비속어 논란 보도’와 관련 수사를 받는 &lt;문화방송&gt;(MBC)을 향해 “기본적으로 공영방송이 책임을 다하고 있느냐는 질문에 대해 답이 필요하다”고 압박했다. 대통령실의 이재명 부대변인은 1 재생하기 재생시간03:19 [단독] 'SLBM 개발' 국방과학연구소, 5년 동안 160명 떠났다 지난해 세계 7번째로 잠수함 발사 탄도미사일, SLBM 개발에 성공한 국방과학연구소에서 최근 5년 동안 160명 넘는 연구 인력이 퇴사한 것으로 YTN 취재 결과 파악됐습니다. SLBM 개발은 물론, 핵심 국방기술을 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 치매, ○○ 무뎌지거나 코골이 심해지면 의심 치매 걱정된다면…가족과 가깝게, 친구는 많이 음주 후 전날 일 기억 안난다면 ‘경고등’ 흡연·비만·사회고립 등 위험인자 피해야 당신의 정신건강, 안녕하십니까 아침에 유난히 일어나기 힘들고, 작은 일에도 쉽게 화가 난 “집값 떨어졌는데 분양가가 왜이래?” 사전청약 포기하는 당첨자들 집값 오를땐 신청 몰렸지만 시세와 비슷, 역전되자 외면 작년 400대 1까지 육박한 경쟁률 올해는 40%나 계약 철회한 곳도 지난달 LH(한국토지주택공사)는 작년 사전 청약을 했던 ‘인천검단AA21블록’에 대한 본청 “키스 5단계는” “치마 짧으면 좋아”… 중학교 선생님이 이런 농담을 중학생들에게 성적 농담 등의 부적절한 발언을 했다가 해임된 교사가 징계 처분에 불복해 민사 소송을 냈지만 패소했다. 기사와 무관함 (사진=이미지투데이) 11일 인천지법 민사11부(정창근 부장판사)는 전직 중학교 교사 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 재생하기 재생시간01:39 2900세대 전기료 잘못 깎아준 한전…환수 방법 없어 '발동동' 이달부터 전기요금이 크게 올랐는데, 또 인상된다는 얘기가 나옵니다. 적자 때문에 어쩔 수 없다는 게 한전의 설명인데요. 그런데 이런 한전이 전기요금 할인 혜택을 잘못 적용해서 결과적으로 손해를 본 것으로 드러났습니다 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 [단독] 물은 그대론데... 장관 한마디에 KTX 세면대 '음용불가' 문구 삭제 원희룡 국토교통부 장관의 한마디에 2004년 개통 이래 유지됐던 KTX 화장실 세면대에 적혀 있던 '이 물은 마실 수 없습니다'라는 문구가 사라진 것으로 확인됐다. 다만 KTX 열차 내 세면대 수질은 그대로라서 이용 재생하기 재생시간02:37 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 당뇨병 환자의 상당수는 과체중이나 비만인 경우가 많은 데요. 그런데 애초 당뇨약으로 개발됐지만, 체중 감량 효과가 커 비만 치료제로 크게 각광받는 약이 미국에서 잇달아 나오고 있습니다. 비만약으로 대박을 터뜨리게 된 "주택대출 안 갚겠다" 뿔난 서민들…무너지는 중국 부동산 중국 경제의 핵심 축인 부동산산업에 경고음이 울리고 있다. 오는 16일 개막하는 중국 공산당 전국대표대회(당대회)에서 지도부가 어떤 대응책을 내놓을지 주목된다. 10일 시장정보 업체 중국부동산정보(CRIC)에 따르면 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 배상금 75억… 전속계약금 70억… '1타 강사' 돈잔치 씁쓸한 이면 75억 원. 수능 국어 '1타 강사'(1등 스타 강사) 유대종씨가 서민들은 평생 만져보지도 못할 돈을 배상금으로 낼 위기에 처했다. 유씨가 2019년 경쟁업체로 무단 이적해 메가스터디에 끼친 손해를 갚으라는 1심 선 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' 전 세계적으로 코로나19가 잠잠해지자 아프리카에서 또 다른 감염병 경고등이 들어왔다. 치명률이 50%에 육박하는 에볼라 바이러스다. 한 달 사이 벌써 30여명이 사망했고 2014년 에볼라가 유입된 경험이 있는 미국엔 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 신호대기 중 자동차와 오토바이 간 가벼운 접촉사고가 발생했는데, “괜찮다”며 자리를 뜬 오토바이 운전자가 뒤늦게 200만 원의 합의금을 요구해왔다는 사연이 전해졌다. 지난 4일 유튜브 채널 ‘한문철TV’에는 ‘한방병 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 [관심 보고서] 3Q 실적 발표를 앞두고 실적이 상향되는 기업들 (1) 한국주식 미국ETF 유료 [영어표현] glow up / suit yourself / piggyback ride 우야한 영어사전 부동산 투자를 잘하기 위해서는 학문에 대한 공부가 필요할까요? (feat.부동산 학과 졸업생) 홈즈부동산 이슈픽 유료 대구 남구 아파트 리스트 - 대구의 숨은 명품 주거지! 스마트튜브 부동산조사연구소 유료 💌[연휴 특별판] ✍부린이 부동산 공부 가이드북👣 어썸레터 유료 [인사이트]&lt;기업과 권력②&gt; CJ 李남매의 권토중래...문재인 정부도 부담스러웠을 이강철 KT 사외이사 유목민의 시그널리포트 유료 [투자 웹소설_프롤로그] 뉴스를 보면 52주 최고가가 보인다 직관적인 주식이야기 (직관주식) 유료 이준석 전 대표의 3, 4, 5차 가처분 신청을 각하, 기각한 결정은 타당할까? LAW 파트너스 유료 식사 대용으로 먹을 수 있는 간식 영양쌤과 영양톡톡 유료 직원 모니터링의 역효과 HBR 에센셜 유료 오늘의 시사상식 문제 #347 매경 취업스쿨 유료 [A] 테일게이팅 프리미엄 조선 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 서울경제 예 아니오</t>
+  </si>
+  <si>
+    <t>MBC NEWS MBC 뉴스 요청하신 페이지를 찾을 수 없습니다. 주소가 잘못 입력되었거나, 변경 혹은 삭제되어 요청하신 페이지를 찾을 수 없습니다. 입력하신 주소가 정확한지 다시 한번 확인해 주세요. 감사합니다. 메인 Copyrightⓒ Since 1996, MBC All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 관광업계 ‘메르스 불똥’ : 전국일반 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야” 서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라”‘위법 감사·대통령실 직보’ 논란 최재해·유병호, 공수처에 고발돼박홍근 “대통령실 기획, 감사원 하청 ‘대감 게이트’…공수처 수사해야” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 윤 대통령, 일제고사 부활 선언…“원하는 모든 학교 참여토록” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장 출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계이준석, 가처분 기각에 “더 외롭고 고독하게 제 길 가겠다” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리 달 남극 탐사, 미-중 경쟁…선점하면 기지 건설도 앞선다재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국전국일반 제주도 관광업계 ‘메르스 불똥’ 등록 :2015-06-05 00:12 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 중국 관광객·수학여행단 예약취소 숙박업소·전세버스업체 비상걸려 메르스 공포가 전국으로 번지면서 제주행을 계획했던 중국인 관광객과 수학여행단 등이 일정을 취소하면서 제주도 내 관광업계도 타격을 받고 있다. 제주지역에서 운영하는 중국 전문 여행사인 ㅇ여행사는 3일과 4일 이틀 동안 중국 상하이와 베이징, 톈진에서 올 예정이던 중국인 400여명이 관광을 취소했다고 밝혔다. 또다른 대형 여행사는 하루 평균 400~500여명이 취소하는 것으로 나타났다. 이처럼 중국인들의 제주 관광이 줄줄이 취소되면서 숙박업소와 전세버스업체들도 비상이 걸렸다. 제주시 연동 ㅇ호텔의 경우 다음주 예약됐던 객실 40여개가 3일 취소됐다. 중국 전문 여행사 관계자는 “메르스에 대한 걱정 때문에 중국 현지에서 환불을 받아가는 사례가 나타나고 있다. 앞으로가 더 문제다. 10~14일 제주에 올 계획이던 단체관광객들도 일정을 취소할 것 같다”고 말했다. 다른 지방의 수학여행단이나 체험학습단의 제주 일정도 잇따라 취소되는 것으로 알려졌다. 강원도 지역의 한 고교 수학여행단 190여명이 이달 제주도에 오기로 했다가 다른 지방으로의 수학여행과 체험학습을 전면 금지하라는 지침에 따라 최근 여행을 취소했다. 이와 함께 제주도 내 초등학교 2곳과 고등학교 4곳 등 6곳도 이달 초 서울과 경기로 수학여행을 가기로 계획했다가 무기한 연기했다. 제주도관광협회 관계자는 “아직까지 큰 타격은 없는 것으로 보이지만 중국인 관광객들을 중심으로 예약을 취소하는 사례가 나타나고 있다. 정확한 실태를 파악하기 위해 여행사별로 최근 예약 취소 현황을 조사하고 있다”고 말했다. 허호준 기자 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. ‘노모 생신’ 시골에 모였다가 일가족 5명 숨져…“일산화탄소 중독” 3. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 4. 무등산 정상 복원하려는데…군부대 주둔 전 사진이 없다 5. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광업계 ‘메르스 불똥’ 본문 바로가기 이전 페이지 한겨레 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 한겨레 주요뉴스를 볼 수 있습니다. 보러가기 한겨레 언론사 구독 해지되었습니다. 주요뉴스 생중계 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 제주도 관광업계 ‘메르스 불똥’ 입력2015.06.04. 오후 8:05 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [한겨레] 중국 관광객·수학여행단 예약취소숙박업소·전세버스업체 비상걸려 메르스 공포가 전국으로 번지면서 제주행을 계획했던 중국인 관광객과 수학여행단 등이 일정을 취소하면서 제주도 내 관광업계도 타격을 받고 있다. 제주지역에서 운영하는 중국 전문 여행사인 ㅇ여행사는 3일과 4일 이틀 동안 중국 상하이와 베이징, 톈진에서 올 예정이던 중국인 400여명이 관광을 취소했다고 밝혔다. 또다른 대형 여행사는 하루 평균 400~500여명이 취소하는 것으로 나타났다. 이처럼 중국인들의 제주 관광이 줄줄이 취소되면서 숙박업소와 전세버스업체들도 비상이 걸렸다. 제주시 연동 ㅇ호텔의 경우 다음주 예약됐던 객실 40여개가 3일 취소됐다. 중국 전문 여행사 관계자는 “메르스에 대한 걱정 때문에 중국 현지에서 환불을 받아가는 사례가 나타나고 있다. 앞으로가 더 문제다. 10~14일 제주에 올 계획이던 단체관광객들도 일정을 취소할 것 같다”고 말했다. 다른 지방의 수학여행단이나 체험학습단의 제주 일정도 잇따라 취소되는 것으로 알려졌다. 강원도 지역의 한 고교 수학여행단 190여명이 이달 제주도에 오기로 했다가 다른 지방으로의 수학여행과 체험학습을 전면 금지하라는 지침에 따라 최근 여행을 취소했다. 이와 함께 제주도 내 초등학교 2곳과 고등학교 4곳 등 6곳도 이달 초 서울과 경기로 수학여행을 가기로 계획했다가 무기한 연기했다. 제주도관광협회 관계자는 “아직까지 큰 타격은 없는 것으로 보이지만 중국인 관광객들을 중심으로 예약을 취소하는 사례가 나타나고 있다. 정확한 실태를 파악하기 위해 여행사별로 최근 예약 취소 현황을 조사하고 있다”고 말했다. 허호준 기자 공식 SNS [페이스북] [트위터] | [인기화보] [인기만화] [핫이슈] Copyrights ⓒ 한겨레신문사, 무단전재 및 재배포 금지 &lt;한겨레는 한국온라인신문협회(www.kona.or.kr)의 디지털뉴스이용규칙에 따른 저작권을 행사합니다.&gt; 허호준 Copyright ⓒ 한겨레. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 황교안 후보자님 뭐하세요?…메르스 탓에 잊혀진 것들 '메르스 환자' 숨진 지역 가보니… 사스-메르스 너무 다른 '방역 대처' [포토] 미군 카메라에 찍힌 1948년 한국 [화보] 이 아이가?…스타들의 어린 시절 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 한겨레 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 한겨레 헤드라인 부서지고 깨진 키이우, 일상도 파괴…“아이들이 가장 큰 고통” [영상] 10일(이하 현지시각) 오전 8시20분께 우크라이나 대통령궁과 정부 기관이 운집한 수도 키이우 다운타운 한복판을 미사일이 가로지르며 삼성전자 현지 사무소가 입주한 빌딩을 비롯해 도심 상가 건물, 교각 등의 시설물을 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 감사원 국정감사가 여야의 고성 속 개의 10분 만에 중단됐다. 11일 오전 국회 법제사법위원회의 감사원 국정감사 파행은 김도읍 법사위원장의 개시 선언과 기관 증인들의 증인 선서 이후 업무보고를 시작하려는 과정에서 일 정진석 “조선은 안에서 썩어 망해…일본은 조선과 전쟁 안해” 정진석 국민의힘 비상대책위원장은 11일 “조선은 안에서 썩어 문드러졌고, 그래서 망했다. 일본은 조선왕조와 전쟁을 한 적이 없다”고 말했다. 민주당에선 “일본 제국주의 침략을 정당화했던 이완용 같은 친일 앞잡이들이 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 최재해 감사원장이 ‘감사원은 대통령 국정운영을 지원하는 기관’이라는 국회 발언 등에 대한 설명을 요구하는 감사원 직원들의 면담 요구를 거부한 것으로 확인됐다. 이런 사실은 감사원 직원이 감사원 운영방식을 비판하는 취 ‘윤석열차’ 숨은 그림 찾아봐…구둣발·한동훈·여가부 다 있어 고등학생이 그린 윤석열 대통령 풍자 만화 &lt;윤석열차&gt;의 ‘깨알 디테일’이 화제다. 이 그림에 대한 정부의 대응이 ‘표현의 자유’ 논란을 불러일으키면서 파장이 정치권까지 확산하자 누리꾼들이 이 그림에 꼭꼭 숨어 있는 이전 뉴스들 보기 3 다음 뉴스들 보기 한겨레가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 한겨레 헤드라인 더보기 부서지고 깨진 키이우, 일상도 파괴…“아이들이 가장 큰 고통” [영상] 50분전 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 54분전 정진석 “조선은 안에서 썩어 망해…일본은 조선과 전쟁 안해” 1시간전 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 19시간전 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 5시간전 ‘윤석열차’ 숨은 그림 찾아봐…구둣발·한동훈·여가부 다 있어 1시간전 한겨레 랭킹 뉴스 오전 10시~11시까지 집계한 결과입니다. 오전 8시~11시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 ‘비속어 보도 경위’ 따졌던 대통령실, MBC에 “답 해라” 압박 2시간전 2 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 19시간전 3 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 5시간전 4 키이우에 울려퍼진 서늘한 휘파람…30초 뒤 공포가 됐다 [현장] 15시간전 5 신화 신혜성, ‘음주측정 거부’ 체포…도로 한복판 정차해 잠들어 2시간전 1 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 5시간전 2 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 19시간전 3 [뉴스AS] ‘검사 면죄부’ 준 술값 쪼개기…김영란법 판례 되나 6시간전 4 ‘비속어 보도 경위’ 따졌던 대통령실, MBC에 “답 해라” 압박 2시간전 5 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” 2시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 신호대기 중 자동차와 오토바이 간 가벼운 접촉사고가 발생했는데, “괜찮다”며 자리를 뜬 오토바이 운전자가 뒤늦게 200만 원의 합의금을 요구해왔다는 사연이 전해졌다. 지난 4일 유튜브 채널 ‘한문철TV’에는 ‘한방병 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? “카카오 때문에 화병 나겠습니다. 부부싸움까지 했어요. 1억원 넘게 손실인데 와이프가 이제라도 팔라고 하네요. 조만간 오르겠지 기대하고 안 팔고 버텼는데 이 지경이 됐으니….”(카카오 투자자) “지하까지 내려온 줄 80대 노모 생신에 일가족 5명 참변..尹대통령 "대책마련" 지시 80대 어머니 생일을 맞아 시골집에 모였던 일가족 5명이 숨진 사고를 조사 중인 경찰과 소방당국이 '일산화탄소 중독'을 잠정 사망 원인으로 결론지었다. 현장에 함께 있던 일가족 6명 중 유일한 생존자인 큰딸은 집 안 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 [단독] 물은 그대론데... 장관 한마디에 KTX 세면대 '음용불가' 문구 삭제 원희룡 국토교통부 장관의 한마디에 2004년 개통 이래 유지됐던 KTX 화장실 세면대에 적혀 있던 '이 물은 마실 수 없습니다'라는 문구가 사라진 것으로 확인됐다. 다만 KTX 열차 내 세면대 수질은 그대로라서 이용 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 전국 38만여가구가 집을 비롯해 전 재산을 다 팔아도 빚을 갚지 못하는 ‘고위험’ 상황인 것으로 나타났다. 고위험 가구가 진 빚은 전체 금융 부채의 6%를 넘는 69조원에 이른다. 미국이 돈줄을 강하게 죄면서 시중 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 지난 5월 7일 여수의 한 아파트 주차장에서 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보 후 무참히 살해됐다. 여수 의처증 살인사건은 ‘어린 피해자의 자녀들이 상처 입을까’ 경찰이 보도 자제를 요청하 "밥 먹고 바로 샤워? No!" 식사 후 금지행동 5 건강을 위해 올바른 식습관을 갖는 건 아주 중요하다. 무엇을, 언제, 얼마나 먹을지 생각해야 하고 식사를 할 때에도 마음을 쓰며 먹는 것이 도움이 된다. 그런데 우리는 평소 무의식적으로 소화에 도움이 되지 않는 행동 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 ‘비속어 보도 경위’ 따졌던 대통령실, MBC에 “답 해라” 압박 대통령실이 윤석열 대통령의 ‘비속어 논란 보도’와 관련 수사를 받는 &lt;문화방송&gt;(MBC)을 향해 “기본적으로 공영방송이 책임을 다하고 있느냐는 질문에 대해 답이 필요하다”고 압박했다. 대통령실의 이재명 부대변인은 1 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업자 3분의 1” 택시 영업익도 배달업의 44%…택시 영업비용 56% 연료비 구자근 의원, 소상공인 운수업 실태분석…“택시 피해 심각” 택시 기사의 연간 매출이 3000만 원 수준으로 퀵·배달대행 서비스에 종사하는 소상공인과 비교해 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 재생하기 재생시간02:21 러, 키이우 등 우크라 전역에 보복 공격…우크라 “복수할 것” 러시아가 키이우 등 우크라이나 전역에 대대적 미사일 공격을 퍼부었습니다. 크림반도와 러시아 본토를 잇는 크림대교 폭발에 대한 보복 공격입니다. 70여명이 죽거나 다쳤는데 우크라이나는 복수를 다짐했고, 서방은 우크라이 배상금 75억… 전속계약금 70억… '1타 강사' 돈잔치 씁쓸한 이면 75억 원. 수능 국어 '1타 강사'(1등 스타 강사) 유대종씨가 서민들은 평생 만져보지도 못할 돈을 배상금으로 낼 위기에 처했다. 유씨가 2019년 경쟁업체로 무단 이적해 메가스터디에 끼친 손해를 갚으라는 1심 선 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 “키스 5단계는” “치마 짧으면 좋아”… 중학교 선생님이 이런 농담을 중학생들에게 성적 농담 등의 부적절한 발언을 했다가 해임된 교사가 징계 처분에 불복해 민사 소송을 냈지만 패소했다. 기사와 무관함 (사진=이미지투데이) 11일 인천지법 민사11부(정창근 부장판사)는 전직 중학교 교사 "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 음주 운전하다 5m 낭떠러지로 추락…나무에 걸려 목숨 건져 음주 운전을 하던 남성이 낭떠러지에 추락하는 사고가 발생했습니다. 어제(10일) 전남 여수경찰서에 따르면 이날 오후 5시 14분경 전남 여수시 남면 금오도 한 도로에서 A(49) 씨가 몰던 1t 트럭이 마을로 진입하 재생하기 재생시간04:32 일본 여행 '모든 제한' 해제됐다…항공권 가격 천정부지 친절한 경제 시간입니다. 한지연 기자 나와 있습니다. 오늘(11일)부터 일본 자유 여행이 이제 가능해진다고요? 네, 2년 7개월 만이죠. 코로나 확산으로 2020년 3월 9일부터 중단됐던 일본 무비자 여행이 오늘부터 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 정진석 국민의힘 비상대책위원장이 11일 이재명 더불어민주당 대표가 한·미·일 합동 군사훈련을 반대하는 데 대해 “경박한 역사 인식으로 국민을 현혹시키지 말라”고 밝혔다. 정 비대위원장은 이날 사회관계망서비스(SNS) 재생하기 재생시간01:39 2900세대 전기료 잘못 깎아준 한전…환수 방법 없어 '발동동' 이달부터 전기요금이 크게 올랐는데, 또 인상된다는 얘기가 나옵니다. 적자 때문에 어쩔 수 없다는 게 한전의 설명인데요. 그런데 이런 한전이 전기요금 할인 혜택을 잘못 적용해서 결과적으로 손해를 본 것으로 드러났습니다 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 코스닥은 외국인 놀이터 Investment strategy 유료 왜 우리만?? Investment strategy [221011 투자시나리오] 에어라인 유료 [D] 북 핵.미사일 위협 고도화로 더욱 중요해진 한미일 연합훈련 프리미엄 조선 유료 '화웨이식 제재'라는 것 들어보셨나요? 미스터동 유료 국회, 대체 어떤 존재일까? 어른들의 사회생활 유료 동아시아 '휘두루는' 두루미 펭귄밀크 유료 대구 달서구 아파트 리스트 - 대구 실거주 수요의 집결지! 최고의 수요 입지!! 스마트튜브 부동산조사연구소 유료 강원도가 레고랜드 빚 안 갚는 진짜 이유 삼프로TV 하이라이트 유료 만원의행복! 한종목투자 48차 (10월7일)로 월천벌기, 십억벌기에 도전하자~ 수익투자 원칙에 따라 투자하세요~ 두배로 주식투자 아카데미 유료 트위치의 난: 망 사용료 내라고? 그럼 화질 깎지 뭐 효라클 일본 지하철 금지 소설 단호박 소설 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 한겨레 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 메르스로 1만2천 관광객 취소.연기 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 메르스로 1만2천 관광객 취소.연기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 메르스로 1만2천 관광객 취소.연기 기자명 고나연 기자 입력 2015.06.08 11:35 수정 2015.06.08 16:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 道관광협회, 피해 최소화 위해 최선 ▲ 제주시 연동에서 메르스 공포로 마스크를 착용한채 관광을 하는 중국관광객 모습. (제주=국제뉴스) 고나연기자 = 제주도의 메르스로 인한 관광객 취소 또는 연기한 관광객을 잠정집계한 결과 1만1279명인 것으로 나타났다.또한 메르스 확산으로 피해도 늘어 날 것으로 전망돼 이에 대한 대책마련이 필요하다는 지적이 나오고 있다. 제주특별자치도관광협회(회장 김영진)는 지난 1일 메르스 제주 유입 방지 및 관광사업체 피해 최소화를 위해 단계별 대응방안을 마련하고 사무본부내에 비상 상황실을 운영해 메르스 피해 확산 방지에 철저를 기해 피해 최소화에 최선을 다하고 있다고 8일 밝혔다. 상황실에는 협회 전 회원사 대상 메르스 정보공유 및 감염 예방수칙 전달, 제주도 메르스 대책본부 지시사항 이행 및 확인사항 보고, 업종별 관광사업체 대상 관광객 취소사례 파악, 메르스 현장 모니터링 등에 철저를 가하고 있다.또한 메르스 심각단계 발령시 제주도 대책본부 지침에 의거 분야별 실천계획을 수립 추진하고, 관광협회 18개 분과위원장단회의 개최 후 사태에 적극 대처해 나갈 방침이다. 관계자는 "이날부터는 전 관광사업체를 대상으로 전수조사를 실시할 계획"이라고 말했다.한편 메르스 발생에 따 총 1만1279명의 관광객이 취소 및 연기한 것으로 잠정 집계됐고 이중  외국인은 5056명으로 중국인 4792명 일본 230명 동남아 22명 미주 12명이고 내국인 관광객은 6223명인 것으로 조사됐다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>이정 "관광객, 이효리 제주도 집 찾듯 우리집에도…" 호기 미래를 보는 경제신문 2022 | 10 | 11 13.8℃ 전자ICT 모바일·반도체 디스플레이·부품소재 게임·IT 통신·미디어 금융증권 정책·통화 은행 증권 보험·카드 시황·환율 재테크 일반 건설 정책 부동산 건설사 자동차 기업일반 신차출시 시승기 미래모빌리티 항공 택배 철강조선 기업일반 시황 수발주 친환경·스마트 에너지 정유·에너지 석유화학 정밀화학 첨단소재 제약·바이오 유통 채널 식품 패션·뷰티 호텔·가구 많이 본 기사 외국인 불법 공매도 잡힐까…당국 "실명제 검토" 정무위 국정감사에서 제기된 '깜깜이 공매도 논란'에 금융당국이 외국인 불법 공매도 발생 시 실명을 공개하는 방안을 검토하고 있다고 밝혔다. 금융시장 변동성이 극심해지자 당국도 불법 공매도를 차단할 방법을 고심중인 것이다.11일 국회와 금융투자업계에 따르면 지난 6일 김주현 금융위원장은 정무위 국정감사에서 외국인 불법 공매도와 관련해 유의동 국민의힘 의원 [단독] '평택판 GGM' 나올까…쌍용차, 노후공장 개선방안 마련 KG그룹 품에 안긴 쌍용자동차가 경영 정상화를 달성하기 위한 첫 번째 과제로 노후화된 평택공장에 대한 생산설비 교체에 나설 것으로 보이는데, 광주 글로벌모터스(GGM)와 비슷한 방안을 고려하는 것으로 알려졌다.특히 평택공장 설비 교체에 수천억원에 달할 수 있는 비용이 들어갈 것으로 예상되는 만큼 지역과 상생하면서도 투자 지원을 통한 비용 절감 차원에서 둔촌주공 입주권 1주일 만에 1억7000 빠져 재건축 최대어 둔촌주공아파트의 입주권 가격이 2년 전보다 낮아졌다. 공사 중단이 길어지면서 사업성에 대한 불안감이 커진 상황에 예상 분담금 규모는 날로 커지고 있기 때문이다. 오는 12월 입주권 거래제한이 풀리면 팔고싶어도 팔지 못했던 물량까지 쏟아져 나오면서 가격 하락은 더 가팔라 질 것으로 예상된다.11일 국토교통부 실거래가공개시스템에 따르면 지난 코스피, 2170선 아래로…코스닥, 3%대 하락 코스피가 11일 하락세로 출발해 2170대로 붕괴했다.이날 오전 9시 25분께 코스피는 전 거래일보다 55.31포인트(2.48%) 내린 2177.53를 기록했다.코스피가 장중 2170대로 내려온 것은 지난달 30일(장중 저가 2134.77) 이후 5거래일 만이다.지수는 전장보다 39.82포인트(1.78%) 낮은 2193.02에 개장했으나 현재는 이보다 진원생명과학, 美 자회사 VGXI 신규공장 준공 진원생명과학은 지난 7일 플라스미드 DNA 위탁개발생산(CDMO) 기업인 자회사 VGXI가 미국 텍사스주 콘로시 데이슨 테크놀로지 파크(Deison Technology Park)에 건설한 신규공장의 준공식을 개최했다고 11일 밝혔다.준공식에는 미국 하원 케빈 브래디(Kevin Brady) 의원, 주휴스턴 대한민국 총영사관 안명수 총영사, 시공사 BE&amp;am '두번째 빅스텝' 전망에 부동산 금리 공포 확산 한국은행이 이르면 오는 12일 열리는 금융통화위원회(금통위)에서 두번째 빅스텝(기준금리를 0.5%포인트 인상)을 단행할 가능성이 유력해지면서 고금리 공포 확산에 따른 부동산 시장 침체도 가속화 될 전망이다. 또 대출 이자 부담에 허덕이는 '영끌'(영혼까지 끌어모음), '빚투족'(빚을 내 투자)들의 비명도 더욱 커질 것으로 보인다.11일 부동산 업계에 따 네이버·카카오 '와르르'…개미 피눈물 삼성전자와 함께 국민주 대열에 합류했던 네이버·카카오의 주가가 폭포수처럼 떨어지고 있다. 하락장에서도 반등할 것이라는 기대감을 갖고 매수에 나섰던 개미(개인투자자)들의 곡소리가 끊이지 않고 있다.11일 한국거래소에 따르면 올해(1월 3일~10월 7일) 네이버 주가는 37만8500원에서 16만원으로 57.73% 급락했다. 같은 기간 카카오 주가도 11만2 [국감 '22] 4대 은행, 무료 탁상자문 전년대비 8%↑ 감정평가 선정권을 가진 운행들이 우월적 지위를 이용해 불공정행위를 일삼고 있다는 지적이 나왔다.은행들이 고객들의 담보물에 대한 감정평가 이전에 감정평가사에게 무료로 자문을 구하는 탁상자문을 정식의뢰 대비 과하게 요구하고서 이를 기초로 대출을 진행해 온 것으로 드러났다.또 정식의뢰를 한 경우에도 이를 취소하고 평가자료는 활용하는 이른바 '먹튀'도 관행적 "정부, HMM 민영화 2025년 말까지 완료 추진" 정부가 오는 2025년 말까지 HMM(옛 현대상선)의 민영화 완료를 추진하는 것으로 나타났다. 11일 국회 농림축산식품해양수산위원회 소속 더불어민주당 신정훈 의원은 한국해양진흥공사로부터 제출받은 새 정부 공공기관 혁신계획 보고서를 분석한 결과 이 같이 밝혔다. 한국해양진흥공사는 단계적으로 보유지분을 축소해 2024년 말까지 HMM 경영지원단을 G마켓 신선식품 부진 털어…60일 만에 스마일프레시 론칭 효과 G마켓 신선식품 매출이 나날이 고공행진 하고 있다. 두 달 전 신선식품 새벽배송 서비스인 '스마일프레시' 도입 이후 지속된 효과다. 공산품에 치우쳐있던 수요가 신선식품으로 확대하면서 G마켓의 온라인 장보기 경쟁력이 한층 강화됐다는 평가가 나온다.11일 유통업계에 따르면 최근 한 달 G마켓 신선식품 일평균 거래액은 스마일프레시 서비스 도입 이전과 비교해 로그인 회원가입 전자ICT 모바일·반도체 디스플레이·부품소재 게임·IT 통신·미디어 금융증권 정책·통화 은행 증권 보험·카드 시황·환율 재테크 일반 건설 정책 부동산 건설사 자동차 기업일반 신차출시 시승기 미래모빌리티 항공 택배 철강조선 기업일반 시황 수발주 친환경·스마트 에너지 정유·에너지 석유화학 정밀화학 첨단소재 제약·바이오 유통 채널 식품 패션·뷰티 호텔·가구 오피니언 기자수첩 외부칼럼 피플 인사 부고 동정 유료기사 화학 철강뉴스 조선·물류 코스피 2,180.34 ▼ 52.5(-2.35%) 코스닥 670.23 ▼ 28.26(-4.05%) USD$ 1434.7 ▲ 5.7 EUR€ 1389.9 ▲ 2.4 JPY¥ 984.7 ▲ 4.2 CNY¥ 199.6 ▼ 0.0 BTC 27,370,000 ▼ 412,000(-1.48%) ETH 1,838,000 ▼ 51,000(-2.7%) XRP 710 ▼ 48(-6.33%) BCH 159,250 ▼ 9,000(-5.35%) EOS 1,490 ▼ 120(-7.45%) 전자ICT 금융증권 건설 자동차 철강조선 에너지 유통 공유 인쇄 텍스트 축소 확대 url복사 이정 "관광객, 이효리 제주도 집 찾듯 우리집에도…" 호기 송고 2015.06.16 16:59 | 수정 2015.06.16 17:02 인터넷뉴스팀 (clicknews@ebn.co.kr) "나름 해외팬 있다…남미서 인기 괜찮아"이정은 최근 방송된 MBC '황금어장-라디오스타'에 출연해 제주도에 있는 자신의 집을 찾아오는 팬에 대해 언급했다.ⓒMBC '황금어장-라디오스타' 방송 화면 캡처가수 이효리가 SNS를 통해 자신의 제주도 집을 관광지처럼 찾아오는 일부 관광객에게 자제를 부탁한 가운데, 가수 이정이 이와 비슷한 경험을 했다고 전했던 얘기들이 새삼 화제다.이정은 최근 방송된 MBC 예능프로그램 '황금어장-라디오스타'에 출연해 '제주도에 대해 자랑을 해달라'는 MC들의 요청에 "이효리가 산다"고 답했다.당시 방송에서 MC들은 "이효리의 집이 제주도 관광지처럼 돼 논란이 된 적이 있는데 어떤가?"라고 물었고, 이정은 "초반에 피곤했을 거다. 우리 집에도 외국 팬인 필리핀 소녀가 온 적이 있다"고 털어놨다.이에 MC 김구라는 의심하는 반응을 보였고, 이정은 "제가 한국 활동이 저조해서 그렇지, 나름 해외팬들이 있다"고 항변했다.이어 이정은 "남미에서도 인기가 괜찮다. 정말 좋다"고 거듭 강조했고, MC 윤종신이 이를 깐죽거리자 이내 이정은 "유명해지면 두고 봐"라고 울분을 삭여 시청자에게 웃음을 자아냈다.이 소식을 접한 네티즌은 "이정 이효리, 집은 개인 사생활인데 왜 찾아갈까", "이정 이효리, 피해 많이 입었겠네", "이정 이효리, 관광 예절 지킵시다" 등 다양한 반응을 보였다.(인터넷뉴스팀)©(주) EBN 무단전재 및 재배포 금지 관련기사 17일 날씨, 수도권 및 내륙에 천둥 동반 '소나기'…제주도 흐리고 '비' 장나라, 장혁과 베드신 "품에 안겨 겨드랑이에 얼굴 묻고는 그만…" 이효리, 렌틸콩 이은 새 건강법 '오일풀링'이 뭐길래… 옥주현 "목욕탕서 이효리 벗은 몸 보고 쌍코피 터질 뻔" 어딜 봤길래? 이효리 "아무리 노력해도 옥주현 '이것' 따라갈 수 없었다" 고백 전체 댓글 0 로그인 후 댓글을 작성하실 수 있습니다. 베스트 클릭 1 외국인 불법 공매도 잡힐까…당국 "실명제 검토" 2 [단독] '평택판 GGM' 나올까…쌍용차, 노후공장 개선방안 마련 3 둔촌주공 입주권 1주일 만에 1억7000 빠져 4 코스피, 2170선 아래로…코스닥, 3%대 하락 5 진원생명과학, 美 자회사 VGXI 신규공장 준공 이슈종합 더보기 10일: 금통위 빅스텝, 5대 은행장, 유가 상승세, 태양광 대출 등 9일: 美, 반도체장비 中수출 금지…삼성·SK '예의주시', TDF시장 '급성장' 등 8일: 中 반도체 시장 위축되나…삼성·SK, 美 고강도 규제 예의주시 등 오피니언 더보기 비탈릭 부테린을 위한 변명 ESG시대의 스타트업(2/2) 美 정부의 바이오 행정명령과 대응 상속재산조회서비스 코로나19와 경주 최부자댁 시황 코스피 코스닥 환율 KOSPI 2,180.34 ▼ 52.5(-2.35) KOSDAQ 670.23 ▼ 28.26(-4.05) 매매기준율 USD$ 1434.7 ▲5.7 EUR€ 1389.9 ▲2.4 JPY¥ 984.7 ▲4.2 CNY¥ 199.6 ▼0 코인시세 비트코인 이더리움 리플 비트코인캐시 이오스 시세제공 업비트 빗썸 코빗 업비트 10.11 12:02 27,370,000 ▼ 412,000 (1.48%) 빗썸 10.11 12:02 27,358,000 ▼ 422,000 (1.52%) 코빗 10.11 12:02 27,366,000 ▼ 429,000 (1.54%) 업비트 10.11 12:02 1,838,000 ▼ 51,000 (2.7%) 빗썸 10.11 12:02 1,836,000 ▼ 55,000 (2.91%) 코빗 10.11 12:02 1,838,000 ▼ 54,000 (2.85%) 업비트 10.11 12:02 710 ▼ 48 (6.33%) 빗썸 10.11 12:02 708.7 ▼ 48 (6.34%) 코빗 10.11 12:02 708.4 ▼ 48.5 (6.41%) 업비트 10.11 12:02 159,250 ▼ 9,000 (5.35%) 빗썸 10.11 12:02 158,700 ▼ 9,300 (5.54%) 코빗 10.11 12:02 159,300 ▼ 8,900 (5.29%) 업비트 10.11 12:02 1,490 ▼ 120 (7.45%) 빗썸 10.11 12:02 1,485 ▼ 124 (7.71%) 코빗 10.11 12:02 1,484 ▼ 122 (7.6%) 등락률 : 24시간 기준 (단위: 원) 인사/부고/동정 더보기 ● [부고] 성인모(한국금융투자협회 수석전무)씨 부친상 ● [부고]이정렬(반도건설 대표)씨 모친상 ● [부고] 장영순(현대이지웰·현대드림투어 대표)씨 모친상 ● [인사] 식품의약품안전처 포토뉴스 대·중소유통 상생협의회 출범 서울미디어홀딩스패밀리미디어 실시간 뉴스 “왜 코 푸냐” “놀고 앉았네” 사장님이 지켜보고 있다 尹대통령 “北 핵위협 앞에 어떤 우려가 정당화되나” “한동훈, 이재명 수사 방미” vs “김의겸, 내부고발 하나” 北 저수지서 SLBM 도발…우리 軍, 탐지 못했다 38만 가구 집 팔아도 빚 못갚아…8%대 주담대 온다 엔저 미끼 던지고 빗장 푼 日…한국인 관광 몰린다 새만금 7200배 먹튀에도...무면허 용역 준 한전자회사 규제로 집 사기 힘들 때, 외국인 3만채 아파트 쇼핑 안철수 “유승민·나경원 출마를” 김기현 “安, 대선 불출마 기대” 문재인 전 대통령, ‘문프셀러’ 현상에 “출판계 도움돼 기쁘다” 삼성 파운드리, 내년 MPW 횟수 20% 늘린다 국세청, 홈택스 상담업체에 21억 손배소 기준금리 3% 시대 임박…한은, 두 번째 빅스텝에 무게 美 유통가, 벌써부터 '블프' 경쟁 돌입…재고 처리 안간힘 [ET시론]SW인력, 지역에서 답을 찾자 '퇴임 앞둔' 김선민 광주테크노파크 원장 “모빌리티 산업, 광주 미래 먹거리” [대한민국 대전환 'ON'] 바다 수놓은 해상풍력…'녹색전환' 이룬 덴마크 디지털 무역 통계, 전자상거래부터 구축...디지털 서비스·데이터 부가가치 반영 등 과제 울산시, '디지털콘텐츠 도시 울산' 조성 게임베리, 알짜사업 '퍼포먼스 마케팅' 부문 분사 [STOP 푸틴] 크림대교 폭발이 핵전쟁으로? 푸틴, ‘개인적 모욕’ 여길 공산 커 ‘친중’ 발언 쏟아낸 머스크 덕?…테슬라, 중국서 역대급 판매량 [포착] 크림대교 폭발은 우크라 소행? ‘의문의 물결’ CCTV에… 어린이 350명 살해한 희대의 살인마 ‘안데스 괴물’ 어디에 [여기는 남미] 옷 바꿔 입고 고용주 대신 PCR 검사…中 극단적 제로코로나 부작용 [이광식의 천문학+] 소행성이 과연 지구를 완전히 파괴할 수 있을까? ‘시각 장애인’도 전쟁터 나가!…러 당국, 징집 할당량에 ‘허덕’ 코끼리 피해 강에 뛰어들었는데, 악어가 공격…팔다리 잃은 남성 수감자간 총들고 칼들고…에콰도르서 교도소 폭동 15명 사망 “이러다 다 죽어!”…중국 어선 3000여 척, 갈라파고스서 오징어 싹쓸이 광고문의 회사소개 제휴문의 개인정보취급방침 이메일주소 무단수집거부 저작권 규약 이용약관 (주)이비뉴스산업경제 l 등록번호 : 서울 아00054 l 등록일 : 2005.09.13 l 제호 : 이비엔(EBN)뉴스센터 l 발행인 : 김영락 l 편집인 : 정재웅 주소 : 서울 서초구 양재대로2길 22-16 호반파크1관 7층 (주)이비뉴스산업경제 ㅣ 대표번호 : 02-6952-9776 청소년보호정책(책임자 정재웅) | 메일문의 : ebnews@ebn.co.kr Copyright (c) 2011 by (주)이비뉴스산업경제 Co.,Ltd. All right reserved EBN 미래를 보는 경제신문</t>
+  </si>
+  <si>
+    <t>제주도 관광개발 사업 37%는 외국인이 추진 본문 바로가기 이전 페이지 경향신문 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 경향신문 주요뉴스를 볼 수 있습니다. 보러가기 경향신문 언론사 구독 해지되었습니다. 주요뉴스 프리미엄 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 제주도 관광개발 사업 37%는 외국인이 추진 입력2015.06.04. 오후 10:03 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 ㆍ중국자본이 대부분… 건물도 2116건 소유제주에서 이뤄지는 관광개발사업의 37%가 외국자본에 의해 추진되는 것으로 나타났다. 제주도가 발표한 1분기 외국인 관련 현황자료를 보면 제주도 전체 관광개발 38개 사업(17조3882억원) 중 37.8%인 9개(6조5894억원)가 외국인에 의해 추진되는 사업이라고 4일 밝혔다. 9개 사업은 테디벨리골프·리조트(중국·싱가포르), 신화역사공원(홍콩·싱가포르), 무수천 유원지(중국), 예래휴양형주거단지(말레이시아), 폴로승마리조트(싱가포르), 이호유원지(중국), 제주헬스케어타운(중국), 성산포 해양관광단지(중국), 백통신원제주리조트(중국)로, 중국 자본이 대부분이다. 외국인이 소유한 건축물은 제주도 전체 건물 면적의 0.72%에 해당하는 2116건이다. 숙박시설이 63%로 가장 많고 공동주택(18%), 단독주택(11%) 순이다.외국인이 제주에서 내는 세금은 제주도가 걷어들이는 취득세의 3.4%인 526억6500만원이며 재산세는 2.9%인 24억8400만원이다. 일반여행업체는 252개 중 13%가 외국인에 의해 운영되고 있다. 중국인 소유가 23개, 대만인 소유가 10개다. 외국인 소유 여행사는 2012년 3개에 불과했으나 최근 중국인 관광객이 급증하면서 직접 외국인이 여행사를 차리는 일이 많아진 것으로 분석된다. 음식점은 제주도 전체 1만2491곳 중 0.5%인 67곳이 외국인에 의해 운영되고 있다. 중국인 소유가 31곳으로 가장 많다. 외국인이 소유한 토지는 도 전체면적의 0.89%인 16.4㎢이다. 중국인이 45%로 가장 많고 미국, 일본 순이다. 지목별로는 임야(52.2%), 목장(15.2%), 농지(11.7%) 순이다.&lt;박미라 기자 mrpark@kyunghyang.com&gt; 모바일 경향 [경향 뉴스진 | 경향신문 앱 | 모바일웹] | 공식 SNS 계정 [경향 트위터] [페이스북] [세상과 경향의 소통 커뮤니티]- ⓒ 경향신문(www.khan.co.kr), 무단전재 및 재배포 금지〈경향신문은 한국온라인신문협회(www.kona.or.kr)의 디지털뉴스이용규칙에 따른 저작권을 행사합니다.〉 박미라 Copyright ⓒ 경향신문. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 박 대통령 "메르스 환자 15명" 발언, 다시보기하니 삭제됐다 사이언스지 "전례없는 '슈퍼전파'···한국서 메르스 폭발" 열아홉 여대생 "어릴 때부터 사람을 죽여보고 싶었다" 연쇄범행 메르스 지역·병원 표기 '전국 메르스 지도' 확산 EPL 선수 3명 성관계 인종차별 동영상 파문 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 경향신문 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 경향신문 헤드라인 [단독]민간화력발전소의 ‘2조원’ ‘4200억’ 건설비 증가···국민 전기료로 보전? 국내 민간 건설사 두 곳이 지출한 석탄 화력발전소 건설 비용이 당초 정부에 제출한 예상비용보다 각각 2조1500억원, 4200억원가량 더 많았던 것으로 나타났다. 당초 계획안보다 늘어난 건설비 증액분은 ‘합리적 소명 감사원 국정감사 개시 8분 만에 파행···진행 방식 두고 고성 국회 법제사법위원회 감사원 국정감사가 11일 개시 8분 만에 파행했다. 법사위원장인 김도읍 국민의힘 의원은 이날 오전 감사원 국정감사에서 더불어민주당 의원들이 감사원의 업무보고 전 의사진행 발언을 요청하자 “간사 간 이재명 “일본 자위대 독도 근해로 부른 안보자해행위”···국민의힘엔 “친일파와 다름 없어” 이재명 더불어민주당 대표는 11일 동해 공해상에서 지난달 30일 이뤄진 한·미·일 연합훈련을 “좌시할 수 없는 국방참사이고 안보 자해행위”라고 말했다. 이 대표는 한·미·일 연합훈련을 방어하는 국민의힘을 겨냥해선 “ 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 정진석 국민의힘 비상대책위원장이 11일 이재명 더불어민주당 대표가 한·미·일 합동 군사훈련을 반대하는 데 대해 “경박한 역사 인식으로 국민을 현혹시키지 말라”고 밝혔다. 정 비대위원장은 이날 사회관계망서비스(SNS) 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 태국 어린이집 참사, 홀로 기적적으로 살아남은 아이 영유아 24명 등 총 38명이 숨진 태국 어린이집 참사에서 한 아이가 홀로 기적적으로 살아남았다. 9일(현지시간) 로이터통신과 BBC 등에 따르면 3살 파비눗 수폴웡은 지난 6일 정오쯤 전직 경찰 파냐 캄랍(34)이 이전 뉴스들 보기 3 다음 뉴스들 보기 경향신문이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 경향신문 헤드라인 더보기 [단독]민간화력발전소의 ‘2조원’ ‘4200억’ 건설비 증가···국민 전기료로 보전? 40분전 감사원 국정감사 개시 8분 만에 파행···진행 방식 두고 고성 1시간전 이재명 “일본 자위대 독도 근해로 부른 안보자해행위”···국민의힘엔 “친일파와 다름 없어” 1시간전 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 3시간전 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] 6시간전 태국 어린이집 참사, 홀로 기적적으로 살아남은 아이 1일전 경향신문 랭킹 뉴스 오전 10시~11시까지 집계한 결과입니다. 오전 8시~11시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 3시간전 2 태국 어린이집 참사, 홀로 기적적으로 살아남은 아이 1일전 3 신화 신혜성, 도난차량 안에서 잠들어 있다 발견···음주측정 거부 2시간전 4 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] 6시간전 5 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 3시간전 1 정진석 “조선, 일본군 침략으로 망한 것 아냐···이재명, 국민 현혹 말라” 3시간전 2 [단독]윤 대통령 집무실 동측에 새 진입로 건설 중···야당 “도어스테핑 회피용” 20시간전 3 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 3시간전 4 ‘윤심’ 얻기엔 너무 멀리 온 권성동의 ‘윤심 마케팅’ 14시간전 5 안철수 “유승민·나경원, 모두 전당대회 출마하라” 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 전국 38만여가구가 집을 비롯해 전 재산을 다 팔아도 빚을 갚지 못하는 ‘고위험’ 상황인 것으로 나타났다. 고위험 가구가 진 빚은 전체 금융 부채의 6%를 넘는 69조원에 이른다. 미국이 돈줄을 강하게 죄면서 시중 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 “집값 떨어졌는데 분양가가 왜이래?” 사전청약 포기하는 당첨자들 집값 오를땐 신청 몰렸지만 시세와 비슷, 역전되자 외면 작년 400대 1까지 육박한 경쟁률 올해는 40%나 계약 철회한 곳도 지난달 LH(한국토지주택공사)는 작년 사전 청약을 했던 ‘인천검단AA21블록’에 대한 본청 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 [단독] 코레일 자회사 직원들 매일 반나절만 근무, 회사는 4년간 몰랐다 직원 6명 임의로 단축근무, 출퇴근 장부는 허위 작성 국민의힘 김학용 “公기관 근태 감시 시스템 마련 시급” 한국철도공사(코레일)의 자회사인 코레일테크 소속 일부 직원들이 4년 동안 마음대로 단축 근무를 해온 것으로 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 최재해 감사원장이 ‘감사원은 대통령 국정운영을 지원하는 기관’이라는 국회 발언 등에 대한 설명을 요구하는 감사원 직원들의 면담 요구를 거부한 것으로 확인됐다. 이런 사실은 감사원 직원이 감사원 운영방식을 비판하는 취 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 음주 운전하다 5m 낭떠러지로 추락…나무에 걸려 목숨 건져 음주 운전을 하던 남성이 낭떠러지에 추락하는 사고가 발생했습니다. 어제(10일) 전남 여수경찰서에 따르면 이날 오후 5시 14분경 전남 여수시 남면 금오도 한 도로에서 A(49) 씨가 몰던 1t 트럭이 마을로 진입하 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 방송인 박수홍의 친형이 횡령 혐의로 구속 기소된 상황에 아버지가 “내가 횡령했다”고 주장한 사실이 알려진 뒤 친족 간 재산 범죄 처벌을 면제하는 형법상 ‘친족상도례’ 규정의 존폐 논쟁에 불이 붙었다. 10일 법조계에 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 지난해 국회 국정감사에 출석한 증인은 3284명, 이 가운데 부처 장관, 공공기관장 등 필수적으로 채택되는 기관 증인을 제외한 일반 증인은 119명이었다. 기업 대표 등 일반 증인들은 국감장에서 답변 기회를 얼마나 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 오늘부터 접종 시작 '코로나 2가 백신', 알고 맞자 오늘(11일)부터 코로나19 2가 백신을 활용한 동절기 추가접종이 시작된다. 추가접종에 사용되는 2가 백신은 기존 코로나19 바이러스(우한주)와 전 세계 코로나 재유행을 주도했던 오미크론 변이 BA.1을 표적으로 한 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 신호대기 중 자동차와 오토바이 간 가벼운 접촉사고가 발생했는데, “괜찮다”며 자리를 뜬 오토바이 운전자가 뒤늦게 200만 원의 합의금을 요구해왔다는 사연이 전해졌다. 지난 4일 유튜브 채널 ‘한문철TV’에는 ‘한방병 새까매진 반려견 다리 '이빨 자국' 정체…한강 비상 걸렸다 한강시민공원에서 독사가 나타나 행인의 반려견을 무는 사고가 발생해 주의가 요구된다. 지난 10일 JTBC에 따르면 지난달 한강공원에서 주인과 산책하던 반려견이 독사에 물리는 사고를 당했다. 인적이 드문 곳이 아닌 산 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 코스닥은 외국인 놀이터 Investment strategy 유료 왜 우리만?? Investment strategy [221011 투자시나리오] 에어라인 유료 [D] 북 핵.미사일 위협 고도화로 더욱 중요해진 한미일 연합훈련 프리미엄 조선 유료 '화웨이식 제재'라는 것 들어보셨나요? 미스터동 유료 국회, 대체 어떤 존재일까? 어른들의 사회생활 유료 동아시아 '휘두루는' 두루미 펭귄밀크 유료 대구 달서구 아파트 리스트 - 대구 실거주 수요의 집결지! 최고의 수요 입지!! 스마트튜브 부동산조사연구소 유료 강원도가 레고랜드 빚 안 갚는 진짜 이유 삼프로TV 하이라이트 유료 만원의행복! 한종목투자 48차 (10월7일)로 월천벌기, 십억벌기에 도전하자~ 수익투자 원칙에 따라 투자하세요~ 두배로 주식투자 아카데미 유료 트위치의 난: 망 사용료 내라고? 그럼 화질 깎지 뭐 효라클 일본 지하철 금지 소설 단호박 소설 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 경향신문 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 태국여행업협회와 우호교류 협약 체결 본문 바로가기 이전 페이지 국민일보 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 국민일보 주요뉴스를 볼 수 있습니다. 보러가기 국민일보 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 제주도관광협회, 태국여행업협회와 우호교류 협약 체결 입력2015.06.03. 오후 3:17 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주도관광협회는 태국여행업협회와 제주웰컴센터에서 관광상품 개발 및 관광시장 활성화를 위한 우호교류 협약을 체결했다고 3일 밝혔다. 협약에 따라 태국여행업협회는 제주∼태국 간 직항 전세기를 이용한 다양한 관광상품 개발에 합의, 양 회원사 간 교류확대 및 공동 프로모션 전개 등 협업 시스템을 구축키로 했다. 도 관광협회는 태국·말레이시아·대만·베트남 등 동남아지역 관광객 유치 확대를 위해 현지 유력 여행업계와 공동으로 제주의 우수한 관광자원과 스포츠를 연계한 관광상품 개발에 나설 방침이다.제주=주미령 기자 lalijoo@kmib.co.krGoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 재배포금지[뉴스 미란다 원칙] 취재원과 독자에게는 국민일보에 자유로이 접근할 권리와 반론·정정·추후 보도를 청구할 권리가 있습니다. 고충처리인(gochung@kmib.co.kr)/전화:02-781-9711 제주=주미령 기자 Copyright ⓒ 국민일보. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. "우리 아이 어떡해요?" 학교 가라는 문형표와 가지말라는 황우여 '자가격리 중 골프장?' 실종된 강남 메르스 의심환자가 향한 곳이… "필요없다더니 자긴 썼네" 문형표 마스크 발언 뭇매… 에라이 뉴스 강남 사는 메르스 의심환자 실종… 방역망 구멍 숭숭 "메르스 병원만 안가면 아이들 감염 가능성 적다"…본질은 '병원내 감염' 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 국민일보 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 국민일보 헤드라인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 윤석열 대통령은 11일 “청년들이 임대주택과 현금을 그냥 쥐여줄 것이 아니라 내 집 마련과 자산형성을 할 수 있도록 도와야 한다”고 말했다. 윤 대통령은 이날 오전 용산 대통령실 청사에서 열린 제45회 국무회의 모두 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 전국 38만여가구가 집을 비롯해 전 재산을 다 팔아도 빚을 갚지 못하는 ‘고위험’ 상황인 것으로 나타났다. 고위험 가구가 진 빚은 전체 금융 부채의 6%를 넘는 69조원에 이른다. 미국이 돈줄을 강하게 죄면서 시중 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 이재명 더불어민주당 대표는 11일 한·미·일 동해 합동훈련에 대해 옹호하는 국민의힘을 향해 “해방 이후 친일파가 했던 행태와 다를 바가 전혀 없다”고 강하게 비판했다. 이 대표는 이날 국회에서 긴급 안보대책회의를 열 국민연금 올해 상반기 적자 규모 76조…수익률 ‘-8%’ 세계적인 경제위기로 올해 상반기 국민연금 적자가 76조6600억원에 이른다는 지적이 나왔다. 11일 국회 보건복지위원회 국민의힘 백종헌 의원이 국민연금공단에서 제출받은 자료에 따르면, 국민연금의 올해 상반기 수익률은 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 러시아가 크림대교 폭발 사고 이후 이틀 만인 지난 10일(현지시간) 우크라이나 수도 키이우 등 주요 도시에 미사일 공격을 퍼부은 가운데 공습 당시 다리를 건너다 가까스로 목숨을 건진 시민의 모습이 포착됐다. 10일 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 그룹 신화 멤버 신혜성(본명 정필교·43)이 도난 차량에서 음주측정을 거부하다가 현행범으로 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분쯤 서울 송파구 탄천2교에서 신혜성을 도로교통법상 음주 이전 뉴스들 보기 3 다음 뉴스들 보기 국민일보가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 국민일보 헤드라인 더보기 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 28분전 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 11시간전 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 37분전 국민연금 올해 상반기 적자 규모 76조…수익률 ‘-8%’ 1시간전 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 1시간전 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 3시간전 국민일보 랭킹 뉴스 오전 10시~11시까지 집계한 결과입니다. 오전 8시~11시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 2시간전 2 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 5시간전 3 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 3시간전 4 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 11시간전 5 ‘밧줄이 툭’…30층 아파트 외벽청소 노동자, 또 추락사 3시간전 1 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 11시간전 2 ‘尹퇴진’ 집회 간 野김용민… “5년 못 채우게 해야” 4시간전 3 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 3시간전 4 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] 7시간전 5 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 5시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 오늘부터 접종 시작 '코로나 2가 백신', 알고 맞자 오늘(11일)부터 코로나19 2가 백신을 활용한 동절기 추가접종이 시작된다. 추가접종에 사용되는 2가 백신은 기존 코로나19 바이러스(우한주)와 전 세계 코로나 재유행을 주도했던 오미크론 변이 BA.1을 표적으로 한 [단독] 물은 그대론데... 장관 한마디에 KTX 세면대 '음용불가' 문구 삭제 원희룡 국토교통부 장관의 한마디에 2004년 개통 이래 유지됐던 KTX 화장실 세면대에 적혀 있던 '이 물은 마실 수 없습니다'라는 문구가 사라진 것으로 확인됐다. 다만 KTX 열차 내 세면대 수질은 그대로라서 이용 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? “카카오 때문에 화병 나겠습니다. 부부싸움까지 했어요. 1억원 넘게 손실인데 와이프가 이제라도 팔라고 하네요. 조만간 오르겠지 기대하고 안 팔고 버텼는데 이 지경이 됐으니….”(카카오 투자자) “지하까지 내려온 줄 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 음주 운전하다 5m 낭떠러지로 추락…나무에 걸려 목숨 건져 음주 운전을 하던 남성이 낭떠러지에 추락하는 사고가 발생했습니다. 어제(10일) 전남 여수경찰서에 따르면 이날 오후 5시 14분경 전남 여수시 남면 금오도 한 도로에서 A(49) 씨가 몰던 1t 트럭이 마을로 진입하 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 재생하기 재생시간02:19 농약 인터넷 판매 막았다더니..."점 하나 찍으면 바로 검색" 농약 불법유통을 막기만 해도 극단적 선택이 줄어든다고 합니다. 그래서 정부 차원에서 농약상 아닌 인터넷 판매를 막아놨는데요. 취재진이 인터넷으로 점 하나만 찍어 검색을 해보니 손쉽게 찾을 수 있었습니다. 이준엽 기자 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 "밥 먹고 바로 샤워? No!" 식사 후 금지행동 5 건강을 위해 올바른 식습관을 갖는 건 아주 중요하다. 무엇을, 언제, 얼마나 먹을지 생각해야 하고 식사를 할 때에도 마음을 쓰며 먹는 것이 도움이 된다. 그런데 우리는 평소 무의식적으로 소화에 도움이 되지 않는 행동 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업자 3분의 1” 택시 영업익도 배달업의 44%…택시 영업비용 56% 연료비 구자근 의원, 소상공인 운수업 실태분석…“택시 피해 심각” 택시 기사의 연간 매출이 3000만 원 수준으로 퀵·배달대행 서비스에 종사하는 소상공인과 비교해 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 80대 노모 생신에 일가족 5명 참변..尹대통령 "대책마련" 지시 80대 어머니 생일을 맞아 시골집에 모였던 일가족 5명이 숨진 사고를 조사 중인 경찰과 소방당국이 '일산화탄소 중독'을 잠정 사망 원인으로 결론지었다. 현장에 함께 있던 일가족 6명 중 유일한 생존자인 큰딸은 집 안 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 지난해 국회 국정감사에 출석한 증인은 3284명, 이 가운데 부처 장관, 공공기관장 등 필수적으로 채택되는 기관 증인을 제외한 일반 증인은 119명이었다. 기업 대표 등 일반 증인들은 국감장에서 답변 기회를 얼마나 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 코스닥은 외국인 놀이터 Investment strategy 유료 왜 우리만?? Investment strategy [221011 투자시나리오] 에어라인 유료 [D] 북 핵.미사일 위협 고도화로 더욱 중요해진 한미일 연합훈련 프리미엄 조선 유료 '화웨이식 제재'라는 것 들어보셨나요? 미스터동 유료 국회, 대체 어떤 존재일까? 어른들의 사회생활 유료 동아시아 '휘두루는' 두루미 펭귄밀크 유료 대구 달서구 아파트 리스트 - 대구 실거주 수요의 집결지! 최고의 수요 입지!! 스마트튜브 부동산조사연구소 유료 강원도가 레고랜드 빚 안 갚는 진짜 이유 삼프로TV 하이라이트 유료 만원의행복! 한종목투자 48차 (10월7일)로 월천벌기, 십억벌기에 도전하자~ 수익투자 원칙에 따라 투자하세요~ 두배로 주식투자 아카데미 유료 트위치의 난: 망 사용료 내라고? 그럼 화질 깎지 뭐 효라클 일본 지하철 금지 소설 단호박 소설 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 국민일보 예 아니오</t>
+  </si>
+  <si>
+    <t>[뉴스파일] 제주도, 오라관광지 개발 승인 취소 본문 바로가기 이전 페이지 국민일보 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 국민일보 주요뉴스를 볼 수 있습니다. 보러가기 국민일보 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 [뉴스파일] 제주도, 오라관광지 개발 승인 취소 입력2015.06.01. 오전 2:08 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주도는 관광개발 사업 시행이 승인된 후 장기간 사업이 진행되지 않은 제주시 오라관광지 개발 사업을 승인 취소했다고 31일 밝혔다. 오라관광지는 1999년 12월 사업시행 승인을 받은 후 여러 차례 사업시행자가 변경됐고, 사업기간이 연장됐지만 지난해 12월 만료 시점까지도 사업추진이 이뤄지지 않았다. 도는 토지가 매각되거나 경매된 상황이어서 더 이상 계속적인 사업 시행이 불가능하고 판단했다.GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 재배포금지[뉴스 미란다 원칙] 취재원과 독자에게는 국민일보에 자유로이 접근할 권리와 반론·정정·추후 보도를 청구할 권리가 있습니다. 고충처리인(gochung@kmib.co.kr)/전화:02-781-9711 Copyright ⓒ 국민일보. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. "IS 가담 한국인, 김군 외에 더 있다" 메르스 격리 대상 여성, 격리 치료 거부한 채… "여캐가 너무 섹시해!"… 北 체제선전 애니에 양덕 열광, 동인지까지 등장 "아빠가 원빈, 엄마가 이나영" 2세 얼굴 조합하니 '대박' "10만원에 제 성행위 영상 보내요" 음란 동호회, 처벌은 힘들어 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 국민일보 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 국민일보 헤드라인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 윤석열 대통령은 11일 “청년들이 임대주택과 현금을 그냥 쥐여줄 것이 아니라 내 집 마련과 자산형성을 할 수 있도록 도와야 한다”고 말했다. 윤 대통령은 이날 오전 용산 대통령실 청사에서 열린 제45회 국무회의 모두 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 전국 38만여가구가 집을 비롯해 전 재산을 다 팔아도 빚을 갚지 못하는 ‘고위험’ 상황인 것으로 나타났다. 고위험 가구가 진 빚은 전체 금융 부채의 6%를 넘는 69조원에 이른다. 미국이 돈줄을 강하게 죄면서 시중 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 이재명 더불어민주당 대표는 11일 한·미·일 동해 합동훈련에 대해 옹호하는 국민의힘을 향해 “해방 이후 친일파가 했던 행태와 다를 바가 전혀 없다”고 강하게 비판했다. 이 대표는 이날 국회에서 긴급 안보대책회의를 열 국민연금 올해 상반기 적자 규모 76조…수익률 ‘-8%’ 세계적인 경제위기로 올해 상반기 국민연금 적자가 76조6600억원에 이른다는 지적이 나왔다. 11일 국회 보건복지위원회 국민의힘 백종헌 의원이 국민연금공단에서 제출받은 자료에 따르면, 국민연금의 올해 상반기 수익률은 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 러시아가 크림대교 폭발 사고 이후 이틀 만인 지난 10일(현지시간) 우크라이나 수도 키이우 등 주요 도시에 미사일 공격을 퍼부은 가운데 공습 당시 다리를 건너다 가까스로 목숨을 건진 시민의 모습이 포착됐다. 10일 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 그룹 신화 멤버 신혜성(본명 정필교·43)이 도난 차량에서 음주측정을 거부하다가 현행범으로 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분쯤 서울 송파구 탄천2교에서 신혜성을 도로교통법상 음주 이전 뉴스들 보기 3 다음 뉴스들 보기 국민일보가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 국민일보 헤드라인 더보기 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 28분전 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 11시간전 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 37분전 국민연금 올해 상반기 적자 규모 76조…수익률 ‘-8%’ 1시간전 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 1시간전 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 3시간전 국민일보 랭킹 뉴스 오전 10시~11시까지 집계한 결과입니다. 오전 8시~11시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 2시간전 2 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 5시간전 3 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 3시간전 4 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 11시간전 5 ‘밧줄이 툭’…30층 아파트 외벽청소 노동자, 또 추락사 3시간전 1 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 11시간전 2 ‘尹퇴진’ 집회 간 野김용민… “5년 못 채우게 해야” 4시간전 3 “신화 신혜성, 도난차량서 잠들어…음주측정 거부 체포” 3시간전 4 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] 7시간전 5 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 5시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 지난해 국회 국정감사에 출석한 증인은 3284명, 이 가운데 부처 장관, 공공기관장 등 필수적으로 채택되는 기관 증인을 제외한 일반 증인은 119명이었다. 기업 대표 등 일반 증인들은 국감장에서 답변 기회를 얼마나 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 재생하기 재생시간01:29 김정은 2주간 '전술핵' 지휘…"더는 대화 필요 없다" 북한이 오늘(10일) 공개한 사실이 하나 더 있습니다. 2주 동안 모습을 드러내지 않았던 김정은 위원장의 행적입니다. '전술핵 훈련' 다시 말해, 핵무기를 작게 만들어 쏘는 훈련을 지휘했다는 겁니다. 이건, 한반도를 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 지난 5월 7일 여수의 한 아파트 주차장에서 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보 후 무참히 살해됐다. 여수 의처증 살인사건은 ‘어린 피해자의 자녀들이 상처 입을까’ 경찰이 보도 자제를 요청하 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' 전 세계적으로 코로나19가 잠잠해지자 아프리카에서 또 다른 감염병 경고등이 들어왔다. 치명률이 50%에 육박하는 에볼라 바이러스다. 한 달 사이 벌써 30여명이 사망했고 2014년 에볼라가 유입된 경험이 있는 미국엔 배상금 75억… 전속계약금 70억… '1타 강사' 돈잔치 씁쓸한 이면 75억 원. 수능 국어 '1타 강사'(1등 스타 강사) 유대종씨가 서민들은 평생 만져보지도 못할 돈을 배상금으로 낼 위기에 처했다. 유씨가 2019년 경쟁업체로 무단 이적해 메가스터디에 끼친 손해를 갚으라는 1심 선 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? “카카오 때문에 화병 나겠습니다. 부부싸움까지 했어요. 1억원 넘게 손실인데 와이프가 이제라도 팔라고 하네요. 조만간 오르겠지 기대하고 안 팔고 버텼는데 이 지경이 됐으니….”(카카오 투자자) “지하까지 내려온 줄 [단독] 코레일 자회사 직원들 매일 반나절만 근무, 회사는 4년간 몰랐다 직원 6명 임의로 단축근무, 출퇴근 장부는 허위 작성 국민의힘 김학용 “公기관 근태 감시 시스템 마련 시급” 한국철도공사(코레일)의 자회사인 코레일테크 소속 일부 직원들이 4년 동안 마음대로 단축 근무를 해온 것으로 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 재생하기 재생시간02:19 농약 인터넷 판매 막았다더니..."점 하나 찍으면 바로 검색" 농약 불법유통을 막기만 해도 극단적 선택이 줄어든다고 합니다. 그래서 정부 차원에서 농약상 아닌 인터넷 판매를 막아놨는데요. 취재진이 인터넷으로 점 하나만 찍어 검색을 해보니 손쉽게 찾을 수 있었습니다. 이준엽 기자 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, “키스 5단계는” “치마 짧으면 좋아”… 중학교 선생님이 이런 농담을 중학생들에게 성적 농담 등의 부적절한 발언을 했다가 해임된 교사가 징계 처분에 불복해 민사 소송을 냈지만 패소했다. 기사와 무관함 (사진=이미지투데이) 11일 인천지법 민사11부(정창근 부장판사)는 전직 중학교 교사 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 재생하기 재생시간02:21 러, 키이우 등 우크라 전역에 보복 공격…우크라 “복수할 것” 러시아가 키이우 등 우크라이나 전역에 대대적 미사일 공격을 퍼부었습니다. 크림반도와 러시아 본토를 잇는 크림대교 폭발에 대한 보복 공격입니다. 70여명이 죽거나 다쳤는데 우크라이나는 복수를 다짐했고, 서방은 우크라이 [단독] 물은 그대론데... 장관 한마디에 KTX 세면대 '음용불가' 문구 삭제 원희룡 국토교통부 장관의 한마디에 2004년 개통 이래 유지됐던 KTX 화장실 세면대에 적혀 있던 '이 물은 마실 수 없습니다'라는 문구가 사라진 것으로 확인됐다. 다만 KTX 열차 내 세면대 수질은 그대로라서 이용 ‘비속어 보도 경위’ 따졌던 대통령실, MBC에 “답 해라” 압박 대통령실이 윤석열 대통령의 ‘비속어 논란 보도’와 관련 수사를 받는 &lt;문화방송&gt;(MBC)을 향해 “기본적으로 공영방송이 책임을 다하고 있느냐는 질문에 대해 답이 필요하다”고 압박했다. 대통령실의 이재명 부대변인은 1 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 신호대기 중 자동차와 오토바이 간 가벼운 접촉사고가 발생했는데, “괜찮다”며 자리를 뜬 오토바이 운전자가 뒤늦게 200만 원의 합의금을 요구해왔다는 사연이 전해졌다. 지난 4일 유튜브 채널 ‘한문철TV’에는 ‘한방병 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 재생하기 재생시간03:19 [단독] 'SLBM 개발' 국방과학연구소, 5년 동안 160명 떠났다 지난해 세계 7번째로 잠수함 발사 탄도미사일, SLBM 개발에 성공한 국방과학연구소에서 최근 5년 동안 160명 넘는 연구 인력이 퇴사한 것으로 YTN 취재 결과 파악됐습니다. SLBM 개발은 물론, 핵심 국방기술을 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 방송인 박수홍의 친형이 횡령 혐의로 구속 기소된 상황에 아버지가 “내가 횡령했다”고 주장한 사실이 알려진 뒤 친족 간 재산 범죄 처벌을 면제하는 형법상 ‘친족상도례’ 규정의 존폐 논쟁에 불이 붙었다. 10일 법조계에 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 한화생명의 금융업 덩치 키우기, 코스톤아시아가 주목받는 이유는 thebellstock 유료 게슈타포와 경찰에도 안 밀린 우니온, 베를린의 적자 스포츠LAB 유료 글을 드라이하게 쓰는 법 도미넌트의 인사이트 유료 [E] 가을아! 영문 이름이 fall이야, autumn이야? 프리미엄 조선 유료 재래식 무기의 종말 하이브리드 전쟁이 온다 사이버전을 중점으로 기술 책읽는책돌이 [관심 보고서] 3Q 실적 발표를 앞두고 실적이 상향되는 기업들 (1) 한국주식 미국ETF 유료 빗썸, 지배구조 리스크에 장외 주가 하락…내부 사기 진작 숙제 풀까 thebellstock [신미래] 테슬라의 미래는 테로봇의 무쇠팔에 달렸다? 더밀크 유료 얼마만에 반등이야.. 코스피 코스닥 상승 마감 22.10.4 국내증시 마감 리뷰 경제적자유로 파닭거리기 유료 아이의 학교 생활에 궁금한게 생겼을 때 해결하는 3가지 방법! 와우스쿨 라이엇 사회공헌 필름, 당신이 몰랐던 뒷 이야기 POTG 하락장을 짧게 봐야 하는 합리적인 이유 Economic For You 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 국민일보 예 아니오</t>
+  </si>
+  <si>
+    <t>국제관광지 제주도, 메르스로부터 안전한가 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:01 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 국제관광지 제주도, 메르스로부터 안전한가 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 오피니언 기고 국제관광지 제주도, 메르스로부터 안전한가 김현진 hyunjin8632@naver.com 승인 2015.06.02 20:49 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × [기고] 김현진 제주대 언론홍보학과 김현진 제주대 언론홍보학과.&lt;헤드라인제주&gt; 대한민국은 온통 메르스 얘기 뿐이다. 5월 20일, 사우디 아라비아 등 중동 지역에서 주로 유행하는 신종 바이러스 중동 호흡기증후군(메르스·MERS, Middle East Respiratory Syndrome) 환자가 국내에서 처음으로 발생했기 때문이다. 메르스가 처음으로 발생한지 2주 뒤인 지금 메르스는 없어지는 것이 아니라 점차 그 범위를 넓혀가고 있다. 이미 2명의 사망자도 발생한 상태이다. 대한민국이 메르스로 떠들썩한 지금 제주도는 과연 메르스로부터 안전할까? 제주도는 세계에서도 알아주는 유명한 관광지이다. 2014년 한해 제주도에 찾아온 관광객은 1200만 명을 돌파했고 하루 2만 7800여명이 제주를 찾는 셈이 된다. 이 가운데에서도 외국인 관광객은 1200만 명 중 326만 명을 차지하고 있다. 메르스가 잠복기가 길고 쉽게 발견되지 않는 병인데 이 수많은 관광객 중 누구하나도 메르스에 감염된 사람이 아예 없을 것이라고 단정짓는 사람은 없을 것이다. 메르스가 공기 중에서도 접촉되어 감염이 되는 중동 호흡기증후군이라는 것을 아는 지금 제주도도 메르스로부터 안전하지는 않다. 하나의 예시로 세계자연유산으로 등록되어있는 만장굴은 하루 4000여명의 관광객이 다녀간다. 또한 현재 5~6월은 수학여행단도 속해있고 중동에서 관광오는 사람들도 많다. 여러 곳에서 온 사람들이 한데 모이는 만장굴에서, 더 크게 확대하면 제주도에서 메르스는 한순간에 퍼질 수 있다. 아직 제주도에 메르스 환자가 발견되지 않았다고 하여 방심하고 있는 것이 아니라 유명 관광지 또는 공항에서부터 철저히 검사를 하여 메르스환자가 나오지 않게 대책을 세워야한다. 이 말고도 제주도가 관광지로 유명한 만큼 제주도 사람들이 관광지에서 일하는 경우가 허다한데 관광지에서 일하는 제주도분들에게도 공지를 하여 메르스에 감염되지 않게 대책을 세워야 할 것이다.&lt;김현진 제주대학교 언론홍보학과&gt; *이 글은 헤드라인제주 편집방향과 다를 수 있습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김현진 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>몰리는 1,000만 관광객, 용인 숙박객실 수 제주도의 4.7% 수준, 월 77만원 확정 지급, 코업 오피스텔 726실 6월 전격 분양돌입 본문 바로가기 이전 페이지 헤럴드경제 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 헤럴드경제 주요뉴스를 볼 수 있습니다. 보러가기 헤럴드경제 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 몰리는 1,000만 관광객, 용인 숙박객실 수 제주도의 4.7% 수준, 월 77만원 확정 지급, 코업 오피스텔 726실 6월 전격 분양돌입 입력2015.06.06. 오전 10:32 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 포스코 ICT와 중앙건설이 시공을 맡은 ‘코업오피스텔’ 726실이 6월 분양에 들어간다.당 현장은 경기도 용인시 처인구 역삼구역 M1-1-2블록에 위치하며 대지면적 5,006.00㎡에 연면적 44,518.39㎡, 지하 4층~지상 17층 규모로 코업오피스텔 426실과 용인대학교와 10년간 임대차 계약이 체결된 게스트하우스 300실이 6월 순차적으로 분양에 들어간다.코업오피스텔은 지상 9층~지상 17층에 들어서며 H1,H2,H3,H4의 4가지 타입, 전용면적 기준으로 25.47㎡, 26.80㎡, 50.61㎡, 52.01㎡며 선호도가 높은 소형(25.47㎡, 26.80㎡)이 약 94%를 차지한다. 코업오피스텔이 5년간 월77만원(B타입,VAT포함) 임대차 계약을 체결했고 국내 최대운영사인 코업이 에버랜드와 한국민속촌을 찾는 관광객 1,000만명의 숙소로, 또 외국인 관광객의 서울 진입을 위한 교두보로 활용하기위해 호텔형 오피스텔로 개발한다.2013년 현재 용인시의 숙박시설 가동률은 91.8%에 이른다. 다른시/도의 70%수준보다 월등히 높아 숙박시설 부족현상이 심각함을 보여준다.에버랜드와 한국민속촌 관광객이 연간 1,000만명(경기도 전체 관광객의 74.3%)에 이르지만 숙박시설은 턱없이 부족해 ‘코업오피스텔’에 거는 기대감은 어느 때보다 크다.내부 시설은 완전히 호텔식으로 인테리어를 꾸미며 가전 및 생활필수품 50여가지, 약 600만원 상당의 제품을 무료로 비치한다.역삼도시개발지역 내 최요지에 위치해 용인대, 명지대, 송담대, 강남대를 포함해 4개 대학의 약2만8천명이 10분이내에 통학이 가능하여 대학생 숙소로도 인기가 높아 풍부한 임대수요를 자랑한다.교통망도 우수하다. 삼가대촌간 우회도로 개통시(2017년 3월 예정)시 서울까지 약 30분이면 진입이 가능하며 사업지 좌측으로 수원삼성디지털시티가 11km, 자가용으로 30분이 소요되며, 동탄삼성사업장이 11km, 자가용으로 30분 가량이, 우측으로 용인세브란스병원이 700m거리에 있다.사업지 바로 옆의 역북 및 역삼도시개발사업으로 약 2만5천명의 인구유입이 기대되며, 용인시는 2020년이면 인구 120만의 광역시급으로 도약이 기대된다.입지 또한 뛰어나다. 용인경전철 시청용인대역 150m 역세권으로 강남역까지 50분, 서울역까지 1시간 30분이면 이동이 가능하다.코업 오피스텔의 경우 국내 최대 운영사인 코업이 운영을 지원하며 공실 걱정없고, 부동산 복비 없고, 관리에 대한 걱정도 없다.실투자금 5천만원으로 5년간 계약(2년마다 임대료 협의조건)이며 H2타입기준으로 월 77만원(부가세 포함)의 월세가 확정지급된다.견본주택은 2호선, 3호선 환승역인 교대역 12번 출구에 마련되며, 본격적인 계약일은 6월 경이다.분양문의 02-567-6666온라인뉴스팀/onlinenews@heraldcorp.com[뉴욕 뮤지컬 투어 예매자, 뮤지컬 ‘체스’ 예매권2장 제공][헤럴드경제 뉴스스탠드] [헤럴드TV 증권방송] [제5회 코리아헤럴드 청소년 외교아카데미] [헤럴드경제 모바일 웹] [헤럴드경제 모바일앱] [SUPERICH] [REAL FOODS]- Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 - 장해희 Copyright ⓒ 헤럴드경제. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 경제 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 순정보다 성능 뛰어난 車통풍시트 등장 日공주, 궁중만찬 참석…"걸그룹 뺨치는 특급비주얼" 메르스 예언적중 소름 "6월 국민적 전염병…대혼란" "고기보다 내가 더 맛있다"…'아우디녀' 또 노출시위 야구장 성추행 '딱걸렸네'…옆자리女 가슴에 '못된손' 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 헤럴드경제 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 헤럴드경제 헤드라인 유승민 뜨자 친윤 “역선택 방지해야”…‘당·대권 분리’ 목소리도 국민의힘이 본격적인 ‘전당대회 모드’에 돌입하면서 당권주자 간 신경전이 가열되고 있다. ‘친윤(윤석열) 대 비윤’ 구도로 각 주자들이 각개전투를 벌이는 가운데, 역선택 방지 조항, 당원·일반 국민 투표 비율 등 전대 “여보, 대출이 왜 안나오지?” 금리오르자 1년새 아파트 대출 1억 줄었다[기준금리 3% 시대] “월급도 올랐는데, 대출한도는 왜 줄어든 건가요?” 대기업에 다니는 40대 직장인 A씨는 최근 마이너스 통장 만기가 다 돼 연장하는 과정에서 금리는 4%대에서 6.1%로, 한도는 5000만원에서 4000만원으로 줄었 고소득男 60% “결혼하고 싶다”…고소득女 70%는 “계획조차 없다” 1인 가구 고소득자 중 60% 이상의 남성이 결혼을 희망하는 반면, 70% 이상의 여성은 결혼 계획이 없거나 ‘비혼주의자’인 것으로 드러났다. KB금융지주 경영연구소는 지난 3일 이같은 내용을 담은 ‘2022 한국 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? “카카오 때문에 화병 나겠습니다. 부부싸움까지 했어요. 1억원 넘게 손실인데 와이프가 이제라도 팔라고 하네요. 조만간 오르겠지 기대하고 안 팔고 버텼는데 이 지경이 됐으니….”(카카오 투자자) “지하까지 내려온 줄 신화 신혜성, 도난차량 타고 음주측정 거부하다 경찰에 체포 그룹 신화 멤버인 신혜성(본명 정필교·43)이 음주측정을 거부하다가 현행범으로 체포됐다. 아울러 경찰은 신혜성이 타고 있던 차량에 대해 도난 신고가 들어온 사실을 확인하고 절도 혐의도 함께 수사 중이다. 11일 경찰 이전 뉴스들 보기 3 다음 뉴스들 보기 헤럴드경제가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 헤럴드경제 헤드라인 더보기 유승민 뜨자 친윤 “역선택 방지해야”…‘당·대권 분리’ 목소리도 1시간전 “여보, 대출이 왜 안나오지?” 금리오르자 1년새 아파트 대출 1억 줄었다[기준금리 3% 시대] 1시간전 고소득男 60% “결혼하고 싶다”…고소득女 70%는 “계획조차 없다” 3시간전 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 19시간전 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? 16시간전 신화 신혜성, 도난차량 타고 음주측정 거부하다 경찰에 체포 3시간전 헤럴드경제 랭킹 뉴스 오전 10시~11시까지 집계한 결과입니다. 오전 8시~11시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? 16시간전 2 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 19시간전 3 신화 신혜성, 도난차량 타고 음주측정 거부하다 경찰에 체포 3시간전 4 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 17시간전 5 [속보] 카카오 5만원·네이버 16만원 동반 붕괴 2시간전 1 정진석 “조선, 안에서 썩어 망해… 日, 조선과 전쟁한 적 없어” 3시간전 2 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? 16시간전 3 [속보] 윤대통령 “북핵 위협 날로 심각…한미일 안보협력 통해 대응체제 구축” 2시간전 4 [속보] 카카오 5만원·네이버 16만원 동반 붕괴 2시간전 5 고소득男 60% “결혼하고 싶다”…고소득女 70%는 “계획조차 없다” 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 “키스 5단계는” “치마 짧으면 좋아”… 중학교 선생님이 이런 농담을 중학생들에게 성적 농담 등의 부적절한 발언을 했다가 해임된 교사가 징계 처분에 불복해 민사 소송을 냈지만 패소했다. 기사와 무관함 (사진=이미지투데이) 11일 인천지법 민사11부(정창근 부장판사)는 전직 중학교 교사 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 “한동훈 말만하면 화제, 관심 피크 찍었다”… 어록집 나오는 이유 한동훈 법무부 장관의 발언을 모은 어록집이 출판되는 가운데, 이를 기획한 출판사 측은 “유튜브 방송을 보다가 어떤 분이 출판계에서는 야당 인사들이 낸 책들이 베스트(셀러)가 되는데 정부나 여당에 속한 분들 책은 거의 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 재생하기 재생시간02:12 한마리에 130만원…잡히면 버린다던 이 생선 몸값 치솟았다 “서… 섬이다!” 지난 2일 오후 6시쯤 전남 신안군 ‘1004(천사) 뮤지엄파크’. 무대에 오른 남성 3명이 서로 웃옷을 벗기기 위해 몸싸움을 했다. 홍어장수 문순득(1777~1847년)이 바다에 표류할 당시를 재 "푸틴 군 내부 비판과 자존심 상처에 우크라 공습 감행" 영국 가디언지 "침공 실패와 크림대교 폭발에 대한 절박한 답변" 최윤정 특파원 = 러시아가 우크라이나 키이우 등을 공습한 것은 군 내부 비판과 블라디미르 푸틴 러시아 대통령의 자존심 때문이라는 분석이 나왔다. 영국 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 재생하기 재생시간03:19 [단독] 'SLBM 개발' 국방과학연구소, 5년 동안 160명 떠났다 지난해 세계 7번째로 잠수함 발사 탄도미사일, SLBM 개발에 성공한 국방과학연구소에서 최근 5년 동안 160명 넘는 연구 인력이 퇴사한 것으로 YTN 취재 결과 파악됐습니다. SLBM 개발은 물론, 핵심 국방기술을 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 아이폰 들고 놀이기구 탄 치과의사…잠금화면 알림 보고 당황 애플 신제품인 아이폰14 시리즈에 탑재된 충돌 감지 기능에서 놀이기구 탑승을 교통사고로 인식해 오작동하는 사례가 발견됐다. 10일(현지시간) 월스트리트저널(WSJ)에 따르면 미국의 30대 치과의사 사라 화이트는 지난 배상금 75억… 전속계약금 70억… '1타 강사' 돈잔치 씁쓸한 이면 75억 원. 수능 국어 '1타 강사'(1등 스타 강사) 유대종씨가 서민들은 평생 만져보지도 못할 돈을 배상금으로 낼 위기에 처했다. 유씨가 2019년 경쟁업체로 무단 이적해 메가스터디에 끼친 손해를 갚으라는 1심 선 재생하기 재생시간04:32 일본 여행 '모든 제한' 해제됐다…항공권 가격 천정부지 친절한 경제 시간입니다. 한지연 기자 나와 있습니다. 오늘(11일)부터 일본 자유 여행이 이제 가능해진다고요? 네, 2년 7개월 만이죠. 코로나 확산으로 2020년 3월 9일부터 중단됐던 일본 무비자 여행이 오늘부터 "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 "주택대출 안 갚겠다" 뿔난 서민들…무너지는 중국 부동산 중국 경제의 핵심 축인 부동산산업에 경고음이 울리고 있다. 오는 16일 개막하는 중국 공산당 전국대표대회(당대회)에서 지도부가 어떤 대응책을 내놓을지 주목된다. 10일 시장정보 업체 중국부동산정보(CRIC)에 따르면 ‘비속어 보도 경위’ 따졌던 대통령실, MBC에 “답 해라” 압박 대통령실이 윤석열 대통령의 ‘비속어 논란 보도’와 관련 수사를 받는 &lt;문화방송&gt;(MBC)을 향해 “기본적으로 공영방송이 책임을 다하고 있느냐는 질문에 대해 답이 필요하다”고 압박했다. 대통령실의 이재명 부대변인은 1 재생하기 재생시간02:19 농약 인터넷 판매 막았다더니..."점 하나 찍으면 바로 검색" 농약 불법유통을 막기만 해도 극단적 선택이 줄어든다고 합니다. 그래서 정부 차원에서 농약상 아닌 인터넷 판매를 막아놨는데요. 취재진이 인터넷으로 점 하나만 찍어 검색을 해보니 손쉽게 찾을 수 있었습니다. 이준엽 기자 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 치매, ○○ 무뎌지거나 코골이 심해지면 의심 치매 걱정된다면…가족과 가깝게, 친구는 많이 음주 후 전날 일 기억 안난다면 ‘경고등’ 흡연·비만·사회고립 등 위험인자 피해야 당신의 정신건강, 안녕하십니까 아침에 유난히 일어나기 힘들고, 작은 일에도 쉽게 화가 난 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업자 3분의 1” 택시 영업익도 배달업의 44%…택시 영업비용 56% 연료비 구자근 의원, 소상공인 운수업 실태분석…“택시 피해 심각” 택시 기사의 연간 매출이 3000만 원 수준으로 퀵·배달대행 서비스에 종사하는 소상공인과 비교해 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 재생하기 재생시간02:21 러, 키이우 등 우크라 전역에 보복 공격…우크라 “복수할 것” 러시아가 키이우 등 우크라이나 전역에 대대적 미사일 공격을 퍼부었습니다. 크림반도와 러시아 본토를 잇는 크림대교 폭발에 대한 보복 공격입니다. 70여명이 죽거나 다쳤는데 우크라이나는 복수를 다짐했고, 서방은 우크라이 [단독] 코레일 자회사 직원들 매일 반나절만 근무, 회사는 4년간 몰랐다 직원 6명 임의로 단축근무, 출퇴근 장부는 허위 작성 국민의힘 김학용 “公기관 근태 감시 시스템 마련 시급” 한국철도공사(코레일)의 자회사인 코레일테크 소속 일부 직원들이 4년 동안 마음대로 단축 근무를 해온 것으로 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 “3일만에 100억원 몰렸다” 한국인들 난리난 ‘이것’ 뭐길래 “네이버가 콕 찍으니 한국인들 덩달아 100억원 투자.” 네이버가 지난 4일 ‘미국판 당근마켓’으로 불리는 북미 최대 중고거래 플랫폼 ‘포시마크(Poshmark)’ 인수를 발표한 이후 네이버의 주가가 곤두박질쳤지만 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 지난해 국회 국정감사에 출석한 증인은 3284명, 이 가운데 부처 장관, 공공기관장 등 필수적으로 채택되는 기관 증인을 제외한 일반 증인은 119명이었다. 기업 대표 등 일반 증인들은 국감장에서 답변 기회를 얼마나 오늘부터 접종 시작 '코로나 2가 백신', 알고 맞자 오늘(11일)부터 코로나19 2가 백신을 활용한 동절기 추가접종이 시작된다. 추가접종에 사용되는 2가 백신은 기존 코로나19 바이러스(우한주)와 전 세계 코로나 재유행을 주도했던 오미크론 변이 BA.1을 표적으로 한 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 코스닥은 외국인 놀이터 Investment strategy 유료 왜 우리만?? Investment strategy [221011 투자시나리오] 에어라인 유료 [D] 북 핵.미사일 위협 고도화로 더욱 중요해진 한미일 연합훈련 프리미엄 조선 유료 '화웨이식 제재'라는 것 들어보셨나요? 미스터동 유료 국회, 대체 어떤 존재일까? 어른들의 사회생활 유료 동아시아 '휘두루는' 두루미 펭귄밀크 유료 대구 달서구 아파트 리스트 - 대구 실거주 수요의 집결지! 최고의 수요 입지!! 스마트튜브 부동산조사연구소 유료 강원도가 레고랜드 빚 안 갚는 진짜 이유 삼프로TV 하이라이트 유료 만원의행복! 한종목투자 48차 (10월7일)로 월천벌기, 십억벌기에 도전하자~ 수익투자 원칙에 따라 투자하세요~ 두배로 주식투자 아카데미 유료 트위치의 난: 망 사용료 내라고? 그럼 화질 깎지 뭐 효라클 일본 지하철 금지 소설 단호박 소설 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 헤럴드경제 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도 메르스 환자, 의심증상 상태서 테마파크 관광 ‘발칵’ - 이투데이 속보창 구독신청 RSS 경제 경제 정책 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 경제 정책 제주도 메르스 환자, 의심증상 상태서 테마파크 관광 ‘발칵’ 입력 2015-06-18 20:24 수정 2015-06-19 10:26 박엘리 기자																								ellee@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 ▲메르스 확진 판정을 받은 141번(42) 환자가 지난 5∼8일 3박 4일간 제주 여행 중 숙소로 이용했던 서귀포시 중문관광단지 신라호텔에 이달 초 설치된 발열 감지기가 18일 투숙객들의 발열 여부를 검사하고 있다. (연합뉴스)중동호흡기증후군(메르스) 확진 환자가 증상이 있는 상태로 제주 관광을 했던 사실이 뒤늦게 밝혀져 제주에 비상이 걸렸다.제주도 메르스 관리대책본부는 17일 오후 11시30분에 중앙대책본부로부터 141번 환자가 지난 5∼8일 자신의 부인과 아들, 다른 가족 등 일행 11명과 함께 제주관광을 했다는 내용을 통보받았다고 18일 밝혔다. 이 환자 일행은 5일 낮 12시15분 김포공항에서 출발하는 대한항공 KE1223편 비즈니스석을 이용해 제주에 도착했다.승합 렌터카 1대를 빌린 일행은 오후 5시께 서귀포시 중문관광단지 내 신라호텔에 도착했으며, 오후 6시께 호텔 앞 오성토속음식점에서 저녁식사를 한 뒤 숙소로 돌아갔다.다음날 아침은 호텔 뷔페에서, 점심은 호텔 수영장의 식당에서, 저녁은 제주시 해안도로의 삼다도횟집에서 각각 식사했다.여행 3일째인 7일에는 오전 11시께 호텔 뷔페에서 아침식사를 한 뒤 서귀포시 남원읍에 있는 코코몽에코파크를 방문했으며, 오후 3시께 제주시 조천읍에 있는 제주승마장에 갔다. 일행은 오후 5시께 호텔에 돌아와 다시 오성토속음식점에서 저녁식사를 했으나 141번 환자는 이 자리에 불참했다.이 환자는 신라호텔에서는 뷔페와 수영장, 식당 외에 다른 시설은 이용하지 않았다고 밝힌 것으로 알려졌다.이 환자 일행은 8일 오전 호텔 뷔페에서 아침식사를 한 뒤 오후 4시30분 제주공항에서 출발한 대한항공 KE1238편 비즈니스석을 이용해 귀경했다.중앙대책본부에 따르면 이 환자는 9일 직장에서 퇴근하고 나서 오후 4시께 발열과 기침 증세를 보여 11일까지 출근하지 않고 집에서 휴식을 취하다 12일 강남구보건소에 연락해 1차 검사 결과 양성 판정을 받았다. 다음날 국립보건연구원에서 2차 검사 결과 최종 확진 판정을 받았다.이 환자는 강남세브란스병원에서 메르스 검사를 받던 중 "내가 메르스에 걸렸다면 다 퍼뜨리고 다니겠다"며 소란을 부렸으며, 검사 결과도 기다리지 못하고 걸쇠를 부수고 진료소를 벗어나 택시를 타고 집에 돌아가기도 했다.이 환자는 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 감염됐을 것으로 추정하고 있다.현재까지 이 환자와 2ｍ 이내 거리에 있던 밀접접촉자는 신라호텔 직원 34명과 렌터카 업체 직원 1명 등 35명으로 파악됐으며, 이들은 자가격리됐다.대책본부는 이들 격리자 1인당 공무원 3명씩을 배치해 3교대로 상태를 살피고 있다. 또 다른 접촉자 64명은 모니터링 대상으로 관리하고 있다.원희룡 제주지사는 긴급 기자회견을 열어 "141번 환자와 함께 여행을 했던 나머지 11명에 대해서 지속적으로 관찰했지만 13일이 지난 현재까지 어떤 증상도 없다"며 "최대 잠복기인 22일이 아직 4일 정도 남아있지만 추가 감염 가능성이 그렇게 크다고 단정 지을 필요는 없다"고 말했다.제주 신라호텔은 이 같은 사실이 알려지자 이날 영업을 중단하고 투숙객들을 모두 돌려보냈다. #제주도 #메르스 #환자 #코코몽 #테마파크 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 03 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 04 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 05 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 경제 최신 뉴스 고용보험 가입자 증가 폭 10개월 만에 최소…20대 이하는 '마이너스' 전환 KDI "경기 회복세 약화...반도체ㆍ대중수출 부진 경기하방 위험↑" 이창용 한은 총재, 15일 피터슨 국제경제연구소서 ‘한국의 통화정책’ 강연 정부 "김장철·연말에 182억 상당 농축수산물 쿠폰 배포" 박일준 산업차관 "미래형 태양광으로 산업생태계 경쟁력 강화" 국감장 선 '적자 늪' 한전 "비장한 각오로 임하고 있다" 내년부터 전기차 배터리 등 ESS로 안전하게 재사용한다 국도 23호선 장흥 대덕~용산면ㆍ국도 3호선 거창~김천 구간 개통 [국감 핫이슈] "해양진흥공사, HMM 2025년 말 민영화 완료 정부 보고" [코로나19 현황] 국내 확진자 ‘총 2499만5246명’ 1만5476명 추가…추가 사망자 10명- 10월 11일 0시 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 모더나, 오미크론 대응 2가 백신 국내 접종 시작 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:45 20분지연 코스피 코스닥 1.다이나믹디자인 3,150 2.화천기계 1,350 3.베트남개발1 63 4.유니온머티리얼 325 5.금호전기 80 1.테라셈 22 2.코아스템 2,680 3.이노룰스 3,500 4.동국알앤에스 750 5.동양파일 530 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,362,000 -1.52% 이더리움 1,838,000 -2.8% 비트코인 캐시 158,900 -5.42% 리플 709.1 -6.44% 위믹스 2,401 -5.44% 에이다 567 -6.31% 이오스 1,485 -7.65% 트론 88.52 -0.65% 스텔라루멘 176.3 -3.45% 비트코인에스브이 68,150 -3.81% 체인링크 10,370 -5.3% 샌드박스 1,130 -5.52% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>제주도 메르스 환자 때문에 관광 불안 ‘증폭’…166명 자가격리 중 - 이투데이 속보창 구독신청 RSS 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 문화·라이프 일반 제주도 메르스 환자 때문에 관광 불안 ‘증폭’…166명 자가격리 중 입력 2015-06-19 18:52 온라인뉴스팀 																								online@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 메르스(MERS, 중동호흡기증후군) 감염 141번 환자 A씨(42. 서울)가 3박 4일 동안 제주관광을 한 것으로 불안감이 증폭되고 있다. A씨가 제주여행 기간 중 접촉했던 166명는 자가격리 등의 조치 중이다. 19일 제주도 메르스 관리대책본부는 제주 관광 후 중동호흡기증후군(메르스) 확진 판정을 받은 141번 환자와 접촉한 도내 관광시설 종사자 등 166명을 자가격리 또는 능동 감시하고 있다고 밝혔다.141번 환자와 접촉했던 자가격리 자는 2m 이내 거리에서 밀접 접촉한 것으로 판단된 85명이다. 제주도는 1인당 3명의 공무원을 배치해 24시간 상태를 파악하는 등 메르스 확산에 촉각을 기울이고 있는 모습이다. 관련 뉴스 ‘생방송 오늘저녁’ 메르스 예방, “이것이 제철”…복분자 vs 매실, 면역력 최강은 무엇? 메르스 안양 확진자 발생, 총 166명으로 늘어...전체 증가세는 주춤 국내 첫 메르스 확진자, 감염경로 궁금증 풀려 제주도는 메르스 환자 접촉자의 자가격리 기간을 접촉한 다음 날부터 14일(잠복기)에서 3일 연장하기로 했다. 5일 환자와 밀접접촉한 사람의 자가격리 기간은 오는 23일까지다.항공사·공항공사·코코몽에코파크·제주승마장 직원과 음식점 종사자 등 나머지 능동감시 대상자에 대한 모니터링 기간도 접촉일별로 1주일씩 연장한다.제주도 메르스 관리대책본부는 현재까지 이들 자가격리·능동감시 대상들이 메르스 관련 증세를 보이지 않고 있다고 전했다.원희룡 제주지사는 “메르스 잠복기를 14일로 보고 있지만 중앙대책본부 역학조사관, 질병관리본부 등과 의논해 더 엄격하게 관리한다는 차원에서 격리와 능동감시 기간을 늘렸다”며 “단 1%의 가능성이라 하더라도 철저하고 강도 높은 조치를 통해서 끝까지 청정 제주를 사수하겠다”고 밝혔다.이어 원 지사는 “질병관리본부의 판단과 역학조사팀의 조사에 의하면 그 환자가 제주에 있을 때 발병했을 가능성이 매우 낮다. 그 환자와 매우 밀접하게 생활했던 11명 모두 어떤 증세도 없는 것이 그것을 반증한다”고 덧붙였다. #메르스 #제주도메르스 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 03 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 04 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 05 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 문화·라이프 최신 뉴스 ‘결혼 6년차’ 오상진·김소영, ‘동상이몽2’ 합류…똑 닮은 4살 딸 최초 공개 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” MLB, 한국 유소년 발전 장학금 전달 ‘결혼지옥’ 외도 2번 저지른 79세 남편…“내연녀, 우수한 대학 성적 보기 좋더라” ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 PGA 2승 김주형, 세계랭킹 15위로 ‘껑충’ "여자나 남자나 카메라는 똑같이 무겁다"...여성 촬영감독이 말하는 책임감 [종합] 20세 김주형 PGA 2승… ‘골프황제’ 우즈도 넘었다 송강호·예지원 프랑스 ‘에투알 뒤 시네마’ 수상 20세 김주형 2승, 골프황제 우즈도 넘어섰다 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 모더나, 오미크론 대응 2가 백신 국내 접종 시작 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:45 20분지연 코스피 코스닥 1.다이나믹디자인 3,150 2.화천기계 1,350 3.베트남개발1 63 4.유니온머티리얼 325 5.금호전기 80 1.테라셈 22 2.코아스템 2,680 3.이노룰스 3,500 4.동국알앤에스 750 5.동양파일 530 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,362,000 -1.52% 이더리움 1,838,000 -2.8% 비트코인 캐시 158,900 -5.42% 리플 709.1 -6.44% 위믹스 2,401 -5.44% 에이다 567 -6.31% 이오스 1,485 -7.65% 트론 88.52 -0.65% 스텔라루멘 176.3 -3.45% 비트코인에스브이 68,150 -3.81% 체인링크 10,370 -5.3% 샌드박스 1,130 -5.52% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>제주도 메르스, 관광 발목 잡나?...'눈길' 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 제주도 메르스, 관광 발목 잡나?...'눈길' 글로벌모터즈 온타임즈 PDF지면보기 English 中文 유통경제 facebook twitter youtube 검색 메뉴 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 공유 1 제주도 메르스, 관광 발목 잡나?...'눈길' 이안 기자 입력2015-06-18 23:37 사진=YTN뉴스 제주도가 메르스 영향권에 진입하며 지역 내 관광업계가 초비상 상태다. 오늘(18일) 제주도 메르스 관리대책본부는 "중앙대책본부로부터 '141번 메르스 확진환자의 행적에 대한 조사 결과 6월 5일부터 8일까지 관광차 제주에 머물렀다'는 사실을 통보받음에 따라 제주여행 주요 동선에 대한 역학조사에 들어갔다"고 밝혔으며, 141번 환자는 42세의 남성이라고 밝혔다. 141번 환자는 지난 5일 오후 4시 아내, 아들 그리고 친구 부부 등 모두9명과 함께 제주국제공항에 도착한 뒤 렌터카를 이용, 중문 신라호텔에 도착한 것으로 확인됐고, 이어 3박4일동안 신라호텔에 머물면서 횟집 등에서 식사를 하고, 승마장 등 관광지를 이용한 것으로 나타났다. 한편 이 소식을 접한 네티즌들은 “제주 메르스, 충격이다”, “제주 메르스, 이젠 제주도까지..?”, “제주 메르스, 제주도에는 외국인 관광객도 많은데 결국 세계쩍 민폐국 되나..”, “제주 메르스, 이게 뭐야”, “제주 메르스, 세상에..”등의 반응을 보였다.이안 기자 ean001@ 케냐 뉴스 기본정보 무역 투자 비즈니스 여행 케냐 유류세 인상, 코로나 이후 경기 회복 발목 잡나 2021.09.30 P4G 정상회의 미리보기, 케냐 그린뉴딜 포럼 개최 2021.05.28 현지전문가 인터뷰로 알아보는 AfCFTA가 케냐 시장에 미치는 영향은? 2021.03.18 케냐의 디지털 서비스세 도입과 영향 2021.03.13 케냐, 코로나 상황에 따른 해외직접 투자현황 분석 및 시사점 2020.12.19 헤드라인 뉴스 사우디 원유 감산에 미‧EU "잊지 않겠다" 분노 시진핑, 덩샤오핑의 실용·탈이념 시대 종식 현대차, 인도서 4년만에 최고 순이익 달성 글로벌비즈 국제민간항공기구, '2050년까지 탄소중립' 합의...중국·인도, 기한 연장 요구 티센크루프, 녹색수소 환원철 시스템 구축에 2조7000억원 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 인니 정부, 프랑스 라팔제치고 KF-21 개발에 매달리나 美육군의 업그레이드된 M1A2 SEPv4 에이브람스 탱크 프로토타입 '유출' 낙탄사고 일으킨 현무 미사일…K-국방 신뢰성 해칠까 우려 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 [초점] ﻿美, ﻿中 반도체 수출 통제 글로벌 반도체 기업 피해 얼... 테슬라, 9월 중 사상최대 출하에도 수요 우려 커져 JP모건 CEO, 미국·세계경제 6~9개월 후 경기침체 경고 시카고 연은 총재 “정책금리 내년 4.5%이상 상승” 삼성전자, 인도서 갤럭시버즈2프로 펌웨어업데이트 이후 소음문제... Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 스타일난다, 中 온라인판매 채널 축소…중국 홈페이지 운영중단 2 아마존, 유럽 전기 밴‧트럭에 10억 유로 이상 투자 3 파세코, '바로온' 출시…카본매트 시장 진출 4 빠르게 가깝게…오프라인 플랫폼 내 손안에 품는 GS리테일 5 ‘ONLYONE 철학’ 담은 CJ대한통운, 男골프 후원 빛났다 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 유통경제 실시간 뉴스 20분전 롯데홈쇼핑 '대한민국 광클절' 개막부터 GS25 '버터맥주' 완판까지 뚝 떨어진 기온에…난방가전·국물요리 '불티' KT&amp;G, 미래에셋과 ‘신성장투자조합1호’ 결성…신사업 투자 본격화 1시간전 데일리호텔 특급호텔 프로모션부터 스파오 파자마 페스티벌까지 SPC그룹 섹터나인, 해피포인트 앱 캠페인부터 홈플러스 '신규 와인'까지 스타일난다, 中 온라인판매 채널 축소…중국 홈페이지 운영중단 8시간전 아마존, 유럽 전기 밴‧트럭에 10억 유로 이상 투자 신세계면세점, 국토부 '스마트물류센터' 인증 획득 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
+  </si>
+  <si>
+    <t>제주도 메르스, 확진환자 지난 5일부터 8일까지 관광 "서귀포 중문, 남원읍 등 돌아다녀" 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 제주도 메르스, 확진환자 지난 5일부터 8일까지 관광 "서귀포 중문, 남원읍 등 돌아다녀" 글로벌모터즈 온타임즈 PDF지면보기 English 中文 종합 facebook twitter youtube 검색 메뉴 정치 경제 사회 전국 인물동정·인사·부고 기타 공유 0 제주도 메르스, 확진환자 지난 5일부터 8일까지 관광 "서귀포 중문, 남원읍 등 돌아다녀" 박효진 기자 입력2015-06-18 15:16 제주 관광객이 메르스 확진 판정을 받았다는 소식이 전해져 충격을 주고 있다. 제주도는 지난 17일 중앙대책본부로부터 "지난 5일부터 8일까지 제주 관광에 나섰던 40대 남자 관광객이 '메르스 141번 확진 환자'로 확인됐다는 사실을 통보받았다"고 밝혔다. 이 관광객은 부인과 아들, 친구 부부 등과 함께 제주공항에 도착한 뒤 렌터카로 서귀포 중문으로 이동했다. 그 곳에 위치한 신라호텔에서 3박 4일 동안 머물며 호텔 뷔페, 횟집, 고깃집 등에서 식사를 하고 승마장과 코코몽에코파크 등 관광지를 방문한 것으로 파악됐다. 이 관광객은 지난달 27일 부친이 삼성서울병원에서 외래 정기검진을 받을 당시 동행했다가 14번 환자와 접촉한 것으로 추정되고 있다. 이 관광객은 관광 당시에는 메르스 의심 증상이 없었으나 서울로 돌아간 9일 발열과 기침 증세를 보였다. 이어 지난 13일 최종 확정 판정을 받았다. 제주도 메르스 소식에 누리꾼들은 "제주도 메르스, 제주도까지..." "제주도 메르스, 관광객들 줄어들겠다" "제주도 메르스, 이젠 지역명이 의미가 없다' 등의 반응을 보이고 있다.박효진 기자 phj001@ 쿠웨이트 뉴스 기본정보 무역 투자 비즈니스 여행 현지 바이어에게 듣는 쿠웨이트 건설장비 시장 동향 2021.09.09 쿠웨이트 법상 코로나 관련 법적 구제수단 2021.07.15 2021년 쿠웨이트 경제 동향 2021.05.28 쿠웨이트 법인 설립 가이드 및 세무 혜택 안내 2020.11.24 쿠웨이트 FDI, 중소기업 직접투자진출 전략 2020.11.23 헤드라인 뉴스 사우디 원유 감산에 미‧EU "잊지 않겠다" 분노 시진핑, 덩샤오핑의 실용·탈이념 시대 종식 현대차, 인도서 4년만에 최고 순이익 달성 글로벌비즈 국제민간항공기구, '2050년까지 탄소중립' 합의...중국·인도, 기한 연장 요구 티센크루프, 녹색수소 환원철 시스템 구축에 2조7000억원 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 인니 정부, 프랑스 라팔제치고 KF-21 개발에 매달리나 美육군의 업그레이드된 M1A2 SEPv4 에이브람스 탱크 프로토타입 '유출' 낙탄사고 일으킨 현무 미사일…K-국방 신뢰성 해칠까 우려 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 [초점] ﻿美, ﻿中 반도체 수출 통제 글로벌 반도체 기업 피해 얼... 테슬라, 9월 중 사상최대 출하에도 수요 우려 커져 JP모건 CEO, 미국·세계경제 6~9개월 후 경기침체 경고 시카고 연은 총재 “정책금리 내년 4.5%이상 상승” 삼성전자, 인도서 갤럭시버즈2프로 펌웨어업데이트 이후 소음문제... Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 한글날 비 주의보 기상청 전국 일기예보 2 '생방송투데이' 먹킷리스트 김치삼겹 갈레트, 맛있GO 6500원 14첩반상 3 2TV 저녁 생생정보 고수의부엌 갈비곱창구이 4 포항에 이는 영화 바람, 문신구 감독의 '2퍼센트' 5 이준석, 탈당은 없다…재기 전략은 '고심' 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 종합 실시간 뉴스 45분전 개막 첫날 6만 명 방문… 장성 황룡강 가을꽃축제 '대박 예감' 함평군, ‘콩 융복합단지 조성사업’ 공모 선정 나주시, 영산강에서 ‘한국 철인 3종경기’ 첫 개최 1시간전 외교부 조정기획관 황소진 등 안산시, 제3회 안산 김홍도 축제 4년 만에 시민 찾아간다 이숙자 서울시의원, 내방역 8번 출입구 에스컬레이터 2대 신설 추진 2시간전 새마을지도자 안산시협의회, 사랑의 헌혈 생명나눔 캠페인 안산시, 국가안전대진단 추진상황 중간보고회 개최 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
+  </si>
+  <si>
+    <t>[포토] 제주도 관광에도 '마스크는 필수' - 이투데이 속보창 구독신청 RSS 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 문화·라이프 여행 [포토] 제주도 관광에도 '마스크는 필수' 입력 2015-06-04 15:50 온라인뉴스팀 																								online@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 (사진=뉴시스)메르스(중동호흡기증후군, MERS) 공포가 커지고 있는 4일 오후 제주 서귀포시 성산일출봉 앞에서 마스크를 쓴 관광객들이 지나가고 있다. #제주도 #메르스 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 03 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 04 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 05 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 문화·라이프 최신 뉴스 ‘결혼 6년차’ 오상진·김소영, ‘동상이몽2’ 합류…똑 닮은 4살 딸 최초 공개 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” MLB, 한국 유소년 발전 장학금 전달 ‘결혼지옥’ 외도 2번 저지른 79세 남편…“내연녀, 우수한 대학 성적 보기 좋더라” ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 PGA 2승 김주형, 세계랭킹 15위로 ‘껑충’ "여자나 남자나 카메라는 똑같이 무겁다"...여성 촬영감독이 말하는 책임감 [종합] 20세 김주형 PGA 2승… ‘골프황제’ 우즈도 넘었다 송강호·예지원 프랑스 ‘에투알 뒤 시네마’ 수상 20세 김주형 2승, 골프황제 우즈도 넘어섰다 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 모더나, 오미크론 대응 2가 백신 국내 접종 시작 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:45 20분지연 코스피 코스닥 1.다이나믹디자인 3,150 2.화천기계 1,350 3.베트남개발1 63 4.유니온머티리얼 325 5.금호전기 80 1.테라셈 22 2.코아스템 2,680 3.이노룰스 3,500 4.동국알앤에스 750 5.동양파일 530 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,362,000 -1.52% 이더리움 1,838,000 -2.8% 비트코인 캐시 158,900 -5.42% 리플 709.1 -6.44% 위믹스 2,401 -5.44% 에이다 567 -6.31% 이오스 1,485 -7.65% 트론 88.52 -0.65% 스텔라루멘 176.3 -3.45% 비트코인에스브이 68,150 -3.81% 체인링크 10,370 -5.3% 샌드박스 1,130 -5.52% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>[메르스] 제주도 관광 산업 강타… 관광 포기 급증 - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 사건/사고 [메르스] 제주도 관광 산업 강타… 관광 포기 급증 입력 2015-06-04 18:54 온라인뉴스팀 																								online@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 중동호흡기증후군(메르스) 확산에 대한 불안감으로 제주도를 방문하려던 관광객의 예약 취소가 잇따르고 있다.제주도관광협회는 1~3일 현재까지 중국인 관광객 1683명이 제주 관광을 포기한 것으로 잠정 집계됐다고 4일 밝혔다. 날짜별로는 1일 123명, 2일 1138명, 3일 1683명으로 점차 증가세에 있다. 관광협회는 이에 따라 집계가 마무리되지 않은 4일에도 1000명이 넘는 중국인 관광객들이 예약을 취소할 것으로 전망했다. 중국인 손님을 위주로 받는 제주시의 한 특급호텔도 하루에 객실 예약 9건이 잇따라 취소됐으며 도내 호텔·리조트마다 단체 예약 취소 문의가 잇따르고 있다.같은 기간 일본인 관광객도 7명이 제주도로 오려던 예약을 취소하는 등 중국 외 다른 나라의 관광객들도 제주 관광을 취소하고 있다. 관련 뉴스 [메르스] 대치동 유명 학원, “메르스 감염 학생 없어”… 루머 유포자 고소 서울 메르스 휴업 학교 60곳으로 늘어… 수학여행도 취소 [6월 증시 변수]메르스에 감염된 국내 증시, '업종 등락' 사스와 데자뷰 또 지역 교육청의 수학여행과 체험학습 전면 금지나 자제 조치, 국내 개별 관광객들의 불안감으로 국내 관광객 300여명도 같은 기간 제주 관광을 포기하는 등 내국인 관광시장도 당분간 얼어붙을 전망이다.강원도교육청의 수학여행과 체험학습 전면 금지 조치로 고등학교 학생 190여명이 이달 제주에서 즐기려던 수학여행을 11월로 연기했고 충남 초등학교 학생 60명도 수학여행을 취소했다. 서울 초등학교 학생 36명도 3일 수학여행을 취소했다. 경기·서울 교육청의 수학여행 자제권고로 제주에서 진행될 예정인 수학여행과 체험학습 대부분이 사실상 취소·연기된다. #메르스 #제주도 #관광 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 03 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 04 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 05 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 사회 최신 뉴스 2700억대 분식회계 대한전선 투자자…대법 “주가하락 배상책임 제한해야” [부고] 박찬수(한국거래소 파생상품시장본부 상무) 씨 부친상 [포토] 코로나19 2가 백신, 동절기 추가접종 첫날 서울시, ‘친환경 보일러’ 보조금 문턱 낮춰 지원 대상 확대 [부고] 성인모(한국금융투자협회 수석전무) 씨 부친상 [국감 핫이슈] 중학교 교실 10곳 중 4곳은 '과밀학급'…"꾸준한 재정투자 필수" 영등포구, 집중호우 피해 본 구민에 재산세 감면 나선다 난민 이의신청 절차, 더 공정해진다…법무부, 관련 지침 제정‧시행 서울투자청, '국제인수합병(M&amp;A)' 설명회…"벤처기업 출구전략 모색" 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 모더나, 오미크론 대응 2가 백신 국내 접종 시작 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:45 20분지연 코스피 코스닥 1.다이나믹디자인 3,150 2.화천기계 1,350 3.베트남개발1 63 4.유니온머티리얼 325 5.금호전기 80 1.테라셈 22 2.코아스템 2,680 3.이노룰스 3,500 4.동국알앤에스 750 5.동양파일 530 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,362,000 -1.52% 이더리움 1,838,000 -2.8% 비트코인 캐시 158,900 -5.42% 리플 709.1 -6.44% 위믹스 2,401 -5.44% 에이다 567 -6.31% 이오스 1,485 -7.65% 트론 88.52 -0.65% 스텔라루멘 176.3 -3.45% 비트코인에스브이 68,150 -3.81% 체인링크 10,370 -5.3% 샌드박스 1,130 -5.52% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
   </si>
 </sst>
 </file>
@@ -461,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -493,9 +1006,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -505,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -516,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -527,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -538,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -549,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -560,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -570,6 +1080,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -578,19 +1091,16 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -598,10 +1108,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -609,10 +1119,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -622,9 +1132,6 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
@@ -634,7 +1141,1035 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
         <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
